--- a/N=3/MNB/data/tweet_bersih_100.xlsx
+++ b/N=3/MNB/data/tweet_bersih_100.xlsx
@@ -22,2719 +22,2719 @@
     <t>label</t>
   </si>
   <si>
-    <t>buka visi misi begitu pukau sehingga buat presiden asa jadi bebek visimisi</t>
-  </si>
-  <si>
-    <t>lebih baik pakai teknologi lama kaya negara indonesia keluar indonesia</t>
-  </si>
-  <si>
-    <t>kok arguing without menang</t>
-  </si>
-  <si>
-    <t>jalan politik politik satu bukan politik pecah belah salah prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>juga fans lihat tampil serang hahaha</t>
-  </si>
-  <si>
-    <t>lemah tidak punya uang pak ngomongin tahan negara apa nyindir anak twitter nih optimisindo</t>
-  </si>
-  <si>
-    <t>si vis pacem belum bukan mantra dukun arti kalau damai siap perang top p</t>
-  </si>
-  <si>
-    <t>apa bilang pak memang benar mau bukti di ejek asing v i r a l k a n prabow</t>
-  </si>
-  <si>
-    <t>bidang perintah prabowo-sandi bahwa lembaga perintah kuat baru cipta negara kuat</t>
-  </si>
-  <si>
-    <t>percaya debat dukung ini sama seru jaman debat dukung choi taek kim junghwan</t>
-  </si>
-  <si>
-    <t>bidang hubung internasional anut prinsip kawan terlalu sedikit musuh terlalu banyak prabowo</t>
-  </si>
-  <si>
-    <t>temen pro dia bilang suka lihat mimik muka saat tiap bicara debat</t>
-  </si>
-  <si>
-    <t>apa sampai p soal e-government e-procurement ini pernah sebut tahu lalu gagal total tuh p</t>
-  </si>
-  <si>
-    <t>pak ngomong gebu bukan arti kasar galak pak ngomong pelan bukan arti lembek</t>
-  </si>
-  <si>
-    <t>mas malam bagus sekali debat serang tepat jantung tahan akhir muter jawab radar</t>
-  </si>
-  <si>
-    <t>lebih tni tni bapak pecat udah jangan</t>
-  </si>
-  <si>
-    <t>rawan kopi politik syndicate kps pro capres-cawapres - ma ruf amin bentuk tim siber tangkal</t>
-  </si>
-  <si>
-    <t>debat malam bukti sama emosional emosi pikir selamat</t>
-  </si>
-  <si>
-    <t>pak percaya mampu tni jaga daulat nkri dengan dukung alutsista baik</t>
-  </si>
-  <si>
-    <t>turut akhir marah audiens tidak kontrol emosi</t>
-  </si>
-  <si>
-    <t>pak mungkin rasa situasi perang kali</t>
-  </si>
-  <si>
-    <t>politik luar negeri perintah soal rohingya omong doang ada tuh repatriasi atas peran lebih banyak peran</t>
-  </si>
-  <si>
-    <t>lawan tuduh kubu belah pak pro hadap khilafah ingin ganti pancasila dengan tagar prabowo</t>
-  </si>
-  <si>
-    <t>pelosok desa sampang madura jatim rakyat gotong royong buat apik pak mas dukung yuk</t>
-  </si>
-  <si>
-    <t>kok berani bilang jadi mediator konflik afghanistan kayak cuma kunjung doang sana n foto sholat</t>
-  </si>
-  <si>
-    <t>pak percaya sama tni iya pak percaya saya percaya nya sama orang suka ngomong bayar</t>
-  </si>
-  <si>
-    <t>cuma orang dongo jangan masih tanya nasionalisme orang jenderal sumpah prajurit bawa mati</t>
-  </si>
-  <si>
-    <t>debat kali turut pak all keluar performa maksimal bro jokowi kasi tunduk terus kurang caca diri</t>
-  </si>
-  <si>
-    <t>menang telak sibuk molbek 2in akun sipp lah sing penting semua semangat prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>bangun sistem layan masyarakat untuk cegah korupsi bocor</t>
-  </si>
-  <si>
-    <t>woy asal bapak senang banyak tim lho menteri afkiran selalu kasih data salah sama kamu</t>
-  </si>
-  <si>
-    <t>malam dukung pak bisa tidur nyenyak akan ucap selamat tinggal pak jokowi hahaha</t>
-  </si>
-  <si>
-    <t>memang tarung pilpres sekali tentang cara pikir baru lawan cara pikir lama moga ini tarung akhir</t>
-  </si>
-  <si>
-    <t>moderator sampai haru dengar papar pak kena apa perlu cepat teknologi informasi kalau kaya ambil negara</t>
-  </si>
-  <si>
-    <t>aku rantai roda kuasa putus dia sahabat putus</t>
-  </si>
-  <si>
-    <t>henti tv lihat debat sebentar terus teriak supir bus sorak sorai ikut</t>
-  </si>
-  <si>
-    <t>hahaha closing sempurna pak gila sih nyata receh beliau yakin optimis april</t>
-  </si>
-  <si>
-    <t>ingin ganti pancasila republik ada banyak yang ingin ganti presiden jangan kok santai</t>
-  </si>
-  <si>
-    <t>si bilang bela pancasila dukung curut khilafah hti juga hapal pancasila</t>
-  </si>
-  <si>
-    <t>poin besar kalah tahana dukung ngetawain nasionalisme mas prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>saya percaya kuat pimpin ada banyak diri bapak topang tahu lebih</t>
-  </si>
-  <si>
-    <t>nasionalisme nampak sangat kental debat pilpres tuju bandara kelola asing berdikari</t>
-  </si>
-  <si>
-    <t>pak tampil malam buat makin bangga kamu lihat sangat peduli nkri</t>
-  </si>
-  <si>
-    <t>ini tni pak pecat debatpilpres 2019 https t co usdobwdlba</t>
-  </si>
-  <si>
-    <t>debat calon presiden malam pak tampil tenang visioner matang gulir gagas cara cemerlang</t>
-  </si>
-  <si>
-    <t>sekarang gilir kpps nya tidak netral makin benar curang dapat kalah</t>
-  </si>
-  <si>
-    <t>calon presiden ajak semua pihak politik negara baik saling tiada</t>
-  </si>
-  <si>
-    <t>malam debat pilpres ke tampil pak patut apresiasi beliau lebih kritis ofensif</t>
-  </si>
-  <si>
-    <t>tahan indonesia sangat lemah jauh yang harap kita punya uang prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>selesai selamat pak cinta rindu cinta rindu cinta rindu</t>
-  </si>
-  <si>
-    <t>jawab skak mat mas hadap kartu nya si jokowi apa punya banyak kartu kalau kaya keluar negeri</t>
-  </si>
-  <si>
-    <t>menang telak sih gilee bantai cara telak debat gilak brutal malam</t>
-  </si>
-  <si>
-    <t>duh pak baik banget kalau bicara bahasa inggris arti tahu kalau pak bisa bahasa inggris</t>
-  </si>
-  <si>
-    <t>percaya tni sedang sipil aku sangat percaya tni pemerintahandilan</t>
-  </si>
-  <si>
-    <t>pak kalau diplomasi jadi nice guy pak faham betul diplomasi batas ramah tamah</t>
-  </si>
-  <si>
-    <t>wongsai kok ngajak perang lama selalu ajak maju indonesia si mental ciken selalu lihat keburu</t>
-  </si>
-  <si>
-    <t>bagai minoritas yakin pak bang dapat mandat rakyat kuat rasa satu</t>
-  </si>
-  <si>
-    <t>salam presiden insyallah debat malam bapak pukau salam sayang rakyat pak bagus</t>
-  </si>
-  <si>
-    <t>siapa calon presiden tampil lebih baik debatpilpres 2019 malam pemilunesia debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>lihat kalian fitnah anti islam beliau bangun hai universitas islam international indonesia</t>
-  </si>
-  <si>
-    <t>malam tamat sepakat retwet 01caprespendustaabadi</t>
-  </si>
-  <si>
-    <t>pak kalau badan gemuk tinggi bapak baik kalau pake setel jas jangan model double breastest</t>
-  </si>
-  <si>
-    <t>tegas sekali presiden malam jangan kasih kendor jenderal idola tunjuk dunia prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>clossing pak debat kali sangat luarbiasa tuju sama bapak sahabat memang nomer</t>
-  </si>
-  <si>
-    <t>suka banget video pak memang juara terimakasihistriku https t co nm5n7irsie</t>
-  </si>
-  <si>
-    <t>bukti indonesia lebih maju bawah pimpin presiden menangjokowilagi</t>
-  </si>
-  <si>
-    <t>butuh pimpin optimis pak bukan orang pesimis marah</t>
-  </si>
-  <si>
-    <t>bareng pak jadi indonesia lebih maju selalu optimis kerja bangun bangsa</t>
-  </si>
-  <si>
-    <t>mewek curhat pak lihat tuh pak lama 4 5 tahu tuduh pki beliau biasa</t>
-  </si>
-  <si>
-    <t>prediksi telah debat empat non-prabowo pak bang popular vote jaga baik tps</t>
-  </si>
-  <si>
-    <t>masalah kondisi negara sekarang suatu distrust elite perintah</t>
-  </si>
-  <si>
-    <t>sial nyata cuma orang boneka prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>orang indonesia miskin ikan beberapa karung beras mereka vote saya</t>
-  </si>
-  <si>
-    <t>sangat kagum sikap ramah dukung prabowopresidenke 2019 https t co 3fzmdf48el</t>
-  </si>
-  <si>
-    <t>debat lebih panjang lagi jadi showcase atas hasil progress perintah</t>
-  </si>
-  <si>
-    <t>sombong klaim diri lebih tni para tni mana nyata angkuh emosional</t>
-  </si>
-  <si>
-    <t>jokowi intelijen strategis kata tahun depan akan invasi negara</t>
-  </si>
-  <si>
-    <t>pemerintahandilan perintah bas digital jadi prestasi pak tengak revolusi industri 4 0</t>
-  </si>
-  <si>
-    <t>pak tahan indonesia terlalu lemah iya bagaimana pak kalau chat hei sama mantan jangan langsung mikir besok</t>
-  </si>
-  <si>
-    <t>kini tegas tentang diri khalifah sama itu kabar buruk hti dukung</t>
-  </si>
-  <si>
-    <t>pak langsung ban klarifikasi tuduh kubu tahana tuduh khilafah</t>
-  </si>
-  <si>
-    <t>bismillah pak sukses debat mohon maaf tidak tani saya janji anak muda</t>
-  </si>
-  <si>
-    <t>sorot debatpilpres 2019 kali presiden sangat jelas masa kini masa depan realita solusi masalah</t>
-  </si>
-  <si>
-    <t>pak pidato bicara bahasa inggris baik benar teks forum internasional</t>
-  </si>
-  <si>
-    <t>indonesia syukur hasil survei lembaga independen indikasi menang telak menangjokowilagi</t>
-  </si>
-  <si>
-    <t>yang golput besok kalau udah kelar pilpres terus udah jalan perintah ada salah jangan nyalahin perintah</t>
-  </si>
-  <si>
-    <t>kecewa larang perintah kampanye akbar dalam stadion pakansari bangun rakyat ujar</t>
-  </si>
-  <si>
-    <t>debat sikap kok sama persis sikap dukung khilafah selalu sebar takut</t>
-  </si>
-  <si>
-    <t>jawab telak pak hadap kartu penting apa punya banyak kartu</t>
-  </si>
-  <si>
-    <t>benteng nkri negara belanda simpan dokumentasi selamat sandra papua prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>bukti bangun indonesia maju adab lebih baik menangjokowilagi</t>
-  </si>
-  <si>
-    <t>simak sebar doauntukprabowosandi menang pilpres hampir pasti laju</t>
-  </si>
-  <si>
-    <t>bagai muslim senang tulis yuk baca guys yang muslim baik dukung</t>
-  </si>
-  <si>
-    <t>cakep nih debat pintar ada mal layan publik harap cepat layan bisa beri usaha</t>
-  </si>
-  <si>
-    <t>aman semua pak kendali pak radar cukup pak budaya indonesia asal bapak senang jadi mohon kaji tahan sangat penting</t>
-  </si>
-  <si>
-    <t>jauh kelas banding jokowi barusan kan gaes presiden 2019-2024 sepakat retwet 19harilagicoblo</t>
-  </si>
-  <si>
-    <t>pak jokowi sering tunduk lemas lihat papar jenderal turut tuipers apa pikir jokowi</t>
-  </si>
-  <si>
-    <t>masyaallah speechless rp juta sumbang buruh migran tki tkw - sandi cibinong</t>
-  </si>
-  <si>
-    <t>sandi juang seluruh rakyat indonesia bentuk perintah bersih tegas sama</t>
-  </si>
-  <si>
-    <t>tuju sekali pak selesai soal korupsi memang benah sistem bisa potong rantai</t>
-  </si>
-  <si>
-    <t>tuju pas pak bilang ngajak toleransi dalam jalan politik politik satu</t>
-  </si>
-  <si>
-    <t>akhir rezim guna pasal karet guna bungkam lawan politik sama - sandi</t>
-  </si>
-  <si>
-    <t>pak tegas penting maju teknologi transparansi efektitivitas efisiensi perintah</t>
-  </si>
-  <si>
-    <t>sekian lama pecat tni laku culi mungkin simpan dendam</t>
-  </si>
-  <si>
-    <t>benci bilang marah kalimat bapak bilang ada sedih kalimat pak</t>
-  </si>
-  <si>
-    <t>tenang kalau sampe perang saya yakin pak udah mikirin musti bagaimana akan diam lah sistem tahan</t>
-  </si>
-  <si>
-    <t>percaya pak pancasila-is tuduh khilafah saya juga percaya pak pancasilais</t>
-  </si>
-  <si>
-    <t>presiden tukar negara kembali normal sesuai pancasila cara pilih sandi</t>
-  </si>
-  <si>
-    <t>lepas substansi debat khawatir sikap emosional pak cenderung labil merespon suatu masalah</t>
-  </si>
-  <si>
-    <t>optimisindonesiamaju kalau tetap percaya sama orang walau sering tuduh itu hehe</t>
-  </si>
-  <si>
-    <t>cuma analis bodoh menganalisa keyword https t co latbu 4q1xn</t>
-  </si>
-  <si>
-    <t>do a tulus orang ibu gendong anak rupa fans berat bapak jadi presiden ri</t>
-  </si>
-  <si>
-    <t>dong pak sangat pro ekonomi digital pemerintahandilan https t co heqqtohzri</t>
-  </si>
-  <si>
-    <t>aura menang mas makin lihat jelas kalau mas menang apa akan kamu laku sobat tuips jokowid</t>
-  </si>
-  <si>
-    <t>mantep banget nih ustad tak perlu ganti presiden cukup pilih pak di tps</t>
-  </si>
-  <si>
-    <t>kalau mau jadi nice guy jadi mediator monggo kalau juang indonesia hormat indonesia kuat</t>
-  </si>
-  <si>
-    <t>pak percaya pbb peran indonesia selesai kasus rohingya datang tiba</t>
-  </si>
-  <si>
-    <t>lagi bohong diri sendiri rakyat soal radar tahan indonesia kuat</t>
-  </si>
-  <si>
-    <t>pak kaya ken banget perang gabung twitter jangan pak hampir tiap hari perang optimisindonesiamaju</t>
-  </si>
-  <si>
-    <t>bukan tidak percaya tni ini tni taruh nyawa di tni lebih tni banyak tni</t>
-  </si>
-  <si>
-    <t>bukan figur pimpin sempurna kalau lihat debat ya lebih yakin rival tahu mau laku</t>
-  </si>
-  <si>
-    <t>tampil mas debat calon presiden malam kejut beda debat</t>
-  </si>
-  <si>
-    <t>tampil lebih semangat tegas rada ofensif justru lihat sangat natural cerdas keluar</t>
-  </si>
-  <si>
-    <t>apa cepat kalau kaya alir luar negeri lebih baik pakai teknologi lama kaya indonesia</t>
-  </si>
-  <si>
-    <t>seluruh rakyat siap bangun indonesia sama menangjokowilagi</t>
-  </si>
-  <si>
-    <t>jangan uang indonesia lari keluar negeri kata iya pak yang link ya</t>
-  </si>
-  <si>
-    <t>biasa cuma lantang retorika kata dulu banyak panglima lapor asal bapak senang</t>
-  </si>
-  <si>
-    <t>real leader lihat jangan closing statement jadi ngikut begitu orang leader</t>
-  </si>
-  <si>
-    <t>visi misi tawar baru baharu yang lebih visioner lebih detail pemerintahandilan</t>
-  </si>
-  <si>
-    <t>detik detik marah marah di tertawa debatkeempatpilpres 2019 jokowimengubahsemua 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>allah maha dengar simpuh hadap mohon pak bang beri mudah</t>
-  </si>
-  <si>
-    <t>ucap orang prajurit tak ragu tulus prabowo</t>
-  </si>
-  <si>
-    <t>satu tak lebih megalomaniak puja diri sendiri anggap diri paling hebat tni</t>
-  </si>
-  <si>
-    <t>sistem jalur mana bagai izin jadi tempat ide luar biasa pakde ayah</t>
-  </si>
-  <si>
-    <t>soal ungsi rohingya ada tuh peran jelas perintah pulang ungsi cox bazar wah bohong</t>
-  </si>
-  <si>
-    <t>keluarga bisa ajar bagaimana cara sabar terus jalan selalu bangkit</t>
-  </si>
-  <si>
-    <t>bukan emosi bos tegas tu nama nya jelas kan hadap orang buta hati nya</t>
-  </si>
-  <si>
-    <t>woi menang telak santai dikit ngapain sibuk nampolin cebong dongo biar halu alam</t>
-  </si>
-  <si>
-    <t>tahan lemah kalian ketawa sila kalian ketawa dukung memang nyata goblok dungu</t>
-  </si>
-  <si>
-    <t>pak kalian ketawa pak</t>
-  </si>
-  <si>
-    <t>biar rakyat tentu pilih baik bangsa negara prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>rap bilang lebih tni banding tni macam hina hadap tni dendam pribadi</t>
-  </si>
-  <si>
-    <t>orang adalah njenengan sendiri pak sama debatasyikjokowi karnajokowi https t co khmy 7knh85</t>
-  </si>
-  <si>
-    <t>mas janji tingkat rasio pajak jadi gaji pns akan naik tagih janji bapak</t>
-  </si>
-  <si>
-    <t>makanya jokowi bedah tuh buku undercover kampus 2019gantipresiden https t co 4udrafliab</t>
-  </si>
-  <si>
-    <t>kutip benar persen apbn singapura belanja militer https t co 8roepzmp87</t>
-  </si>
-  <si>
-    <t>bahasa inggris p keren indonesia pandang top dunia quote-nya bobot</t>
-  </si>
-  <si>
-    <t>mas puas malam dengan aura tampil pak kan garang tegas berani</t>
-  </si>
-  <si>
-    <t>kembali jaya indonesia kawal bapak tuju istana negara prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>jawab pak tanggap tahan rapuh yang sipil sangat percaya tni</t>
-  </si>
-  <si>
-    <t>bismillah pak insaallah allah mudah debat hari semangat sukses pak https t co xer 1pigoxr</t>
-  </si>
-  <si>
-    <t>kata korupsi indonesia ada taraf parah kalau sakit sudah stadium</t>
-  </si>
-  <si>
-    <t>telak momen blejekin si doi pak dhe keren debatkeempatpilpres 2019 jokowimengubahsemua 01dila</t>
-  </si>
-  <si>
-    <t>tertawa puas takut marah larang ingat pilih biar bebas tertawa batas</t>
-  </si>
-  <si>
-    <t>nilai besar jumlah duduk muslim jadi salah satu kuat diplomasi indonesia</t>
-  </si>
-  <si>
-    <t>pak tekan soal kecil anggar tahan pak</t>
-  </si>
-  <si>
-    <t>kalau sederhana bunyi jadi besar pilih tolol https t co 5jtydtkg5c</t>
-  </si>
-  <si>
-    <t>pak tinggal panggung kepala tegak laksana ayam jago habis menang tarung keren</t>
-  </si>
-  <si>
-    <t>alhamdulillah sudah tiba hotel shangri-la siap dukung pak debat empat pilpres bismilllah</t>
-  </si>
-  <si>
-    <t>pak kalau benar pikir bapak soal tahan aman mohon maaf bapak layak ganti</t>
-  </si>
-  <si>
-    <t>debat malam final sedikit ragu kepada orang subianto ideologi pancasila</t>
-  </si>
-  <si>
-    <t>sila puas bangga jadi negara mediator international sindir banyak hutang</t>
-  </si>
-  <si>
-    <t>uno jika menang 1 5 pdb alokasi sektor hankam https t co 8toa5jljcg</t>
-  </si>
-  <si>
-    <t>kayak kalau jadi presiden baru tahun udah perang deh dilikirin perang mulu</t>
-  </si>
-  <si>
-    <t>good bye pak sandi beres semua laku scaling makmur</t>
-  </si>
-  <si>
-    <t>pak kata nasionalis tinggi pak usah swis indonesia lebih tahun masa saham di nasional</t>
-  </si>
-  <si>
-    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co phy 5t8pclm</t>
-  </si>
-  <si>
-    <t>bukan apa dari sudut kota kecil jogjakarta punya semangat menang prabowo-sandi</t>
-  </si>
-  <si>
-    <t>pemerintahandilan perintah percaya tni mantap jokowilagi https t co ws2xjlvdz9</t>
-  </si>
-  <si>
-    <t>sejak dukung tahun tetap dukung menang ya tetap ngamen ada imbal proyek</t>
-  </si>
-  <si>
-    <t>mantap makin yakin indonesia menang kami pancasila ideologi final kami tekad mempertahankanya</t>
-  </si>
-  <si>
-    <t>jiwa sangat nasionalis you pak debat malam sungguh sangat luar biasa prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>ngajak maju ngajak perang jadi clear gaes siapa harus pilih pemerintahandilan</t>
-  </si>
-  <si>
-    <t>sila kalian ketawa kaya bilang bocor lalu sekarang soal tahan kalian ketawa</t>
-  </si>
-  <si>
-    <t>calon presiden nilai unggul debat calon presiden klaim kuasa soal kait tema debat</t>
-  </si>
-  <si>
-    <t>https t co mmjebjk 6md pemerintahandilan calon wakil presiden ma ruf amin kata tampil sesuai harap</t>
-  </si>
-  <si>
-    <t>deklarasi rawan nasution saudara deklarasi mutk dukung pasang prabowo-sandi pilpres alhamdulillah</t>
-  </si>
-  <si>
-    <t>manusia ada kubu tuh selalu akal sehat</t>
-  </si>
-  <si>
-    <t>sekali rendah tni bilang lebih tni tni cukk apa maksud</t>
-  </si>
-  <si>
-    <t>prabowo sandi nyerang bang beliau bicara jujur otentik pk poles apa bisa</t>
-  </si>
-  <si>
-    <t>pak korupsi turun sistem baik bagus pak pemerintahandilan</t>
-  </si>
-  <si>
-    <t>buzzer bayar siap ikut polling nih rakyat mau lawan lihat siapa menang prabowo</t>
-  </si>
-  <si>
-    <t>rada ijid ningali bobotoh deklarasi dukung paslon rek deklarasi milih</t>
-  </si>
-  <si>
-    <t>ujung debat calon presiden pak hasil jinak emosi satu kalimat santun sahabat tidak pernah putus</t>
-  </si>
-  <si>
-    <t>kuis pilpres calon presiden mana suka joged telanjang dada muka umum https t co jn0ui9jd3s c7 -</t>
-  </si>
-  <si>
-    <t>visi misi kok kayak orang surup promosi kok marah</t>
-  </si>
-  <si>
-    <t>ni adek bagi kelompok radikal mau ganti pancasila wajah jangan udah rem dukung sandi</t>
-  </si>
-  <si>
-    <t>imho pak lebih baik tak dalam debat kali</t>
-  </si>
-  <si>
-    <t>malam bungkam juga dukung tidak ada ria sorak gembira</t>
-  </si>
-  <si>
-    <t>tahan aman indonesia harga mati jenderal kalau dunia internasional lihat balik</t>
-  </si>
-  <si>
-    <t>tuh bingung jadi pak prabowo masak balik jadul makin yakin kalau pak jangan 01indonesiamaju</t>
-  </si>
-  <si>
-    <t>serentak kompak naik jokowidiambangkekalahan kita sambut pimpin baru - sandi</t>
-  </si>
-  <si>
-    <t>pak lebih percaya teknologi lama https t co nfiq 982l67</t>
-  </si>
-  <si>
-    <t>kuat tahan sangat rapuh lemah bukan salah pak tapi tidak tahu salah siapa</t>
-  </si>
-  <si>
-    <t>sering sedang naik sepeda rantai putus percaya saya pak rantai sahabat tidak pernah putus</t>
-  </si>
-  <si>
-    <t>percaya rantai sahabat pak yakin akan pernah putus sweet banget sih pakde</t>
-  </si>
-  <si>
-    <t>emosi kontrol parah audiens orang begini bahaya kalau pimpin</t>
-  </si>
-  <si>
-    <t>silah tertawa jadi presiden kalau beliau menang ketawa larang</t>
-  </si>
-  <si>
-    <t>jokowi faham model perang depan perang apa kalau jadi cyber war space war</t>
-  </si>
-  <si>
-    <t>masuk all seriousness saya ngerti topik military defense harus jadi sisi kuat malah beranta gitu</t>
-  </si>
-  <si>
-    <t>merinding tanda cinta rakyat hadap pak moga lanjut periode gaspoljokowijempol</t>
-  </si>
-  <si>
-    <t>harap harap rakyat ingin ubah indonesia adil makmur april coblos pilih</t>
-  </si>
-  <si>
-    <t>saya bela rakyat hormat sangat mulia subianto prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co 328hggut9c</t>
-  </si>
-  <si>
-    <t>debat hari lah sifat asli pak mulai keluar nampaknya beliau tidak tahan sandiwara jadi orang baik</t>
-  </si>
-  <si>
-    <t>lihat ganas malam tapi lihat prihatin seperti habis pikir gemas sendiri bisik</t>
-  </si>
-  <si>
-    <t>perintah an sigap layan rakyat bagus pak pemerintahandilan https t co vwhecy 74nd</t>
-  </si>
-  <si>
-    <t>yuk satu satu lebih asyik pemerintahandilan https t co oejifofpsx</t>
-  </si>
-  <si>
-    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut dimarahin pak</t>
-  </si>
-  <si>
-    <t>debat calon presiden malam saya ikan score 10-0 buat menang pak bisa lihat karakter pimpin kuat</t>
-  </si>
-  <si>
-    <t>sebut betul koruptor orang baik pilih jadi presiden diri beri sempat</t>
-  </si>
-  <si>
-    <t>kalau bicara nasionalisme p semangat jangan ketawa lemah itu reaksi spontan patriotik</t>
-  </si>
-  <si>
-    <t>tertawa tertawa larang sama pak debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>perlu garis bawah ke afganistan pake rompi anti peluru</t>
-  </si>
-  <si>
-    <t>marah sih pak panggil dil debatpilpres 2019 kali pemerintahandilan</t>
-  </si>
-  <si>
-    <t>milu legislatif pilih presiden april besok habis biaya tidak sedikit triliun rupiah</t>
-  </si>
-  <si>
-    <t>warga negara baik pilih pimpin baik jawab baik kita semua 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>pak masalah apa si sini cerita sini jan marah marah mulu dong kek dosen kalau ngambek mahasiswa nya</t>
-  </si>
-  <si>
-    <t>serang emosi pak tetap kata bukan salah bapak salut engkau sungguh jiwa besar</t>
-  </si>
-  <si>
-    <t>pak timses kamu bilang anak ingus nih tertib pak bapak hormat bangsa</t>
-  </si>
-  <si>
-    <t>papar visi misi klaim praktik korupsi perintah turut lemah negara</t>
-  </si>
-  <si>
-    <t>kata pak bukan lemah kalah kuat yang lambat kalah yang cepat</t>
-  </si>
-  <si>
-    <t>kpu angkat bicara soal alokasi waktu cara adil masih jangan bilang main curang hm</t>
-  </si>
-  <si>
-    <t>moga pak beri mudah lancar malam al fatihah prabowobentengnkri https t co gmhz 1husuk</t>
-  </si>
-  <si>
-    <t>bawah pimpin prabowo-sandi akan komitmen hadir harga bahan pokok stabil jangkau</t>
-  </si>
-  <si>
-    <t>kata mobil esemka bohong moga dosa 2nya ampun allah swt yang fitnah kait ini pak</t>
-  </si>
-  <si>
-    <t>insyallah allah menang indonesia jadi macan asia bukan cebong asia</t>
-  </si>
-  <si>
-    <t>sama indonesia kuat prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>presiden conference pasca debat tkn cara baca data pak kena kuat militer banding anggar</t>
-  </si>
-  <si>
-    <t>warga negara baik pilih pimpin baik jawab baik menangjokowilagi</t>
-  </si>
-  <si>
-    <t>saling hujat saling remeh saling toleransi kawan sahabat idola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debat empat pilpres tutup momen manis </t>
-  </si>
-  <si>
-    <t>konsep pak indonesia maju mantap menangjokowilagi</t>
-  </si>
-  <si>
-    <t>buah tangan perintah pak sby saja aku debat aneh demen main klaim</t>
-  </si>
-  <si>
-    <t>salut bangga pakde walaupun sipil bagai panglima tinggi baik harga kerja keras</t>
-  </si>
-  <si>
-    <t>indonesia kini sama jadi negara hebat menangjokowilagi https t co pyphejzzou</t>
-  </si>
-  <si>
-    <t>tukang kayu lebih ngerti militer yang pernah jadi militer lebih tni tni</t>
-  </si>
-  <si>
-    <t>nyawa saya taruh republik jangan ragu nasionalisme mas</t>
-  </si>
-  <si>
-    <t>pancasila hasil suatu komporomi besar cemerlang generasi diri bangsa indonesia</t>
-  </si>
-  <si>
-    <t>paling sewot sayagolput dukung kami ingat pada alam bawah sadar bahwa kalah</t>
-  </si>
-  <si>
-    <t>jember siang tadi rombong wi sambut guru honorer ria</t>
-  </si>
-  <si>
-    <t>dengan tekad kuat rubah bangsa pak mampu beri ubah bagai lini bangsa</t>
-  </si>
-  <si>
-    <t>yang tau definisi polyglot coba cek google deh nyata pak orang polyglot</t>
-  </si>
-  <si>
-    <t>sangat haru salam pisah pak jokowi barusan sahabat nomer satu presiden no</t>
-  </si>
-  <si>
-    <t>kuat 2an adu isu elektabilitas media tulis elektabilitas non-prabowo sulit kejar</t>
-  </si>
-  <si>
-    <t>rakyat percaya tni 01dilanjutkan https t co fhdmwypu 5w</t>
-  </si>
-  <si>
-    <t>pak nih kalau tongkrong tipikal semangat cerita panjang lebar tidak ditanggepin sama anak anak skip jangan gitu</t>
-  </si>
-  <si>
-    <t>pemerintahandilan keren tingkat puas publik hadap kerja perintah jokowi-jk tinggi atas</t>
-  </si>
-  <si>
-    <t>tahan bidang hankam terlalu lemah anggar sangat kecil yang kita baik</t>
-  </si>
-  <si>
-    <t>selamat pagi penganten lebih paham mana coblos mana pilih goyang jari pilih</t>
-  </si>
-  <si>
-    <t>indonesia maju infrastruktur baik menang 01dilanjutkan https t co muddzx 0kwx</t>
-  </si>
-  <si>
-    <t>selamat nama jadi trending paling banyak bicara good kerja buat anak twitter dukung</t>
-  </si>
-  <si>
-    <t>insyallah allah pak menang telak prabowobentengnkri https t co qptegiu 2ua</t>
-  </si>
-  <si>
-    <t>wajah prabohong pucet gara-gara tau apa kata pak kualitas lanjut pemerintahandilan</t>
-  </si>
-  <si>
-    <t>khas pak kena kemeja putih lengan panjang gulung 01dilanjutkan https t co re2jvkcqto</t>
-  </si>
-  <si>
-    <t>jalan demokrasi baik laksana sekarang kok tolak belakang prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>personifikasi debat empat sangat kuat itu kokoh pribadi diri bagai orang patriotik</t>
-  </si>
-  <si>
-    <t>sama orang hebat indonesia maju unggul menangjokowilagi</t>
-  </si>
-  <si>
-    <t>marah tahan negara lemah tertawa bukti sangkut paranoid atas ancam asing</t>
-  </si>
-  <si>
-    <t>jumlah massa kampanye akbar pakansari hingga jalan capai satu juta orang luar biasa bogor</t>
-  </si>
-  <si>
-    <t>kita banding pakai hati nurani akal sehat pancasila beri sejak dini</t>
-  </si>
-  <si>
-    <t>mumpung debatpilpres 2019 istirahat senyum manis dulu salam bismillah indonesia</t>
-  </si>
-  <si>
-    <t>hei kalian suka nyinyirin bapak jelek 2an beliau maaf selalu bukti beliau orang baik tanggungjawab</t>
-  </si>
-  <si>
-    <t>jual beli jabat waris sejak perintah mantan mertua kamu pak memang susah rubah mental orde baru</t>
-  </si>
-  <si>
-    <t>orasi politik ketua umum pan tegas jawa barat salah satu kunci menang</t>
-  </si>
-  <si>
-    <t>mantap bang cebong marahin mala ketawa dasar dungu akut</t>
-  </si>
-  <si>
-    <t>saya inti perintah bahwa lembaga perintah harus bersih korupsi</t>
-  </si>
-  <si>
-    <t>omong pak calon presiden pecat tni begitu pantes pecat wong sering gagal paham https t co etacadeg 8n</t>
-  </si>
-  <si>
-    <t>sangat dukung kembang ekonomi digital lalu pemerintahandilan usaha pelihara stratup</t>
-  </si>
-  <si>
-    <t>benar pak sampai tadi bahwasannya perintah sekarang banyak teori tidak sesuai nyata</t>
-  </si>
-  <si>
-    <t>ada wiranto luhut hendro agum masak jenderal dukung bila pki sendiri jenderal</t>
-  </si>
-  <si>
-    <t>culik culik hati milenial tionghoa kuaile de zhandou selamat juang</t>
-  </si>
-  <si>
-    <t>nonton kok jurus aja monoton contoh bahas korupsi lagi lagi jurus kemaren</t>
-  </si>
-  <si>
-    <t>rawan muda gelar nobar tekan golput kalang milenial https t co w4k3nrowfy</t>
-  </si>
-  <si>
-    <t>salah satu contoh kecil prestasi hasil nya jelas silah cek sendiri data</t>
-  </si>
-  <si>
-    <t>sumber foto jenderal goblok udah edit eh foto orang kamboja keren cici kamboja dukung</t>
-  </si>
-  <si>
-    <t>pak mau indonesia hormat tidak tahu cara capa tahu cara pidato</t>
-  </si>
-  <si>
-    <t>closing statement aku kuat lawan</t>
-  </si>
-  <si>
-    <t>beberapa pimpin organisasi bobotoh para suporter persib bandung deklarasi dukung pak</t>
-  </si>
-  <si>
-    <t>saya bukan salah saya kuat tahan sangat rapuh lemah bukan salah bapak</t>
-  </si>
-  <si>
-    <t>soal freeport sangat untung buat apalagi emas perak tembaga</t>
-  </si>
-  <si>
-    <t>kata p anggar tni harus naik n perlu tni kuat tahan wilayah</t>
-  </si>
-  <si>
-    <t>jenderal lawan umur tahun taruh nyawa pancasila untuk republik</t>
-  </si>
-  <si>
-    <t>pak serang hujat tahan bilang kalah nyerang akibat selalu keluar konteks tahan sesuai tema</t>
-  </si>
-  <si>
-    <t>mantap kali calon presiden pak malam cerdas tegas prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>statement soal usah ngurusin masalah negara adalah pukul telak buat dukung</t>
-  </si>
-  <si>
-    <t>wah salah nih mas kasih tahu litbang</t>
-  </si>
-  <si>
-    <t>kait aspek tahan keamananan point penting debatpilpres 2019 nyata penting kembang alutsista</t>
-  </si>
-  <si>
-    <t>senang naik sepeda sering rantai putus yakin rantai sahabat dengan tak pernah putus</t>
-  </si>
-  <si>
-    <t>sipil sangat percaya tni beliau lebih percaya tni pada mantan tni yang pecat</t>
-  </si>
-  <si>
-    <t>pak tadi maju tidak pakai teks gestur di luar kepala lulus fort cantik gitu</t>
-  </si>
-  <si>
-    <t>indonesia bawah jadi bangsa emis utang peran dunia internasional hilang presiden tak bicara</t>
-  </si>
-  <si>
-    <t>denger tuh kata pak saling harga https t co l143x7rvt5</t>
-  </si>
-  <si>
-    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin</t>
-  </si>
-  <si>
-    <t>wkkwkwkwkk asli salah satu omong wowo ngaco pecatanlebihtnidaritni mending jauh pak mana</t>
-  </si>
-  <si>
-    <t>mbak badan menang nasional jangan mau tipu sama hti angin surga buat hti akan buat dukung</t>
-  </si>
-  <si>
-    <t>marah cinta hadap negara kalian goreng sedang bohong manis si jokowi malah kalian puji</t>
-  </si>
-  <si>
-    <t>pilpres tarung akal sehat akal dungu jokowidiambangkekalahan https t co 0ygyvuuior</t>
-  </si>
-  <si>
-    <t>pak selalu tampil elegan negarawan tampil lepas penuh canda tawa tak segan joget riang</t>
-  </si>
-  <si>
-    <t>isu khilafah isu kaum keok-ers katolik pilih pimpin jujur bapak</t>
-  </si>
-  <si>
-    <t>sumpah tahan pancasila titik darah akhir bohong kecewa bapak luka dikit jangan udah pakai sarung tangan</t>
-  </si>
-  <si>
-    <t>kalau kayak gin performa pak jadi menhan perintah presiden 2019-2024 tak pantas</t>
-  </si>
-  <si>
-    <t>bapak info sesat petinggi tni woi om wowo lupa bukankah kamu lebih parah dibohongin sama dukung sendiri</t>
-  </si>
-  <si>
-    <t>alhamdulillah debat langsung lancar berkat doa semua cinta indonesia sayang</t>
-  </si>
-  <si>
-    <t>lebih tni tni bagus pak aku overdosis jadi makin mudah kami pilih presiden</t>
-  </si>
-  <si>
-    <t>subianto ragu mampu ri bidang tahan situs global fire power fokus masalah</t>
-  </si>
-  <si>
-    <t>satu sisi tegas bilang akan ubah nkri jadi khilafah di sisi badan menang nasional malah janji hti hidup</t>
-  </si>
-  <si>
-    <t>siap bawa indonesia maju cuma pak 01dilanjutkan https t co mhvlauseoz</t>
-  </si>
-  <si>
-    <t>2beer unpopular opinion pak mungkin punya track record tidak gitu baik saya percaya kalau beliau orang baik</t>
-  </si>
-  <si>
-    <t>apa sampai mas tema debat isi tegas lugas mudah erti sesuai lapang</t>
-  </si>
-  <si>
-    <t>pak biar paham rata skor cpi dunia tahu kalau indonesia arti bawah rata</t>
-  </si>
-  <si>
-    <t>pak all keluar debat malam semua umpan lawan lahap habis bahkan jawab kerap jadi serang balik</t>
-  </si>
-  <si>
-    <t>rekam jejak bersih segala kasus langgar hukum menangjokowilagi</t>
-  </si>
-  <si>
-    <t>ketua umum pan insyallah allah jawa barat jadi menang pan - sandi</t>
-  </si>
-  <si>
-    <t>ken cepat punya presiden tegas berkharisma prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>paling penting bagaimana beri didik</t>
-  </si>
-  <si>
-    <t>jadi keliru kalau badan menang nasional beri angin hti harap suara hti justru hti percaya demokrasi</t>
-  </si>
-  <si>
-    <t>juang sama sama rakyat biar rakyat tentu</t>
-  </si>
-  <si>
-    <t>pakdhe budhe iriana suka kampanye suasana positif optimis penuh canda tawa ceria</t>
-  </si>
-  <si>
-    <t>astaga 2nya ngomong kalau dukung yang nuduh soal khilafah yang jelek 2in</t>
-  </si>
-  <si>
-    <t>kena tuduh pro-khilafah milik argumen menep mentah olah bela khilafah</t>
-  </si>
-  <si>
-    <t>pimpin garis beri contoh jaga satu bukan pecah belah mantap mas</t>
-  </si>
-  <si>
-    <t>mantap sekali nyata pak moga selalu konsisten prabowobentengnkri https t co apdde 5ubll</t>
-  </si>
-  <si>
-    <t>mantaaab yang tunggu argument cerdas tegas bapak pkivspancasila 18harilagicobloscapres02</t>
-  </si>
-  <si>
-    <t>hasil prediksi menang telak tema ahli beliau notabene milik wawasanya</t>
-  </si>
-  <si>
-    <t>andal jual kartu bangga layan satu pintu bangga program yang kata mampu kurang korupsi</t>
-  </si>
-  <si>
-    <t>lihat segi mana pak lebih unggul prabowobentengnkri https t co ksmrfawt 0c</t>
-  </si>
-  <si>
-    <t>dukung waktu fitnah kristen hebertus bila bila bila semua mereka tuduh malah di</t>
-  </si>
-  <si>
-    <t>dukung pak sukarela buat avatar dukung dukung pak</t>
-  </si>
-  <si>
-    <t>deklarasi maaruf amin menang yang singkat sebut jomang gagal laksana</t>
-  </si>
-  <si>
-    <t>tenaga medis paham penting sehat jantung jantung pak tetap sehat</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 paling kasihan sama orang percaya jadi aparat</t>
-  </si>
-  <si>
-    <t>jangan putus saudara biar rakyat tentu siapa baik bangsa -</t>
-  </si>
-  <si>
-    <t>sih pak selalu bandingin kondisi tni jaman sukarno jelas dulu ancam militer tinggi</t>
-  </si>
-  <si>
-    <t>baru telepon ibu maryani djoyohadikusumo kakak pak subianto memang kenal baik beliau</t>
-  </si>
-  <si>
-    <t>jangan ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu kata</t>
-  </si>
-  <si>
-    <t>habis sih telanjang debat mantap pak debatpilpres 2019 prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>hanya harap kelak negeri maju sama prabowo-sandi banyak bisa bantu pak</t>
-  </si>
-  <si>
-    <t>paling mantap debat malam prabowobentengnkri prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>perintah kuat pimpin tegas pihak prabowo-sandi yakin wujud jadi harap</t>
-  </si>
-  <si>
-    <t>pak mungkin inspirasi netijen haus tikai makanya marah</t>
-  </si>
-  <si>
-    <t>menang mbak sepenuh yakin pak menang</t>
-  </si>
-  <si>
-    <t>moga pak selalu sehat amin debatasyikjokowi https t co lww 2w8bb30</t>
-  </si>
-  <si>
-    <t>calon presiden nilai tak keluar narasi besar sendiri tak tampil istimewa</t>
-  </si>
-  <si>
-    <t>paslon calon presiden 01 jokowi-kh ma ruf amin terima deklarasi dukung kelompok supporter sepak bola viking bandung</t>
-  </si>
-  <si>
-    <t>nah pas jokowidiambangkekalahan prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>beda kelas bapak true warrior ksatria sejati</t>
-  </si>
-  <si>
-    <t>mantap pak malam kamu tunjuk sikap tegas nasionalis patriot sejati tolong jaga emosi</t>
-  </si>
-  <si>
-    <t>wowo kali ingat pak bapak hati para bisik bapak kena tahan</t>
-  </si>
-  <si>
-    <t>malam mantap prabowomenangdebat jokowidiambangkekalahan</t>
-  </si>
-  <si>
-    <t>insyallah jatim solid dukung nahdliyinbukanjokower nahdliyindukung 02 sayanusayamilih 02</t>
-  </si>
-  <si>
-    <t>jangan bilang salah hanya mau bilang fakta saya pulang kampung begini kondisi infrastruktur</t>
-  </si>
-  <si>
-    <t>singkir kali akan gagal akan lantik jadi presiden republik indonesia ke -</t>
-  </si>
-  <si>
-    <t>ngeri kalau lihat dukung beri viking amin jokowimengubahsemua 01jokowi3pdip kusukajokowiamin</t>
-  </si>
-  <si>
-    <t>kalau cuma pinter bahasa inggris usah cinta laura tukang becak dijogja banyak</t>
-  </si>
-  <si>
-    <t>sedih pilpres buat orang orang jadi benci lebih sekaligus puja lebih sama sama babi buta</t>
-  </si>
-  <si>
-    <t>deklarasi bobotoh dukung bobotohngahiji https t co ck2zv5jzvq</t>
-  </si>
-  <si>
-    <t>sandi cita cita indonesia adil makmur berdikari bidang ekonomi yuk terus gerak indonenesia</t>
-  </si>
-  <si>
-    <t>ambil sudut pandang pas ledak boom dilan 2014 cc prabowobentengnkri jokowidiambang</t>
-  </si>
-  <si>
-    <t>suka heran sama orang benci parah sama pak disakitin sakit apa sih https t co efc 7clo0mb</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni</t>
-  </si>
-  <si>
-    <t>lah malah ngulang omong</t>
-  </si>
-  <si>
-    <t>insyallah allah aroma menang buat pak bang sudah nampak jelas lihat tinggal kawal menang</t>
-  </si>
-  <si>
-    <t>pak benar orang baik pilih jadi presiden yang kali</t>
-  </si>
-  <si>
-    <t>turut ini tampil pak paling lepas benar</t>
-  </si>
-  <si>
-    <t>alas pilih prabowo menang debat april coblos sandi</t>
-  </si>
-  <si>
-    <t>udah deh cor usah banyak omong viking bobotoh buat deklarasi dukung</t>
-  </si>
-  <si>
-    <t>pak mantap jawab tenang jokowimengubahsemua nya jadi lebih baik maju jokowilagi</t>
-  </si>
-  <si>
-    <t>tuju pak presiden amin kalau lembaga perintah kuat korupsi jual beli jabat</t>
-  </si>
-  <si>
-    <t>pemerintahandilan tol langit rupa karya bangun bukti mampu dukung maju ekonomi digital</t>
-  </si>
-  <si>
-    <t>bangga baris pak prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>milenial love ya gaya milenial kena ott ahy partai demokrat demokrat dukung</t>
-  </si>
-  <si>
-    <t>lebih tni banyak tni</t>
-  </si>
-  <si>
-    <t>sistem alat teknologi semua bagus layan publik inti perintah bersih korupsi</t>
-  </si>
-  <si>
-    <t>isu khilafah hembus sutradara gempur patah ronde pertama katolik makin percaya</t>
-  </si>
-  <si>
-    <t>dil digital layan lebih baik guna teknologi lama pel deh pikir</t>
-  </si>
-  <si>
-    <t>clossing statement isyarat pisah bangga bapak segera gegas pulang serah kuasa</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni telak sekali bro tak kutik</t>
-  </si>
-  <si>
-    <t>buat tonton ketawa saat bilang bukan salah bapak tidak tau salah siapa</t>
-  </si>
-  <si>
-    <t>siapa bicara cara umum soal ini jangan korupsi perintah bersih</t>
-  </si>
-  <si>
-    <t>indonesia negara duduk muslim besar dunia percaya selesai banyak yang besar</t>
-  </si>
-  <si>
-    <t>baru kali tenang banget prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>milenial cinta pemerintahandilan keren https t co gg7eokdtnw</t>
-  </si>
-  <si>
-    <t>hormat bapak debat momen baik papar gagas rencana hadap benang kusut bangsa</t>
-  </si>
-  <si>
-    <t>tuduh itu saya diam tidak jawab bohong banget prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>rendah dukung tahana rupa bukti bila cara tak langsung sedang hukum publik</t>
-  </si>
-  <si>
-    <t>leceh tagar 02capresabadi lama 4 5 tahun juang ubah tidur cantik jangan sana</t>
-  </si>
-  <si>
-    <t>tetap fokus doa allah maha kuasa menang indonesia satu</t>
-  </si>
-  <si>
-    <t>percaya tni pecatanlebihtnidaritni https t co qtfysc 93hd</t>
-  </si>
-  <si>
-    <t>depan negara cepat kalah negara lambat kata pak cepat super cepat lompat depan</t>
-  </si>
-  <si>
-    <t>makin yakin rakyat ubah tunjuk kelas bagai orang memang paham soal bangsa depan</t>
-  </si>
-  <si>
-    <t>lho kok ngeles pak tadi kata ada perang sekarang bilang kira kok pucat</t>
-  </si>
-  <si>
-    <t>repost jokowi amin pak hidup pancasila pimpin bisa beri contoh baik</t>
-  </si>
-  <si>
-    <t>telah debat calon presiden kpu setel lagu mesra jangan cepat lalu romantisasi sahabat</t>
-  </si>
-  <si>
-    <t>siap nonton debatpilpreskeempat tema debat malam untung p kuasa tema debat</t>
-  </si>
-  <si>
-    <t>hebat sekali dlm respon akhir debat pilpres tegas bagus indonesia kuat berdikari</t>
-  </si>
-  <si>
-    <t>nyerocos pakai bahas inggris debatpilpres 2019 malam sontak hilang kosentrasi fokus</t>
-  </si>
-  <si>
-    <t>dong selalu fokus masalah bicara perlu banyak kerja kepoinpemilu jokowimengubahsemua</t>
-  </si>
-  <si>
-    <t>prinsip perintah pak era revolusi 40 cepat tele simple pak yakin kata</t>
-  </si>
-  <si>
-    <t>gigi sampai hilang sakit gara-gara lihat performa pak keren nendang jokowi</t>
-  </si>
-  <si>
-    <t>terimakasih pak malam sekali bapak bukti mereka juang rakyat</t>
-  </si>
-  <si>
-    <t>dulur sebut apa buat optimis pak 01dilanjutkan kata tagar</t>
-  </si>
-  <si>
-    <t>pak bagaimana bilang orang asing indonesia punya potensial besar bukan nya bersukur di doa sama</t>
-  </si>
-  <si>
-    <t>acu adalah mertua bukti keluarga mertua di baris yang mau mundur masa lalu</t>
-  </si>
-  <si>
-    <t>baru kali mau fitnah labil kadang bilang sholat bukan islam pernah jumat</t>
-  </si>
-  <si>
-    <t>juga pak hendro pak luhut coba lihat dukung sandi biar mikirin khilafah terus</t>
-  </si>
-  <si>
-    <t>https t co gfse 1zynfq siap indonesia hadap industri 4 0 makin siap pakde tau cara</t>
-  </si>
-  <si>
-    <t>debat hari konfirmasi menang terima kasih mas tampil mas bowo hari ruarbiasa</t>
-  </si>
-  <si>
-    <t>kadang bingung sih dukung sama antem substansi saling jatuh</t>
-  </si>
-  <si>
-    <t>itu nyata raut wajah tampak lelah pucat pasrah akhir sadar ucap salam pisah</t>
-  </si>
-  <si>
-    <t>orang dungu beri label kubu kubu dukung khilafah lain waktu membully</t>
-  </si>
-  <si>
-    <t>pak masalah nasional bisa selesai cara emosional maaf sekadar ingat</t>
-  </si>
-  <si>
-    <t>bagai tni wakaf jiwa raga bela negara walo mati medan laga</t>
-  </si>
-  <si>
-    <t>pakde beri fasilitas lalu bangun gedung inkubasi para laku usaha rintis startup</t>
-  </si>
-  <si>
-    <t>malam hebat miss makin yakin indonesia menang prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>cetar bahana porak poranda tahana buat suka gaya lho jenderal prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>mbak jaga stamina istirahat pas</t>
-  </si>
-  <si>
-    <t>terima kasih bapak atas tampil luar biasa malam saya keluarga histeria doa bapak menang</t>
-  </si>
-  <si>
-    <t>jadi benar sepakat semua usul program pak tuju silah lanjut periode</t>
-  </si>
-  <si>
-    <t>sekarang begini untuk uji nyali berani nyata libas juang hizbut tahrir</t>
-  </si>
-  <si>
-    <t>eh tunggu jual beli jabat angkat pak menteri sumber internal perintah sekarang</t>
-  </si>
-  <si>
-    <t>jokowi muka merah saya lawan - jokowidiambangkekalahan jokowidiambangkekalahan</t>
-  </si>
-  <si>
-    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co nugbqspxbc</t>
-  </si>
-  <si>
-    <t>colokin nih jenderal pecat militer indonesia lebih kuat israel australia - the global firepower</t>
-  </si>
-  <si>
-    <t>istimewa sangat istimewa closing statement pak betul tunjuk beliau memang orang negarawan</t>
-  </si>
-  <si>
-    <t>tau betul ibu dukung kang dukung bukan ganti pancasila</t>
-  </si>
-  <si>
-    <t>milik gagas cerdas beliau rela mati indonesia benar prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>era jaman sekarang teknologi sangat penting pak bangga unicorn indonesia</t>
-  </si>
-  <si>
-    <t>pas bilang pernah militer pak cuma senyum pecat koq bangga sih wowo tuh punya malu</t>
-  </si>
-  <si>
-    <t>subianto figur hebat panglima tinggi ri seluruh komponen bangsa dukung kamu</t>
-  </si>
-  <si>
-    <t>apik kami pesan kami ke akar rumput semua ni sisih kan uang belanja ubah</t>
-  </si>
-  <si>
-    <t>malam pak luar biasa menangjokowilagi</t>
-  </si>
-  <si>
-    <t>tadbir nan pantas layan rakyat bagus bandela pemerintahandilan https t co gkgy 6lrpko</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 pancasila ideologi final pancasila ideologi final</t>
-  </si>
-  <si>
-    <t>apa pake teknologi lama ajar ilmu perang ribu tahun hahaha gin kali kalau ikut pilpres mulu</t>
-  </si>
-  <si>
-    <t>jangan biar pak juang sendiri ayo satu suara satu pilih april coblos baju putih</t>
-  </si>
-  <si>
-    <t>sedih khawatir diri prabowobentengnkri prabowobentengnkri https t co xoemzw 201d</t>
-  </si>
-  <si>
-    <t>tampil paling hebat lama prabowomenangdebat prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>apresiasi saudara di papua pakde jadi percuma kalian tebar bohong papua derita</t>
-  </si>
-  <si>
-    <t>pak yusril tegas pbb dukung insyallah allah siap kawal pancasila tidak ganti</t>
-  </si>
-  <si>
-    <t>ehem kecewa nyenyak tidur insyallah yakin presiden aamiin prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>kawan semua kita dukung pemerintahandilan lanjut era untuk pimpin indonesia makin baik</t>
-  </si>
-  <si>
-    <t>rezim halal segala cara untuk kuasa tak duli meski bangsa hancur porak poranda</t>
-  </si>
-  <si>
-    <t>satu yakin tni satu pesimis jadi pemerintahandilan lanjut indonesia maju</t>
-  </si>
-  <si>
-    <t>https t co m1u7nlbagq insyallah pak bang menang tanggal april amin</t>
-  </si>
-  <si>
-    <t>semangat salam kompak all tnt-pepes semua dukung juang sama pak tuju indonesia jaya</t>
-  </si>
-  <si>
-    <t>kapabilitas dlm istirahat down materi debat jelas tanggap trengginas gilas</t>
-  </si>
-  <si>
-    <t>pilpres kali kurang seru hanya sebar ilusi takut jargon jatuh visi misi program lebih baik</t>
-  </si>
-  <si>
-    <t>tadbir nan pantas layan rakyat bagus bandela pemerintahandilan https t co dmjpr 2uqyg</t>
-  </si>
-  <si>
-    <t>paranoid perang mulu sama asing padahal dikhawatirin benar justru perang sodara</t>
-  </si>
-  <si>
-    <t>duh sumpah merinding dengar pidato mas ini negarawan sejati selalu usaha abdi</t>
-  </si>
-  <si>
-    <t>dear pak taun bapak jabat akan awas kritisi omel bapak coblos temiik</t>
-  </si>
-  <si>
-    <t>01caprespendustaabadi bayang pun kecoh dusta</t>
-  </si>
-  <si>
-    <t>enak dukung ajak pak tatap masa depan optimis hadap dinamika era iot kalau ajak balik masa lalu</t>
-  </si>
-  <si>
-    <t>pak jangan sampe korban nyawa ibu pertiwi kita</t>
-  </si>
-  <si>
-    <t>mas tegas lawan siapa ingin rubah ideologi pancasila dengerin tuh bong</t>
-  </si>
-  <si>
-    <t>memang sekarang jaman digital bro perintah pemerintahandilan dong keren digital layan</t>
-  </si>
-  <si>
-    <t>kerja perintah jelas unggul 01dilanjutkan https t co yjves 25euq</t>
-  </si>
-  <si>
-    <t>mantap pak tegas cerdazzz</t>
-  </si>
-  <si>
-    <t>saya bisa hadir sama ibu bahagia banget acara bapak bal luarbiasa</t>
-  </si>
-  <si>
-    <t>closing statement pak gambar demokrasi yang sungguh</t>
-  </si>
-  <si>
-    <t>benar bangsa jadi bangsa kuat segani bukan besar sanjung</t>
-  </si>
-  <si>
-    <t>lihat udah cukup percaya diri sama base konservatif religius makanya berani kenal narasi</t>
-  </si>
-  <si>
-    <t>malam bapak jadi serang tangguh bagus pak buat tahana ngelap keringat mulu</t>
-  </si>
-  <si>
-    <t>sobat sekali milu ajang gembira dlm beda aja pak kena baju putih tps</t>
-  </si>
-  <si>
-    <t>sama presiden perintah indonesia konsisten bela negara palestina bagai warga dunia 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>dapat lembaga perintah kuat</t>
-  </si>
-  <si>
-    <t>sepakat sama om trik basi minggu kelar jadi mau periode</t>
-  </si>
-  <si>
-    <t>hal perintah bukan teori soal bagaimana jalan perintah baik</t>
-  </si>
-  <si>
-    <t>lho cak bisa mbentengi nkri sangat paham betul sistem tahan negara</t>
-  </si>
-  <si>
-    <t>rizal ramli pak mau revisi hehe kubu jokowi ada tanggpan rr sebut hehe seram</t>
-  </si>
-  <si>
-    <t>memang sosok pimpin teladan bangga 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>pak debat kemaren kasih amunisi kayak debat saya paling suka cara bapak debat</t>
-  </si>
-  <si>
-    <t>pak pribadi sederhana senang semua kalang menangjokowilagi</t>
-  </si>
-  <si>
-    <t>untung pilpres pak menang makanya bangun tol proyek tol perdana aceh rumah khusus masyarakat</t>
-  </si>
-  <si>
-    <t>perintah mau keluar paris tuju kata mikirin masa depan indonesia mau keluar pakta</t>
-  </si>
-  <si>
-    <t>pak bijak sikap hasil survei nyata menang tebal menangjokowilagi</t>
-  </si>
-  <si>
-    <t>kamu lihat jujur pak indonesia beliau segan tegur siapa tertawa indonesia</t>
-  </si>
-  <si>
-    <t>adalah agum gumelar dengan lantang wajah bicara jelek hadap sby</t>
-  </si>
-  <si>
-    <t>kaya rakyat indonesia sedot luar negeri kaya sendiri numpuk di luar negeri hehe -</t>
-  </si>
-  <si>
-    <t>kalau pak jadi presiden hidup mau ketawa jangan dimarahin</t>
-  </si>
-  <si>
-    <t>kalau kalian mau jadi kaum asal bapak senang jokowi kuasa hak kalian saya suka tampil malam</t>
-  </si>
-  <si>
-    <t>lebih tni tni jangan kamu maling muka manusia sombong</t>
-  </si>
-  <si>
-    <t>bongkar data uang orang kaya indonesia swiss ada korupsi simpan uang sana</t>
-  </si>
-  <si>
-    <t>sumpah debat pilpres x pak benar cadas keren prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>pak kata tahan lemah kompak tertawa kira 2 alas apa</t>
-  </si>
-  <si>
-    <t>tertawa tertawa larang pemerintahandilan 01dilanjutkan debatkeempatpilpres 2019</t>
-  </si>
-  <si>
-    <t>kamu bukan tni kamu pecat sandang gelar purnawirawan</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 malam telah balik dia jadi sosok luar biasa efek kejut</t>
-  </si>
-  <si>
-    <t>anak bangsa perlu bapak tegas bisa bangun karakter disiplin lihat debat bapak</t>
-  </si>
-  <si>
-    <t>turut konflik sosial libat muslim rohingya rakhine konflik sudah sangat lama sulit</t>
-  </si>
-  <si>
-    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut marah debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>pak beri harap optimisme 01dilanjutkan https t co rxwogeijvs</t>
-  </si>
-  <si>
-    <t>pak bilang pancasila final kalau mungkin beliau larang bendera larang hti kampanye</t>
-  </si>
-  <si>
-    <t>hahaha habis peluru ni si buat cerita pak marah segala lah</t>
-  </si>
-  <si>
-    <t>malam minggu adalah malam baik kita saksi pak sangat elegan</t>
-  </si>
-  <si>
-    <t>bong optimis unggul debat yang usung tema ideologi aman tahan</t>
-  </si>
-  <si>
-    <t>pak kalau ngeritik punya gagas tanding lebih baik jelas ketidakpastian</t>
-  </si>
-  <si>
-    <t>takar kadar pancasila harga mati calon presiden sini pak calon presiden pecat tni kok pernah bilang dukung</t>
-  </si>
-  <si>
-    <t>senyum optimis pak dhe sukses lancar debat malam ya pak tuhan kati</t>
-  </si>
-  <si>
-    <t>kalau tidak nonton debat pak menang jadi tidur alhamdulillah nyata pakde hajar</t>
-  </si>
-  <si>
-    <t>raja hutang satu 2nya calon presiden beban hutang nila rp 7 6 triliun apa</t>
-  </si>
-  <si>
-    <t>tak sisa sedikit celah buat lawan argumentasi memang tidak paham prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>fix bagai orang purbalingga banyumasan dukung pak</t>
-  </si>
-  <si>
-    <t>kuat apa kurang insyallah alah teyap gagal prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>sampe bingung banyak kutip luar biasa tohok banget</t>
-  </si>
-  <si>
-    <t>siapa pilih rakyat akan tunduk patuh - karawang maret https t co h7ihhwk8sr</t>
-  </si>
-  <si>
-    <t>pak lebih tni tni bapak jangan inferior begini dong kata negara tak hormat</t>
-  </si>
-  <si>
-    <t>pecaaahh banget mashaallah sama wujud indonesia adil makmur</t>
-  </si>
-  <si>
-    <t>pikir kalau benar serang armada perang ada sekarang bukan ketawa malah nang darah</t>
-  </si>
-  <si>
-    <t>terima kasih rakyat jambi insyallah allah akan jumpa di masa lebih baik merdeka https t co ms7crkhozf</t>
-  </si>
-  <si>
-    <t>ibu fatimah kalla adik pak jusuf kalla dukung sandi jokowi silah ngaciro</t>
-  </si>
-  <si>
-    <t>pantai panjang bengkulu bumi raflesia terima kasih jaga tps kalian masing-masing jangan demokrasi akal</t>
-  </si>
-  <si>
-    <t>marah si jayen sok tahu sebut indonesia ratus suku bangsa</t>
-  </si>
-  <si>
-    <t>kok malah bangga songong betul sih om eee panjoel genderuwo</t>
-  </si>
-  <si>
-    <t>duh jadi melow gitu akhir mas tak laku closing statement lebih prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>agak fatal ketika sampai klaim orang banyumas sebut keras salah banget</t>
-  </si>
-  <si>
-    <t>innalillaahi wa innailaihiraaji un keluarga besar turut duka cita bela sungkawa</t>
-  </si>
-  <si>
-    <t>kata tni milik budaya asal bapak senang asal bapak senang ini efek pernah pecat tni</t>
-  </si>
-  <si>
-    <t>pak tenang banget hari</t>
-  </si>
-  <si>
-    <t>terus kok si pecat omong doang ejek hina tni rapuh</t>
-  </si>
-  <si>
-    <t>salawi masuk neraka neraka panas mana jangan mana infrastruktur langit kalian janji</t>
-  </si>
-  <si>
-    <t>catat pak sudah laku delapan bohong besar tahun beberapa bohong lai</t>
-  </si>
-  <si>
-    <t>arus ubah tak bendung era tiba prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>beri kesan bagai orang orator cara essensi banyak terlalu subjektif</t>
-  </si>
-  <si>
-    <t>rindu cinta sayang mari menang beliau jemput pulang</t>
-  </si>
-  <si>
-    <t>lihat kalian fitnah anti islam mesjid at-taqarrub luluh lantak gempa aceh lalu</t>
-  </si>
-  <si>
-    <t>lho kok aneh sini menang tidak punya partai bukan buzzer pampang nyata</t>
-  </si>
-  <si>
-    <t>ibu ibu lawan biar larang kampanye mall penting menang prabowodansandipilihanrakyat</t>
-  </si>
-  <si>
-    <t>yes akhir bilang turut pribadi yang jahat orang belakang pak</t>
-  </si>
-  <si>
-    <t>arti jokowidiambangkekalahan lihat lebih banyak tunduk tolah toleh bingung</t>
-  </si>
-  <si>
-    <t>sebut budaya asal bapak senang asal bapak senang kental kalang tni</t>
-  </si>
-  <si>
-    <t>terima kasih jenderal ku malam kamu beri harap rakyat yakin pilih tepat</t>
-  </si>
-  <si>
-    <t>dasar tukang bohong kapan henti bohong pak kpk diri tahun ngawur kamu jokowi</t>
-  </si>
-  <si>
-    <t>sejahtera tni lama tahun perintah gaji tni pernah naik sejahtera tni jangan kurang</t>
-  </si>
-  <si>
-    <t>catat tanggal siap diri putih gbk sama sabtu april asjb barengjokowi asjb putihkangbk</t>
-  </si>
-  <si>
-    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin -</t>
-  </si>
-  <si>
-    <t>tanah papua memang selalu penuh hangat kunjung merauke lebih asa pulang kampung pada kampanye</t>
-  </si>
-  <si>
-    <t>lama kawan lalu musuh lama tetangga lalu tak saling bicara semua karena beda pilih</t>
-  </si>
-  <si>
-    <t>sangat percaya mampu tni kata calon presiden pecat tni https t co kc5cpgca0n</t>
-  </si>
-  <si>
-    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing cara militan</t>
-  </si>
-  <si>
-    <t>wow pakai bahasa inggris debat buat plonga plongo https t co chujvskyv 4 prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>closing statement orang pamit nuansa khawatir takut tinggal kalau kalah</t>
-  </si>
-  <si>
-    <t>terima kasih papua terima kasih rakyat merauke moga temu ada lebih baik</t>
-  </si>
-  <si>
-    <t>hari jum at nanya prabowojumatandimana nanya jauh mana islam</t>
-  </si>
-  <si>
-    <t>pesta demokrasi nama pesta harus senang lo man teman pak sama pak bisa saling santai</t>
-  </si>
-  <si>
-    <t>jadi presiden berat biar pak prabowobentengnkri jokowidiambangkekalahan https t co ehlgdl 2mcx</t>
-  </si>
-  <si>
-    <t>terimakasih pak datang manado bangga salam sama bapak insyallah allah bapak bang sandi menang</t>
-  </si>
-  <si>
-    <t>makin baik sama pak menangjokowilagi</t>
-  </si>
-  <si>
-    <t>berangkat bawah ke pucuk tinggi makanya tak pernah takut https t co 7ftilehkv1</t>
-  </si>
-  <si>
-    <t>front bela islam hti jelas di balik kalau yang bantah jelas sedang bohong https t co mwfxk 96sye</t>
-  </si>
-  <si>
-    <t>bangga prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>contoh orang tidak di ajak maju debatpilpres 2019 jokowimengubahsemua https t co omp 0spnmur</t>
-  </si>
-  <si>
-    <t>the strong will do what they can the weak will suffer nilai tahan indonesia terlalu lemah</t>
-  </si>
-  <si>
-    <t>rantai sahabat pak pak akan putus debatpilpres 2019 dengerin tuh tkn-bpn cebong kampret</t>
-  </si>
-  <si>
-    <t>dengar pak meski sangat lambat https t co aydhf 1aca7</t>
-  </si>
-  <si>
-    <t>pak jangan jelek tni ini lho salah satu prestasi tni 01dilanjutkan https t co ibgmfaixw 1</t>
-  </si>
-  <si>
-    <t>sepakat bang pak menang sejak pikir mental menang yang ngga milik pak</t>
-  </si>
-  <si>
-    <t>debat malam mas tampil luar biasa tegas lugas cerdas wibawa jadi macan indonesia perkasa</t>
-  </si>
-  <si>
-    <t>percaya pak rantai sahabat tidak pernah putus iya pak pun saya hormat</t>
-  </si>
-  <si>
-    <t>insyallah allah p kuasa debat malam dengan elegan n presidential saksi studio</t>
-  </si>
-  <si>
-    <t>malam pak tampil serang lugas skakmaat</t>
-  </si>
-  <si>
-    <t>prabowomenangdebat insyallah allah menang pilpres</t>
-  </si>
-  <si>
-    <t>debat kali tidak pegang telinga tanda tidak pikir panjang debat sorot mata tebar kosong</t>
-  </si>
-  <si>
-    <t>lah pak akan lupa sahabat lain jika masalah hukum</t>
-  </si>
-  <si>
-    <t>bagus pak lebih tni tni lucu nuduh percaya tni lah wong pak ex militer</t>
-  </si>
-  <si>
-    <t>politik luar negeri makin turun sering absen p forum internasional n sidang pbb</t>
-  </si>
-  <si>
-    <t>jangan pilih pimpin bohong ingkar janji provokasi rakyat kacang lupa kulit pilih pimpin jujur</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni saya sipil sangat percaya tni -</t>
-  </si>
-  <si>
-    <t>makanya kalau pilpres ada debat jangan beri tahu buat rusuh</t>
-  </si>
-  <si>
-    <t>sepakat malam pak kabul semua harap dukung debat kali nampol banget</t>
-  </si>
-  <si>
-    <t>political will cermin praktik berantas korupsi kata pula demokrasi</t>
-  </si>
-  <si>
-    <t>industri kreatif indonesia era presiden tumbuh sangat pesat</t>
-  </si>
-  <si>
-    <t>sudah jelas bisa ikut rombong wong sejak awal visi beda visi commuter line mau bikin maju jangan</t>
-  </si>
-  <si>
-    <t>helmy faishal debat kandidat tahap empat menang alam https t co 5iueilxkxo</t>
-  </si>
-  <si>
-    <t>juang hormat akan diri kaki sendiri kita tidak akan impor pangan</t>
-  </si>
-  <si>
-    <t>korupsi parah stadium empat https t co 4sqd2cyjnw prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>sangat untung jadi orang kualitas ilmu minim bisa jadi orang presiden</t>
-  </si>
-  <si>
-    <t>dulu pernah asal bapak senang asal bapak senang sujud sukur live lho tv one apa live lho asal bapak senang nya wow</t>
-  </si>
-  <si>
-    <t>santai banget screamo mantap jadi pasang bagus kek jokowi-ahok</t>
-  </si>
-  <si>
-    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 ngebacot kaya luar negeri ngomongin diri sendiri https t co tirpkmgt 4g</t>
-  </si>
-  <si>
-    <t>nkri harga mati pancasila selalu hati presidennnya tetap pancasilavskhilafah tim 88untukjokowi tim 88</t>
-  </si>
-  <si>
-    <t>kritik solusi bagai kaca air keruh kerja beri solusi nyata tumbuh ekonomi</t>
-  </si>
-  <si>
-    <t>si banyak omong soal tax rio rendah perusaaan sendiri nunggak pajak miliar</t>
-  </si>
-  <si>
-    <t>presiden bisa tidak bicara detail alutsista indonesia itu yang sensitif tahan</t>
-  </si>
-  <si>
-    <t>malam inj gak ikut nonton debtamu pak saya bagai dukung ikut gemetar pak takut yang lalu</t>
-  </si>
-  <si>
-    <t>malam benar keren prabowotidakmenyalahkanboneka prabowomenangdebat jokowidiambangkekalahan</t>
-  </si>
-  <si>
-    <t>haha yen wahid bilang salah cara ngebaca data anggar tahan</t>
-  </si>
-  <si>
-    <t>closing statement dingin pak makin mantap 17aprilcoblosbajuputih https t co gu7yd7owzz</t>
-  </si>
-  <si>
-    <t>pokok malam pak jos sekali mantap banget buat lawan klepek-klepek kaya ikan kurang air</t>
-  </si>
-  <si>
-    <t>debat udah selesai unggul - satu pujat 01caprespendustaabadi prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>kalau terima mandat akan bersih kuat lembaga perintah prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>lebih semangat jaga momentum sd april prabowobentengnkri https t co evpzax 3bax</t>
-  </si>
-  <si>
-    <t>bidang tahan aman masih terlalu lemah anggar terlalu kecil yang kita baik</t>
-  </si>
-  <si>
-    <t>membully pak tak istri lalu pamer mesra keluarga</t>
-  </si>
-  <si>
-    <t>yakin lubuk hati dukung pada malu lihat jagoanya kaya gitu mata publik</t>
-  </si>
-  <si>
-    <t>pemerintahandilan tekan layan perintah baik butuh efektifitas efisiensi</t>
-  </si>
-  <si>
-    <t>hakul yakin indonesia hebat rakyat sejahtera wujud sama - prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 bagaimana mau maju tni kalau baru jadi mayor jangan udah pensiun sekarang jadi timses bapak</t>
-  </si>
-  <si>
-    <t>turut pk diplomasi arti tahan inti national interest bukan cuma senyam-senyum</t>
-  </si>
-  <si>
-    <t>bisik si jokowi lebih sibuk cari cara gebuk lawan politik waspada jaga nkri</t>
-  </si>
-  <si>
-    <t>bukan percaya sama tni tni lebih tni para tni orang patriot cinta nkri</t>
-  </si>
-  <si>
-    <t>ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu ujar</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 tidak harga internasional tuh doang mah dihargain kok</t>
-  </si>
-  <si>
-    <t>komplit tukang bohong main curang piye pak de</t>
-  </si>
-  <si>
-    <t>dong pak sangat percaya tni jokowidilan pemerintahandilan https t co uunuy 9su9e</t>
-  </si>
-  <si>
-    <t>unggul april menangjokowilagi</t>
-  </si>
-  <si>
-    <t>saat perintah kibal-kibul akhir jokowidiambangkekalahan masyarakat hilang percaya perintah</t>
-  </si>
-  <si>
-    <t>politik luar negeri sampai tak sesuai realitas dia sering tak hadir forum internasional</t>
-  </si>
-  <si>
-    <t>distrust paham apa makna hanya plonga-plongo debatpilpres 2019 https t co qpr 2qpbcj1</t>
-  </si>
-  <si>
-    <t>harus utama tuju perintah sendiri tuju perintah jelas akan jadi gaduh</t>
-  </si>
-  <si>
-    <t>depan mau ubah pancasila hadap https t co znzz 94ncaj</t>
-  </si>
-  <si>
-    <t>menang gagas menang debat menang pilpres prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>anak beri tahu toleransi kita beda - optimisindonesiamaju</t>
-  </si>
-  <si>
-    <t>nama benteng harus kokoh masuk allah uji waktu kondisi</t>
-  </si>
-  <si>
-    <t>percaya kalau pak pimpin baik pemerintahandilan</t>
-  </si>
-  <si>
-    <t>pak ini sering naik sepeda rantai sering putus paksa ganti rantai makan pak</t>
-  </si>
-  <si>
-    <t>meski indonesia milik saham persen freeport sebut untung freeport jauh lebih besar</t>
-  </si>
-  <si>
-    <t>ghiroh kab kalong menang sungguh haru bangga dlm parau suara brandal</t>
-  </si>
-  <si>
-    <t>mantap pak jokowidiambangkekalahan https t co 5aqu8vfkic</t>
-  </si>
-  <si>
-    <t>benteng nkri benteng bukan banteng prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>pak siap papar visi misi beliau tema debat malam 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>sosok pimpin baik maka tak ada alas golput 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>debat calon presiden kali seperti lihat orang dewasa wawas santun lawan</t>
-  </si>
-  <si>
-    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi indonesia</t>
-  </si>
-  <si>
-    <t>nah inti juang hasil panen raya jaga lumbung tikus</t>
-  </si>
-  <si>
-    <t>warga karawang mana kalau knytaan y laut manusia hadir sambut presiden</t>
-  </si>
-  <si>
-    <t>cuma doa moga terima nyata walaupun pahit rakyat presiden ri</t>
-  </si>
-  <si>
-    <t>simpul debat malam sangat cinta nkri jokowi sangat cinta dagang prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>lembaga perintah kuat baru negara kuat program bangun laksana</t>
-  </si>
-  <si>
-    <t>lebih baik pakai teknologi lama kaya indonesia keluar indonesia -</t>
-  </si>
-  <si>
-    <t>bapak info asal bapak senang https t co 11g3jkmdz3</t>
-  </si>
-  <si>
-    <t>indonesia maju sama pemerintahandilan https t co ue10thkyey</t>
-  </si>
-  <si>
-    <t>warkop dki tagline warkop dki memang visioner tertawa prabowomarah https t co 8wsgualxi6</t>
-  </si>
-  <si>
-    <t>nahkan sistem perintah udah oke banget deh poko pemerintahandilan keren pak https t co 1tomcggkxy</t>
-  </si>
-  <si>
-    <t>debat kami terima bagai saudara wahai mualaf politik memang pantas pimpin nkri</t>
-  </si>
-  <si>
-    <t>kalau pecat pensiun dong bapak dapat pensiun</t>
-  </si>
-  <si>
-    <t>karawang maret siapa pilih rakyat akan tunduk patuh - negarawan sejati</t>
-  </si>
-  <si>
-    <t>apa pak paham skor cpi indonesia maka indonesia masuk kategori hybrid regime</t>
-  </si>
-  <si>
-    <t>perintah dil digital layan sangat perlu</t>
-  </si>
-  <si>
-    <t>teknologi lama kaya tetap di negara sendiri kata duh maksud internetan pake dial-up</t>
-  </si>
-  <si>
-    <t>dari bumi pertiwi yang lepas nyata gera separatis hantu</t>
-  </si>
-  <si>
-    <t>bantu retwet teman teman seluruh dunia paham kalau sosok sangat depan toleransi</t>
-  </si>
-  <si>
-    <t>itu ma ruf amin senang tak provokasi https t co fmhnp 7nafz</t>
-  </si>
-  <si>
-    <t>mc kepada pak sila tanggap nyata pak kira ada beda</t>
-  </si>
-  <si>
-    <t>jadi presiden jangan prabohong udah ngamuk tertawa kok larang hancur prabowomarah</t>
-  </si>
-  <si>
-    <t>prabowo bahasa terlalu tinggi buat planga plongo</t>
-  </si>
-  <si>
-    <t>aman negara malah ketawa ngawur tidak nasionalis tuh pak tegor jangan prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>debat pak serang tapi beliau sabar balas</t>
-  </si>
-  <si>
-    <t>harus buat sistem henti bocor cegah korupsi prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>prabowomenangdebat prabowobentengnkri malam jadi kuat tekad sama menang</t>
-  </si>
-  <si>
-    <t>entah tahan negara mana maksud lemah palelu diketawain tonton tonton bentak ngeri</t>
-  </si>
-  <si>
-    <t>negara rakyat makmur selalu iring teknologi mumpuni tinggal teknologi</t>
-  </si>
-  <si>
-    <t>do a sama pak moga allah subhanahu wa ta ala meridhoi beri menang buat beliau</t>
-  </si>
-  <si>
-    <t>ini muncul survei senang debatpilpres 2019 ideasrabbani</t>
-  </si>
-  <si>
-    <t>pemerintahandilan turun tingkat korupsi https t co cwcotkvzyo</t>
-  </si>
-  <si>
-    <t>turut pimpin politik boleh buat situasi pecah belah nasional https t co butzybqt 6a</t>
-  </si>
-  <si>
-    <t>moga pak pimpin negara dengan adil cipta makmur prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>calon presiden sempat geram debat calon presiden langsung bicara soal tahan aman lemah</t>
-  </si>
-  <si>
-    <t>memang benar pak cenderung optimistis sisi pak cenderung pesimistis</t>
-  </si>
-  <si>
-    <t>sebut budaya asal bapak senang asal bapak senang kental dunia militer nasional https t co andtnmbmi 6</t>
-  </si>
-  <si>
-    <t>buat rindu negeri maju jadi masa depan anak cucu pak jokowi pimpin dekat kesana tentu sempurna</t>
-  </si>
-  <si>
-    <t>ustad maheer bahaya bisa jadi oceh frontal seluruh dukung kena cap khilafah curiga nih</t>
-  </si>
-  <si>
-    <t>wahai berani 2nya bilang indonesia daya fakta indonesia capai minimum essential tekan</t>
-  </si>
-  <si>
-    <t>selalu tiap sempat ada tanya nikah culi kudeta apa bosan bung</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 laku tidak harga internasional puas kamu langgar ham</t>
-  </si>
-  <si>
-    <t>istilah tak kenal tak peduli kita jalin silaturahmi ada saudara tanya tanya</t>
-  </si>
-  <si>
-    <t>bang yang jauh pelosok kalimantan rasa bangga lihat debat malam</t>
-  </si>
-  <si>
-    <t>dil digital layan mantap pak pemerintahandilan</t>
-  </si>
-  <si>
-    <t>ucap selamat pak cara naluri aku bagai menang pilpres</t>
-  </si>
-  <si>
-    <t>diplomasi kalau senyum jadi nice guy hanya saja pak prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>prabowo-sandi beri sempat anak bangsa bisa karya jadi main negara sendiri</t>
-  </si>
-  <si>
-    <t>lembaga perintah kuat baru program bangun kuat subianto prabowobentengnkri debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>refleksi buat dia kutuk jahat jahat tatap jadi satu diri</t>
-  </si>
-  <si>
-    <t>menang telak prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>swear deh puas banget malam ni nengok mr planga plongo tak kutik hajar macan asia</t>
-  </si>
-  <si>
-    <t>pagelaran kelas pilpres dukung asing sangat penting jangan kelas suharto bisa kondisi asing</t>
-  </si>
-  <si>
-    <t>tegas sekali debat kali insyallah allah hendak bapak jadi presiden ri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>udahlah matiin jangan tipi simpilkan jangan kalau pak kalah debat masa iya calon presiden ada optimis</t>
-  </si>
-  <si>
-    <t>ditanyain diplomasi luar negeri jawab putar jarak peluru kendali oke</t>
-  </si>
-  <si>
-    <t>hahaha yang bakar jenggot sama imbau pakai baju putih tps</t>
-  </si>
-  <si>
-    <t>wow menang tebal nih mantap pak lanjut 01dilanj</t>
-  </si>
-  <si>
-    <t>penting jangan asal bapak senang kata sindir prabowobentengnkri asal bapak senang tau kondisi riil rakyat</t>
-  </si>
-  <si>
-    <t>ingin negara kuat ekonomi pilih ingin negara kuat tentara pilih gitu kok repot</t>
-  </si>
-  <si>
-    <t>kok nyata sabar luarbiasa maaf kok seperti persepsi distortif lama</t>
-  </si>
-  <si>
-    <t>betul prabowomenangdebat jelas lah prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>lihat semua hasil kerja nyata ubah semua besar bangsa indonesia ubah semua</t>
-  </si>
-  <si>
-    <t>zaman teknologi 4 0 ko mau pake teknologi jadul makin tinggal bangsa dong pak</t>
-  </si>
-  <si>
-    <t>sandi penting manusia biasa kalian maa allah pernah mimpi dekat dengan presiden</t>
-  </si>
-  <si>
-    <t>tenang pak papar pemerintahandilan solusi tepat baik birokrasi perintah</t>
-  </si>
-  <si>
-    <t>wow jawab bapak prabowo sandi atas tanya buat onoh tel ludah deh macaaan asia bapak mulai</t>
-  </si>
-  <si>
-    <t>mantaf malam nih pak semua debat yang paling oke prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>indonesia sentris laksana pak sangat luar biasa menang 01dilanjutkan https t co dbeyzg 9edb</t>
-  </si>
-  <si>
-    <t>saja subianto visi jauh depan tidak lupa sejahtera rakyat mantap</t>
-  </si>
-  <si>
-    <t>calon presiden subianto sebut di garda depan tumpas bahaya komunis masuk gera radikal</t>
-  </si>
-  <si>
-    <t>malu - arogan - emosi - pesimis - tak taat atur debat - ngedongeng bilang lebih tni tni</t>
-  </si>
-  <si>
-    <t>pemerintahandilan presiden selalu usaha tingkat mutu tenaga kerja</t>
-  </si>
-  <si>
-    <t>apa bosan terus tuding - nya kritik habis</t>
-  </si>
-  <si>
-    <t>pak komitmen dukung e-government salah satu e-budgeting konkrit cegah korupsi</t>
-  </si>
-  <si>
-    <t>tuju sama tompi cukup baik eksekutif pilih legislatif perlu baik</t>
-  </si>
-  <si>
-    <t>debatkeempatpilpres 2019 calon presiden tanggap teknologi cepat ala</t>
-  </si>
-  <si>
-    <t>dukung calon presiden no urut jokowi-ma ruf kali datang viking makin dekat hari coblos dukung terus</t>
-  </si>
-  <si>
-    <t>nampak debatpilpres 2019 dari sisi ilmu komplit alam bijaksana perilaku jelas lebih unggul</t>
-  </si>
-  <si>
-    <t>aje maling teriak maling bung</t>
-  </si>
-  <si>
-    <t>pak bilang beri contoh toleransi tetapi dukung kerap laku tindak intoleran</t>
-  </si>
-  <si>
-    <t>debat pilpres empat tutup statement tutup penuh damai dua calon presiden buat dingin</t>
-  </si>
-  <si>
-    <t>pak beri contoh dewasa memang lahir dalam diri 01dilanjutkan https t co 68tqfjd530</t>
-  </si>
-  <si>
-    <t>optimisme pak ragu bagai warga sipil pak sangat percaya tentara nasional</t>
-  </si>
-  <si>
-    <t>lembaga polmark indonesia rilis rilis survei tunjuk elektabilitas pasang milik elektabilitas</t>
-  </si>
-  <si>
-    <t>hari perintah bawah pak sangat maju infrastruktur udara ada</t>
-  </si>
-  <si>
-    <t>kasihan pak tahan ketawa pecatanlebihtnidaritni</t>
-  </si>
-  <si>
-    <t>rendah dukung tahana rupa bukti rupa bukti bila cara tak langsung sedang hukum publik</t>
-  </si>
-  <si>
-    <t>pak kaget tingkah laku jabat perintah sendiri laku jual beli jabat</t>
-  </si>
-  <si>
-    <t>semua kata mas benar indonesia luas uni eropa jumlah tni cuma segitu lemah pak</t>
-  </si>
-  <si>
-    <t>pulau kecil tambang jaya tani nelayan ikut ruang hidup terus ancam parah baik maupun</t>
-  </si>
-  <si>
-    <t>daniel sibolang durian medan nyanyi lagu kocak kamu pingin kaya kerja tidur jangan</t>
-  </si>
-  <si>
-    <t>perintah oss dulunya kalau urus izin bulan bahkan tahun sekarang izin keluar jam kata</t>
-  </si>
-  <si>
-    <t>orang golkar dukung jadi jangan heran kalau bowo sedang main politik kaki jatuh</t>
-  </si>
-  <si>
-    <t>admin mau bahas kata militer lemah https t co raliyooy 3e</t>
-  </si>
-  <si>
-    <t>tidak apa apa to h pecat pada presiden bohong nggedabrus plonga plongo</t>
-  </si>
-  <si>
-    <t>bang kalau jadi presiden siapa ibu negara apa benar kita jadi negara piatu</t>
-  </si>
-  <si>
-    <t>dukung terus pak pemerintahandilan https t co rzz 6pqhmus</t>
-  </si>
-  <si>
-    <t>pemerintahandilan ma ruf amin ungkap hasil presiden pak hanya lihat proyek</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni pemerintahandilan memang nampol</t>
-  </si>
-  <si>
-    <t>calon presiden nomor urut sangat siap tema debat ideologi perintah tahan aman</t>
-  </si>
-  <si>
-    <t>pemerintahandilan siap data akan bagai amunisi debat malam semangat pagi</t>
-  </si>
-  <si>
-    <t>bidang perintah pak kuat lembaga lembaga kuat prabowobentengnkri negara kuat</t>
-  </si>
-  <si>
-    <t>bangun indonesia desa bangun adab lebih baik tuju lanjut 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>diplomasi kalau senyam senyum diplomasi butuh kuat - penting jaga daulat nkri</t>
-  </si>
-  <si>
-    <t>yunarto debat kali adalah tampil buruk calon presiden bahkan sejak lalu</t>
-  </si>
-  <si>
-    <t>kalau opung tak percaya diri citra nempel pak</t>
-  </si>
-  <si>
-    <t>sabar bangsa rasa ubah ken buru buru ganti presiden era tidak ada ubah hebat</t>
-  </si>
-  <si>
-    <t>ayo seluruh masyarakat indonesia dukung penuh calon presiden 01 debat - pilpres</t>
-  </si>
-  <si>
-    <t>debat malam liat banget siapa dewasa tanggap ya pak buat bangga 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>makanya jangan ragu prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>depan mau ubah pancasila hadap prabowobentengnkri doauntukprabowosandi</t>
-  </si>
-  <si>
-    <t>halah halaaah dulu kamu kalah pilpres jangan ngamuk ngamuk kaya orang mabuk jamur https t co 0dbjt9cspe</t>
-  </si>
-  <si>
-    <t>gitu dong pak gahar dikit inti pak mau menang tidak jangan sia 2kan juang pak</t>
-  </si>
-  <si>
-    <t>bukan ngetawain tahan negara cuma ngetawain</t>
-  </si>
-  <si>
-    <t>kampanye lama tahana lampu c o arti pilih sedang hukum</t>
-  </si>
-  <si>
-    <t>ini keras banyu mas minahasa banyumas batak nya jawa tengah</t>
-  </si>
-  <si>
-    <t>pulang kaya tambang emas papua pangku ibu pertiwi taruh jabat bagai presiden indonesia</t>
-  </si>
-  <si>
-    <t>dengan pemerintahandilan buat calon presiden tahan terus sosialisasi manfaat revolusi industri</t>
-  </si>
-  <si>
-    <t>bocor bocor tahun diksi bocor jangan ada gagas makanya pakai aquaproof pak</t>
-  </si>
-  <si>
-    <t>debat curhat tonton gebu tetap ulang tema lama solusi</t>
-  </si>
-  <si>
-    <t>era milenial era pakde presiden paling keren ketimbang sudah pemerintahandilan</t>
-  </si>
-  <si>
-    <t>pemerintahandilan nyata perintah pak hanya benah atas masalah jaring broadband daerah 3t</t>
-  </si>
-  <si>
-    <t>pak percaya yang pecatanlebihtnidaritni pecatanlebihtnidaritni https t co jrlvbdoafw</t>
-  </si>
-  <si>
-    <t>kaget beneran menangkanprabowosandi april datang tps pilih</t>
-  </si>
-  <si>
-    <t>calon presiden kata lembaga bubar anggap buat layan publik belit</t>
-  </si>
-  <si>
-    <t>bidang tahan aman terlalu lemah anggar terlalu kecil perlu baik -</t>
-  </si>
-  <si>
-    <t>tetap sahabat pak sinyal siap siap bawa pulang kecebong solo</t>
-  </si>
-  <si>
-    <t>pak ngebahas perihal pemerintahandilan tuju wowo sayang wowo jawab nya asal bunyi</t>
-  </si>
-  <si>
-    <t>gubernur pahe m tidak tanya kamu lulus mana tidak tanya prestasi apa saya tanya kamu punya uang</t>
-  </si>
-  <si>
-    <t>tahan indonesia terlalu lemah jauh yang harap karena tidak punya uang -</t>
-  </si>
-  <si>
-    <t>tegas pak barusan keluar parah orang tertawa rapuh tahan negara</t>
-  </si>
-  <si>
-    <t>bagaimana tonton tertawa kalau kali kata militer indonesia sangat lemah padahal kuat militer</t>
-  </si>
-  <si>
-    <t>marah tahan bangsa tertawa audiens marah diri hina netizen</t>
-  </si>
-  <si>
-    <t>yim habib rizieq bilang sama ya sengaja harus pasang ulama islam jelas</t>
-  </si>
-  <si>
-    <t>maju era android ke era pecatanlebihtnidaritni</t>
-  </si>
-  <si>
-    <t>natural badan menang nasional mirip orang habis bangun tidur mau nyabu ada bong terus marah tonton</t>
-  </si>
-  <si>
-    <t>kompas koplak kamu salah kutip bilang gdp apbn</t>
-  </si>
-  <si>
-    <t>mummmeeettt sekarang kali hahaha</t>
-  </si>
-  <si>
-    <t>mutu banget twetnya kentara berat belah</t>
-  </si>
-  <si>
-    <t>kayak panik banget jadi sedi liat</t>
-  </si>
-  <si>
-    <t>i love kurang masuk sama kartu</t>
-  </si>
-  <si>
-    <t>keren banget jawab pak soal tuduh</t>
-  </si>
-  <si>
-    <t>catat paling atas seba kalah laku dukung</t>
-  </si>
-  <si>
-    <t>dengar sendiri maher at thuwailibi dukung prabowo-sandi ejek polisi menthogutkan nkri</t>
-  </si>
-  <si>
-    <t>tim sehat tekan darah pak pantau masa acara debat begini marah</t>
-  </si>
-  <si>
-    <t>kuat tahan sangat rapuh lemah bukan salah bapak salah enggak tahu -</t>
-  </si>
-  <si>
-    <t>pak i am proud of you closing statement lawan debat nyambung bukan manfaat tampil prima</t>
-  </si>
-  <si>
-    <t>turut tahan lemah implikasi uang indonesia lemah turut indonesia</t>
-  </si>
-  <si>
-    <t>oknum kepala desa cikopo - bogor maksa warga milih o1 virallkan gaes lapor</t>
-  </si>
-  <si>
-    <t>jangan bawa asa laper di fitnah tahu jangan mengapa masa baru gitu jangan udah ngambek si</t>
-  </si>
-  <si>
-    <t>duh tonton kok dimarahin salah apa sabar pak jangan marah ngopi sik pak</t>
-  </si>
-  <si>
-    <t>jenderal pecat sekadar ingat jelas lebih paham bos very smart responses comprehesif</t>
-  </si>
-  <si>
-    <t>bandara akses keluar masuk asing indonesia kalau kelola serah asing</t>
-  </si>
-  <si>
-    <t>ngomong apa ujung bocor tanya urus tahan inti bocor lah ini calon presiden apa tukang tambal ban</t>
-  </si>
-  <si>
-    <t>jadi soal digital layan inimah lama rakyat antri dapat layan e-ktp yang gagal lah so</t>
-  </si>
-  <si>
-    <t>jangan coba ganti ideologi pancasila nkri harga mati harga mati harga tidak tawar</t>
-  </si>
-  <si>
-    <t>wow percaya tni ragu kuat tni lemah tni rasa lebih tni tni</t>
-  </si>
-  <si>
-    <t>ampun sih tiap tanya kamu jawab bocor bocor uang negara alir luar</t>
-  </si>
-  <si>
-    <t>tidak terlalu hormat luar negeri jangan tebar pesimisme pak</t>
-  </si>
-  <si>
-    <t>pak kata kuat lembaga perintah hilang korupsi</t>
-  </si>
-  <si>
-    <t>tertawa tertawa dimarahain</t>
-  </si>
-  <si>
-    <t>g nyambung kalau masalah kalau bandara udah kuasa asing pesawat suka nya keluar masuk apa milik</t>
-  </si>
-  <si>
-    <t>tengah debat calon presiden dadak marah hadirin tertawa tengah acara https t co xj1ofes136</t>
-  </si>
-  <si>
-    <t>terus hina bangsa indonesia kata percaya dunia internasional</t>
-  </si>
-  <si>
-    <t>lebih baik kalau tipu halusinasi parah coba muncul ngaku golput</t>
-  </si>
-  <si>
-    <t>lihat negara bagai alat maju kualitas masyarakat lihat negara bagai alat perang</t>
-  </si>
-  <si>
-    <t>freeport lapor nse mereka dapat manfaat jadi saham ethok prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>insaallah zalim rezim rakyat allah subhanawataala balas copot kuasa wenang wenang</t>
-  </si>
-  <si>
-    <t>soal tahan benar beri briefing pak kalau presiden pecat subianto</t>
-  </si>
-  <si>
-    <t>tidak hormat luar negeri utang banyak impor banyak bagaimana mau hormat</t>
-  </si>
-  <si>
-    <t>lawan tak daya lawan mantap oy</t>
-  </si>
-  <si>
-    <t>presiden ajak keluarga makan siang rumah makan bilang jalan sabang jakarta pusat sayang dua putra hadir</t>
-  </si>
-  <si>
-    <t>cek fakta cek fakta sebut dana tahan ri kecil singapura gdp https t co hv6u1urlj5</t>
-  </si>
-  <si>
-    <t>beda negara debat maaf keras tengah banyumas</t>
-  </si>
-  <si>
-    <t>kamu cm nyinyir udah ngerasain terjun lapang kamu lahir</t>
-  </si>
-  <si>
-    <t>malam minggu duduk depan layar tv nonton debat empat calon presiden semangat pak 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>lah situ nyinyir apa balik aki aki apa nenek peot calon presidenya jadul</t>
-  </si>
-  <si>
-    <t>bilang rapuh skor kuat militer indonesia turut global fire power di peringkat tinggi</t>
-  </si>
-  <si>
-    <t>cakep jenderal makin kita hidup rukun tidak ajar benci mistericapjempol</t>
-  </si>
-  <si>
-    <t>tidak jajah bangsa lai rugi banyak pak salah orang amerika sedikit bicara banyak kerja</t>
-  </si>
-  <si>
-    <t>nama ngomong ngasal jangan penting gaya dulu wkwkqk kasi babak bur hajar jenderal</t>
-  </si>
-  <si>
-    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019</t>
-  </si>
-  <si>
-    <t>bukan mau nyerang pisik fakta gerombol badan menang nasional banyak gembul perut kayak gentong</t>
-  </si>
-  <si>
-    <t>kalau jadi nice guy masalah ada yang bapak rasa tidak hormat luar indonesia</t>
-  </si>
-  <si>
-    <t>kalau anak anak antem si kurus udah mewek pojok yang gemuk tega</t>
-  </si>
-  <si>
-    <t>si manusia gadungan hibur diri junjung kalah sol sol</t>
-  </si>
-  <si>
-    <t>komitmen nkri pancasila tak perlu ragu propaganda ubah sistem demokrasi sistem khilafah</t>
-  </si>
-  <si>
-    <t>luar biasa demen kali sama pak dungu natural akhir keluar</t>
-  </si>
-  <si>
-    <t>rasa posisi selalu posisi aman buat indonesia tak hormat asing</t>
-  </si>
-  <si>
-    <t>pak saya hormat lebih baik kamu daftar jadi tni biar paham percaya berani</t>
-  </si>
-  <si>
-    <t>set up nya padahal kuat bat sayang punchline nya beri terlalu banyak rusa</t>
-  </si>
-  <si>
-    <t>mau ngecapruk apa bodoh sudah jadi kadang ucap nya sua nyata</t>
-  </si>
-  <si>
-    <t>turut dalam tahan aman boleh anggap akan perang masa depan</t>
-  </si>
-  <si>
-    <t>wah salah nih mas kasih tahu litbang bela apa apa admin cer</t>
-  </si>
-  <si>
-    <t>sumpah tahan pancasila titik darah akhir bohong kecewa bapak luka dikit jangan udah pakai sarung t</t>
-  </si>
-  <si>
-    <t>latar belakang karya intel amerika defense intelligence agency soal serang asing p</t>
-  </si>
-  <si>
-    <t>bapak info sesat petinggi tni woi om wowo lupa bukankah kamu lebih parah dibohongin sam</t>
-  </si>
-  <si>
-    <t>malu kompas kamu salah kutip bilang gdp apbn ralat https t co parepqmlyn</t>
-  </si>
-  <si>
-    <t>kena tuduh pro-khilafah milik argumen menep mentah olah bela khilafah tak masuk akal</t>
-  </si>
-  <si>
-    <t>strategi upaya modernisasi alutsista tni material khusus polri tahan lemah kita punya alutsista canggih</t>
-  </si>
-  <si>
-    <t>calon presiden nilai tak keluar narasi besar sendiri tak tampil istimewa nilai buruk</t>
-  </si>
-  <si>
-    <t>beda kelas bapak true warrior ksatria sejati perlu malu orang sudah malu</t>
-  </si>
-  <si>
-    <t>mau kalah sama gurita dukun piala dunia kucing milih fokus nonton tanda optimisindonesiamaju</t>
-  </si>
-  <si>
-    <t>selalu ulang soal kaya ambil asing masa mertua kali sekarang rok mahakam freeport udah jadi milik indonesia</t>
-  </si>
-  <si>
-    <t>lawan lihat dunia luar jahat pretensi kuasa padahal hidup era kolaborasi kira mindset keliru</t>
-  </si>
-  <si>
-    <t>awal gila antek antek dukung mulai pilpres mana hasil oleh suara sangat sedikit</t>
-  </si>
-  <si>
-    <t>kata anggar tahan indonesia di angka 0 8 persen gdp pun banding singapura</t>
-  </si>
-  <si>
-    <t>bicara entry gerbang safety strategic point jokowi jawab investasi asing nyambung prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>sandi mas anis sini traktir jadi gubernur tak lama sandi izin mas mau nraktir pak</t>
-  </si>
-  <si>
-    <t>acu adalah mertua bukti keluarga mertua di baris</t>
-  </si>
-  <si>
-    <t>dear pak taun bapak jabat akan awas kritisi omel bapak</t>
-  </si>
-  <si>
-    <t>pada nyemplung kolam malu lihat bos bom bardir</t>
-  </si>
-  <si>
-    <t>sepakat sama om trik basi minggu kelar jadi mau periode jual dil laku</t>
-  </si>
-  <si>
-    <t>rizal ramli pak mau revisi hehe kubu jokowi ada tanggpan rr sebut hehe seram undang sebut dipake disalahgunakan</t>
-  </si>
-  <si>
-    <t>perintah mau keluar paris tuju kata mikirin masa depan indonesia mau keluar pakta sama</t>
-  </si>
-  <si>
-    <t>adalah agum gumelar dengan lantang wajah bicara jelek hadap sby nyata hadap taipan manis</t>
-  </si>
-  <si>
-    <t>kalau pak jadi presiden hidup mau ketawa jangan dimarahin https t co b7dymmekfs</t>
-  </si>
-  <si>
-    <t>deh makan dulu siap debat awas pulpen lupa</t>
-  </si>
-  <si>
-    <t>kamu bukan tni kamu pecat sandang gelar purnawirawan kamu pantas</t>
-  </si>
-  <si>
-    <t>nyata pak debat empat ragu tni 01dilanjutkan jokowilagi</t>
-  </si>
-  <si>
-    <t>makanya kamu mikir belum tuntas belum prioritas jangan sebut kebo</t>
-  </si>
-  <si>
-    <t>juga tuduh pki jawab hahaha hari saya saya lawan saya akan lawan</t>
-  </si>
-  <si>
-    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing</t>
-  </si>
-  <si>
-    <t>nya punya ambisi wowo ambisi jangka pendek harta</t>
-  </si>
-  <si>
-    <t>political will cermin praktik berantas korupsi kata</t>
-  </si>
-  <si>
-    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni salut</t>
-  </si>
-  <si>
-    <t>presiden bisa tidak bicara detail alutsista indonesia itu yang sensitif tahan indonesia</t>
-  </si>
-  <si>
-    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi</t>
-  </si>
-  <si>
-    <t>hahaha yang bakar jenggot sama imbau pakai baju putih tps jangan ngambek gitu dong</t>
-  </si>
-  <si>
-    <t>gubernur pahe m tanya kamu lulus mana tidak tanya prestasi apa saya tanya kamu punya uang tidak</t>
-  </si>
-  <si>
-    <t>bagaimana tonton tertawa kalau kali kata militer indonesia sangat lemah padahal kuat militer indonesia masuk kuat dunia</t>
-  </si>
-  <si>
-    <t>banyak catat jadi kalau kalah mana letak kalah juga balik</t>
-  </si>
-  <si>
-    <t>bukan percaya mampu tni harus tni siap the worst scenario lindung indonesia prabowo</t>
-  </si>
-  <si>
-    <t>tidak mau mati jabat bpk dulu pernah kurus dia</t>
-  </si>
-  <si>
-    <t>turut tahan lemah implikasi uang indonesia lemah</t>
-  </si>
-  <si>
-    <t>baru era daulat laut nasional tega kapal kapal asing kini takut curi ikan teritori nasional</t>
-  </si>
-  <si>
-    <t>kalau bahasa simpel jin numpang sama genderuwo</t>
-  </si>
-  <si>
-    <t>ahmad tangkap polisi ujar benci ada hubung pilpres sama bahar bin smith tangkap polisi</t>
-  </si>
-  <si>
-    <t>makan tuh radar prabowobentengnkri 01caprespendustaabadi</t>
-  </si>
-  <si>
-    <t>kesi tuh si engkong g mau pilih kong prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>soal tahan benar beri briefing pak kalau presiden pecat</t>
-  </si>
-  <si>
-    <t>pak upaya masyarakat sulit tarik pungli urus segala</t>
-  </si>
-  <si>
-    <t>salah kali zo justru pak laksana clean government jadi pada gerah panas dapat uang</t>
-  </si>
-  <si>
-    <t>bogor tadi siang lihat massa riil wiwis perlu banyak banyak omong lihat prab</t>
-  </si>
-  <si>
-    <t>berangkat kerja naik taksi kepala pusing bawa motor jaman susah korupsi padahal banyak harus setor</t>
-  </si>
-  <si>
-    <t>panjang debat lihat goyah argumen kokoh tak yakin</t>
-  </si>
-  <si>
-    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019 republik</t>
-  </si>
-  <si>
-    <t>sakit masa konflik timur rupa konflik negeri bilang perang</t>
-  </si>
-  <si>
-    <t>calon presiden nomor urut khawatir kalau semua labuh bandara operate usaha asing</t>
-  </si>
-  <si>
-    <t>mantap keren moga ikut seluruh pelosok nusantara</t>
-  </si>
-  <si>
-    <t>pns pilih sulit laku pungli anggar potong ketat anggar</t>
-  </si>
-  <si>
-    <t>pilih sandi saya ingin bpjs puruk terus tidak optimal beri solusi awat sehat</t>
-  </si>
-  <si>
-    <t>salah besar sih pilih pak lembaga perintah bebas korupsi jual beli jabat</t>
-  </si>
-  <si>
-    <t>milik banyak prestasi ada prestasi milik salah satu cabut subsidi bbm</t>
-  </si>
-  <si>
-    <t>bagaimana mau pulang habib rizieq kalau tidak menang jadi presiden kata subianto</t>
-  </si>
-  <si>
-    <t>kalau pasu asing masuk tentara tindak adi napitupulu dukung calon presiden</t>
-  </si>
-  <si>
-    <t>justru makna bersit nada kalah rasa kalah</t>
-  </si>
-  <si>
-    <t>rubah watak susah susah jadi presiden https t co esw 5qi9add</t>
-  </si>
-  <si>
-    <t>banyak bandara asai asing buat khawatir serang luar https t co xj1ofes136</t>
-  </si>
-  <si>
-    <t>bahas pancasila udah final organisasi transnasional ideologi radikal pernah singgung</t>
-  </si>
-  <si>
-    <t>aduh salah data oy bong pinter dikit prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>mau begini acung jari telunjuk tak enak tim jokowi-maruf benci tauhid kan mereka benci tauhid</t>
-  </si>
-  <si>
-    <t>tadi ngomongin perang perang perang memang rencana pak wo mau bawa indonesia perang</t>
-  </si>
-  <si>
-    <t>pak sama pak sama emosional emosi pikir selamat nkri</t>
-  </si>
-  <si>
-    <t>narasi utama pakai debat kali adalah narasi asing narasi anti asing memang erat topik debat</t>
-  </si>
-  <si>
-    <t>lama kita suguh fitnah keji hadap presiden nyata justru konon turun khianat</t>
-  </si>
-  <si>
-    <t>pak emosi kalau bicara daulat aman nkri balik rakyat lindung</t>
-  </si>
-  <si>
-    <t>orang masa lalu sukses masa lalu gagal sesuai ubah hari memang tolak pak</t>
-  </si>
-  <si>
-    <t>pak kayak kakak lagi ngospek jangan buat ketawa terus marah kalau orang ketawa</t>
-  </si>
-  <si>
-    <t>terlalu asik bayang bebas ketawa larang culik hal jika jadi presiden</t>
-  </si>
-  <si>
-    <t>oke oce bangkrut gagal tingkat daya beli masyarakat</t>
-  </si>
-  <si>
-    <t>gagal paham cuma percaya bisik ngaco masa daulat kira kira prabowobentengnkri jok</t>
-  </si>
-  <si>
-    <t>kesi banget kamu sahal pilpres kamu jual ancam takut melulu khilafah lah culik lah</t>
-  </si>
-  <si>
-    <t>yang lemes nih kaya data salah ban semua pak prabowobentengnkri https t co 1yqfosvy7a</t>
-  </si>
-  <si>
-    <t>mau kalah disalahin khilafah hti bukankah hti bunuh</t>
-  </si>
-  <si>
-    <t>pikir pak tau masalah myanmar</t>
-  </si>
-  <si>
-    <t>tertawa pancing pidato closingnya beranta</t>
-  </si>
-  <si>
-    <t>bukan tidak percaya ini tni pak taruh nyawa tni lebih tni tni</t>
-  </si>
-  <si>
-    <t>gemetar apes malam kata di bentak jenderal prabowobentengnkri</t>
+    <t>buka visi misi begitu pukau sehingga buat presiden asa jadi bebek visimisi bukavisi visimisi misibegitu begitupukau pukausehingga sehinggabuat buatpresiden presidenasa asajadi jadibebek bebekvisimisi bukavisimisi visimisibegitu misibegitupukau begitupukausehingga pukausehinggabuat sehinggabuatpresiden buatpresidenasa presidenasajadi asajadibebek jadibebekvisimisi</t>
+  </si>
+  <si>
+    <t>lebih baik pakai teknologi lama kaya negara indonesia keluar indonesia lebihbaik baikpakai pakaiteknologi teknologilama lamakaya kayanegara negaraindonesia indonesiakeluar keluarindonesia lebihbaikpakai baikpakaiteknologi pakaiteknologilama teknologilamakaya lamakayanegara kayanegaraindonesia negaraindonesiakeluar indonesiakeluarindonesia</t>
+  </si>
+  <si>
+    <t>kok arguing without menang kokarguing arguingwithout withoutmenang kokarguingwithout arguingwithoutmenang</t>
+  </si>
+  <si>
+    <t>jalan politik politik satu bukan politik pecah belah salah prabowobentengnkri jalanpolitik politikpolitik politiksatu satubukan bukanpolitik politikpecah pecahbelah belahsalah salahprabowobentengnkri jalanpolitikpolitik politikpolitiksatu politiksatubukan satubukanpolitik bukanpolitikpecah politikpecahbelah pecahbelahsalah belahsalahprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>juga fans lihat tampil serang hahaha jugafans fanslihat lihattampil tampilserang seranghahaha jugafanslihat fanslihattampil lihattampilserang tampilseranghahaha</t>
+  </si>
+  <si>
+    <t>lemah tidak punya uang pak ngomongin tahan negara apa nyindir anak twitter nih optimisindo lemahtidak tidakpunya punyauang uangpak pakngomongin ngomongintahan tahannegara negaraapa apanyindir nyindiranak anaktwitter twitternih nihoptimisindo lemahtidakpunya tidakpunyauang punyauangpak uangpakngomongin pakngomongintahan ngomongintahannegara tahannegaraapa negaraapanyindir apanyindiranak nyindiranaktwitter anaktwitternih twitternihoptimisindo</t>
+  </si>
+  <si>
+    <t>si vis pacem belum bukan mantra dukun arti kalau damai siap perang top p sivis vispacem pacembelum belumbukan bukanmantra mantradukun dukunarti artikalau kalaudamai damaisiap siapperang perangtop topp sivispacem vispacembelum pacembelumbukan belumbukanmantra bukanmantradukun mantradukunarti dukunartikalau artikalaudamai kalaudamaisiap damaisiapperang siapperangtop perangtopp</t>
+  </si>
+  <si>
+    <t>apa bilang pak memang benar mau bukti di ejek asing v i r a l k a n prabow apabilang bilangpak pakmemang memangbenar benarmau maubukti buktidi diejek ejekasing asingv vi ir ra al lk ka an nprabow apabilangpak bilangpakmemang pakmemangbenar memangbenarmau benarmaubukti maubuktidi buktidiejek diejekasing ejekasingv asingvi vir ira ral alk lka kan anprabow</t>
+  </si>
+  <si>
+    <t>bidang perintah prabowo-sandi bahwa lembaga perintah kuat baru cipta negara kuat bidangperintah perintahprabowo-sandi prabowo-sandibahwa bahwalembaga lembagaperintah perintahkuat kuatbaru barucipta ciptanegara negarakuat bidangperintahprabowo-sandi perintahprabowo-sandibahwa prabowo-sandibahwalembaga bahwalembagaperintah lembagaperintahkuat perintahkuatbaru kuatbarucipta baruciptanegara ciptanegarakuat</t>
+  </si>
+  <si>
+    <t>percaya debat dukung ini sama seru jaman debat dukung choi taek kim junghwan percayadebat debatdukung dukungini inisama samaseru serujaman jamandebat debatdukung dukungchoi choitaek taekkim kimjunghwan percayadebatdukung debatdukungini dukunginisama inisamaseru samaserujaman serujamandebat jamandebatdukung debatdukungchoi dukungchoitaek choitaekkim taekkimjunghwan</t>
+  </si>
+  <si>
+    <t>bidang hubung internasional anut prinsip kawan terlalu sedikit musuh terlalu banyak prabowo bidanghubung hubunginternasional internasionalanut anutprinsip prinsipkawan kawanterlalu terlalusedikit sedikitmusuh musuhterlalu terlalubanyak banyakprabowo bidanghubunginternasional hubunginternasionalanut internasionalanutprinsip anutprinsipkawan prinsipkawanterlalu kawanterlalusedikit terlalusedikitmusuh sedikitmusuhterlalu musuhterlalubanyak terlalubanyakprabowo</t>
+  </si>
+  <si>
+    <t>temen pro dia bilang suka lihat mimik muka saat tiap bicara debat temenpro prodia diabilang bilangsuka sukalihat lihatmimik mimikmuka mukasaat saattiap tiapbicara bicaradebat temenprodia prodiabilang diabilangsuka bilangsukalihat sukalihatmimik lihatmimikmuka mimikmukasaat mukasaattiap saattiapbicara tiapbicaradebat</t>
+  </si>
+  <si>
+    <t>apa sampai p soal e-government e-procurement ini pernah sebut tahu lalu gagal total tuh p apasampai sampaip psoal soale-government e-governmente-procurement e-procurementini inipernah pernahsebut sebuttahu tahulalu lalugagal gagaltotal totaltuh tuhp apasampaip sampaipsoal psoale-government soale-governmente-procurement e-governmente-procurementini e-procurementinipernah inipernahsebut pernahsebuttahu sebuttahulalu tahulalugagal lalugagaltotal gagaltotaltuh totaltuhp</t>
+  </si>
+  <si>
+    <t>pak ngomong gebu bukan arti kasar galak pak ngomong pelan bukan arti lembek pakngomong ngomonggebu gebubukan bukanarti artikasar kasargalak galakpak pakngomong ngomongpelan pelanbukan bukanarti artilembek pakngomonggebu ngomonggebubukan gebubukanarti bukanartikasar artikasargalak kasargalakpak galakpakngomong pakngomongpelan ngomongpelanbukan pelanbukanarti bukanartilembek</t>
+  </si>
+  <si>
+    <t>mas malam bagus sekali debat serang tepat jantung tahan akhir muter jawab radar masmalam malambagus bagussekali sekalidebat debatserang serangtepat tepatjantung jantungtahan tahanakhir akhirmuter muterjawab jawabradar masmalambagus malambagussekali bagussekalidebat sekalidebatserang debatserangtepat serangtepatjantung tepatjantungtahan jantungtahanakhir tahanakhirmuter akhirmuterjawab muterjawabradar</t>
+  </si>
+  <si>
+    <t>lebih tni tni bapak pecat udah jangan lebihtni tnitni tnibapak bapakpecat pecatudah udahjangan lebihtnitni tnitnibapak tnibapakpecat bapakpecatudah pecatudahjangan</t>
+  </si>
+  <si>
+    <t>rawan kopi politik syndicate kps pro capres-cawapres - ma ruf amin bentuk tim siber tangkal rawankopi kopipolitik politiksyndicate syndicatekps kpspro procapres-cawapres capres-cawapres- -ma maruf rufamin aminbentuk bentuktim timsiber sibertangkal rawankopipolitik kopipolitiksyndicate politiksyndicatekps syndicatekpspro kpsprocapres-cawapres procapres-cawapres- capres-cawapres-ma -maruf marufamin rufaminbentuk aminbentuktim bentuktimsiber timsibertangkal</t>
+  </si>
+  <si>
+    <t>debat malam bukti sama emosional emosi pikir selamat debatmalam malambukti buktisama samaemosional emosionalemosi emosipikir pikirselamat debatmalambukti malambuktisama buktisamaemosional samaemosionalemosi emosionalemosipikir emosipikirselamat</t>
+  </si>
+  <si>
+    <t>pak percaya mampu tni jaga daulat nkri dengan dukung alutsista baik pakpercaya percayamampu mamputni tnijaga jagadaulat daulatnkri nkridengan dengandukung dukungalutsista alutsistabaik pakpercayamampu percayamamputni mamputnijaga tnijagadaulat jagadaulatnkri daulatnkridengan nkridengandukung dengandukungalutsista dukungalutsistabaik</t>
+  </si>
+  <si>
+    <t>turut akhir marah audiens tidak kontrol emosi turutakhir akhirmarah marahaudiens audienstidak tidakkontrol kontrolemosi turutakhirmarah akhirmarahaudiens marahaudienstidak audienstidakkontrol tidakkontrolemosi</t>
+  </si>
+  <si>
+    <t>pak mungkin rasa situasi perang kali pakmungkin mungkinrasa rasasituasi situasiperang perangkali pakmungkinrasa mungkinrasasituasi rasasituasiperang situasiperangkali</t>
+  </si>
+  <si>
+    <t>politik luar negeri perintah soal rohingya omong doang ada tuh repatriasi atas peran lebih banyak peran politikluar luarnegeri negeriperintah perintahsoal soalrohingya rohingyaomong omongdoang doangada adatuh tuhrepatriasi repatriasiatas atasperan peranlebih lebihbanyak banyakperan politikluarnegeri luarnegeriperintah negeriperintahsoal perintahsoalrohingya soalrohingyaomong rohingyaomongdoang omongdoangada doangadatuh adatuhrepatriasi tuhrepatriasiatas repatriasiatasperan atasperanlebih peranlebihbanyak lebihbanyakperan</t>
+  </si>
+  <si>
+    <t>lawan tuduh kubu belah pak pro hadap khilafah ingin ganti pancasila dengan tagar prabowo lawantuduh tuduhkubu kububelah belahpak pakpro prohadap hadapkhilafah khilafahingin inginganti gantipancasila pancasiladengan dengantagar tagarprabowo lawantuduhkubu tuduhkububelah kububelahpak belahpakpro pakprohadap prohadapkhilafah hadapkhilafahingin khilafahinginganti ingingantipancasila gantipancasiladengan pancasiladengantagar dengantagarprabowo</t>
+  </si>
+  <si>
+    <t>pelosok desa sampang madura jatim rakyat gotong royong buat apik pak mas dukung yuk pelosokdesa desasampang sampangmadura madurajatim jatimrakyat rakyatgotong gotongroyong royongbuat buatapik apikpak pakmas masdukung dukungyuk pelosokdesasampang desasampangmadura sampangmadurajatim madurajatimrakyat jatimrakyatgotong rakyatgotongroyong gotongroyongbuat royongbuatapik buatapikpak apikpakmas pakmasdukung masdukungyuk</t>
+  </si>
+  <si>
+    <t>kok berani bilang jadi mediator konflik afghanistan kayak cuma kunjung doang sana n foto sholat kokberani beranibilang bilangjadi jadimediator mediatorkonflik konflikafghanistan afghanistankayak kayakcuma cumakunjung kunjungdoang doangsana sanan nfoto fotosholat kokberanibilang beranibilangjadi bilangjadimediator jadimediatorkonflik mediatorkonflikafghanistan konflikafghanistankayak afghanistankayakcuma kayakcumakunjung cumakunjungdoang kunjungdoangsana doangsanan sananfoto nfotosholat</t>
+  </si>
+  <si>
+    <t>pak percaya sama tni iya pak percaya saya percaya nya sama orang suka ngomong bayar pakpercaya percayasama samatni tniiya iyapak pakpercaya percayasaya sayapercaya percayanya nyasama samaorang orangsuka sukangomong ngomongbayar pakpercayasama percayasamatni samatniiya tniiyapak iyapakpercaya pakpercayasaya percayasayapercaya sayapercayanya percayanyasama nyasamaorang samaorangsuka orangsukangomong sukangomongbayar</t>
+  </si>
+  <si>
+    <t>cuma orang dongo jangan masih tanya nasionalisme orang jenderal sumpah prajurit bawa mati cumaorang orangdongo dongojangan janganmasih masihtanya tanyanasionalisme nasionalismeorang orangjenderal jenderalsumpah sumpahprajurit prajuritbawa bawamati cumaorangdongo orangdongojangan dongojanganmasih janganmasihtanya masihtanyanasionalisme tanyanasionalismeorang nasionalismeorangjenderal orangjenderalsumpah jenderalsumpahprajurit sumpahprajuritbawa prajuritbawamati</t>
+  </si>
+  <si>
+    <t>debat kali turut pak all keluar performa maksimal bro jokowi kasi tunduk terus kurang caca diri debatkali kaliturut turutpak pakall allkeluar keluarperforma performamaksimal maksimalbro brojokowi jokowikasi kasitunduk tundukterus teruskurang kurangcaca cacadiri debatkaliturut kaliturutpak turutpakall pakallkeluar allkeluarperforma keluarperformamaksimal performamaksimalbro maksimalbrojokowi brojokowikasi jokowikasitunduk kasitundukterus tundukteruskurang teruskurangcaca kurangcacadiri</t>
+  </si>
+  <si>
+    <t>menang telak sibuk molbek 2in akun sipp lah sing penting semua semangat prabowobentengnkri menangtelak telaksibuk sibukmolbek molbek2in 2inakun akunsipp sipplah lahsing singpenting pentingsemua semuasemangat semangatprabowobentengnkri menangtelaksibuk telaksibukmolbek sibukmolbek2in molbek2inakun 2inakunsipp akunsipplah sipplahsing lahsingpenting singpentingsemua pentingsemuasemangat semuasemangatprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>bangun sistem layan masyarakat untuk cegah korupsi bocor bangunsistem sistemlayan layanmasyarakat masyarakatuntuk untukcegah cegahkorupsi korupsibocor bangunsistemlayan sistemlayanmasyarakat layanmasyarakatuntuk masyarakatuntukcegah untukcegahkorupsi cegahkorupsibocor</t>
+  </si>
+  <si>
+    <t>woy asal bapak senang banyak tim lho menteri afkiran selalu kasih data salah sama kamu woyasal asalbapak bapaksenang senangbanyak banyaktim timlho lhomenteri menteriafkiran afkiranselalu selalukasih kasihdata datasalah salahsama samakamu woyasalbapak asalbapaksenang bapaksenangbanyak senangbanyaktim banyaktimlho timlhomenteri lhomenteriafkiran menteriafkiranselalu afkiranselalukasih selalukasihdata kasihdatasalah datasalahsama salahsamakamu</t>
+  </si>
+  <si>
+    <t>malam dukung pak bisa tidur nyenyak akan ucap selamat tinggal pak jokowi hahaha malamdukung dukungpak pakbisa bisatidur tidurnyenyak nyenyakakan akanucap ucapselamat selamattinggal tinggalpak pakjokowi jokowihahaha malamdukungpak dukungpakbisa pakbisatidur bisatidurnyenyak tidurnyenyakakan nyenyakakanucap akanucapselamat ucapselamattinggal selamattinggalpak tinggalpakjokowi pakjokowihahaha</t>
+  </si>
+  <si>
+    <t>memang tarung pilpres sekali tentang cara pikir baru lawan cara pikir lama moga ini tarung akhir memangtarung tarungpilpres pilpressekali sekalitentang tentangcara carapikir pikirbaru barulawan lawancara carapikir pikirlama lamamoga mogaini initarung tarungakhir memangtarungpilpres tarungpilpressekali pilpressekalitentang sekalitentangcara tentangcarapikir carapikirbaru pikirbarulawan barulawancara lawancarapikir carapikirlama pikirlamamoga lamamogaini mogainitarung initarungakhir</t>
+  </si>
+  <si>
+    <t>moderator sampai haru dengar papar pak kena apa perlu cepat teknologi informasi kalau kaya ambil negara moderatorsampai sampaiharu harudengar dengarpapar paparpak pakkena kenaapa apaperlu perlucepat cepatteknologi teknologiinformasi informasikalau kalaukaya kayaambil ambilnegara moderatorsampaiharu sampaiharudengar harudengarpapar dengarpaparpak paparpakkena pakkenaapa kenaapaperlu apaperlucepat perlucepatteknologi cepatteknologiinformasi teknologiinformasikalau informasikalaukaya kalaukayaambil kayaambilnegara</t>
+  </si>
+  <si>
+    <t>aku rantai roda kuasa putus dia sahabat putus akurantai rantairoda rodakuasa kuasaputus putusdia diasahabat sahabatputus akurantairoda rantairodakuasa rodakuasaputus kuasaputusdia putusdiasahabat diasahabatputus</t>
+  </si>
+  <si>
+    <t>henti tv lihat debat sebentar terus teriak supir bus sorak sorai ikut hentitv tvlihat lihatdebat debatsebentar sebentarterus terusteriak teriaksupir supirbus bussorak soraksorai soraiikut hentitvlihat tvlihatdebat lihatdebatsebentar debatsebentarterus sebentarterusteriak terusteriaksupir teriaksupirbus supirbussorak bussoraksorai soraksoraiikut</t>
+  </si>
+  <si>
+    <t>hahaha closing sempurna pak gila sih nyata receh beliau yakin optimis april hahahaclosing closingsempurna sempurnapak pakgila gilasih sihnyata nyatareceh recehbeliau beliauyakin yakinoptimis optimisapril hahahaclosingsempurna closingsempurnapak sempurnapakgila pakgilasih gilasihnyata sihnyatareceh nyatarecehbeliau recehbeliauyakin beliauyakinoptimis yakinoptimisapril</t>
+  </si>
+  <si>
+    <t>ingin ganti pancasila republik ada banyak yang ingin ganti presiden jangan kok santai inginganti gantipancasila pancasilarepublik republikada adabanyak banyakyang yangingin inginganti gantipresiden presidenjangan jangankok koksantai ingingantipancasila gantipancasilarepublik pancasilarepublikada republikadabanyak adabanyakyang banyakyangingin yanginginganti ingingantipresiden gantipresidenjangan presidenjangankok jangankoksantai</t>
+  </si>
+  <si>
+    <t>si bilang bela pancasila dukung curut khilafah hti juga hapal pancasila sibilang bilangbela belapancasila pancasiladukung dukungcurut curutkhilafah khilafahhti htijuga jugahapal hapalpancasila sibilangbela bilangbelapancasila belapancasiladukung pancasiladukungcurut dukungcurutkhilafah curutkhilafahhti khilafahhtijuga htijugahapal jugahapalpancasila</t>
+  </si>
+  <si>
+    <t>poin besar kalah tahana dukung ngetawain nasionalisme mas prabowobentengnkri poinbesar besarkalah kalahtahana tahanadukung dukungngetawain ngetawainnasionalisme nasionalismemas masprabowobentengnkri poinbesarkalah besarkalahtahana kalahtahanadukung tahanadukungngetawain dukungngetawainnasionalisme ngetawainnasionalismemas nasionalismemasprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>saya percaya kuat pimpin ada banyak diri bapak topang tahu lebih sayapercaya percayakuat kuatpimpin pimpinada adabanyak banyakdiri diribapak bapaktopang topangtahu tahulebih sayapercayakuat percayakuatpimpin kuatpimpinada pimpinadabanyak adabanyakdiri banyakdiribapak diribapaktopang bapaktopangtahu topangtahulebih</t>
+  </si>
+  <si>
+    <t>nasionalisme nampak sangat kental debat pilpres tuju bandara kelola asing berdikari nasionalismenampak nampaksangat sangatkental kentaldebat debatpilpres pilprestuju tujubandara bandarakelola kelolaasing asingberdikari nasionalismenampaksangat nampaksangatkental sangatkentaldebat kentaldebatpilpres debatpilprestuju pilprestujubandara tujubandarakelola bandarakelolaasing kelolaasingberdikari</t>
+  </si>
+  <si>
+    <t>pak tampil malam buat makin bangga kamu lihat sangat peduli nkri paktampil tampilmalam malambuat buatmakin makinbangga banggakamu kamulihat lihatsangat sangatpeduli pedulinkri paktampilmalam tampilmalambuat malambuatmakin buatmakinbangga makinbanggakamu banggakamulihat kamulihatsangat lihatsangatpeduli sangatpedulinkri</t>
+  </si>
+  <si>
+    <t>ini tni pak pecat debatpilpres 2019 https t co usdobwdlba initni tnipak pakpecat pecatdebatpilpres debatpilpres2019 2019https httpst tco cousdobwdlba initnipak tnipakpecat pakpecatdebatpilpres pecatdebatpilpres2019 debatpilpres2019https 2019httpst httpstco tcousdobwdlba</t>
+  </si>
+  <si>
+    <t>debat calon presiden malam pak tampil tenang visioner matang gulir gagas cara cemerlang debatcalon calonpresiden presidenmalam malampak paktampil tampiltenang tenangvisioner visionermatang matanggulir gulirgagas gagascara caracemerlang debatcalonpresiden calonpresidenmalam presidenmalampak malampaktampil paktampiltenang tampiltenangvisioner tenangvisionermatang visionermatanggulir matanggulirgagas gulirgagascara gagascaracemerlang</t>
+  </si>
+  <si>
+    <t>sekarang gilir kpps nya tidak netral makin benar curang dapat kalah sekaranggilir gilirkpps kppsnya nyatidak tidaknetral netralmakin makinbenar benarcurang curangdapat dapatkalah sekaranggilirkpps gilirkppsnya kppsnyatidak nyatidaknetral tidaknetralmakin netralmakinbenar makinbenarcurang benarcurangdapat curangdapatkalah</t>
+  </si>
+  <si>
+    <t>calon presiden ajak semua pihak politik negara baik saling tiada calonpresiden presidenajak ajaksemua semuapihak pihakpolitik politiknegara negarabaik baiksaling salingtiada calonpresidenajak presidenajaksemua ajaksemuapihak semuapihakpolitik pihakpolitiknegara politiknegarabaik negarabaiksaling baiksalingtiada</t>
+  </si>
+  <si>
+    <t>malam debat pilpres ke tampil pak patut apresiasi beliau lebih kritis ofensif malamdebat debatpilpres pilpreske ketampil tampilpak pakpatut patutapresiasi apresiasibeliau beliaulebih lebihkritis kritisofensif malamdebatpilpres debatpilpreske pilpresketampil ketampilpak tampilpakpatut pakpatutapresiasi patutapresiasibeliau apresiasibeliaulebih beliaulebihkritis lebihkritisofensif</t>
+  </si>
+  <si>
+    <t>tahan indonesia sangat lemah jauh yang harap kita punya uang prabowobentengnkri tahanindonesia indonesiasangat sangatlemah lemahjauh jauhyang yangharap harapkita kitapunya punyauang uangprabowobentengnkri tahanindonesiasangat indonesiasangatlemah sangatlemahjauh lemahjauhyang jauhyangharap yangharapkita harapkitapunya kitapunyauang punyauangprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>selesai selamat pak cinta rindu cinta rindu cinta rindu selesaiselamat selamatpak pakcinta cintarindu rinducinta cintarindu rinducinta cintarindu selesaiselamatpak selamatpakcinta pakcintarindu cintarinducinta rinducintarindu cintarinducinta rinducintarindu</t>
+  </si>
+  <si>
+    <t>jawab skak mat mas hadap kartu nya si jokowi apa punya banyak kartu kalau kaya keluar negeri jawabskak skakmat matmas mashadap hadapkartu kartunya nyasi sijokowi jokowiapa apapunya punyabanyak banyakkartu kartukalau kalaukaya kayakeluar keluarnegeri jawabskakmat skakmatmas matmashadap mashadapkartu hadapkartunya kartunyasi nyasijokowi sijokowiapa jokowiapapunya apapunyabanyak punyabanyakkartu banyakkartukalau kartukalaukaya kalaukayakeluar kayakeluarnegeri</t>
+  </si>
+  <si>
+    <t>menang telak sih gilee bantai cara telak debat gilak brutal malam menangtelak telaksih sihgilee gileebantai bantaicara caratelak telakdebat debatgilak gilakbrutal brutalmalam menangtelaksih telaksihgilee sihgileebantai gileebantaicara bantaicaratelak caratelakdebat telakdebatgilak debatgilakbrutal gilakbrutalmalam</t>
+  </si>
+  <si>
+    <t>duh pak baik banget kalau bicara bahasa inggris arti tahu kalau pak bisa bahasa inggris duhpak pakbaik baikbanget bangetkalau kalaubicara bicarabahasa bahasainggris inggrisarti artitahu tahukalau kalaupak pakbisa bisabahasa bahasainggris duhpakbaik pakbaikbanget baikbangetkalau bangetkalaubicara kalaubicarabahasa bicarabahasainggris bahasainggrisarti inggrisartitahu artitahukalau tahukalaupak kalaupakbisa pakbisabahasa bisabahasainggris</t>
+  </si>
+  <si>
+    <t>percaya tni sedang sipil aku sangat percaya tni pemerintahandilan percayatni tnisedang sedangsipil sipilaku akusangat sangatpercaya percayatni tnipemerintahandilan percayatnisedang tnisedangsipil sedangsipilaku sipilakusangat akusangatpercaya sangatpercayatni percayatnipemerintahandilan</t>
+  </si>
+  <si>
+    <t>pak kalau diplomasi jadi nice guy pak faham betul diplomasi batas ramah tamah pakkalau kalaudiplomasi diplomasijadi jadinice niceguy guypak pakfaham fahambetul betuldiplomasi diplomasibatas batasramah ramahtamah pakkalaudiplomasi kalaudiplomasijadi diplomasijadinice jadiniceguy niceguypak guypakfaham pakfahambetul fahambetuldiplomasi betuldiplomasibatas diplomasibatasramah batasramahtamah</t>
+  </si>
+  <si>
+    <t>wongsai kok ngajak perang lama selalu ajak maju indonesia si mental ciken selalu lihat keburu wongsaikok kokngajak ngajakperang peranglama lamaselalu selaluajak ajakmaju majuindonesia indonesiasi simental mentalciken cikenselalu selalulihat lihatkeburu wongsaikokngajak kokngajakperang ngajakperanglama peranglamaselalu lamaselaluajak selaluajakmaju ajakmajuindonesia majuindonesiasi indonesiasimental simentalciken mentalcikenselalu cikenselalulihat selalulihatkeburu</t>
+  </si>
+  <si>
+    <t>bagai minoritas yakin pak bang dapat mandat rakyat kuat rasa satu bagaiminoritas minoritasyakin yakinpak pakbang bangdapat dapatmandat mandatrakyat rakyatkuat kuatrasa rasasatu bagaiminoritasyakin minoritasyakinpak yakinpakbang pakbangdapat bangdapatmandat dapatmandatrakyat mandatrakyatkuat rakyatkuatrasa kuatrasasatu</t>
+  </si>
+  <si>
+    <t>salam presiden insyallah debat malam bapak pukau salam sayang rakyat pak bagus salampresiden presideninsyallah insyallahdebat debatmalam malambapak bapakpukau pukausalam salamsayang sayangrakyat rakyatpak pakbagus salampresideninsyallah presideninsyallahdebat insyallahdebatmalam debatmalambapak malambapakpukau bapakpukausalam pukausalamsayang salamsayangrakyat sayangrakyatpak rakyatpakbagus</t>
+  </si>
+  <si>
+    <t>siapa calon presiden tampil lebih baik debatpilpres 2019 malam pemilunesia debatpilpres 2019 siapacalon calonpresiden presidentampil tampillebih lebihbaik baikdebatpilpres debatpilpres2019 2019malam malampemilunesia pemilunesiadebatpilpres debatpilpres2019 siapacalonpresiden calonpresidentampil presidentampillebih tampillebihbaik lebihbaikdebatpilpres baikdebatpilpres2019 debatpilpres2019malam 2019malampemilunesia malampemilunesiadebatpilpres pemilunesiadebatpilpres2019</t>
+  </si>
+  <si>
+    <t>lihat kalian fitnah anti islam beliau bangun hai universitas islam international indonesia lihatkalian kalianfitnah fitnahanti antiislam islambeliau beliaubangun bangunhai haiuniversitas universitasislam islaminternational internationalindonesia lihatkalianfitnah kalianfitnahanti fitnahantiislam antiislambeliau islambeliaubangun beliaubangunhai bangunhaiuniversitas haiuniversitasislam universitasislaminternational islaminternationalindonesia</t>
+  </si>
+  <si>
+    <t>malam tamat sepakat retwet 01caprespendustaabadi malamtamat tamatsepakat sepakatretwet retwet01caprespendustaabadi malamtamatsepakat tamatsepakatretwet sepakatretwet01caprespendustaabadi</t>
+  </si>
+  <si>
+    <t>pak kalau badan gemuk tinggi bapak baik kalau pake setel jas jangan model double breastest pakkalau kalaubadan badangemuk gemuktinggi tinggibapak bapakbaik baikkalau kalaupake pakesetel seteljas jasjangan janganmodel modeldouble doublebreastest pakkalaubadan kalaubadangemuk badangemuktinggi gemuktinggibapak tinggibapakbaik bapakbaikkalau baikkalaupake kalaupakesetel pakeseteljas seteljasjangan jasjanganmodel janganmodeldouble modeldoublebreastest</t>
+  </si>
+  <si>
+    <t>tegas sekali presiden malam jangan kasih kendor jenderal idola tunjuk dunia prabowobentengnkri tegassekali sekalipresiden presidenmalam malamjangan jangankasih kasihkendor kendorjenderal jenderalidola idolatunjuk tunjukdunia duniaprabowobentengnkri tegassekalipresiden sekalipresidenmalam presidenmalamjangan malamjangankasih jangankasihkendor kasihkendorjenderal kendorjenderalidola jenderalidolatunjuk idolatunjukdunia tunjukduniaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>clossing pak debat kali sangat luarbiasa tuju sama bapak sahabat memang nomer clossingpak pakdebat debatkali kalisangat sangatluarbiasa luarbiasatuju tujusama samabapak bapaksahabat sahabatmemang memangnomer clossingpakdebat pakdebatkali debatkalisangat kalisangatluarbiasa sangatluarbiasatuju luarbiasatujusama tujusamabapak samabapaksahabat bapaksahabatmemang sahabatmemangnomer</t>
+  </si>
+  <si>
+    <t>suka banget video pak memang juara terimakasihistriku https t co nm5n7irsie sukabanget bangetvideo videopak pakmemang memangjuara juaraterimakasihistriku terimakasihistrikuhttps httpst tco conm5n7irsie sukabangetvideo bangetvideopak videopakmemang pakmemangjuara memangjuaraterimakasihistriku juaraterimakasihistrikuhttps terimakasihistrikuhttpst httpstco tconm5n7irsie</t>
+  </si>
+  <si>
+    <t>bukti indonesia lebih maju bawah pimpin presiden menangjokowilagi buktiindonesia indonesialebih lebihmaju majubawah bawahpimpin pimpinpresiden presidenmenangjokowilagi buktiindonesialebih indonesialebihmaju lebihmajubawah majubawahpimpin bawahpimpinpresiden pimpinpresidenmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>butuh pimpin optimis pak bukan orang pesimis marah butuhpimpin pimpinoptimis optimispak pakbukan bukanorang orangpesimis pesimismarah butuhpimpinoptimis pimpinoptimispak optimispakbukan pakbukanorang bukanorangpesimis orangpesimismarah</t>
+  </si>
+  <si>
+    <t>bareng pak jadi indonesia lebih maju selalu optimis kerja bangun bangsa barengpak pakjadi jadiindonesia indonesialebih lebihmaju majuselalu selaluoptimis optimiskerja kerjabangun bangunbangsa barengpakjadi pakjadiindonesia jadiindonesialebih indonesialebihmaju lebihmajuselalu majuselaluoptimis selaluoptimiskerja optimiskerjabangun kerjabangunbangsa</t>
+  </si>
+  <si>
+    <t>mewek curhat pak lihat tuh pak lama 4 5 tahu tuduh pki beliau biasa mewekcurhat curhatpak paklihat lihattuh tuhpak paklama lama4 45 5tahu tahutuduh tuduhpki pkibeliau beliaubiasa mewekcurhatpak curhatpaklihat paklihattuh lihattuhpak tuhpaklama paklama4 lama45 45tahu 5tahutuduh tahutuduhpki tuduhpkibeliau pkibeliaubiasa</t>
+  </si>
+  <si>
+    <t>prediksi telah debat empat non-prabowo pak bang popular vote jaga baik tps prediksitelah telahdebat debatempat empatnon-prabowo non-prabowopak pakbang bangpopular popularvote votejaga jagabaik baiktps prediksitelahdebat telahdebatempat debatempatnon-prabowo empatnon-prabowopak non-prabowopakbang pakbangpopular bangpopularvote popularvotejaga votejagabaik jagabaiktps</t>
+  </si>
+  <si>
+    <t>masalah kondisi negara sekarang suatu distrust elite perintah masalahkondisi kondisinegara negarasekarang sekarangsuatu suatudistrust distrustelite eliteperintah masalahkondisinegara kondisinegarasekarang negarasekarangsuatu sekarangsuatudistrust suatudistrustelite distrusteliteperintah</t>
+  </si>
+  <si>
+    <t>sial nyata cuma orang boneka prabowobentengnkri sialnyata nyatacuma cumaorang orangboneka bonekaprabowobentengnkri sialnyatacuma nyatacumaorang cumaorangboneka orangbonekaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>orang indonesia miskin ikan beberapa karung beras mereka vote saya orangindonesia indonesiamiskin miskinikan ikanbeberapa beberapakarung karungberas berasmereka merekavote votesaya orangindonesiamiskin indonesiamiskinikan miskinikanbeberapa ikanbeberapakarung beberapakarungberas karungberasmereka berasmerekavote merekavotesaya</t>
+  </si>
+  <si>
+    <t>sangat kagum sikap ramah dukung prabowopresidenke 2019 https t co 3fzmdf48el sangatkagum kagumsikap sikapramah ramahdukung dukungprabowopresidenke prabowopresidenke2019 2019https httpst tco co3fzmdf48el sangatkagumsikap kagumsikapramah sikapramahdukung ramahdukungprabowopresidenke dukungprabowopresidenke2019 prabowopresidenke2019https 2019httpst httpstco tco3fzmdf48el</t>
+  </si>
+  <si>
+    <t>debat lebih panjang lagi jadi showcase atas hasil progress perintah debatlebih lebihpanjang panjanglagi lagijadi jadishowcase showcaseatas atashasil hasilprogress progressperintah debatlebihpanjang lebihpanjanglagi panjanglagijadi lagijadishowcase jadishowcaseatas showcaseatashasil atashasilprogress hasilprogressperintah</t>
+  </si>
+  <si>
+    <t>sombong klaim diri lebih tni para tni mana nyata angkuh emosional sombongklaim klaimdiri dirilebih lebihtni tnipara paratni tnimana mananyata nyataangkuh angkuhemosional sombongklaimdiri klaimdirilebih dirilebihtni lebihtnipara tniparatni paratnimana tnimananyata mananyataangkuh nyataangkuhemosional</t>
+  </si>
+  <si>
+    <t>jokowi intelijen strategis kata tahun depan akan invasi negara jokowiintelijen intelijenstrategis strategiskata katatahun tahundepan depanakan akaninvasi invasinegara jokowiintelijenstrategis intelijenstrategiskata strategiskatatahun katatahundepan tahundepanakan depanakaninvasi akaninvasinegara</t>
+  </si>
+  <si>
+    <t>pemerintahandilan perintah bas digital jadi prestasi pak tengak revolusi industri 4 0 pemerintahandilanperintah perintahbas basdigital digitaljadi jadiprestasi prestasipak paktengak tengakrevolusi revolusiindustri industri4 40 pemerintahandilanperintahbas perintahbasdigital basdigitaljadi digitaljadiprestasi jadiprestasipak prestasipaktengak paktengakrevolusi tengakrevolusiindustri revolusiindustri4 industri40</t>
+  </si>
+  <si>
+    <t>pak tahan indonesia terlalu lemah iya bagaimana pak kalau chat hei sama mantan jangan langsung mikir besok paktahan tahanindonesia indonesiaterlalu terlalulemah lemahiya iyabagaimana bagaimanapak pakkalau kalauchat chathei heisama samamantan mantanjangan janganlangsung langsungmikir mikirbesok paktahanindonesia tahanindonesiaterlalu indonesiaterlalulemah terlalulemahiya lemahiyabagaimana iyabagaimanapak bagaimanapakkalau pakkalauchat kalauchathei chatheisama heisamamantan samamantanjangan mantanjanganlangsung janganlangsungmikir langsungmikirbesok</t>
+  </si>
+  <si>
+    <t>kini tegas tentang diri khalifah sama itu kabar buruk hti dukung kinitegas tegastentang tentangdiri dirikhalifah khalifahsama samaitu itukabar kabarburuk burukhti htidukung kinitegastentang tegastentangdiri tentangdirikhalifah dirikhalifahsama khalifahsamaitu samaitukabar itukabarburuk kabarburukhti burukhtidukung</t>
+  </si>
+  <si>
+    <t>pak langsung ban klarifikasi tuduh kubu tahana tuduh khilafah paklangsung langsungban banklarifikasi klarifikasituduh tuduhkubu kubutahana tahanatuduh tuduhkhilafah paklangsungban langsungbanklarifikasi banklarifikasituduh klarifikasituduhkubu tuduhkubutahana kubutahanatuduh tahanatuduhkhilafah</t>
+  </si>
+  <si>
+    <t>bismillah pak sukses debat mohon maaf tidak tani saya janji anak muda bismillahpak paksukses suksesdebat debatmohon mohonmaaf maaftidak tidaktani tanisaya sayajanji janjianak anakmuda bismillahpaksukses paksuksesdebat suksesdebatmohon debatmohonmaaf mohonmaaftidak maaftidaktani tidaktanisaya tanisayajanji sayajanjianak janjianakmuda</t>
+  </si>
+  <si>
+    <t>sorot debatpilpres 2019 kali presiden sangat jelas masa kini masa depan realita solusi masalah sorotdebatpilpres debatpilpres2019 2019kali kalipresiden presidensangat sangatjelas jelasmasa masakini kinimasa masadepan depanrealita realitasolusi solusimasalah sorotdebatpilpres2019 debatpilpres2019kali 2019kalipresiden kalipresidensangat presidensangatjelas sangatjelasmasa jelasmasakini masakinimasa kinimasadepan masadepanrealita depanrealitasolusi realitasolusimasalah</t>
+  </si>
+  <si>
+    <t>pak pidato bicara bahasa inggris baik benar teks forum internasional pakpidato pidatobicara bicarabahasa bahasainggris inggrisbaik baikbenar benarteks teksforum foruminternasional pakpidatobicara pidatobicarabahasa bicarabahasainggris bahasainggrisbaik inggrisbaikbenar baikbenarteks benarteksforum teksforuminternasional</t>
+  </si>
+  <si>
+    <t>indonesia syukur hasil survei lembaga independen indikasi menang telak menangjokowilagi indonesiasyukur syukurhasil hasilsurvei surveilembaga lembagaindependen independenindikasi indikasimenang menangtelak telakmenangjokowilagi indonesiasyukurhasil syukurhasilsurvei hasilsurveilembaga surveilembagaindependen lembagaindependenindikasi independenindikasimenang indikasimenangtelak menangtelakmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>yang golput besok kalau udah kelar pilpres terus udah jalan perintah ada salah jangan nyalahin perintah yanggolput golputbesok besokkalau kalauudah udahkelar kelarpilpres pilpresterus terusudah udahjalan jalanperintah perintahada adasalah salahjangan jangannyalahin nyalahinperintah yanggolputbesok golputbesokkalau besokkalauudah kalauudahkelar udahkelarpilpres kelarpilpresterus pilpresterusudah terusudahjalan udahjalanperintah jalanperintahada perintahadasalah adasalahjangan salahjangannyalahin jangannyalahinperintah</t>
+  </si>
+  <si>
+    <t>kecewa larang perintah kampanye akbar dalam stadion pakansari bangun rakyat ujar kecewalarang larangperintah perintahkampanye kampanyeakbar akbardalam dalamstadion stadionpakansari pakansaribangun bangunrakyat rakyatujar kecewalarangperintah larangperintahkampanye perintahkampanyeakbar kampanyeakbardalam akbardalamstadion dalamstadionpakansari stadionpakansaribangun pakansaribangunrakyat bangunrakyatujar</t>
+  </si>
+  <si>
+    <t>debat sikap kok sama persis sikap dukung khilafah selalu sebar takut debatsikap sikapkok koksama samapersis persissikap sikapdukung dukungkhilafah khilafahselalu selalusebar sebartakut debatsikapkok sikapkoksama koksamapersis samapersissikap persissikapdukung sikapdukungkhilafah dukungkhilafahselalu khilafahselalusebar selalusebartakut</t>
+  </si>
+  <si>
+    <t>jawab telak pak hadap kartu penting apa punya banyak kartu jawabtelak telakpak pakhadap hadapkartu kartupenting pentingapa apapunya punyabanyak banyakkartu jawabtelakpak telakpakhadap pakhadapkartu hadapkartupenting kartupentingapa pentingapapunya apapunyabanyak punyabanyakkartu</t>
+  </si>
+  <si>
+    <t>benteng nkri negara belanda simpan dokumentasi selamat sandra papua prabowobentengnkri bentengnkri nkrinegara negarabelanda belandasimpan simpandokumentasi dokumentasiselamat selamatsandra sandrapapua papuaprabowobentengnkri bentengnkrinegara nkrinegarabelanda negarabelandasimpan belandasimpandokumentasi simpandokumentasiselamat dokumentasiselamatsandra selamatsandrapapua sandrapapuaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>bukti bangun indonesia maju adab lebih baik menangjokowilagi buktibangun bangunindonesia indonesiamaju majuadab adablebih lebihbaik baikmenangjokowilagi buktibangunindonesia bangunindonesiamaju indonesiamajuadab majuadablebih adablebihbaik lebihbaikmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>simak sebar doauntukprabowosandi menang pilpres hampir pasti laju simaksebar sebardoauntukprabowosandi doauntukprabowosandimenang menangpilpres pilpreshampir hampirpasti pastilaju simaksebardoauntukprabowosandi sebardoauntukprabowosandimenang doauntukprabowosandimenangpilpres menangpilpreshampir pilpreshampirpasti hampirpastilaju</t>
+  </si>
+  <si>
+    <t>bagai muslim senang tulis yuk baca guys yang muslim baik dukung bagaimuslim muslimsenang senangtulis tulisyuk yukbaca bacaguys guysyang yangmuslim muslimbaik baikdukung bagaimuslimsenang muslimsenangtulis senangtulisyuk tulisyukbaca yukbacaguys bacaguysyang guysyangmuslim yangmuslimbaik muslimbaikdukung</t>
+  </si>
+  <si>
+    <t>cakep nih debat pintar ada mal layan publik harap cepat layan bisa beri usaha cakepnih nihdebat debatpintar pintarada adamal mallayan layanpublik publikharap harapcepat cepatlayan layanbisa bisaberi beriusaha cakepnihdebat nihdebatpintar debatpintarada pintaradamal adamallayan mallayanpublik layanpublikharap publikharapcepat harapcepatlayan cepatlayanbisa layanbisaberi bisaberiusaha</t>
+  </si>
+  <si>
+    <t>aman semua pak kendali pak radar cukup pak budaya indonesia asal bapak senang jadi mohon kaji tahan sangat penting amansemua semuapak pakkendali kendalipak pakradar radarcukup cukuppak pakbudaya budayaindonesia indonesiaasal asalbapak bapaksenang senangjadi jadimohon mohonkaji kajitahan tahansangat sangatpenting amansemuapak semuapakkendali pakkendalipak kendalipakradar pakradarcukup radarcukuppak cukuppakbudaya pakbudayaindonesia budayaindonesiaasal indonesiaasalbapak asalbapaksenang bapaksenangjadi senangjadimohon jadimohonkaji mohonkajitahan kajitahansangat tahansangatpenting</t>
+  </si>
+  <si>
+    <t>jauh kelas banding jokowi barusan kan gaes presiden 2019-2024 sepakat retwet 19harilagicoblo jauhkelas kelasbanding bandingjokowi jokowibarusan barusankan kangaes gaespresiden presiden2019-2024 2019-2024sepakat sepakatretwet retwet19harilagicoblo jauhkelasbanding kelasbandingjokowi bandingjokowibarusan jokowibarusankan barusankangaes kangaespresiden gaespresiden2019-2024 presiden2019-2024sepakat 2019-2024sepakatretwet sepakatretwet19harilagicoblo</t>
+  </si>
+  <si>
+    <t>pak jokowi sering tunduk lemas lihat papar jenderal turut tuipers apa pikir jokowi pakjokowi jokowisering seringtunduk tunduklemas lemaslihat lihatpapar paparjenderal jenderalturut turuttuipers tuipersapa apapikir pikirjokowi pakjokowisering jokowiseringtunduk seringtunduklemas tunduklemaslihat lemaslihatpapar lihatpaparjenderal paparjenderalturut jenderalturuttuipers turuttuipersapa tuipersapapikir apapikirjokowi</t>
+  </si>
+  <si>
+    <t>masyaallah speechless rp juta sumbang buruh migran tki tkw - sandi cibinong masyaallahspeechless speechlessrp rpjuta jutasumbang sumbangburuh buruhmigran migrantki tkitkw tkw- -sandi sandicibinong masyaallahspeechlessrp speechlessrpjuta rpjutasumbang jutasumbangburuh sumbangburuhmigran buruhmigrantki migrantkitkw tkitkw- tkw-sandi -sandicibinong</t>
+  </si>
+  <si>
+    <t>sandi juang seluruh rakyat indonesia bentuk perintah bersih tegas sama sandijuang juangseluruh seluruhrakyat rakyatindonesia indonesiabentuk bentukperintah perintahbersih bersihtegas tegassama sandijuangseluruh juangseluruhrakyat seluruhrakyatindonesia rakyatindonesiabentuk indonesiabentukperintah bentukperintahbersih perintahbersihtegas bersihtegassama</t>
+  </si>
+  <si>
+    <t>tuju sekali pak selesai soal korupsi memang benah sistem bisa potong rantai tujusekali sekalipak pakselesai selesaisoal soalkorupsi korupsimemang memangbenah benahsistem sistembisa bisapotong potongrantai tujusekalipak sekalipakselesai pakselesaisoal selesaisoalkorupsi soalkorupsimemang korupsimemangbenah memangbenahsistem benahsistembisa sistembisapotong bisapotongrantai</t>
+  </si>
+  <si>
+    <t>tuju pas pak bilang ngajak toleransi dalam jalan politik politik satu tujupas paspak pakbilang bilangngajak ngajaktoleransi toleransidalam dalamjalan jalanpolitik politikpolitik politiksatu tujupaspak paspakbilang pakbilangngajak bilangngajaktoleransi ngajaktoleransidalam toleransidalamjalan dalamjalanpolitik jalanpolitikpolitik politikpolitiksatu</t>
+  </si>
+  <si>
+    <t>akhir rezim guna pasal karet guna bungkam lawan politik sama - sandi akhirrezim rezimguna gunapasal pasalkaret karetguna gunabungkam bungkamlawan lawanpolitik politiksama sama- -sandi akhirrezimguna rezimgunapasal gunapasalkaret pasalkaretguna karetgunabungkam gunabungkamlawan bungkamlawanpolitik lawanpolitiksama politiksama- sama-sandi</t>
+  </si>
+  <si>
+    <t>pak tegas penting maju teknologi transparansi efektitivitas efisiensi perintah paktegas tegaspenting pentingmaju majuteknologi teknologitransparansi transparansiefektitivitas efektitivitasefisiensi efisiensiperintah paktegaspenting tegaspentingmaju pentingmajuteknologi majuteknologitransparansi teknologitransparansiefektitivitas transparansiefektitivitasefisiensi efektitivitasefisiensiperintah</t>
+  </si>
+  <si>
+    <t>sekian lama pecat tni laku culi mungkin simpan dendam sekianlama lamapecat pecattni tnilaku lakuculi culimungkin mungkinsimpan simpandendam sekianlamapecat lamapecattni pecattnilaku tnilakuculi lakuculimungkin culimungkinsimpan mungkinsimpandendam</t>
+  </si>
+  <si>
+    <t>benci bilang marah kalimat bapak bilang ada sedih kalimat pak bencibilang bilangmarah marahkalimat kalimatbapak bapakbilang bilangada adasedih sedihkalimat kalimatpak bencibilangmarah bilangmarahkalimat marahkalimatbapak kalimatbapakbilang bapakbilangada bilangadasedih adasedihkalimat sedihkalimatpak</t>
+  </si>
+  <si>
+    <t>tenang kalau sampe perang saya yakin pak udah mikirin musti bagaimana akan diam lah sistem tahan tenangkalau kalausampe sampeperang perangsaya sayayakin yakinpak pakudah udahmikirin mikirinmusti mustibagaimana bagaimanaakan akandiam diamlah lahsistem sistemtahan tenangkalausampe kalausampeperang sampeperangsaya perangsayayakin sayayakinpak yakinpakudah pakudahmikirin udahmikirinmusti mikirinmustibagaimana mustibagaimanaakan bagaimanaakandiam akandiamlah diamlahsistem lahsistemtahan</t>
+  </si>
+  <si>
+    <t>percaya pak pancasila-is tuduh khilafah saya juga percaya pak pancasilais percayapak pakpancasila-is pancasila-istuduh tuduhkhilafah khilafahsaya sayajuga jugapercaya percayapak pakpancasilais percayapakpancasila-is pakpancasila-istuduh pancasila-istuduhkhilafah tuduhkhilafahsaya khilafahsayajuga sayajugapercaya jugapercayapak percayapakpancasilais</t>
+  </si>
+  <si>
+    <t>presiden tukar negara kembali normal sesuai pancasila cara pilih sandi presidentukar tukarnegara negarakembali kembalinormal normalsesuai sesuaipancasila pancasilacara carapilih pilihsandi presidentukarnegara tukarnegarakembali negarakembalinormal kembalinormalsesuai normalsesuaipancasila sesuaipancasilacara pancasilacarapilih carapilihsandi</t>
+  </si>
+  <si>
+    <t>lepas substansi debat khawatir sikap emosional pak cenderung labil merespon suatu masalah lepassubstansi substansidebat debatkhawatir khawatirsikap sikapemosional emosionalpak pakcenderung cenderunglabil labilmerespon meresponsuatu suatumasalah lepassubstansidebat substansidebatkhawatir debatkhawatirsikap khawatirsikapemosional sikapemosionalpak emosionalpakcenderung pakcenderunglabil cenderunglabilmerespon labilmeresponsuatu meresponsuatumasalah</t>
+  </si>
+  <si>
+    <t>optimisindonesiamaju kalau tetap percaya sama orang walau sering tuduh itu hehe optimisindonesiamajukalau kalautetap tetappercaya percayasama samaorang orangwalau walausering seringtuduh tuduhitu ituhehe optimisindonesiamajukalautetap kalautetappercaya tetappercayasama percayasamaorang samaorangwalau orangwalausering walauseringtuduh seringtuduhitu tuduhituhehe</t>
+  </si>
+  <si>
+    <t>cuma analis bodoh menganalisa keyword https t co latbu 4q1xn cumaanalis analisbodoh bodohmenganalisa menganalisakeyword keywordhttps httpst tco colatbu latbu4q1xn cumaanalisbodoh analisbodohmenganalisa bodohmenganalisakeyword menganalisakeywordhttps keywordhttpst httpstco tcolatbu colatbu4q1xn</t>
+  </si>
+  <si>
+    <t>do a tulus orang ibu gendong anak rupa fans berat bapak jadi presiden ri doa atulus tulusorang orangibu ibugendong gendonganak anakrupa rupafans fansberat beratbapak bapakjadi jadipresiden presidenri doatulus atulusorang tulusorangibu orangibugendong ibugendonganak gendonganakrupa anakrupafans rupafansberat fansberatbapak beratbapakjadi bapakjadipresiden jadipresidenri</t>
+  </si>
+  <si>
+    <t>dong pak sangat pro ekonomi digital pemerintahandilan https t co heqqtohzri dongpak paksangat sangatpro proekonomi ekonomidigital digitalpemerintahandilan pemerintahandilanhttps httpst tco coheqqtohzri dongpaksangat paksangatpro sangatproekonomi proekonomidigital ekonomidigitalpemerintahandilan digitalpemerintahandilanhttps pemerintahandilanhttpst httpstco tcoheqqtohzri</t>
+  </si>
+  <si>
+    <t>aura menang mas makin lihat jelas kalau mas menang apa akan kamu laku sobat tuips jokowid auramenang menangmas masmakin makinlihat lihatjelas jelaskalau kalaumas masmenang menangapa apaakan akankamu kamulaku lakusobat sobattuips tuipsjokowid auramenangmas menangmasmakin masmakinlihat makinlihatjelas lihatjelaskalau jelaskalaumas kalaumasmenang masmenangapa menangapaakan apaakankamu akankamulaku kamulakusobat lakusobattuips sobattuipsjokowid</t>
+  </si>
+  <si>
+    <t>mantep banget nih ustad tak perlu ganti presiden cukup pilih pak di tps mantepbanget bangetnih nihustad ustadtak takperlu perluganti gantipresiden presidencukup cukuppilih pilihpak pakdi ditps mantepbangetnih bangetnihustad nihustadtak ustadtakperlu takperluganti perlugantipresiden gantipresidencukup presidencukuppilih cukuppilihpak pilihpakdi pakditps</t>
+  </si>
+  <si>
+    <t>kalau mau jadi nice guy jadi mediator monggo kalau juang indonesia hormat indonesia kuat kalaumau maujadi jadinice niceguy guyjadi jadimediator mediatormonggo monggokalau kalaujuang juangindonesia indonesiahormat hormatindonesia indonesiakuat kalaumaujadi maujadinice jadiniceguy niceguyjadi guyjadimediator jadimediatormonggo mediatormonggokalau monggokalaujuang kalaujuangindonesia juangindonesiahormat indonesiahormatindonesia hormatindonesiakuat</t>
+  </si>
+  <si>
+    <t>pak percaya pbb peran indonesia selesai kasus rohingya datang tiba pakpercaya percayapbb pbbperan peranindonesia indonesiaselesai selesaikasus kasusrohingya rohingyadatang datangtiba pakpercayapbb percayapbbperan pbbperanindonesia peranindonesiaselesai indonesiaselesaikasus selesaikasusrohingya kasusrohingyadatang rohingyadatangtiba</t>
+  </si>
+  <si>
+    <t>lagi bohong diri sendiri rakyat soal radar tahan indonesia kuat lagibohong bohongdiri dirisendiri sendirirakyat rakyatsoal soalradar radartahan tahanindonesia indonesiakuat lagibohongdiri bohongdirisendiri dirisendirirakyat sendirirakyatsoal rakyatsoalradar soalradartahan radartahanindonesia tahanindonesiakuat</t>
+  </si>
+  <si>
+    <t>pak kaya ken banget perang gabung twitter jangan pak hampir tiap hari perang optimisindonesiamaju pakkaya kayaken kenbanget bangetperang peranggabung gabungtwitter twitterjangan janganpak pakhampir hampirtiap tiaphari hariperang perangoptimisindonesiamaju pakkayaken kayakenbanget kenbangetperang bangetperanggabung peranggabungtwitter gabungtwitterjangan twitterjanganpak janganpakhampir pakhampirtiap hampirtiaphari tiaphariperang hariperangoptimisindonesiamaju</t>
+  </si>
+  <si>
+    <t>bukan tidak percaya tni ini tni taruh nyawa di tni lebih tni banyak tni bukantidak tidakpercaya percayatni tniini initni tnitaruh taruhnyawa nyawadi ditni tnilebih lebihtni tnibanyak banyaktni bukantidakpercaya tidakpercayatni percayatniini tniinitni initnitaruh tnitaruhnyawa taruhnyawadi nyawaditni ditnilebih tnilebihtni lebihtnibanyak tnibanyaktni</t>
+  </si>
+  <si>
+    <t>bukan figur pimpin sempurna kalau lihat debat ya lebih yakin rival tahu mau laku bukanfigur figurpimpin pimpinsempurna sempurnakalau kalaulihat lihatdebat debatya yalebih lebihyakin yakinrival rivaltahu tahumau maulaku bukanfigurpimpin figurpimpinsempurna pimpinsempurnakalau sempurnakalaulihat kalaulihatdebat lihatdebatya debatyalebih yalebihyakin lebihyakinrival yakinrivaltahu rivaltahumau tahumaulaku</t>
+  </si>
+  <si>
+    <t>tampil mas debat calon presiden malam kejut beda debat tampilmas masdebat debatcalon calonpresiden presidenmalam malamkejut kejutbeda bedadebat tampilmasdebat masdebatcalon debatcalonpresiden calonpresidenmalam presidenmalamkejut malamkejutbeda kejutbedadebat</t>
+  </si>
+  <si>
+    <t>tampil lebih semangat tegas rada ofensif justru lihat sangat natural cerdas keluar tampillebih lebihsemangat semangattegas tegasrada radaofensif ofensifjustru justrulihat lihatsangat sangatnatural naturalcerdas cerdaskeluar tampillebihsemangat lebihsemangattegas semangattegasrada tegasradaofensif radaofensifjustru ofensifjustrulihat justrulihatsangat lihatsangatnatural sangatnaturalcerdas naturalcerdaskeluar</t>
+  </si>
+  <si>
+    <t>apa cepat kalau kaya alir luar negeri lebih baik pakai teknologi lama kaya indonesia apacepat cepatkalau kalaukaya kayaalir alirluar luarnegeri negerilebih lebihbaik baikpakai pakaiteknologi teknologilama lamakaya kayaindonesia apacepatkalau cepatkalaukaya kalaukayaalir kayaalirluar alirluarnegeri luarnegerilebih negerilebihbaik lebihbaikpakai baikpakaiteknologi pakaiteknologilama teknologilamakaya lamakayaindonesia</t>
+  </si>
+  <si>
+    <t>seluruh rakyat siap bangun indonesia sama menangjokowilagi seluruhrakyat rakyatsiap siapbangun bangunindonesia indonesiasama samamenangjokowilagi seluruhrakyatsiap rakyatsiapbangun siapbangunindonesia bangunindonesiasama indonesiasamamenangjokowilagi</t>
+  </si>
+  <si>
+    <t>jangan uang indonesia lari keluar negeri kata iya pak yang link ya janganuang uangindonesia indonesialari larikeluar keluarnegeri negerikata kataiya iyapak pakyang yanglink linkya janganuangindonesia uangindonesialari indonesialarikeluar larikeluarnegeri keluarnegerikata negerikataiya kataiyapak iyapakyang pakyanglink yanglinkya</t>
+  </si>
+  <si>
+    <t>biasa cuma lantang retorika kata dulu banyak panglima lapor asal bapak senang biasacuma cumalantang lantangretorika retorikakata katadulu dulubanyak banyakpanglima panglimalapor laporasal asalbapak bapaksenang biasacumalantang cumalantangretorika lantangretorikakata retorikakatadulu katadulubanyak dulubanyakpanglima banyakpanglimalapor panglimalaporasal laporasalbapak asalbapaksenang</t>
+  </si>
+  <si>
+    <t>real leader lihat jangan closing statement jadi ngikut begitu orang leader realleader leaderlihat lihatjangan janganclosing closingstatement statementjadi jadingikut ngikutbegitu begituorang orangleader realleaderlihat leaderlihatjangan lihatjanganclosing janganclosingstatement closingstatementjadi statementjadingikut jadingikutbegitu ngikutbegituorang begituorangleader</t>
+  </si>
+  <si>
+    <t>visi misi tawar baru baharu yang lebih visioner lebih detail pemerintahandilan visimisi misitawar tawarbaru barubaharu baharuyang yanglebih lebihvisioner visionerlebih lebihdetail detailpemerintahandilan visimisitawar misitawarbaru tawarbarubaharu barubaharuyang baharuyanglebih yanglebihvisioner lebihvisionerlebih visionerlebihdetail lebihdetailpemerintahandilan</t>
+  </si>
+  <si>
+    <t>detik detik marah marah di tertawa debatkeempatpilpres 2019 jokowimengubahsemua 01dilanjutkan detikdetik detikmarah marahmarah marahdi ditertawa tertawadebatkeempatpilpres debatkeempatpilpres2019 2019jokowimengubahsemua jokowimengubahsemua01dilanjutkan detikdetikmarah detikmarahmarah marahmarahdi marahditertawa ditertawadebatkeempatpilpres tertawadebatkeempatpilpres2019 debatkeempatpilpres2019jokowimengubahsemua 2019jokowimengubahsemua01dilanjutkan</t>
+  </si>
+  <si>
+    <t>allah maha dengar simpuh hadap mohon pak bang beri mudah allahmaha mahadengar dengarsimpuh simpuhhadap hadapmohon mohonpak pakbang bangberi berimudah allahmahadengar mahadengarsimpuh dengarsimpuhhadap simpuhhadapmohon hadapmohonpak mohonpakbang pakbangberi bangberimudah</t>
+  </si>
+  <si>
+    <t>ucap orang prajurit tak ragu tulus prabowo ucaporang orangprajurit prajurittak takragu ragutulus tulusprabowo ucaporangprajurit orangprajurittak prajurittakragu takragutulus ragutulusprabowo</t>
+  </si>
+  <si>
+    <t>satu tak lebih megalomaniak puja diri sendiri anggap diri paling hebat tni satutak taklebih lebihmegalomaniak megalomaniakpuja pujadiri dirisendiri sendirianggap anggapdiri diripaling palinghebat hebattni satutaklebih taklebihmegalomaniak lebihmegalomaniakpuja megalomaniakpujadiri pujadirisendiri dirisendirianggap sendirianggapdiri anggapdiripaling diripalinghebat palinghebattni</t>
+  </si>
+  <si>
+    <t>sistem jalur mana bagai izin jadi tempat ide luar biasa pakde ayah sistemjalur jalurmana manabagai bagaiizin izinjadi jaditempat tempatide ideluar luarbiasa biasapakde pakdeayah sistemjalurmana jalurmanabagai manabagaiizin bagaiizinjadi izinjaditempat jaditempatide tempatideluar ideluarbiasa luarbiasapakde biasapakdeayah</t>
+  </si>
+  <si>
+    <t>soal ungsi rohingya ada tuh peran jelas perintah pulang ungsi cox bazar wah bohong soalungsi ungsirohingya rohingyaada adatuh tuhperan peranjelas jelasperintah perintahpulang pulangungsi ungsicox coxbazar bazarwah wahbohong soalungsirohingya ungsirohingyaada rohingyaadatuh adatuhperan tuhperanjelas peranjelasperintah jelasperintahpulang perintahpulangungsi pulangungsicox ungsicoxbazar coxbazarwah bazarwahbohong</t>
+  </si>
+  <si>
+    <t>keluarga bisa ajar bagaimana cara sabar terus jalan keluargabisa bisaajar ajarbagaimana bagaimanacara carasabar sabarterus terusjalan keluargabisaajar bisaajarbagaimana ajarbagaimanacara bagaimanacarasabar carasabarterus sabarterusjalan selalu bangkit selalubangkit</t>
+  </si>
+  <si>
+    <t>bukan emosi bos tegas tu nama nya jelas kan hadap orang buta hati nya bukanemosi emosibos bostegas tegastu tunama namanya nyajelas jelaskan kanhadap hadaporang orangbuta butahati hatinya bukanemosibos emosibostegas bostegastu tegastunama tunamanya namanyajelas nyajelaskan jelaskanhadap kanhadaporang hadaporangbuta orangbutahati butahatinya</t>
+  </si>
+  <si>
+    <t>woi menang telak santai dikit ngapain sibuk nampolin cebong dongo biar halu alam woimenang menangtelak telaksantai santaidikit dikitngapain ngapainsibuk sibuknampolin nampolincebong cebongdongo dongobiar biarhalu halualam woimenangtelak menangtelaksantai telaksantaidikit santaidikitngapain dikitngapainsibuk ngapainsibuknampolin sibuknampolincebong nampolincebongdongo cebongdongobiar dongobiarhalu biarhalualam</t>
+  </si>
+  <si>
+    <t>tahan lemah kalian ketawa sila kalian ketawa dukung memang nyata goblok dungu tahanlemah lemahkalian kalianketawa ketawasila silakalian kalianketawa ketawadukung dukungmemang memangnyata nyatagoblok goblokdungu tahanlemahkalian lemahkalianketawa kalianketawasila ketawasilakalian silakalianketawa kalianketawadukung ketawadukungmemang dukungmemangnyata memangnyatagoblok nyatagoblokdungu</t>
+  </si>
+  <si>
+    <t>pak kalian ketawa pak pakkalian kalianketawa ketawapak pakkalianketawa kalianketawapak</t>
+  </si>
+  <si>
+    <t>biar rakyat tentu pilih baik bangsa negara prabowobentengnkri biarrakyat rakyattentu tentupilih pilihbaik baikbangsa bangsanegara negaraprabowobentengnkri biarrakyattentu rakyattentupilih tentupilihbaik pilihbaikbangsa baikbangsanegara bangsanegaraprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>rap bilang lebih tni banding tni macam hina hadap tni dendam pribadi rapbilang bilanglebih lebihtni tnibanding bandingtni tnimacam macamhina hinahadap hadaptni tnidendam dendampribadi rapbilanglebih bilanglebihtni lebihtnibanding tnibandingtni bandingtnimacam tnimacamhina macamhinahadap hinahadaptni hadaptnidendam tnidendampribadi</t>
+  </si>
+  <si>
+    <t>orang adalah njenengan sendiri pak sama debatasyikjokowi karnajokowi https t co khmy 7knh85 orangadalah adalahnjenengan njenengansendiri sendiripak paksama samadebatasyikjokowi debatasyikjokowikarnajokowi karnajokowihttps httpst tco cokhmy khmy7knh85 orangadalahnjenengan adalahnjenengansendiri njenengansendiripak sendiripaksama paksamadebatasyikjokowi samadebatasyikjokowikarnajokowi debatasyikjokowikarnajokowihttps karnajokowihttpst httpstco tcokhmy cokhmy7knh85</t>
+  </si>
+  <si>
+    <t>mas janji tingkat rasio pajak jadi gaji pns akan naik tagih janji bapak masjanji janjitingkat tingkatrasio rasiopajak pajakjadi jadigaji gajipns pnsakan akannaik naiktagih tagihjanji janjibapak masjanjitingkat janjitingkatrasio tingkatrasiopajak rasiopajakjadi pajakjadigaji jadigajipns gajipnsakan pnsakannaik akannaiktagih naiktagihjanji tagihjanjibapak</t>
+  </si>
+  <si>
+    <t>makanya jokowi bedah tuh buku undercover kampus 2019gantipresiden https t co 4udrafliab makanyajokowi jokowibedah bedahtuh tuhbuku bukuundercover undercoverkampus kampus2019gantipresiden 2019gantipresidenhttps httpst tco co4udrafliab makanyajokowibedah jokowibedahtuh bedahtuhbuku tuhbukuundercover bukuundercoverkampus undercoverkampus2019gantipresiden kampus2019gantipresidenhttps 2019gantipresidenhttpst httpstco tco4udrafliab</t>
+  </si>
+  <si>
+    <t>kutip benar persen apbn singapura belanja militer https t co 8roepzmp87 kutipbenar benarpersen persenapbn apbnsingapura singapurabelanja belanjamiliter militerhttps httpst tco co8roepzmp87 kutipbenarpersen benarpersenapbn persenapbnsingapura apbnsingapurabelanja singapurabelanjamiliter belanjamiliterhttps militerhttpst httpstco tco8roepzmp87</t>
+  </si>
+  <si>
+    <t>bahasa inggris p keren indonesia pandang top dunia quote-nya bobot bahasainggris inggrisp pkeren kerenindonesia indonesiapandang pandangtop topdunia duniaquote-nya quote-nyabobot bahasainggrisp inggrispkeren pkerenindonesia kerenindonesiapandang indonesiapandangtop pandangtopdunia topduniaquote-nya duniaquote-nyabobot</t>
+  </si>
+  <si>
+    <t>mas puas malam dengan aura tampil pak kan garang tegas berani maspuas puasmalam malamdengan denganaura auratampil tampilpak pakkan kangarang garangtegas tegasberani maspuasmalam puasmalamdengan malamdenganaura denganauratampil auratampilpak tampilpakkan pakkangarang kangarangtegas garangtegasberani</t>
+  </si>
+  <si>
+    <t>kembali jaya indonesia kawal bapak tuju istana negara prabowobentengnkri prabowobentengnkri kembalijaya jayaindonesia indonesiakawal kawalbapak bapaktuju tujuistana istananegara negaraprabowobentengnkri prabowobentengnkriprabowobentengnkri kembalijayaindonesia jayaindonesiakawal indonesiakawalbapak kawalbapaktuju bapaktujuistana tujuistananegara istananegaraprabowobentengnkri negaraprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>jawab pak tanggap tahan rapuh yang sipil sangat percaya tni jawabpak paktanggap tanggaptahan tahanrapuh rapuhyang yangsipil sipilsangat sangatpercaya percayatni jawabpaktanggap paktanggaptahan tanggaptahanrapuh tahanrapuhyang rapuhyangsipil yangsipilsangat sipilsangatpercaya sangatpercayatni</t>
+  </si>
+  <si>
+    <t>bismillah pak insaallah allah mudah debat hari semangat sukses pak https t co xer 1pigoxr bismillahpak pakinsaallah insaallahallah allahmudah mudahdebat debathari harisemangat semangatsukses suksespak pakhttps httpst tco coxer xer1pigoxr bismillahpakinsaallah pakinsaallahallah insaallahallahmudah allahmudahdebat mudahdebathari debatharisemangat harisemangatsukses semangatsuksespak suksespakhttps pakhttpst httpstco tcoxer coxer1pigoxr</t>
+  </si>
+  <si>
+    <t>kata korupsi indonesia ada taraf parah kalau sakit sudah stadium katakorupsi korupsiindonesia indonesiaada adataraf tarafparah parahkalau kalausakit sakitsudah sudahstadium katakorupsiindonesia korupsiindonesiaada indonesiaadataraf adatarafparah tarafparahkalau parahkalausakit kalausakitsudah sakitsudahstadium</t>
+  </si>
+  <si>
+    <t>telak momen blejekin si doi pak dhe keren debatkeempatpilpres 2019 jokowimengubahsemua 01dila telakmomen momenblejekin blejekinsi sidoi doipak pakdhe dhekeren kerendebatkeempatpilpres debatkeempatpilpres2019 2019jokowimengubahsemua jokowimengubahsemua01dila telakmomenblejekin momenblejekinsi blejekinsidoi sidoipak doipakdhe pakdhekeren dhekerendebatkeempatpilpres kerendebatkeempatpilpres2019 debatkeempatpilpres2019jokowimengubahsemua 2019jokowimengubahsemua01dila</t>
+  </si>
+  <si>
+    <t>tertawa puas takut marah larang ingat pilih biar bebas tertawa batas tertawapuas puastakut takutmarah marahlarang larangingat ingatpilih pilihbiar biarbebas bebastertawa tertawabatas tertawapuastakut puastakutmarah takutmarahlarang marahlarangingat larangingatpilih ingatpilihbiar pilihbiarbebas biarbebastertawa bebastertawabatas</t>
+  </si>
+  <si>
+    <t>nilai besar jumlah duduk muslim jadi salah satu kuat diplomasi indonesia nilaibesar besarjumlah jumlahduduk dudukmuslim muslimjadi jadisalah salahsatu satukuat kuatdiplomasi diplomasiindonesia nilaibesarjumlah besarjumlahduduk jumlahdudukmuslim dudukmuslimjadi muslimjadisalah jadisalahsatu salahsatukuat satukuatdiplomasi kuatdiplomasiindonesia</t>
+  </si>
+  <si>
+    <t>pak tekan soal kecil anggar tahan pak paktekan tekansoal soalkecil kecilanggar anggartahan tahanpak paktekansoal tekansoalkecil soalkecilanggar kecilanggartahan anggartahanpak</t>
+  </si>
+  <si>
+    <t>kalau sederhana bunyi jadi besar pilih tolol https t co 5jtydtkg5c kalausederhana sederhanabunyi bunyijadi jadibesar besarpilih pilihtolol tololhttps httpst tco co5jtydtkg5c kalausederhanabunyi sederhanabunyijadi bunyijadibesar jadibesarpilih besarpilihtolol pilihtololhttps tololhttpst httpstco tco5jtydtkg5c</t>
+  </si>
+  <si>
+    <t>pak tinggal panggung kepala tegak laksana ayam jago habis menang tarung keren paktinggal tinggalpanggung panggungkepala kepalategak tegaklaksana laksanaayam ayamjago jagohabis habismenang menangtarung tarungkeren paktinggalpanggung tinggalpanggungkepala panggungkepalategak kepalategaklaksana tegaklaksanaayam laksanaayamjago ayamjagohabis jagohabismenang habismenangtarung menangtarungkeren</t>
+  </si>
+  <si>
+    <t>alhamdulillah sudah tiba hotel shangri-la siap dukung pak debat empat pilpres bismilllah alhamdulillahsudah sudahtiba tibahotel hotelshangri-la shangri-lasiap siapdukung dukungpak pakdebat debatempat empatpilpres pilpresbismilllah alhamdulillahsudahtiba sudahtibahotel tibahotelshangri-la hotelshangri-lasiap shangri-lasiapdukung siapdukungpak dukungpakdebat pakdebatempat debatempatpilpres empatpilpresbismilllah</t>
+  </si>
+  <si>
+    <t>pak kalau benar pikir bapak soal tahan aman mohon maaf bapak layak ganti pakkalau kalaubenar benarpikir pikirbapak bapaksoal soaltahan tahanaman amanmohon mohonmaaf maafbapak bapaklayak layakganti pakkalaubenar kalaubenarpikir benarpikirbapak pikirbapaksoal bapaksoaltahan soaltahanaman tahanamanmohon amanmohonmaaf mohonmaafbapak maafbapaklayak bapaklayakganti</t>
+  </si>
+  <si>
+    <t>debat malam final sedikit ragu kepada orang subianto ideologi pancasila debatmalam malamfinal finalsedikit sedikitragu ragukepada kepadaorang orangsubianto subiantoideologi ideologipancasila debatmalamfinal malamfinalsedikit finalsedikitragu sedikitragukepada ragukepadaorang kepadaorangsubianto orangsubiantoideologi subiantoideologipancasila</t>
+  </si>
+  <si>
+    <t>sila puas bangga jadi negara mediator international sindir banyak hutang silapuas puasbangga banggajadi jadinegara negaramediator mediatorinternational internationalsindir sindirbanyak banyakhutang silapuasbangga puasbanggajadi banggajadinegara jadinegaramediator negaramediatorinternational mediatorinternationalsindir internationalsindirbanyak sindirbanyakhutang</t>
+  </si>
+  <si>
+    <t>uno jika unojika menang 1 5 pdb alokasi sektor hankam https t co 8toa5jljcg menang1 15 5pdb pdbalokasi alokasisektor sektorhankam hankamhttps httpst tco co8toa5jljcg menang15 15pdb 5pdbalokasi pdbalokasisektor alokasisektorhankam sektorhankamhttps hankamhttpst httpstco tco8toa5jljcg</t>
+  </si>
+  <si>
+    <t>kayak kalau jadi presiden baru tahun udah perang deh dilikirin perang mulu kayakkalau kalaujadi jadipresiden presidenbaru barutahun tahunudah udahperang perangdeh dehdilikirin dilikirinperang perangmulu kayakkalaujadi kalaujadipresiden jadipresidenbaru presidenbarutahun barutahunudah tahunudahperang udahperangdeh perangdehdilikirin dehdilikirinperang dilikirinperangmulu</t>
+  </si>
+  <si>
+    <t>good bye pak sandi beres semua laku scaling makmur goodbye byepak paksandi sandiberes beressemua semualaku lakuscaling scalingmakmur goodbyepak byepaksandi paksandiberes sandiberessemua beressemualaku semualakuscaling lakuscalingmakmur</t>
+  </si>
+  <si>
+    <t>pak kata nasionalis tinggi pak usah swis indonesia lebih tahun masa saham di nasional pakkata katanasionalis nasionalistinggi tinggipak pakusah usahswis swisindonesia indonesialebih lebihtahun tahunmasa masasaham sahamdi dinasional pakkatanasionalis katanasionalistinggi nasionalistinggipak tinggipakusah pakusahswis usahswisindonesia swisindonesialebih indonesialebihtahun lebihtahunmasa tahunmasasaham masasahamdi sahamdinasional</t>
+  </si>
+  <si>
+    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co phy 5t8pclm perintahyng yngsigap sigaplayan layanrakyat rakyatbagus baguspak pakpemerintahandilan pemerintahandilanhttps httpst tco cophy phy5t8pclm perintahyngsigap yngsigaplayan sigaplayanrakyat layanrakyatbagus rakyatbaguspak baguspakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tcophy cophy5t8pclm</t>
+  </si>
+  <si>
+    <t>bukan apa dari sudut kota kecil jogjakarta punya semangat menang prabowo-sandi bukanapa apadari darisudut sudutkota kotakecil keciljogjakarta jogjakartapunya punyasemangat semangatmenang menangprabowo-sandi bukanapadari apadarisudut darisudutkota sudutkotakecil kotakeciljogjakarta keciljogjakartapunya jogjakartapunyasemangat punyasemangatmenang semangatmenangprabowo-sandi</t>
+  </si>
+  <si>
+    <t>pemerintahandilan perintah percaya tni mantap jokowilagi https t co ws2xjlvdz9 pemerintahandilanperintah perintahpercaya percayatni tnimantap mantapjokowilagi jokowilagihttps httpst tco cows2xjlvdz9 pemerintahandilanperintahpercaya perintahpercayatni percayatnimantap tnimantapjokowilagi mantapjokowilagihttps jokowilagihttpst httpstco tcows2xjlvdz9</t>
+  </si>
+  <si>
+    <t>sejak dukung tahun tetap dukung menang ya tetap ngamen ada imbal proyek sejakdukung dukungtahun tahuntetap tetapdukung dukungmenang menangya yatetap tetapngamen ngamenada adaimbal imbalproyek sejakdukungtahun dukungtahuntetap tahuntetapdukung tetapdukungmenang dukungmenangya menangyatetap yatetapngamen tetapngamenada ngamenadaimbal adaimbalproyek</t>
+  </si>
+  <si>
+    <t>mantap makin yakin indonesia menang kami pancasila ideologi final kami tekad mempertahankanya mantapmakin makinyakin yakinindonesia indonesiamenang menangkami kamipancasila pancasilaideologi ideologifinal finalkami kamitekad tekadmempertahankanya mantapmakinyakin makinyakinindonesia yakinindonesiamenang indonesiamenangkami menangkamipancasila kamipancasilaideologi pancasilaideologifinal ideologifinalkami finalkamitekad kamitekadmempertahankanya</t>
+  </si>
+  <si>
+    <t>jiwa sangat nasionalis you pak debat malam sungguh sangat luar biasa prabowobentengnkri jiwasangat sangatnasionalis nasionalisyou youpak pakdebat debatmalam malamsungguh sungguhsangat sangatluar luarbiasa biasaprabowobentengnkri jiwasangatnasionalis sangatnasionalisyou nasionalisyoupak youpakdebat pakdebatmalam debatmalamsungguh malamsungguhsangat sungguhsangatluar sangatluarbiasa luarbiasaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>ngajak maju ngajak perang jadi clear gaes siapa harus pilih pemerintahandilan ngajakmaju majungajak ngajakperang perangjadi jadiclear cleargaes gaessiapa siapaharus haruspilih pilihpemerintahandilan ngajakmajungajak majungajakperang ngajakperangjadi perangjadiclear jadicleargaes cleargaessiapa gaessiapaharus siapaharuspilih haruspilihpemerintahandilan</t>
+  </si>
+  <si>
+    <t>sila kalian ketawa kaya bilang bocor lalu sekarang soal tahan kalian ketawa silakalian kalianketawa ketawakaya kayabilang bilangbocor bocorlalu lalusekarang sekarangsoal soaltahan tahankalian kalianketawa silakalianketawa kalianketawakaya ketawakayabilang kayabilangbocor bilangbocorlalu bocorlalusekarang lalusekarangsoal sekarangsoaltahan soaltahankalian tahankalianketawa</t>
+  </si>
+  <si>
+    <t>calon presiden nilai unggul debat calon presiden klaim kuasa soal kait tema debat calonpresiden presidennilai nilaiunggul ungguldebat debatcalon calonpresiden presidenklaim klaimkuasa kuasasoal soalkait kaittema temadebat calonpresidennilai presidennilaiunggul nilaiungguldebat ungguldebatcalon debatcalonpresiden calonpresidenklaim presidenklaimkuasa klaimkuasasoal kuasasoalkait soalkaittema kaittemadebat</t>
+  </si>
+  <si>
+    <t>https t co mmjebjk 6md pemerintahandilan calon wakil presiden ma ruf amin kata tampil sesuai harap httpst tco commjebjk mmjebjk6md 6mdpemerintahandilan pemerintahandilancalon calonwakil wakilpresiden presidenma maruf rufamin aminkata katatampil tampilsesuai sesuaiharap httpstco tcommjebjk commjebjk6md mmjebjk6mdpemerintahandilan 6mdpemerintahandilancalon pemerintahandilancalonwakil calonwakilpresiden wakilpresidenma presidenmaruf marufamin rufaminkata aminkatatampil katatampilsesuai tampilsesuaiharap</t>
+  </si>
+  <si>
+    <t>deklarasi rawan nasution saudara deklarasi mutk dukung pasang prabowo-sandi pilpres alhamdulillah deklarasirawan rawannasution nasutionsaudara saudaradeklarasi deklarasimutk mutkdukung dukungpasang pasangprabowo-sandi prabowo-sandipilpres pilpresalhamdulillah deklarasirawannasution rawannasutionsaudara nasutionsaudaradeklarasi saudaradeklarasimutk deklarasimutkdukung mutkdukungpasang dukungpasangprabowo-sandi pasangprabowo-sandipilpres prabowo-sandipilpresalhamdulillah</t>
+  </si>
+  <si>
+    <t>manusia ada kubu tuh selalu akal sehat manusiaada adakubu kubutuh tuhselalu selaluakal akalsehat manusiaadakubu adakubutuh kubutuhselalu tuhselaluakal selaluakalsehat</t>
+  </si>
+  <si>
+    <t>sekali rendah tni bilang lebih tni tni cukk apa maksud sekalirendah rendahtni tnibilang bilanglebih lebihtni tnitni tnicukk cukkapa apamaksud sekalirendahtni rendahtnibilang tnibilanglebih bilanglebihtni lebihtnitni tnitnicukk tnicukkapa cukkapamaksud</t>
+  </si>
+  <si>
+    <t>prabowo sandi nyerang bang beliau bicara jujur otentik pk poles apa bisa prabowosandi sandinyerang nyerangbang bangbeliau beliaubicara bicarajujur jujurotentik otentikpk pkpoles polesapa apabisa prabowosandinyerang sandinyerangbang nyerangbangbeliau bangbeliaubicara beliaubicarajujur bicarajujurotentik jujurotentikpk otentikpkpoles pkpolesapa polesapabisa</t>
+  </si>
+  <si>
+    <t>pak korupsi turun sistem baik bagus pak pemerintahandilan pakkorupsi korupsiturun turunsistem sistembaik baikbagus baguspak pakpemerintahandilan pakkorupsiturun korupsiturunsistem turunsistembaik sistembaikbagus baikbaguspak baguspakpemerintahandilan</t>
+  </si>
+  <si>
+    <t>buzzer bayar siap ikut polling nih rakyat mau lawan lihat siapa menang prabowo buzzerbayar bayarsiap siapikut ikutpolling pollingnih nihrakyat rakyatmau maulawan lawanlihat lihatsiapa siapamenang menangprabowo buzzerbayarsiap bayarsiapikut siapikutpolling ikutpollingnih pollingnihrakyat nihrakyatmau rakyatmaulawan maulawanlihat lawanlihatsiapa lihatsiapamenang siapamenangprabowo</t>
+  </si>
+  <si>
+    <t>rada ijid ningali bobotoh deklarasi dukung paslon rek deklarasi milih radaijid ijidningali ningalibobotoh bobotohdeklarasi deklarasidukung dukungpaslon paslonrek rekdeklarasi deklarasimilih radaijidningali ijidningalibobotoh ningalibobotohdeklarasi bobotohdeklarasidukung deklarasidukungpaslon dukungpaslonrek paslonrekdeklarasi rekdeklarasimilih</t>
+  </si>
+  <si>
+    <t>ujung debat calon presiden pak hasil jinak emosi satu kalimat santun sahabat tidak pernah putus ujungdebat debatcalon calonpresiden presidenpak pakhasil hasiljinak jinakemosi emosisatu satukalimat kalimatsantun santunsahabat sahabattidak tidakpernah pernahputus ujungdebatcalon debatcalonpresiden calonpresidenpak presidenpakhasil pakhasiljinak hasiljinakemosi jinakemosisatu emosisatukalimat satukalimatsantun kalimatsantunsahabat santunsahabattidak sahabattidakpernah tidakpernahputus</t>
+  </si>
+  <si>
+    <t>kuis pilpres calon presiden mana suka joged telanjang dada muka umum https t co jn0ui9jd3s c7 - kuispilpres pilprescalon calonpresiden presidenmana manasuka sukajoged jogedtelanjang telanjangdada dadamuka mukaumum umumhttps httpst tco cojn0ui9jd3s jn0ui9jd3sc7 c7- kuispilprescalon pilprescalonpresiden calonpresidenmana presidenmanasuka manasukajoged sukajogedtelanjang jogedtelanjangdada telanjangdadamuka dadamukaumum mukaumumhttps umumhttpst httpstco tcojn0ui9jd3s cojn0ui9jd3sc7 jn0ui9jd3sc7-</t>
+  </si>
+  <si>
+    <t>visi misi kok kayak orang surup promosi kok marah visimisi misikok kokkayak kayakorang orangsurup suruppromosi promosikok kokmarah visimisikok misikokkayak kokkayakorang kayakorangsurup orangsuruppromosi suruppromosikok promosikokmarah</t>
+  </si>
+  <si>
+    <t>ni adek bagi kelompok radikal mau ganti pancasila wajah jangan udah rem dukung sandi niadek adekbagi bagikelompok kelompokradikal radikalmau mauganti gantipancasila pancasilawajah wajahjangan janganudah udahrem remdukung dukungsandi niadekbagi adekbagikelompok bagikelompokradikal kelompokradikalmau radikalmauganti maugantipancasila gantipancasilawajah pancasilawajahjangan wajahjanganudah janganudahrem udahremdukung remdukungsandi</t>
+  </si>
+  <si>
+    <t>imho pak lebih baik tak dalam debat kali imhopak paklebih lebihbaik baiktak takdalam dalamdebat debatkali imhopaklebih paklebihbaik lebihbaiktak baiktakdalam takdalamdebat dalamdebatkali</t>
+  </si>
+  <si>
+    <t>malam bungkam juga dukung tidak ada ria sorak gembira malambungkam bungkamjuga jugadukung dukungtidak tidakada adaria riasorak sorakgembira malambungkamjuga bungkamjugadukung jugadukungtidak dukungtidakada tidakadaria adariasorak riasorakgembira</t>
+  </si>
+  <si>
+    <t>tahan aman indonesia harga mati jenderal kalau dunia internasional lihat balik tahanaman amanindonesia indonesiaharga hargamati matijenderal jenderalkalau kalaudunia duniainternasional internasionallihat lihatbalik tahanamanindonesia amanindonesiaharga indonesiahargamati hargamatijenderal matijenderalkalau jenderalkalaudunia kalauduniainternasional duniainternasionallihat internasionallihatbalik</t>
+  </si>
+  <si>
+    <t>tuh bingung jadi pak prabowo masak balik jadul makin yakin kalau pak jangan 01indonesiamaju tuhbingung bingungjadi jadipak pakprabowo prabowomasak masakbalik balikjadul jadulmakin makinyakin yakinkalau kalaupak pakjangan jangan01indonesiamaju tuhbingungjadi bingungjadipak jadipakprabowo pakprabowomasak prabowomasakbalik masakbalikjadul balikjadulmakin jadulmakinyakin makinyakinkalau yakinkalaupak kalaupakjangan pakjangan01indonesiamaju</t>
+  </si>
+  <si>
+    <t>serentak kompak naik jokowidiambangkekalahan kita sambut pimpin baru - sandi serentakkompak kompaknaik naikjokowidiambangkekalahan jokowidiambangkekalahankita kitasambut sambutpimpin pimpinbaru baru- -sandi serentakkompaknaik kompaknaikjokowidiambangkekalahan naikjokowidiambangkekalahankita jokowidiambangkekalahankitasambut kitasambutpimpin sambutpimpinbaru pimpinbaru- baru-sandi</t>
+  </si>
+  <si>
+    <t>pak lebih percaya teknologi lama https t co nfiq 982l67 paklebih lebihpercaya percayateknologi teknologilama lamahttps httpst tco confiq nfiq982l67 paklebihpercaya lebihpercayateknologi percayateknologilama teknologilamahttps lamahttpst httpstco tconfiq confiq982l67</t>
+  </si>
+  <si>
+    <t>kuat tahan sangat rapuh lemah bukan salah pak tapi tidak tahu salah siapa kuattahan tahansangat sangatrapuh rapuhlemah lemahbukan bukansalah salahpak paktapi tapitidak tidaktahu tahusalah salahsiapa kuattahansangat tahansangatrapuh sangatrapuhlemah rapuhlemahbukan lemahbukansalah bukansalahpak salahpaktapi paktapitidak tapitidaktahu tidaktahusalah tahusalahsiapa</t>
+  </si>
+  <si>
+    <t>sering sedang naik sepeda rantai putus percaya saya pak rantai sahabat tidak pernah putus seringsedang sedangnaik naiksepeda sepedarantai rantaiputus putuspercaya percayasaya sayapak pakrantai rantaisahabat sahabattidak tidakpernah pernahputus seringsedangnaik sedangnaiksepeda naiksepedarantai sepedarantaiputus rantaiputuspercaya putuspercayasaya percayasayapak sayapakrantai pakrantaisahabat rantaisahabattidak sahabattidakpernah tidakpernahputus</t>
+  </si>
+  <si>
+    <t>percaya rantai sahabat percayarantai rantaisahabat percayarantaisahabat pak yakin akan pernah putus sweet banget sih pakde pakyakin yakinakan akanpernah pernahputus putussweet sweetbanget bangetsih sihpakde pakyakinakan yakinakanpernah akanpernahputus pernahputussweet putussweetbanget sweetbangetsih bangetsihpakde</t>
+  </si>
+  <si>
+    <t>emosi kontrol parah audiens orang begini bahaya kalau pimpin emosikontrol kontrolparah parahaudiens audiensorang orangbegini beginibahaya bahayakalau kalaupimpin emosikontrolparah kontrolparahaudiens parahaudiensorang audiensorangbegini orangbeginibahaya beginibahayakalau bahayakalaupimpin</t>
+  </si>
+  <si>
+    <t>silah tertawa jadi presiden kalau beliau menang ketawa larang silahtertawa tertawajadi jadipresiden presidenkalau kalaubeliau beliaumenang menangketawa ketawalarang silahtertawajadi tertawajadipresiden jadipresidenkalau presidenkalaubeliau kalaubeliaumenang beliaumenangketawa menangketawalarang</t>
+  </si>
+  <si>
+    <t>jokowi faham model perang depan perang apa kalau jadi cyber war space war jokowifaham fahammodel modelperang perangdepan depanperang perangapa apakalau kalaujadi jadicyber cyberwar warspace spacewar jokowifahammodel fahammodelperang modelperangdepan perangdepanperang depanperangapa perangapakalau apakalaujadi kalaujadicyber jadicyberwar cyberwarspace warspacewar</t>
+  </si>
+  <si>
+    <t>masuk all seriousness saya ngerti topik military defense harus jadi sisi kuat malah beranta gitu masukall allseriousness seriousnesssaya sayangerti ngertitopik topikmilitary militarydefense defenseharus harusjadi jadisisi sisikuat kuatmalah malahberanta berantagitu masukallseriousness allseriousnesssaya seriousnesssayangerti sayangertitopik ngertitopikmilitary topikmilitarydefense militarydefenseharus defenseharusjadi harusjadisisi jadisisikuat sisikuatmalah kuatmalahberanta malahberantagitu</t>
+  </si>
+  <si>
+    <t>merinding tanda cinta rakyat hadap pak moga lanjut periode gaspoljokowijempol merindingtanda tandacinta cintarakyat rakyathadap hadappak pakmoga mogalanjut lanjutperiode periodegaspoljokowijempol merindingtandacinta tandacintarakyat cintarakyathadap rakyathadappak hadappakmoga pakmogalanjut mogalanjutperiode lanjutperiodegaspoljokowijempol</t>
+  </si>
+  <si>
+    <t>harap harap rakyat ingin ubah indonesia adil makmur april coblos pilih harapharap haraprakyat rakyatingin inginubah ubahindonesia indonesiaadil adilmakmur makmurapril aprilcoblos coblospilih harapharaprakyat haraprakyatingin rakyatinginubah inginubahindonesia ubahindonesiaadil indonesiaadilmakmur adilmakmurapril makmuraprilcoblos aprilcoblospilih</t>
+  </si>
+  <si>
+    <t>saya bela rakyat hormat sangat mulia subianto prabowobentengnkri sayabela belarakyat rakyathormat hormatsangat sangatmulia muliasubianto subiantoprabowobentengnkri sayabelarakyat belarakyathormat rakyathormatsangat hormatsangatmulia sangatmuliasubianto muliasubiantoprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co 328hggut9c perintahyng yngsigap sigaplayan layanrakyat rakyatbagus baguspak pakpemerintahandilan pemerintahandilanhttps httpst tco co328hggut9c perintahyngsigap yngsigaplayan sigaplayanrakyat layanrakyatbagus rakyatbaguspak baguspakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tco328hggut9c</t>
+  </si>
+  <si>
+    <t>debat hari lah sifat asli pak mulai keluar nampaknya beliau tidak tahan sandiwara jadi orang baik debathari harilah lahsifat sifatasli aslipak pakmulai mulaikeluar keluarnampaknya nampaknyabeliau beliautidak tidaktahan tahansandiwara sandiwarajadi jadiorang orangbaik debatharilah harilahsifat lahsifatasli sifataslipak aslipakmulai pakmulaikeluar mulaikeluarnampaknya keluarnampaknyabeliau nampaknyabeliautidak beliautidaktahan tidaktahansandiwara tahansandiwarajadi sandiwarajadiorang jadiorangbaik</t>
+  </si>
+  <si>
+    <t>lihat ganas malam tapi lihat prihatin seperti habis pikir gemas sendiri bisik lihatganas ganasmalam malamtapi tapilihat lihatprihatin prihatinseperti sepertihabis habispikir pikirgemas gemassendiri sendiribisik lihatganasmalam ganasmalamtapi malamtapilihat tapilihatprihatin lihatprihatinseperti prihatinsepertihabis sepertihabispikir habispikirgemas pikirgemassendiri gemassendiribisik</t>
+  </si>
+  <si>
+    <t>perintah an sigap layan rakyat bagus pak pemerintahandilan https t co vwhecy 74nd perintahan ansigap sigaplayan layanrakyat rakyatbagus baguspak pakpemerintahandilan pemerintahandilanhttps httpst tco covwhecy vwhecy74nd perintahansigap ansigaplayan sigaplayanrakyat layanrakyatbagus rakyatbaguspak baguspakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tcovwhecy covwhecy74nd</t>
+  </si>
+  <si>
+    <t>yuk satu satu lebih asyik pemerintahandilan https t co oejifofpsx yuksatu satusatu satulebih lebihasyik asyikpemerintahandilan pemerintahandilanhttps httpst tco cooejifofpsx yuksatusatu satusatulebih satulebihasyik lebihasyikpemerintahandilan asyikpemerintahandilanhttps pemerintahandilanhttpst httpstco tcooejifofpsx</t>
+  </si>
+  <si>
+    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut dimarahin pak duluken kenketawa ketawatakut takutdosa dosasekarang sekarangken kenketawa ketawatakut takutdimarahin dimarahinpak dulukenketawa kenketawatakut ketawatakutdosa takutdosasekarang dosasekarangken sekarangkenketawa kenketawatakut ketawatakutdimarahin takutdimarahinpak</t>
+  </si>
+  <si>
+    <t>debat calon presiden malam saya ikan score 10-0 buat menang pak bisa lihat karakter pimpin kuat debatcalon calonpresiden presidenmalam malamsaya sayaikan ikanscore score10-0 10-0buat buatmenang menangpak pakbisa bisalihat lihatkarakter karakterpimpin pimpinkuat debatcalonpresiden calonpresidenmalam presidenmalamsaya malamsayaikan sayaikanscore ikanscore10-0 score10-0buat 10-0buatmenang buatmenangpak menangpakbisa pakbisalihat bisalihatkarakter lihatkarakterpimpin karakterpimpinkuat</t>
+  </si>
+  <si>
+    <t>sebut betul koruptor orang baik pilih jadi presiden diri beri sempat sebutbetul betulkoruptor koruptororang orangbaik baikpilih pilihjadi jadipresiden presidendiri diriberi berisempat sebutbetulkoruptor betulkoruptororang koruptororangbaik orangbaikpilih baikpilihjadi pilihjadipresiden jadipresidendiri presidendiriberi diriberisempat</t>
+  </si>
+  <si>
+    <t>kalau bicara nasionalisme p semangat jangan ketawa lemah itu reaksi spontan patriotik kalaubicara bicaranasionalisme nasionalismep psemangat semangatjangan janganketawa ketawalemah lemahitu itureaksi reaksispontan spontanpatriotik kalaubicaranasionalisme bicaranasionalismep nasionalismepsemangat psemangatjangan semangatjanganketawa janganketawalemah ketawalemahitu lemahitureaksi itureaksispontan reaksispontanpatriotik</t>
+  </si>
+  <si>
+    <t>tertawa tertawa larang sama pak debatpilpres 2019 tertawatertawa tertawalarang larangsama samapak pakdebatpilpres debatpilpres2019 tertawatertawalarang tertawalarangsama larangsamapak samapakdebatpilpres pakdebatpilpres2019</t>
+  </si>
+  <si>
+    <t>perlu garis bawah ke afganistan pake rompi anti peluru perlugaris garisbawah bawahke keafganistan afganistanpake pakerompi rompianti antipeluru perlugarisbawah garisbawahke bawahkeafganistan keafganistanpake afganistanpakerompi pakerompianti rompiantipeluru</t>
+  </si>
+  <si>
+    <t>marah sih pak panggil dil debatpilpres 2019 kali pemerintahandilan marahsih sihpak pakpanggil panggildil dildebatpilpres debatpilpres2019 2019kali kalipemerintahandilan marahsihpak sihpakpanggil pakpanggildil panggildildebatpilpres dildebatpilpres2019 debatpilpres2019kali 2019kalipemerintahandilan</t>
+  </si>
+  <si>
+    <t>milu legislatif pilih presiden april besok habis biaya tidak sedikit triliun rupiah milulegislatif legislatifpilih pilihpresiden presidenapril aprilbesok besokhabis habisbiaya biayatidak tidaksedikit sedikittriliun triliunrupiah milulegislatifpilih legislatifpilihpresiden pilihpresidenapril presidenaprilbesok aprilbesokhabis besokhabisbiaya habisbiayatidak biayatidaksedikit tidaksedikittriliun sedikittriliunrupiah</t>
+  </si>
+  <si>
+    <t>warga negara baik pilih pimpin baik jawab baik kita semua 01dilanjutkan warganegara negarabaik baikpilih pilihpimpin pimpinbaik baikjawab jawabbaik baikkita kitasemua semua01dilanjutkan warganegarabaik negarabaikpilih baikpilihpimpin pilihpimpinbaik pimpinbaikjawab baikjawabbaik jawabbaikkita baikkitasemua kitasemua01dilanjutkan</t>
+  </si>
+  <si>
+    <t>pak masalah apa si sini cerita sini jan marah marah mulu dong kek dosen kalau ngambek mahasiswa nya pakmasalah masalahapa apasi sisini sinicerita ceritasini sinijan janmarah marahmarah marahmulu muludong dongkek kekdosen dosenkalau kalaungambek ngambekmahasiswa mahasiswanya pakmasalahapa masalahapasi apasisini sisinicerita siniceritasini ceritasinijan sinijanmarah janmarahmarah marahmarahmulu marahmuludong muludongkek dongkekdosen kekdosenkalau dosenkalaungambek kalaungambekmahasiswa ngambekmahasiswanya</t>
+  </si>
+  <si>
+    <t>serang emosi pak tetap kata bukan salah bapak salut engkau sungguh jiwa besar serangemosi emosipak paktetap tetapkata katabukan bukansalah salahbapak bapaksalut salutengkau engkausungguh sungguhjiwa jiwabesar serangemosipak emosipaktetap paktetapkata tetapkatabukan katabukansalah bukansalahbapak salahbapaksalut bapaksalutengkau salutengkausungguh engkausungguhjiwa sungguhjiwabesar</t>
+  </si>
+  <si>
+    <t>pak timses kamu bilang anak ingus nih tertib pak bapak hormat bangsa paktimses timseskamu kamubilang bilanganak anakingus ingusnih nihtertib tertibpak pakbapak bapakhormat hormatbangsa paktimseskamu timseskamubilang kamubilanganak bilanganakingus anakingusnih ingusnihtertib nihtertibpak tertibpakbapak pakbapakhormat bapakhormatbangsa</t>
+  </si>
+  <si>
+    <t>papar visi misi klaim praktik korupsi perintah turut lemah negara paparvisi visimisi misiklaim klaimpraktik praktikkorupsi korupsiperintah perintahturut turutlemah lemahnegara paparvisimisi visimisiklaim misiklaimpraktik klaimpraktikkorupsi praktikkorupsiperintah korupsiperintahturut perintahturutlemah turutlemahnegara</t>
+  </si>
+  <si>
+    <t>kata pak bukan lemah kalah kuat yang lambat kalah yang cepat katapak pakbukan bukanlemah lemahkalah kalahkuat kuatyang yanglambat lambatkalah kalahyang yangcepat katapakbukan pakbukanlemah bukanlemahkalah lemahkalahkuat kalahkuatyang kuatyanglambat yanglambatkalah lambatkalahyang kalahyangcepat</t>
+  </si>
+  <si>
+    <t>kpu angkat bicara soal alokasi waktu cara adil masih jangan bilang main curang hm kpuangkat angkatbicara bicarasoal soalalokasi alokasiwaktu waktucara caraadil adilmasih masihjangan janganbilang bilangmain maincurang curanghm kpuangkatbicara angkatbicarasoal bicarasoalalokasi soalalokasiwaktu alokasiwaktucara waktucaraadil caraadilmasih adilmasihjangan masihjanganbilang janganbilangmain bilangmaincurang maincuranghm</t>
+  </si>
+  <si>
+    <t>moga pak beri mudah lancar malam al fatihah prabowobentengnkri https t co gmhz 1husuk mogapak pakberi berimudah mudahlancar lancarmalam malamal alfatihah fatihahprabowobentengnkri prabowobentengnkrihttps httpst tco cogmhz gmhz1husuk mogapakberi pakberimudah berimudahlancar mudahlancarmalam lancarmalamal malamalfatihah alfatihahprabowobentengnkri fatihahprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcogmhz cogmhz1husuk</t>
+  </si>
+  <si>
+    <t>bawah pimpin prabowo-sandi akan komitmen hadir harga bahan pokok stabil jangkau bawahpimpin pimpinprabowo-sandi prabowo-sandiakan akankomitmen komitmenhadir hadirharga hargabahan bahanpokok pokokstabil stabiljangkau bawahpimpinprabowo-sandi pimpinprabowo-sandiakan prabowo-sandiakankomitmen akankomitmenhadir komitmenhadirharga hadirhargabahan hargabahanpokok bahanpokokstabil pokokstabiljangkau</t>
+  </si>
+  <si>
+    <t>kata mobil esemka bohong moga dosa 2nya ampun allah swt yang fitnah kait ini pak katamobil mobilesemka esemkabohong bohongmoga mogadosa dosa2nya 2nyaampun ampunallah allahswt swtyang yangfitnah fitnahkait kaitini inipak katamobilesemka mobilesemkabohong esemkabohongmoga bohongmogadosa mogadosa2nya dosa2nyaampun 2nyaampunallah ampunallahswt allahswtyang swtyangfitnah yangfitnahkait fitnahkaitini kaitinipak</t>
+  </si>
+  <si>
+    <t>insyallah allah menang indonesia jadi macan asia bukan cebong asia insyallahallah allahmenang menangindonesia indonesiajadi jadimacan macanasia asiabukan bukancebong cebongasia insyallahallahmenang allahmenangindonesia menangindonesiajadi indonesiajadimacan jadimacanasia macanasiabukan asiabukancebong bukancebongasia</t>
+  </si>
+  <si>
+    <t>sama indonesia kuat prabowobentengnkri samaindonesia indonesiakuat kuatprabowobentengnkri samaindonesiakuat indonesiakuatprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>presiden conference pasca debat tkn cara baca data pak kena kuat militer banding anggar presidenconference conferencepasca pascadebat debattkn tkncara carabaca bacadata datapak pakkena kenakuat kuatmiliter militerbanding bandinganggar presidenconferencepasca conferencepascadebat pascadebattkn debattkncara tkncarabaca carabacadata bacadatapak datapakkena pakkenakuat kenakuatmiliter kuatmiliterbanding militerbandinganggar</t>
+  </si>
+  <si>
+    <t>warga negara baik pilih pimpin baik jawab baik menangjokowilagi warganegara negarabaik baikpilih pilihpimpin pimpinbaik baikjawab jawabbaik baikmenangjokowilagi warganegarabaik negarabaikpilih baikpilihpimpin pilihpimpinbaik pimpinbaikjawab baikjawabbaik jawabbaikmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>saling hujat saling remeh saling toleransi kawan sahabat idola salinghujat hujatsaling salingremeh remehsaling salingtoleransi toleransikawan kawansahabat sahabatidola salinghujatsaling hujatsalingremeh salingremehsaling remehsalingtoleransi salingtoleransikawan toleransikawansahabat kawansahabatidola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debat empat pilpres tutup momen manis debatempat empatpilpres pilprestutup tutupmomen momenmanis debatempatpilpres empatpilprestutup pilprestutupmomen tutupmomenmanis </t>
+  </si>
+  <si>
+    <t>konsep pak indonesia maju mantap menangjokowilagi konseppak pakindonesia indonesiamaju majumantap mantapmenangjokowilagi konseppakindonesia pakindonesiamaju indonesiamajumantap majumantapmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>buah tangan perintah pak sby saja aku debat aneh demen main klaim buahtangan tanganperintah perintahpak paksby sbysaja sajaaku akudebat debataneh anehdemen demenmain mainklaim buahtanganperintah tanganperintahpak perintahpaksby paksbysaja sbysajaaku sajaakudebat akudebataneh debatanehdemen anehdemenmain demenmainklaim</t>
+  </si>
+  <si>
+    <t>salut bangga pakde walaupun sipil bagai panglima tinggi baik harga kerja keras salutbangga banggapakde pakdewalaupun walaupunsipil sipilbagai bagaipanglima panglimatinggi tinggibaik baikharga hargakerja kerjakeras salutbanggapakde banggapakdewalaupun pakdewalaupunsipil walaupunsipilbagai sipilbagaipanglima bagaipanglimatinggi panglimatinggibaik tinggibaikharga baikhargakerja hargakerjakeras</t>
+  </si>
+  <si>
+    <t>indonesia kini sama jadi negara hebat menangjokowilagi https t co pyphejzzou indonesiakini kinisama samajadi jadinegara negarahebat hebatmenangjokowilagi menangjokowilagihttps httpst tco copyphejzzou indonesiakinisama kinisamajadi samajadinegara jadinegarahebat negarahebatmenangjokowilagi hebatmenangjokowilagihttps menangjokowilagihttpst httpstco tcopyphejzzou</t>
+  </si>
+  <si>
+    <t>tukang kayu lebih ngerti militer yang pernah jadi militer lebih tni tni tukangkayu kayulebih lebihngerti ngertimiliter militeryang yangpernah pernahjadi jadimiliter militerlebih lebihtni tnitni tukangkayulebih kayulebihngerti lebihngertimiliter ngertimiliteryang militeryangpernah yangpernahjadi pernahjadimiliter jadimiliterlebih militerlebihtni lebihtnitni</t>
+  </si>
+  <si>
+    <t>nyawa saya taruh republik jangan ragu nasionalisme mas nyawasaya sayataruh taruhrepublik republikjangan janganragu ragunasionalisme nasionalismemas nyawasayataruh sayataruhrepublik taruhrepublikjangan republikjanganragu janganragunasionalisme ragunasionalismemas</t>
+  </si>
+  <si>
+    <t>pancasila hasil suatu komporomi besar cemerlang generasi diri bangsa indonesia pancasilahasil hasilsuatu suatukomporomi komporomibesar besarcemerlang cemerlanggenerasi generasidiri diribangsa bangsaindonesia pancasilahasilsuatu hasilsuatukomporomi suatukomporomibesar komporomibesarcemerlang besarcemerlanggenerasi cemerlanggenerasidiri generasidiribangsa diribangsaindonesia</t>
+  </si>
+  <si>
+    <t>paling sewot sayagolput dukung kami ingat pada alam bawah sadar bahwa kalah palingsewot sewotsayagolput sayagolputdukung dukungkami kamiingat ingatpada padaalam alambawah bawahsadar sadarbahwa bahwakalah palingsewotsayagolput sewotsayagolputdukung sayagolputdukungkami dukungkamiingat kamiingatpada ingatpadaalam padaalambawah alambawahsadar bawahsadarbahwa sadarbahwakalah</t>
+  </si>
+  <si>
+    <t>jember siang tadi rombong wi sambut guru honorer ria jembersiang siangtadi tadirombong rombongwi wisambut sambutguru guruhonorer honorerria jembersiangtadi siangtadirombong tadirombongwi rombongwisambut wisambutguru sambutguruhonorer guruhonorerria</t>
+  </si>
+  <si>
+    <t>dengan tekad kuat rubah bangsa pak mampu beri ubah bagai lini bangsa dengantekad tekadkuat kuatrubah rubahbangsa bangsapak pakmampu mampuberi beriubah ubahbagai bagailini linibangsa dengantekadkuat tekadkuatrubah kuatrubahbangsa rubahbangsapak bangsapakmampu pakmampuberi mampuberiubah beriubahbagai ubahbagailini bagailinibangsa</t>
+  </si>
+  <si>
+    <t>yang tau definisi polyglot coba cek google deh nyata pak orang polyglot yangtau taudefinisi definisipolyglot polyglotcoba cobacek cekgoogle googledeh dehnyata nyatapak pakorang orangpolyglot yangtaudefinisi taudefinisipolyglot definisipolyglotcoba polyglotcobacek cobacekgoogle cekgoogledeh googledehnyata dehnyatapak nyatapakorang pakorangpolyglot</t>
+  </si>
+  <si>
+    <t>sangat haru salam pisah pak jokowi barusan sahabat nomer satu presiden no sangatharu harusalam salampisah pisahpak pakjokowi jokowibarusan barusansahabat sahabatnomer nomersatu satupresiden presidenno sangatharusalam harusalampisah salampisahpak pisahpakjokowi pakjokowibarusan jokowibarusansahabat barusansahabatnomer sahabatnomersatu nomersatupresiden satupresidenno</t>
+  </si>
+  <si>
+    <t>kuat 2an adu isu elektabilitas media tulis elektabilitas non-prabowo sulit kejar kuat2an 2anadu aduisu isuelektabilitas elektabilitasmedia mediatulis tuliselektabilitas elektabilitasnon-prabowo non-prabowosulit sulitkejar kuat2anadu 2anaduisu aduisuelektabilitas isuelektabilitasmedia elektabilitasmediatulis mediatuliselektabilitas tuliselektabilitasnon-prabowo elektabilitasnon-prabowosulit non-prabowosulitkejar</t>
+  </si>
+  <si>
+    <t>rakyat percaya tni 01dilanjutkan https t co fhdmwypu 5w rakyatpercaya percayatni tni01dilanjutkan 01dilanjutkanhttps httpst tco cofhdmwypu fhdmwypu5w rakyatpercayatni percayatni01dilanjutkan tni01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcofhdmwypu cofhdmwypu5w</t>
+  </si>
+  <si>
+    <t>pak nih kalau tongkrong tipikal semangat cerita panjang lebar tidak ditanggepin sama anak anak skip jangan gitu paknih nihkalau kalautongkrong tongkrongtipikal tipikalsemangat semangatcerita ceritapanjang panjanglebar lebartidak tidakditanggepin ditanggepinsama samaanak anakanak anakskip skipjangan jangangitu paknihkalau nihkalautongkrong kalautongkrongtipikal tongkrongtipikalsemangat tipikalsemangatcerita semangatceritapanjang ceritapanjanglebar panjanglebartidak lebartidakditanggepin tidakditanggepinsama ditanggepinsamaanak samaanakanak anakanakskip anakskipjangan skipjangangitu</t>
+  </si>
+  <si>
+    <t>pemerintahandilan keren tingkat puas publik hadap kerja perintah jokowi-jk tinggi atas pemerintahandilankeren kerentingkat tingkatpuas puaspublik publikhadap hadapkerja kerjaperintah perintahjokowi-jk jokowi-jktinggi tinggiatas pemerintahandilankerentingkat kerentingkatpuas tingkatpuaspublik puaspublikhadap publikhadapkerja hadapkerjaperintah kerjaperintahjokowi-jk perintahjokowi-jktinggi jokowi-jktinggiatas</t>
+  </si>
+  <si>
+    <t>tahan bidang hankam terlalu lemah anggar sangat kecil yang kita baik tahanbidang bidanghankam hankamterlalu terlalulemah lemahanggar anggarsangat sangatkecil kecilyang yangkita kitabaik tahanbidanghankam bidanghankamterlalu hankamterlalulemah terlalulemahanggar lemahanggarsangat anggarsangatkecil sangatkecilyang kecilyangkita yangkitabaik</t>
+  </si>
+  <si>
+    <t>selamat pagi penganten lebih paham mana coblos mana pilih goyang jari pilih selamatpagi pagipenganten pengantenlebih lebihpaham pahammana manacoblos coblosmana manapilih pilihgoyang goyangjari jaripilih selamatpagipenganten pagipengantenlebih pengantenlebihpaham lebihpahammana pahammanacoblos manacoblosmana coblosmanapilih manapilihgoyang pilihgoyangjari goyangjaripilih</t>
+  </si>
+  <si>
+    <t>indonesia maju infrastruktur baik menang 01dilanjutkan https t co muddzx 0kwx indonesiamaju majuinfrastruktur infrastrukturbaik baikmenang menang01dilanjutkan 01dilanjutkanhttps httpst tco comuddzx muddzx0kwx indonesiamajuinfrastruktur majuinfrastrukturbaik infrastrukturbaikmenang baikmenang01dilanjutkan menang01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcomuddzx comuddzx0kwx</t>
+  </si>
+  <si>
+    <t>selamat nama jadi trending paling banyak bicara good kerja buat anak twitter dukung selamatnama namajadi jaditrending trendingpaling palingbanyak banyakbicara bicaragood goodkerja kerjabuat buatanak anaktwitter twitterdukung selamatnamajadi namajaditrending jaditrendingpaling trendingpalingbanyak palingbanyakbicara banyakbicaragood bicaragoodkerja goodkerjabuat kerjabuatanak buatanaktwitter anaktwitterdukung</t>
+  </si>
+  <si>
+    <t>insyallah allah pak menang telak prabowobentengnkri https t co qptegiu 2ua insyallahallah allahpak pakmenang menangtelak telakprabowobentengnkri prabowobentengnkrihttps httpst tco coqptegiu qptegiu2ua insyallahallahpak allahpakmenang pakmenangtelak menangtelakprabowobentengnkri telakprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoqptegiu coqptegiu2ua</t>
+  </si>
+  <si>
+    <t>wajah prabohong pucet gara-gara tau apa kata pak kualitas lanjut pemerintahandilan wajahprabohong prabohongpucet pucetgara-gara gara-garatau tauapa apakata katapak pakkualitas kualitaslanjut lanjutpemerintahandilan wajahprabohongpucet prabohongpucetgara-gara pucetgara-garatau gara-garatauapa tauapakata apakatapak katapakkualitas pakkualitaslanjut kualitaslanjutpemerintahandilan</t>
+  </si>
+  <si>
+    <t>khas pak kena kemeja putih lengan panjang gulung 01dilanjutkan https t co re2jvkcqto khaspak pakkena kenakemeja kemejaputih putihlengan lenganpanjang panjanggulung gulung01dilanjutkan 01dilanjutkanhttps httpst tco core2jvkcqto khaspakkena pakkenakemeja kenakemejaputih kemejaputihlengan putihlenganpanjang lenganpanjanggulung panjanggulung01dilanjutkan gulung01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcore2jvkcqto</t>
+  </si>
+  <si>
+    <t>jalan demokrasi baik laksana sekarang kok tolak belakang prabowobentengnkri jalandemokrasi demokrasibaik baiklaksana laksanasekarang sekarangkok koktolak tolakbelakang belakangprabowobentengnkri jalandemokrasibaik demokrasibaiklaksana baiklaksanasekarang laksanasekarangkok sekarangkoktolak koktolakbelakang tolakbelakangprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>personifikasi debat empat sangat kuat itu kokoh pribadi diri bagai orang patriotik personifikasidebat debatempat empatsangat sangatkuat kuatitu itukokoh kokohpribadi pribadidiri diribagai bagaiorang orangpatriotik personifikasidebatempat debatempatsangat empatsangatkuat sangatkuatitu kuatitukokoh itukokohpribadi kokohpribadidiri pribadidiribagai diribagaiorang bagaiorangpatriotik</t>
+  </si>
+  <si>
+    <t>sama orang hebat indonesia maju unggul menangjokowilagi samaorang oranghebat hebatindonesia indonesiamaju majuunggul unggulmenangjokowilagi samaoranghebat oranghebatindonesia hebatindonesiamaju indonesiamajuunggul majuunggulmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>marah tahan negara lemah tertawa bukti sangkut paranoid atas ancam asing marahtahan tahannegara negaralemah lemahtertawa tertawabukti buktisangkut sangkutparanoid paranoidatas atasancam ancamasing marahtahannegara tahannegaralemah negaralemahtertawa lemahtertawabukti tertawabuktisangkut buktisangkutparanoid sangkutparanoidatas paranoidatasancam atasancamasing</t>
+  </si>
+  <si>
+    <t>jumlah massa kampanye akbar pakansari hingga jalan capai satu juta orang luar biasa bogor jumlahmassa massakampanye kampanyeakbar akbarpakansari pakansarihingga hinggajalan jalancapai capaisatu satujuta jutaorang orangluar luarbiasa biasabogor jumlahmassakampanye massakampanyeakbar kampanyeakbarpakansari akbarpakansarihingga pakansarihinggajalan hinggajalancapai jalancapaisatu capaisatujuta satujutaorang jutaorangluar orangluarbiasa luarbiasabogor</t>
+  </si>
+  <si>
+    <t>kita banding pakai hati nurani akal sehat pancasila beri sejak dini kitabanding bandingpakai pakaihati hatinurani nuraniakal akalsehat sehatpancasila pancasilaberi berisejak sejakdini kitabandingpakai bandingpakaihati pakaihatinurani hatinuraniakal nuraniakalsehat akalsehatpancasila sehatpancasilaberi pancasilaberisejak berisejakdini</t>
+  </si>
+  <si>
+    <t>mumpung debatpilpres 2019 istirahat senyum manis dulu salam bismillah indonesia mumpungdebatpilpres debatpilpres2019 2019istirahat istirahatsenyum senyummanis manisdulu dulusalam salambismillah bismillahindonesia mumpungdebatpilpres2019 debatpilpres2019istirahat 2019istirahatsenyum istirahatsenyummanis senyummanisdulu manisdulusalam dulusalambismillah salambismillahindonesia</t>
+  </si>
+  <si>
+    <t>hei kalian suka nyinyirin bapak jelek 2an beliau maaf selalu bukti beliau orang baik tanggungjawab heikalian kaliansuka sukanyinyirin nyinyirinbapak bapakjelek jelek2an 2anbeliau beliaumaaf maafselalu selalubukti buktibeliau beliauorang orangbaik baiktanggungjawab heikaliansuka kaliansukanyinyirin sukanyinyirinbapak nyinyirinbapakjelek bapakjelek2an jelek2anbeliau 2anbeliaumaaf beliaumaafselalu maafselalubukti selalubuktibeliau buktibeliauorang beliauorangbaik orangbaiktanggungjawab</t>
+  </si>
+  <si>
+    <t>jual beli jabat waris sejak perintah mantan mertua kamu pak memang susah rubah mental orde baru jualbeli belijabat jabatwaris warissejak sejakperintah perintahmantan mantanmertua mertuakamu kamupak pakmemang memangsusah susahrubah rubahmental mentalorde ordebaru jualbelijabat belijabatwaris jabatwarissejak warissejakperintah sejakperintahmantan perintahmantanmertua mantanmertuakamu mertuakamupak kamupakmemang pakmemangsusah memangsusahrubah susahrubahmental rubahmentalorde mentalordebaru</t>
+  </si>
+  <si>
+    <t>orasi politik ketua umum pan tegas jawa barat salah satu kunci menang orasipolitik politikketua ketuaumum umumpan pantegas tegasjawa jawabarat baratsalah salahsatu satukunci kuncimenang orasipolitikketua politikketuaumum ketuaumumpan umumpantegas pantegasjawa tegasjawabarat jawabaratsalah baratsalahsatu salahsatukunci satukuncimenang</t>
+  </si>
+  <si>
+    <t>mantap bang cebong marahin mala ketawa dasar dungu akut mantapbang bangcebong cebongmarahin marahinmala malaketawa ketawadasar dasardungu dunguakut mantapbangcebong bangcebongmarahin cebongmarahinmala marahinmalaketawa malaketawadasar ketawadasardungu dasardunguakut</t>
+  </si>
+  <si>
+    <t>saya inti perintah bahwa lembaga perintah harus bersih korupsi sayainti intiperintah perintahbahwa bahwalembaga lembagaperintah perintahharus harusbersih bersihkorupsi sayaintiperintah intiperintahbahwa perintahbahwalembaga bahwalembagaperintah lembagaperintahharus perintahharusbersih harusbersihkorupsi</t>
+  </si>
+  <si>
+    <t>omong pak calon presiden pecat tni begitu pantes pecat wong sering gagal paham https t co etacadeg 8n omongpak pakcalon calonpresiden presidenpecat pecattni tnibegitu begitupantes pantespecat pecatwong wongsering seringgagal gagalpaham pahamhttps httpst tco coetacadeg etacadeg8n omongpakcalon pakcalonpresiden calonpresidenpecat presidenpecattni pecattnibegitu tnibegitupantes begitupantespecat pantespecatwong pecatwongsering wongseringgagal seringgagalpaham gagalpahamhttps pahamhttpst httpstco tcoetacadeg coetacadeg8n</t>
+  </si>
+  <si>
+    <t>sangat dukung kembang ekonomi digital lalu pemerintahandilan usaha pelihara stratup sangatdukung dukungkembang kembangekonomi ekonomidigital digitallalu lalupemerintahandilan pemerintahandilanusaha usahapelihara peliharastratup sangatdukungkembang dukungkembangekonomi kembangekonomidigital ekonomidigitallalu digitallalupemerintahandilan lalupemerintahandilanusaha pemerintahandilanusahapelihara usahapeliharastratup</t>
+  </si>
+  <si>
+    <t>benar pak sampai tadi bahwasannya perintah sekarang banyak teori tidak sesuai nyata benarpak paksampai sampaitadi tadibahwasannya bahwasannyaperintah perintahsekarang sekarangbanyak banyakteori teoritidak tidaksesuai sesuainyata benarpaksampai paksampaitadi sampaitadibahwasannya tadibahwasannyaperintah bahwasannyaperintahsekarang perintahsekarangbanyak sekarangbanyakteori banyakteoritidak teoritidaksesuai tidaksesuainyata</t>
+  </si>
+  <si>
+    <t>ada wiranto luhut hendro agum masak jenderal dukung bila pki sendiri jenderal adawiranto wirantoluhut luhuthendro hendroagum agummasak masakjenderal jenderaldukung dukungbila bilapki pkisendiri sendirijenderal adawirantoluhut wirantoluhuthendro luhuthendroagum hendroagummasak agummasakjenderal masakjenderaldukung jenderaldukungbila dukungbilapki bilapkisendiri pkisendirijenderal</t>
+  </si>
+  <si>
+    <t>culik culik hati milenial tionghoa kuaile de zhandou selamat juang culikculik culikhati hatimilenial milenialtionghoa tionghoakuaile kuailede dezhandou zhandouselamat selamatjuang culikculikhati culikhatimilenial hatimilenialtionghoa milenialtionghoakuaile tionghoakuailede kuailedezhandou dezhandouselamat zhandouselamatjuang</t>
+  </si>
+  <si>
+    <t>nonton kok jurus aja monoton contoh bahas korupsi lagi lagi jurus kemaren nontonkok kokjurus jurusaja ajamonoton monotoncontoh contohbahas bahaskorupsi korupsilagi lagilagi lagijurus juruskemaren nontonkokjurus kokjurusaja jurusajamonoton ajamonotoncontoh monotoncontohbahas contohbahaskorupsi bahaskorupsilagi korupsilagilagi lagilagijurus lagijuruskemaren</t>
+  </si>
+  <si>
+    <t>rawan muda gelar nobar tekan golput kalang milenial https t co w4k3nrowfy rawanmuda mudagelar gelarnobar nobartekan tekangolput golputkalang kalangmilenial milenialhttps httpst tco cow4k3nrowfy rawanmudagelar mudagelarnobar gelarnobartekan nobartekangolput tekangolputkalang golputkalangmilenial kalangmilenialhttps milenialhttpst httpstco tcow4k3nrowfy</t>
+  </si>
+  <si>
+    <t>salah satu contoh kecil prestasi hasil nya jelas silah cek sendiri data salahsatu satucontoh contohkecil kecilprestasi prestasihasil hasilnya nyajelas jelassilah silahcek ceksendiri sendiridata salahsatucontoh satucontohkecil contohkecilprestasi kecilprestasihasil prestasihasilnya hasilnyajelas nyajelassilah jelassilahcek silahceksendiri ceksendiridata</t>
+  </si>
+  <si>
+    <t>sumber foto jenderal goblok udah edit eh foto orang kamboja keren cici kamboja dukung sumberfoto fotojenderal jenderalgoblok goblokudah udahedit editeh ehfoto fotoorang orangkamboja kambojakeren kerencici cicikamboja kambojadukung sumberfotojenderal fotojenderalgoblok jenderalgoblokudah goblokudahedit udahediteh editehfoto ehfotoorang fotoorangkamboja orangkambojakeren kambojakerencici kerencicikamboja cicikambojadukung</t>
+  </si>
+  <si>
+    <t>pak mau indonesia hormat tidak tahu cara capa tahu cara pidato pakmau mauindonesia indonesiahormat hormattidak tidaktahu tahucara caracapa capatahu tahucara carapidato pakmauindonesia mauindonesiahormat indonesiahormattidak hormattidaktahu tidaktahucara tahucaracapa caracapatahu capatahucara tahucarapidato</t>
+  </si>
+  <si>
+    <t>closing statement aku kuat lawan closingstatement statementaku akukuat kuatlawan closingstatementaku statementakukuat akukuatlawan</t>
+  </si>
+  <si>
+    <t>beberapa pimpin organisasi bobotoh para suporter persib bandung deklarasi dukung pak beberapapimpin pimpinorganisasi organisasibobotoh bobotohpara parasuporter suporterpersib persibbandung bandungdeklarasi deklarasidukung dukungpak beberapapimpinorganisasi pimpinorganisasibobotoh organisasibobotohpara bobotohparasuporter parasuporterpersib suporterpersibbandung persibbandungdeklarasi bandungdeklarasidukung deklarasidukungpak</t>
+  </si>
+  <si>
+    <t>saya bukan salah saya kuat tahan sangat rapuh lemah bukan salah bapak sayabukan bukansalah salahsaya sayakuat kuattahan tahansangat sangatrapuh rapuhlemah lemahbukan bukansalah salahbapak sayabukansalah bukansalahsaya salahsayakuat sayakuattahan kuattahansangat tahansangatrapuh sangatrapuhlemah rapuhlemahbukan lemahbukansalah bukansalahbapak</t>
+  </si>
+  <si>
+    <t>soal freeport sangat untung buat apalagi emas perak tembaga soalfreeport freeportsangat sangatuntung untungbuat buatapalagi apalagiemas emasperak peraktembaga soalfreeportsangat freeportsangatuntung sangatuntungbuat untungbuatapalagi buatapalagiemas apalagiemasperak emasperaktembaga</t>
+  </si>
+  <si>
+    <t>kata p anggar tni harus naik n perlu tni kuat tahan wilayah katap panggar anggartni tniharus harusnaik naikn nperlu perlutni tnikuat kuattahan tahanwilayah katapanggar panggartni anggartniharus tniharusnaik harusnaikn naiknperlu nperlutni perlutnikuat tnikuattahan kuattahanwilayah</t>
+  </si>
+  <si>
+    <t>jenderal lawan umur tahun taruh nyawa pancasila untuk republik jenderallawan lawanumur umurtahun tahuntaruh taruhnyawa nyawapancasila pancasilauntuk untukrepublik jenderallawanumur lawanumurtahun umurtahuntaruh tahuntaruhnyawa taruhnyawapancasila nyawapancasilauntuk pancasilauntukrepublik</t>
+  </si>
+  <si>
+    <t>pak serang hujat tahan bilang kalah nyerang akibat selalu keluar konteks tahan sesuai tema pakserang seranghujat hujattahan tahanbilang bilangkalah kalahnyerang nyerangakibat akibatselalu selalukeluar keluarkonteks kontekstahan tahansesuai sesuaitema pakseranghujat seranghujattahan hujattahanbilang tahanbilangkalah bilangkalahnyerang kalahnyerangakibat nyerangakibatselalu akibatselalukeluar selalukeluarkonteks keluarkontekstahan kontekstahansesuai tahansesuaitema</t>
+  </si>
+  <si>
+    <t>mantap kali calon presiden pak malam cerdas tegas prabowomenangdebat mantapkali kalicalon calonpresiden presidenpak pakmalam malamcerdas cerdastegas tegasprabowomenangdebat mantapkalicalon kalicalonpresiden calonpresidenpak presidenpakmalam pakmalamcerdas malamcerdastegas cerdastegasprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>statement soal usah ngurusin masalah negara adalah pukul telak buat dukung statementsoal soalusah usahngurusin ngurusinmasalah masalahnegara negaraadalah adalahpukul pukultelak telakbuat buatdukung statementsoalusah soalusahngurusin usahngurusinmasalah ngurusinmasalahnegara masalahnegaraadalah negaraadalahpukul adalahpukultelak pukultelakbuat telakbuatdukung</t>
+  </si>
+  <si>
+    <t>wah salah nih mas kasih tahu litbang wahsalah salahnih nihmas maskasih kasihtahu tahulitbang wahsalahnih salahnihmas nihmaskasih maskasihtahu kasihtahulitbang</t>
+  </si>
+  <si>
+    <t>kait aspek tahan keamananan point penting debatpilpres 2019 nyata penting kembang alutsista kaitaspek aspektahan tahankeamananan keamanananpoint pointpenting pentingdebatpilpres debatpilpres2019 2019nyata nyatapenting pentingkembang kembangalutsista kaitaspektahan aspektahankeamananan tahankeamanananpoint keamanananpointpenting pointpentingdebatpilpres pentingdebatpilpres2019 debatpilpres2019nyata 2019nyatapenting nyatapentingkembang pentingkembangalutsista</t>
+  </si>
+  <si>
+    <t>senang naik sepeda sering rantai putus yakin rantai sahabat dengan tak pernah putus senangnaik naiksepeda sepedasering seringrantai rantaiputus putusyakin yakinrantai rantaisahabat sahabatdengan dengantak takpernah pernahputus senangnaiksepeda naiksepedasering sepedaseringrantai seringrantaiputus rantaiputusyakin putusyakinrantai yakinrantaisahabat rantaisahabatdengan sahabatdengantak dengantakpernah takpernahputus</t>
+  </si>
+  <si>
+    <t>sipil sangat percaya tni beliau lebih percaya tni pada mantan tni yang pecat sipilsangat sangatpercaya percayatni tnibeliau beliaulebih lebihpercaya percayatni tnipada padamantan mantantni tniyang yangpecat sipilsangatpercaya sangatpercayatni percayatnibeliau tnibeliaulebih beliaulebihpercaya lebihpercayatni percayatnipada tnipadamantan padamantantni mantantniyang tniyangpecat</t>
+  </si>
+  <si>
+    <t>pak tadi maju tidak pakai teks gestur di luar kepala lulus fort cantik gitu paktadi tadimaju majutidak tidakpakai pakaiteks teksgestur gesturdi diluar luarkepala kepalalulus lulusfort fortcantik cantikgitu paktadimaju tadimajutidak majutidakpakai tidakpakaiteks pakaiteksgestur teksgesturdi gesturdiluar diluarkepala luarkepalalulus kepalalulusfort lulusfortcantik fortcantikgitu</t>
+  </si>
+  <si>
+    <t>indonesia bawah jadi bangsa emis utang peran dunia internasional hilang presiden tak bicara indonesiabawah bawahjadi jadibangsa bangsaemis emisutang utangperan perandunia duniainternasional internasionalhilang hilangpresiden presidentak takbicara indonesiabawahjadi bawahjadibangsa jadibangsaemis bangsaemisutang emisutangperan utangperandunia peranduniainternasional duniainternasionalhilang internasionalhilangpresiden hilangpresidentak presidentakbicara</t>
+  </si>
+  <si>
+    <t>denger tuh kata pak saling harga https t co l143x7rvt5 dengertuh tuhkata katapak paksaling salingharga hargahttps httpst tco col143x7rvt5 dengertuhkata tuhkatapak katapaksaling paksalingharga salinghargahttps hargahttpst httpstco tcol143x7rvt5</t>
+  </si>
+  <si>
+    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin kayasuatu suatubangsa bangsakalau kalaujaga jagasuatu suatukuat kuattahan tahankuat kuattidak tidakmungkin kayasuatubangsa suatubangsakalau bangsakalaujaga kalaujagasuatu jagasuatukuat suatukuattahan kuattahankuat tahankuattidak kuattidakmungkin</t>
+  </si>
+  <si>
+    <t>wkkwkwkwkk asli salah satu omong wowo ngaco pecatanlebihtnidaritni mending jauh pak mana wkkwkwkwkkasli aslisalah salahsatu satuomong omongwowo wowongaco ngacopecatanlebihtnidaritni pecatanlebihtnidaritnimending mendingjauh jauhpak pakmana wkkwkwkwkkaslisalah aslisalahsatu salahsatuomong satuomongwowo omongwowongaco wowongacopecatanlebihtnidaritni ngacopecatanlebihtnidaritnimending pecatanlebihtnidaritnimendingjauh mendingjauhpak jauhpakmana</t>
+  </si>
+  <si>
+    <t>mbak badan menang nasional jangan mau tipu sama hti angin surga buat hti akan buat dukung mbakbadan badanmenang menangnasional nasionaljangan janganmau mautipu tipusama samahti htiangin anginsurga surgabuat buathti htiakan akanbuat buatdukung mbakbadanmenang badanmenangnasional menangnasionaljangan nasionaljanganmau janganmautipu mautipusama tipusamahti samahtiangin htianginsurga anginsurgabuat surgabuathti buathtiakan htiakanbuat akanbuatdukung</t>
+  </si>
+  <si>
+    <t>marah cinta hadap negara kalian goreng sedang bohong manis si jokowi malah kalian puji marahcinta cintahadap hadapnegara negarakalian kaliangoreng gorengsedang sedangbohong bohongmanis manissi sijokowi jokowimalah malahkalian kalianpuji marahcintahadap cintahadapnegara hadapnegarakalian negarakaliangoreng kaliangorengsedang gorengsedangbohong sedangbohongmanis bohongmanissi manissijokowi sijokowimalah jokowimalahkalian malahkalianpuji</t>
+  </si>
+  <si>
+    <t>pilpres tarung akal sehat akal dungu jokowidiambangkekalahan https t co 0ygyvuuior pilprestarung tarungakal akalsehat sehatakal akaldungu dungujokowidiambangkekalahan jokowidiambangkekalahanhttps httpst tco co0ygyvuuior pilprestarungakal tarungakalsehat akalsehatakal sehatakaldungu akaldungujokowidiambangkekalahan dungujokowidiambangkekalahanhttps jokowidiambangkekalahanhttpst httpstco tco0ygyvuuior</t>
+  </si>
+  <si>
+    <t>pak selalu tampil elegan negarawan tampil lepas penuh canda tawa tak segan joget riang pakselalu selalutampil tampilelegan elegannegarawan negarawantampil tampillepas lepaspenuh penuhcanda candatawa tawatak taksegan seganjoget jogetriang pakselalutampil selalutampilelegan tampilelegannegarawan elegannegarawantampil negarawantampillepas tampillepaspenuh lepaspenuhcanda penuhcandatawa candatawatak tawataksegan takseganjoget seganjogetriang</t>
+  </si>
+  <si>
+    <t>isu khilafah isu kaum keok-ers katolik pilih pimpin jujur bapak isukhilafah khilafahisu isukaum kaumkeok-ers keok-erskatolik katolikpilih pilihpimpin pimpinjujur jujurbapak isukhilafahisu khilafahisukaum isukaumkeok-ers kaumkeok-erskatolik keok-erskatolikpilih katolikpilihpimpin pilihpimpinjujur pimpinjujurbapak</t>
+  </si>
+  <si>
+    <t>sumpah tahan pancasila titik darah akhir bohong kecewa bapak luka dikit jangan udah pakai sarung tangan sumpahtahan tahanpancasila pancasilatitik titikdarah darahakhir akhirbohong bohongkecewa kecewabapak bapakluka lukadikit dikitjangan janganudah udahpakai pakaisarung sarungtangan sumpahtahanpancasila tahanpancasilatitik pancasilatitikdarah titikdarahakhir darahakhirbohong akhirbohongkecewa bohongkecewabapak kecewabapakluka bapaklukadikit lukadikitjangan dikitjanganudah janganudahpakai udahpakaisarung pakaisarungtangan</t>
+  </si>
+  <si>
+    <t>kalau kayak gin performa pak jadi menhan perintah presiden 2019-2024 tak pantas kalaukayak kayakgin ginperforma performapak pakjadi jadimenhan menhanperintah perintahpresiden presiden2019-2024 2019-2024tak takpantas kalaukayakgin kayakginperforma ginperformapak performapakjadi pakjadimenhan jadimenhanperintah menhanperintahpresiden perintahpresiden2019-2024 presiden2019-2024tak 2019-2024takpantas</t>
+  </si>
+  <si>
+    <t>bapak info sesat petinggi tni woi om wowo lupa bukankah kamu lebih parah dibohongin sama dukung sendiri bapakinfo infosesat sesatpetinggi petinggitni tniwoi woiom omwowo wowolupa lupabukankah bukankahkamu kamulebih lebihparah parahdibohongin dibohonginsama samadukung dukungsendiri bapakinfosesat infosesatpetinggi sesatpetinggitni petinggitniwoi tniwoiom woiomwowo omwowolupa wowolupabukankah lupabukankahkamu bukankahkamulebih kamulebihparah lebihparahdibohongin parahdibohonginsama dibohonginsamadukung samadukungsendiri</t>
+  </si>
+  <si>
+    <t>alhamdulillah debat langsung lancar berkat doa semua cinta indonesia sayang alhamdulillahdebat debatlangsung langsunglancar lancarberkat berkatdoa doasemua semuacinta cintaindonesia indonesiasayang alhamdulillahdebatlangsung debatlangsunglancar langsunglancarberkat lancarberkatdoa berkatdoasemua doasemuacinta semuacintaindonesia cintaindonesiasayang</t>
+  </si>
+  <si>
+    <t>lebih tni tni bagus pak aku overdosis jadi makin mudah kami pilih presiden lebihtni tnitni tnibagus baguspak pakaku akuoverdosis overdosisjadi jadimakin makinmudah mudahkami kamipilih pilihpresiden lebihtnitni tnitnibagus tnibaguspak baguspakaku pakakuoverdosis akuoverdosisjadi overdosisjadimakin jadimakinmudah makinmudahkami mudahkamipilih kamipilihpresiden</t>
+  </si>
+  <si>
+    <t>subianto ragu mampu ri bidang tahan situs global fire power fokus masalah subiantoragu ragumampu mampuri ribidang bidangtahan tahansitus situsglobal globalfire firepower powerfokus fokusmasalah subiantoragumampu ragumampuri mampuribidang ribidangtahan bidangtahansitus tahansitusglobal situsglobalfire globalfirepower firepowerfokus powerfokusmasalah</t>
+  </si>
+  <si>
+    <t>satu sisi tegas bilang akan ubah nkri jadi khilafah di sisi badan menang nasional malah janji hti hidup satusisi sisitegas tegasbilang bilangakan akanubah ubahnkri nkrijadi jadikhilafah khilafahdi disisi sisibadan badanmenang menangnasional nasionalmalah malahjanji janjihti htihidup satusisitegas sisitegasbilang tegasbilangakan bilangakanubah akanubahnkri ubahnkrijadi nkrijadikhilafah jadikhilafahdi khilafahdisisi disisibadan sisibadanmenang badanmenangnasional menangnasionalmalah nasionalmalahjanji malahjanjihti janjihtihidup</t>
+  </si>
+  <si>
+    <t>siap bawa indonesia maju cuma pak 01dilanjutkan https t co mhvlauseoz siapbawa bawaindonesia indonesiamaju majucuma cumapak pak01dilanjutkan 01dilanjutkanhttps httpst tco comhvlauseoz siapbawaindonesia bawaindonesiamaju indonesiamajucuma majucumapak cumapak01dilanjutkan pak01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcomhvlauseoz</t>
+  </si>
+  <si>
+    <t>2beer unpopular opinion pak mungkin punya track record tidak gitu baik saya percaya kalau beliau orang baik 2beerunpopular unpopularopinion opinionpak pakmungkin mungkinpunya punyatrack trackrecord recordtidak tidakgitu gitubaik baiksaya sayapercaya percayakalau kalaubeliau beliauorang orangbaik 2beerunpopularopinion unpopularopinionpak opinionpakmungkin pakmungkinpunya mungkinpunyatrack punyatrackrecord trackrecordtidak recordtidakgitu tidakgitubaik gitubaiksaya baiksayapercaya sayapercayakalau percayakalaubeliau kalaubeliauorang beliauorangbaik</t>
+  </si>
+  <si>
+    <t>apa sampai mas tema debat isi tegas lugas mudah erti sesuai lapang apasampai sampaimas mastema temadebat debatisi isitegas tegaslugas lugasmudah mudaherti ertisesuai sesuailapang apasampaimas sampaimastema mastemadebat temadebatisi debatisitegas isitegaslugas tegaslugasmudah lugasmudaherti mudahertisesuai ertisesuailapang</t>
+  </si>
+  <si>
+    <t>pak biar paham rata skor cpi dunia tahu kalau indonesia arti bawah rata pakbiar biarpaham pahamrata rataskor skorcpi cpidunia duniatahu tahukalau kalauindonesia indonesiaarti artibawah bawahrata pakbiarpaham biarpahamrata pahamrataskor rataskorcpi skorcpidunia cpiduniatahu duniatahukalau tahukalauindonesia kalauindonesiaarti indonesiaartibawah artibawahrata</t>
+  </si>
+  <si>
+    <t>pak all keluar debat malam semua umpan lawan lahap habis bahkan jawab kerap jadi serang balik pakall allkeluar keluardebat debatmalam malamsemua semuaumpan umpanlawan lawanlahap lahaphabis habisbahkan bahkanjawab jawabkerap kerapjadi jadiserang serangbalik pakallkeluar allkeluardebat keluardebatmalam debatmalamsemua malamsemuaumpan semuaumpanlawan umpanlawanlahap lawanlahaphabis lahaphabisbahkan habisbahkanjawab bahkanjawabkerap jawabkerapjadi kerapjadiserang jadiserangbalik</t>
+  </si>
+  <si>
+    <t>rekam jejak bersih segala kasus langgar hukum menangjokowilagi rekamjejak jejakbersih bersihsegala segalakasus kasuslanggar langgarhukum hukummenangjokowilagi rekamjejakbersih jejakbersihsegala bersihsegalakasus segalakasuslanggar kasuslanggarhukum langgarhukummenangjokowilagi</t>
+  </si>
+  <si>
+    <t>ketua umum pan insyallah allah jawa barat jadi menang pan - sandi ketuaumum umumpan paninsyallah insyallahallah allahjawa jawabarat baratjadi jadimenang menangpan pan- -sandi ketuaumumpan umumpaninsyallah paninsyallahallah insyallahallahjawa allahjawabarat jawabaratjadi baratjadimenang jadimenangpan menangpan- pan-sandi</t>
+  </si>
+  <si>
+    <t>ken cepat punya presiden tegas berkharisma prabowobentengnkri kencepat cepatpunya punyapresiden presidentegas tegasberkharisma berkharismaprabowobentengnkri kencepatpunya cepatpunyapresiden punyapresidentegas presidentegasberkharisma tegasberkharismaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>paling penting bagaimana beri didik palingpenting pentingbagaimana bagaimanaberi berididik palingpentingbagaimana pentingbagaimanaberi bagaimanaberididik</t>
+  </si>
+  <si>
+    <t>jadi keliru kalau badan menang nasional beri angin hti harap suara hti justru hti percaya demokrasi jadikeliru kelirukalau kalaubadan badanmenang menangnasional nasionalberi beriangin anginhti htiharap harapsuara suarahti htijustru justruhti htipercaya percayademokrasi jadikelirukalau kelirukalaubadan kalaubadanmenang badanmenangnasional menangnasionalberi nasionalberiangin berianginhti anginhtiharap htiharapsuara harapsuarahti suarahtijustru htijustruhti justruhtipercaya htipercayademokrasi</t>
+  </si>
+  <si>
+    <t>juang sama sama rakyat biar rakyat tentu juangsama samasama samarakyat rakyatbiar biarrakyat rakyattentu juangsamasama samasamarakyat samarakyatbiar rakyatbiarrakyat biarrakyattentu</t>
+  </si>
+  <si>
+    <t>pakdhe budhe iriana suka kampanye suasana positif optimis penuh canda tawa ceria pakdhebudhe budheiriana irianasuka sukakampanye kampanyesuasana suasanapositif positifoptimis optimispenuh penuhcanda candatawa tawaceria pakdhebudheiriana budheirianasuka irianasukakampanye sukakampanyesuasana kampanyesuasanapositif suasanapositifoptimis positifoptimispenuh optimispenuhcanda penuhcandatawa candatawaceria</t>
+  </si>
+  <si>
+    <t>astaga 2nya ngomong kalau dukung yang nuduh soal khilafah yang jelek 2in astaga2nya 2nyangomong ngomongkalau kalaudukung dukungyang yangnuduh nuduhsoal soalkhilafah khilafahyang yangjelek jelek2in astaga2nyangomong 2nyangomongkalau ngomongkalaudukung kalaudukungyang dukungyangnuduh yangnuduhsoal nuduhsoalkhilafah soalkhilafahyang khilafahyangjelek yangjelek2in</t>
+  </si>
+  <si>
+    <t>kena tuduh pro-khilafah milik argumen menep mentah olah bela khilafah kenatuduh tuduhpro-khilafah pro-khilafahmilik milikargumen argumenmenep menepmentah mentaholah olahbela belakhilafah kenatuduhpro-khilafah tuduhpro-khilafahmilik pro-khilafahmilikargumen milikargumenmenep argumenmenepmentah menepmentaholah mentaholahbela olahbelakhilafah</t>
+  </si>
+  <si>
+    <t>pimpin garis beri contoh jaga satu bukan pecah belah mantap mas pimpingaris garisberi bericontoh contohjaga jagasatu satubukan bukanpecah pecahbelah belahmantap mantapmas pimpingarisberi garisbericontoh bericontohjaga contohjagasatu jagasatubukan satubukanpecah bukanpecahbelah pecahbelahmantap belahmantapmas</t>
+  </si>
+  <si>
+    <t>mantap sekali nyata pak moga selalu konsisten prabowobentengnkri https t co apdde 5ubll mantapsekali sekalinyata nyatapak pakmoga mogaselalu selalukonsisten konsistenprabowobentengnkri prabowobentengnkrihttps httpst tco coapdde apdde5ubll mantapsekalinyata sekalinyatapak nyatapakmoga pakmogaselalu mogaselalukonsisten selalukonsistenprabowobentengnkri konsistenprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoapdde coapdde5ubll</t>
+  </si>
+  <si>
+    <t>mantaaab yang tunggu argument cerdas tegas bapak pkivspancasila 18harilagicobloscapres02 mantaaabyang yangtunggu tungguargument argumentcerdas cerdastegas tegasbapak bapakpkivspancasila pkivspancasila18harilagicobloscapres02 mantaaabyangtunggu yangtungguargument tungguargumentcerdas argumentcerdastegas cerdastegasbapak tegasbapakpkivspancasila bapakpkivspancasila18harilagicobloscapres02</t>
+  </si>
+  <si>
+    <t>hasil prediksi menang telak tema ahli beliau notabene milik wawasanya hasilprediksi prediksimenang menangtelak telaktema temaahli ahlibeliau beliaunotabene notabenemilik milikwawasanya hasilprediksimenang prediksimenangtelak menangtelaktema telaktemaahli temaahlibeliau ahlibeliaunotabene beliaunotabenemilik notabenemilikwawasanya</t>
+  </si>
+  <si>
+    <t>andal jual kartu bangga layan satu pintu bangga program yang kata mampu kurang korupsi andaljual jualkartu kartubangga banggalayan layansatu satupintu pintubangga banggaprogram programyang yangkata katamampu mampukurang kurangkorupsi andaljualkartu jualkartubangga kartubanggalayan banggalayansatu layansatupintu satupintubangga pintubanggaprogram banggaprogramyang programyangkata yangkatamampu katamampukurang mampukurangkorupsi</t>
+  </si>
+  <si>
+    <t>lihat segi mana pak lebih unggul prabowobentengnkri https t co ksmrfawt 0c lihatsegi segimana manapak paklebih lebihunggul unggulprabowobentengnkri prabowobentengnkrihttps httpst tco coksmrfawt ksmrfawt0c lihatsegimana segimanapak manapaklebih paklebihunggul lebihunggulprabowobentengnkri unggulprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoksmrfawt coksmrfawt0c</t>
+  </si>
+  <si>
+    <t>dukung waktu fitnah kristen hebertus bila bila bila semua mereka tuduh malah di dukungwaktu waktufitnah fitnahkristen kristenhebertus hebertusbila bilabila bilabila bilasemua semuamereka merekatuduh tuduhmalah malahdi dukungwaktufitnah waktufitnahkristen fitnahkristenhebertus kristenhebertusbila hebertusbilabila bilabilabila bilabilasemua bilasemuamereka semuamerekatuduh merekatuduhmalah tuduhmalahdi</t>
+  </si>
+  <si>
+    <t>dukung pak sukarela buat avatar dukung dukung pak dukungpak paksukarela sukarelabuat buatavatar avatardukung dukungdukung dukungpak dukungpaksukarela paksukarelabuat sukarelabuatavatar buatavatardukung avatardukungdukung dukungdukungpak</t>
+  </si>
+  <si>
+    <t>deklarasi maaruf amin menang yang singkat sebut jomang gagal laksana deklarasimaaruf maarufamin aminmenang menangyang yangsingkat singkatsebut sebutjomang jomanggagal gagallaksana deklarasimaarufamin maarufaminmenang aminmenangyang menangyangsingkat yangsingkatsebut singkatsebutjomang sebutjomanggagal jomanggagallaksana</t>
+  </si>
+  <si>
+    <t>tenaga medis paham penting sehat jantung jantung pak tetap sehat tenagamedis medispaham pahampenting pentingsehat sehatjantung jantungjantung jantungpak paktetap tetapsehat tenagamedispaham medispahampenting pahampentingsehat pentingsehatjantung sehatjantungjantung jantungjantungpak jantungpaktetap paktetapsehat</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 paling kasihan sama orang percaya jadi aparat debatpilpres2019 2019paling palingkasihan kasihansama samaorang orangpercaya percayajadi jadiaparat debatpilpres2019paling 2019palingkasihan palingkasihansama kasihansamaorang samaorangpercaya orangpercayajadi percayajadiaparat</t>
+  </si>
+  <si>
+    <t>jangan putus saudara biar rakyat tentu siapa baik bangsa - janganputus putussaudara saudarabiar biarrakyat rakyattentu tentusiapa siapabaik baikbangsa bangsa- janganputussaudara putussaudarabiar saudarabiarrakyat biarrakyattentu rakyattentusiapa tentusiapabaik siapabaikbangsa baikbangsa-</t>
+  </si>
+  <si>
+    <t>sih pak selalu bandingin kondisi tni jaman sukarno jelas dulu ancam militer tinggi sihpak pakselalu selalubandingin bandinginkondisi kondisitni tnijaman jamansukarno sukarnojelas jelasdulu duluancam ancammiliter militertinggi sihpakselalu pakselalubandingin selalubandinginkondisi bandinginkondisitni kondisitnijaman tnijamansukarno jamansukarnojelas sukarnojelasdulu jelasduluancam duluancammiliter ancammilitertinggi</t>
+  </si>
+  <si>
+    <t>baru telepon ibu maryani djoyohadikusumo kakak pak subianto memang kenal baik beliau barutelepon teleponibu ibumaryani maryanidjoyohadikusumo djoyohadikusumokakak kakakpak paksubianto subiantomemang memangkenal kenalbaik baikbeliau baruteleponibu teleponibumaryani ibumaryanidjoyohadikusumo maryanidjoyohadikusumokakak djoyohadikusumokakakpak kakakpaksubianto paksubiantomemang subiantomemangkenal memangkenalbaik kenalbaikbeliau</t>
+  </si>
+  <si>
+    <t>jangan ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu kata janganketawa ketawakalian kalianketawa ketawatahan tahanindonesia indonesiarapuh rapuhkalian kalianketawa ketawalucu lucukok koklucu lucukata janganketawakalian ketawakalianketawa kalianketawatahan ketawatahanindonesia tahanindonesiarapuh indonesiarapuhkalian rapuhkalianketawa kalianketawalucu ketawalucukok lucukoklucu koklucukata</t>
+  </si>
+  <si>
+    <t>habis sih telanjang debat mantap pak debatpilpres 2019 prabowobentengnkri habissih sihtelanjang telanjangdebat debatmantap mantappak pakdebatpilpres debatpilpres2019 2019prabowobentengnkri habissihtelanjang sihtelanjangdebat telanjangdebatmantap debatmantappak mantappakdebatpilpres pakdebatpilpres2019 debatpilpres2019prabowobentengnkri</t>
+  </si>
+  <si>
+    <t>hanya harap kelak negeri maju sama prabowo-sandi banyak bisa bantu pak hanyaharap harapkelak kelaknegeri negerimaju majusama samaprabowo-sandi prabowo-sandibanyak banyakbisa bisabantu bantupak hanyaharapkelak harapkelaknegeri kelaknegerimaju negerimajusama majusamaprabowo-sandi samaprabowo-sandibanyak prabowo-sandibanyakbisa banyakbisabantu bisabantupak</t>
+  </si>
+  <si>
+    <t>paling mantap debat malam prabowobentengnkri prabowomenangdebat palingmantap mantapdebat debatmalam malamprabowobentengnkri prabowobentengnkriprabowomenangdebat palingmantapdebat mantapdebatmalam debatmalamprabowobentengnkri malamprabowobentengnkriprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>perintah kuat pimpin tegas pihak prabowo-sandi yakin wujud jadi harap perintahkuat kuatpimpin pimpintegas tegaspihak pihakprabowo-sandi prabowo-sandiyakin yakinwujud wujudjadi jadiharap perintahkuatpimpin kuatpimpintegas pimpintegaspihak tegaspihakprabowo-sandi pihakprabowo-sandiyakin prabowo-sandiyakinwujud yakinwujudjadi wujudjadiharap</t>
+  </si>
+  <si>
+    <t>pak mungkin inspirasi netijen haus tikai makanya marah pakmungkin mungkininspirasi inspirasinetijen netijenhaus haustikai tikaimakanya makanyamarah pakmungkininspirasi mungkininspirasinetijen inspirasinetijenhaus netijenhaustikai haustikaimakanya tikaimakanyamarah</t>
+  </si>
+  <si>
+    <t>menang mbak sepenuh yakin pak menang menangmbak mbaksepenuh sepenuhyakin yakinpak pakmenang menangmbaksepenuh mbaksepenuhyakin sepenuhyakinpak yakinpakmenang</t>
+  </si>
+  <si>
+    <t>moga pak selalu sehat amin debatasyikjokowi https t co lww 2w8bb30 mogapak pakselalu selalusehat sehatamin amindebatasyikjokowi debatasyikjokowihttps httpst tco colww lww2w8bb30 mogapakselalu pakselalusehat selalusehatamin sehatamindebatasyikjokowi amindebatasyikjokowihttps debatasyikjokowihttpst httpstco tcolww colww2w8bb30</t>
+  </si>
+  <si>
+    <t>calon presiden nilai tak keluar narasi besar sendiri tak tampil istimewa calonpresiden presidennilai nilaitak takkeluar keluarnarasi narasibesar besarsendiri sendiritak taktampil tampilistimewa calonpresidennilai presidennilaitak nilaitakkeluar takkeluarnarasi keluarnarasibesar narasibesarsendiri besarsendiritak sendiritaktampil taktampilistimewa</t>
+  </si>
+  <si>
+    <t>paslon calon presiden 01 jokowi-kh ma ruf amin terima deklarasi dukung kelompok supporter sepak bola viking bandung pasloncalon calonpresiden presiden01 01jokowi-kh jokowi-khma maruf rufamin aminterima terimadeklarasi deklarasidukung dukungkelompok kelompoksupporter supportersepak sepakbola bolaviking vikingbandung pasloncalonpresiden calonpresiden01 presiden01jokowi-kh 01jokowi-khma jokowi-khmaruf marufamin rufaminterima aminterimadeklarasi terimadeklarasidukung deklarasidukungkelompok dukungkelompoksupporter kelompoksupportersepak supportersepakbola sepakbolaviking bolavikingbandung</t>
+  </si>
+  <si>
+    <t>nah pas jokowidiambangkekalahan prabowobentengnkri prabowobentengnkri nahpas pasjokowidiambangkekalahan jokowidiambangkekalahanprabowobentengnkri prabowobentengnkriprabowobentengnkri nahpasjokowidiambangkekalahan pasjokowidiambangkekalahanprabowobentengnkri jokowidiambangkekalahanprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>beda kelas bapak true warrior ksatria sejati bedakelas kelasbapak bapaktrue truewarrior warriorksatria ksatriasejati bedakelasbapak kelasbapaktrue bapaktruewarrior truewarriorksatria warriorksatriasejati</t>
+  </si>
+  <si>
+    <t>mantap pak malam kamu tunjuk sikap tegas nasionalis patriot sejati tolong jaga emosi mantappak pakmalam malamkamu kamutunjuk tunjuksikap sikaptegas tegasnasionalis nasionalispatriot patriotsejati sejatitolong tolongjaga jagaemosi mantappakmalam pakmalamkamu malamkamutunjuk kamutunjuksikap tunjuksikaptegas sikaptegasnasionalis tegasnasionalispatriot nasionalispatriotsejati patriotsejatitolong sejatitolongjaga tolongjagaemosi</t>
+  </si>
+  <si>
+    <t>wowo kali ingat pak bapak hati para bisik bapak kena tahan wowokali kaliingat ingatpak pakbapak bapakhati hatipara parabisik bisikbapak bapakkena kenatahan wowokaliingat kaliingatpak ingatpakbapak pakbapakhati bapakhatipara hatiparabisik parabisikbapak bisikbapakkena bapakkenatahan</t>
+  </si>
+  <si>
+    <t>malam mantap prabowomenangdebat jokowidiambangkekalahan malammantap mantapprabowomenangdebat prabowomenangdebatjokowidiambangkekalahan malammantapprabowomenangdebat mantapprabowomenangdebatjokowidiambangkekalahan</t>
+  </si>
+  <si>
+    <t>insyallah jatim solid dukung nahdliyinbukanjokower nahdliyindukung 02 sayanusayamilih 02 insyallahjatim jatimsolid soliddukung dukungnahdliyinbukanjokower nahdliyinbukanjokowernahdliyindukung nahdliyindukung02 02sayanusayamilih sayanusayamilih02 insyallahjatimsolid jatimsoliddukung soliddukungnahdliyinbukanjokower dukungnahdliyinbukanjokowernahdliyindukung nahdliyinbukanjokowernahdliyindukung02 nahdliyindukung02sayanusayamilih 02sayanusayamilih02</t>
+  </si>
+  <si>
+    <t>jangan bilang salah hanya mau bilang fakta saya pulang kampung begini kondisi infrastruktur janganbilang bilangsalah salahhanya hanyamau maubilang bilangfakta faktasaya sayapulang pulangkampung kampungbegini beginikondisi kondisiinfrastruktur janganbilangsalah bilangsalahhanya salahhanyamau hanyamaubilang maubilangfakta bilangfaktasaya faktasayapulang sayapulangkampung pulangkampungbegini kampungbeginikondisi beginikondisiinfrastruktur</t>
+  </si>
+  <si>
+    <t>singkir kali akan gagal akan lantik jadi presiden republik indonesia ke - singkirkali kaliakan akangagal gagalakan akanlantik lantikjadi jadipresiden presidenrepublik republikindonesia indonesiake ke- singkirkaliakan kaliakangagal akangagalakan gagalakanlantik akanlantikjadi lantikjadipresiden jadipresidenrepublik presidenrepublikindonesia republikindonesiake indonesiake-</t>
+  </si>
+  <si>
+    <t>ngeri kalau lihat dukung beri viking amin jokowimengubahsemua 01jokowi3pdip kusukajokowiamin ngerikalau kalaulihat lihatdukung dukungberi beriviking vikingamin aminjokowimengubahsemua jokowimengubahsemua01jokowi3pdip 01jokowi3pdipkusukajokowiamin ngerikalaulihat kalaulihatdukung lihatdukungberi dukungberiviking berivikingamin vikingaminjokowimengubahsemua aminjokowimengubahsemua01jokowi3pdip jokowimengubahsemua01jokowi3pdipkusukajokowiamin</t>
+  </si>
+  <si>
+    <t>kalau cuma pinter bahasa inggris usah cinta laura tukang becak dijogja banyak kalaucuma cumapinter pinterbahasa bahasainggris inggrisusah usahcinta cintalaura lauratukang tukangbecak becakdijogja dijogjabanyak kalaucumapinter cumapinterbahasa pinterbahasainggris bahasainggrisusah inggrisusahcinta usahcintalaura cintalauratukang lauratukangbecak tukangbecakdijogja becakdijogjabanyak</t>
+  </si>
+  <si>
+    <t>sedih pilpres buat orang orang jadi benci lebih sekaligus puja lebih sama sama babi buta sedihpilpres pilpresbuat buatorang orangorang orangjadi jadibenci bencilebih lebihsekaligus sekaliguspuja pujalebih lebihsama samasama samababi babibuta sedihpilpresbuat pilpresbuatorang buatorangorang orangorangjadi orangjadibenci jadibencilebih bencilebihsekaligus lebihsekaliguspuja sekaliguspujalebih pujalebihsama lebihsamasama samasamababi samababibuta</t>
+  </si>
+  <si>
+    <t>deklarasi bobotoh dukung bobotohngahiji https t co ck2zv5jzvq deklarasibobotoh bobotohdukung dukungbobotohngahiji bobotohngahijihttps httpst tco cock2zv5jzvq deklarasibobotohdukung bobotohdukungbobotohngahiji dukungbobotohngahijihttps bobotohngahijihttpst httpstco tcock2zv5jzvq</t>
+  </si>
+  <si>
+    <t>sandi cita cita indonesia adil makmur berdikari bidang ekonomi yuk terus gerak indonenesia sandicita citacita citaindonesia indonesiaadil adilmakmur makmurberdikari berdikaribidang bidangekonomi ekonomiyuk yukterus terusgerak gerakindonenesia sandicitacita citacitaindonesia citaindonesiaadil indonesiaadilmakmur adilmakmurberdikari makmurberdikaribidang berdikaribidangekonomi bidangekonomiyuk ekonomiyukterus yukterusgerak terusgerakindonenesia</t>
+  </si>
+  <si>
+    <t>ambil sudut pandang pas ledak boom dilan 2014 cc prabowobentengnkri jokowidiambang ambilsudut sudutpandang pandangpas pasledak ledakboom boomdilan dilan2014 2014cc ccprabowobentengnkri prabowobentengnkrijokowidiambang ambilsudutpandang sudutpandangpas pandangpasledak pasledakboom ledakboomdilan boomdilan2014 dilan2014cc 2014ccprabowobentengnkri ccprabowobentengnkrijokowidiambang</t>
+  </si>
+  <si>
+    <t>suka heran sama orang benci parah sama pak disakitin sakit apa sih https t co efc 7clo0mb sukaheran heransama samaorang orangbenci benciparah parahsama samapak pakdisakitin disakitinsakit sakitapa apasih sihhttps httpst tco coefc efc7clo0mb sukaheransama heransamaorang samaorangbenci orangbenciparah benciparahsama parahsamapak samapakdisakitin pakdisakitinsakit disakitinsakitapa sakitapasih apasihhttps sihhttpst httpstco tcoefc coefc7clo0mb</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni lihatpak pakpercaya percayatni lihatpakpercaya pakpercayatni</t>
+  </si>
+  <si>
+    <t>lah malah ngulang omong lahmalah malahngulang ngulangomong lahmalahngulang malahngulangomong</t>
+  </si>
+  <si>
+    <t>insyallah allah aroma menang buat pak bang sudah nampak jelas lihat tinggal kawal menang insyallahallah allaharoma aromamenang menangbuat buatpak pakbang bangsudah sudahnampak nampakjelas jelaslihat lihattinggal tinggalkawal kawalmenang insyallahallaharoma allaharomamenang aromamenangbuat menangbuatpak buatpakbang pakbangsudah bangsudahnampak sudahnampakjelas nampakjelaslihat jelaslihattinggal lihattinggalkawal tinggalkawalmenang</t>
+  </si>
+  <si>
+    <t>pak benar orang baik pilih jadi presiden yang kali pakbenar benarorang orangbaik baikpilih pilihjadi jadipresiden presidenyang yangkali pakbenarorang benarorangbaik orangbaikpilih baikpilihjadi pilihjadipresiden jadipresidenyang presidenyangkali</t>
+  </si>
+  <si>
+    <t>turut ini tampil pak paling lepas benar turutini initampil tampilpak pakpaling palinglepas lepasbenar turutinitampil initampilpak tampilpakpaling pakpalinglepas palinglepasbenar</t>
+  </si>
+  <si>
+    <t>alas pilih prabowo menang debat april coblos sandi alaspilih pilihprabowo prabowomenang menangdebat debatapril aprilcoblos coblossandi alaspilihprabowo pilihprabowomenang prabowomenangdebat menangdebatapril debataprilcoblos aprilcoblossandi</t>
+  </si>
+  <si>
+    <t>udah deh cor usah banyak omong viking bobotoh buat deklarasi dukung udahdeh dehcor corusah usahbanyak banyakomong omongviking vikingbobotoh bobotohbuat buatdeklarasi deklarasidukung udahdehcor dehcorusah corusahbanyak usahbanyakomong banyakomongviking omongvikingbobotoh vikingbobotohbuat bobotohbuatdeklarasi buatdeklarasidukung</t>
+  </si>
+  <si>
+    <t>pak mantap jawab tenang jokowimengubahsemua nya jadi lebih baik maju jokowilagi pakmantap mantapjawab jawabtenang tenangjokowimengubahsemua jokowimengubahsemuanya nyajadi jadilebih lebihbaik baikmaju majujokowilagi pakmantapjawab mantapjawabtenang jawabtenangjokowimengubahsemua tenangjokowimengubahsemuanya jokowimengubahsemuanyajadi nyajadilebih jadilebihbaik lebihbaikmaju baikmajujokowilagi</t>
+  </si>
+  <si>
+    <t>tuju pak presiden amin kalau lembaga perintah kuat korupsi jual beli jabat tujupak pakpresiden presidenamin aminkalau kalaulembaga lembagaperintah perintahkuat kuatkorupsi korupsijual jualbeli belijabat tujupakpresiden pakpresidenamin presidenaminkalau aminkalaulembaga kalaulembagaperintah lembagaperintahkuat perintahkuatkorupsi kuatkorupsijual korupsijualbeli jualbelijabat</t>
+  </si>
+  <si>
+    <t>pemerintahandilan tol langit rupa karya bangun bukti mampu dukung maju ekonomi digital pemerintahandilantol tollangit langitrupa rupakarya karyabangun bangunbukti buktimampu mampudukung dukungmaju majuekonomi ekonomidigital pemerintahandilantollangit tollangitrupa langitrupakarya rupakaryabangun karyabangunbukti bangunbuktimampu buktimampudukung mampudukungmaju dukungmajuekonomi majuekonomidigital</t>
+  </si>
+  <si>
+    <t>bangga baris pak prabowobentengnkri banggabaris barispak pakprabowobentengnkri banggabarispak barispakprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>milenial love ya gaya milenial kena ott ahy partai demokrat demokrat dukung mileniallove loveya yagaya gayamilenial milenialkena kenaott ottahy ahypartai partaidemokrat demokratdemokrat demokratdukung milenialloveya loveyagaya yagayamilenial gayamilenialkena milenialkenaott kenaottahy ottahypartai ahypartaidemokrat partaidemokratdemokrat demokratdemokratdukung</t>
+  </si>
+  <si>
+    <t>lebih tni banyak tni lebihtni tnibanyak banyaktni lebihtnibanyak tnibanyaktni</t>
+  </si>
+  <si>
+    <t>sistem alat teknologi semua bagus layan publik inti perintah bersih korupsi sistemalat alatteknologi teknologisemua semuabagus baguslayan layanpublik publikinti intiperintah perintahbersih bersihkorupsi sistemalatteknologi alatteknologisemua teknologisemuabagus semuabaguslayan baguslayanpublik layanpublikinti publikintiperintah intiperintahbersih perintahbersihkorupsi</t>
+  </si>
+  <si>
+    <t>isu khilafah hembus sutradara gempur patah ronde pertama katolik makin percaya isukhilafah khilafahhembus hembussutradara sutradaragempur gempurpatah patahronde rondepertama pertamakatolik katolikmakin makinpercaya isukhilafahhembus khilafahhembussutradara hembussutradaragempur sutradaragempurpatah gempurpatahronde patahrondepertama rondepertamakatolik pertamakatolikmakin katolikmakinpercaya</t>
+  </si>
+  <si>
+    <t>dil digital layan lebih baik guna teknologi lama pel deh pikir dildigital digitallayan layanlebih lebihbaik baikguna gunateknologi teknologilama lamapel peldeh dehpikir dildigitallayan digitallayanlebih layanlebihbaik lebihbaikguna baikgunateknologi gunateknologilama teknologilamapel lamapeldeh peldehpikir</t>
+  </si>
+  <si>
+    <t>clossing statement isyarat pisah bangga bapak segera gegas pulang serah kuasa clossingstatement statementisyarat isyaratpisah pisahbangga banggabapak bapaksegera segeragegas gegaspulang pulangserah serahkuasa clossingstatementisyarat statementisyaratpisah isyaratpisahbangga pisahbanggabapak banggabapaksegera bapaksegeragegas segeragegaspulang gegaspulangserah pulangserahkuasa</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni telak sekali bro tak kutik lihatpak pakpercaya percayatni tnitelak telaksekali sekalibro brotak takkutik lihatpakpercaya pakpercayatni percayatnitelak tnitelaksekali telaksekalibro sekalibrotak brotakkutik</t>
+  </si>
+  <si>
+    <t>buat tonton ketawa saat bilang bukan salah bapak tidak tau salah siapa buattonton tontonketawa ketawasaat saatbilang bilangbukan bukansalah salahbapak bapaktidak tidaktau tausalah salahsiapa buattontonketawa tontonketawasaat ketawasaatbilang saatbilangbukan bilangbukansalah bukansalahbapak salahbapaktidak bapaktidaktau tidaktausalah tausalahsiapa</t>
+  </si>
+  <si>
+    <t>siapa bicara cara umum soal ini jangan korupsi perintah bersih siapabicara bicaracara caraumum umumsoal soalini inijangan jangankorupsi korupsiperintah perintahbersih siapabicaracara bicaracaraumum caraumumsoal umumsoalini soalinijangan inijangankorupsi jangankorupsiperintah korupsiperintahbersih</t>
+  </si>
+  <si>
+    <t>indonesia negara duduk muslim besar dunia percaya selesai banyak yang besar indonesianegara negaraduduk dudukmuslim muslimbesar besardunia duniapercaya percayaselesai selesaibanyak banyakyang yangbesar indonesianegaraduduk negaradudukmuslim dudukmuslimbesar muslimbesardunia besarduniapercaya duniapercayaselesai percayaselesaibanyak selesaibanyakyang banyakyangbesar</t>
+  </si>
+  <si>
+    <t>baru kali tenang banget prabowobentengnkri barukali kalitenang tenangbanget bangetprabowobentengnkri barukalitenang kalitenangbanget tenangbangetprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>milenial cinta pemerintahandilan keren https t co gg7eokdtnw milenialcinta cintapemerintahandilan pemerintahandilankeren kerenhttps httpst tco cogg7eokdtnw milenialcintapemerintahandilan cintapemerintahandilankeren pemerintahandilankerenhttps kerenhttpst httpstco tcogg7eokdtnw</t>
+  </si>
+  <si>
+    <t>hormat bapak debat momen baik papar gagas rencana hadap benang kusut bangsa hormatbapak bapakdebat debatmomen momenbaik baikpapar papargagas gagasrencana rencanahadap hadapbenang benangkusut kusutbangsa hormatbapakdebat bapakdebatmomen debatmomenbaik momenbaikpapar baikpapargagas papargagasrencana gagasrencanahadap rencanahadapbenang hadapbenangkusut benangkusutbangsa</t>
+  </si>
+  <si>
+    <t>tuduh itu saya diam tidak jawab bohong banget prabowobentengnkri tuduhitu itusaya sayadiam diamtidak tidakjawab jawabbohong bohongbanget bangetprabowobentengnkri tuduhitusaya itusayadiam sayadiamtidak diamtidakjawab tidakjawabbohong jawabbohongbanget bohongbangetprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>rendah dukung tahana rupa bukti bila cara tak langsung sedang hukum publik rendahdukung dukungtahana tahanarupa rupabukti buktibila bilacara caratak taklangsung langsungsedang sedanghukum hukumpublik rendahdukungtahana dukungtahanarupa tahanarupabukti rupabuktibila buktibilacara bilacaratak carataklangsung taklangsungsedang langsungsedanghukum sedanghukumpublik</t>
+  </si>
+  <si>
+    <t>leceh tagar 02capresabadi lama 4 5 tahun juang ubah tidur cantik jangan sana lecehtagar tagar02capresabadi 02capresabadilama lama4 45 5tahun tahunjuang juangubah ubahtidur tidurcantik cantikjangan jangansana lecehtagar02capresabadi tagar02capresabadilama 02capresabadilama4 lama45 45tahun 5tahunjuang tahunjuangubah juangubahtidur ubahtidurcantik tidurcantikjangan cantikjangansana</t>
+  </si>
+  <si>
+    <t>tetap fokus doa allah maha kuasa menang indonesia satu tetapfokus fokusdoa doaallah allahmaha mahakuasa kuasamenang menangindonesia indonesiasatu tetapfokusdoa fokusdoaallah doaallahmaha allahmahakuasa mahakuasamenang kuasamenangindonesia menangindonesiasatu</t>
+  </si>
+  <si>
+    <t>percaya tni pecatanlebihtnidaritni https t co qtfysc 93hd percayatni tnipecatanlebihtnidaritni pecatanlebihtnidaritnihttps httpst tco coqtfysc qtfysc93hd percayatnipecatanlebihtnidaritni tnipecatanlebihtnidaritnihttps pecatanlebihtnidaritnihttpst httpstco tcoqtfysc coqtfysc93hd</t>
+  </si>
+  <si>
+    <t>depan negara cepat kalah negara lambat kata pak cepat super cepat lompat depan depannegara negaracepat cepatkalah kalahnegara negaralambat lambatkata katapak pakcepat cepatsuper supercepat cepatlompat lompatdepan depannegaracepat negaracepatkalah cepatkalahnegara kalahnegaralambat negaralambatkata lambatkatapak katapakcepat pakcepatsuper cepatsupercepat supercepatlompat cepatlompatdepan</t>
+  </si>
+  <si>
+    <t>makin yakin rakyat ubah tunjuk kelas bagai orang memang paham soal bangsa depan makinyakin yakinrakyat rakyatubah ubahtunjuk tunjukkelas kelasbagai bagaiorang orangmemang memangpaham pahamsoal soalbangsa bangsadepan makinyakinrakyat yakinrakyatubah rakyatubahtunjuk ubahtunjukkelas tunjukkelasbagai kelasbagaiorang bagaiorangmemang orangmemangpaham memangpahamsoal pahamsoalbangsa soalbangsadepan</t>
+  </si>
+  <si>
+    <t>lho kok ngeles pak tadi kata ada perang sekarang bilang kira kok pucat lhokok kokngeles ngelespak paktadi tadikata kataada adaperang perangsekarang sekarangbilang bilangkira kirakok kokpucat lhokokngeles kokngelespak ngelespaktadi paktadikata tadikataada kataadaperang adaperangsekarang perangsekarangbilang sekarangbilangkira bilangkirakok kirakokpucat</t>
+  </si>
+  <si>
+    <t>repost jokowi amin pak hidup pancasila pimpin bisa beri contoh baik repostjokowi jokowiamin aminpak pakhidup hiduppancasila pancasilapimpin pimpinbisa bisaberi bericontoh contohbaik repostjokowiamin jokowiaminpak aminpakhidup pakhiduppancasila hiduppancasilapimpin pancasilapimpinbisa pimpinbisaberi bisabericontoh bericontohbaik</t>
+  </si>
+  <si>
+    <t>telah debat calon presiden kpu setel lagu mesra jangan cepat lalu romantisasi sahabat telahdebat debatcalon calonpresiden presidenkpu kpusetel setellagu lagumesra mesrajangan jangancepat cepatlalu laluromantisasi romantisasisahabat telahdebatcalon debatcalonpresiden calonpresidenkpu presidenkpusetel kpusetellagu setellagumesra lagumesrajangan mesrajangancepat jangancepatlalu cepatlaluromantisasi laluromantisasisahabat</t>
+  </si>
+  <si>
+    <t>siap nonton debatpilpreskeempat tema debat malam untung p kuasa tema debat siapnonton nontondebatpilpreskeempat debatpilpreskeempattema temadebat debatmalam malamuntung untungp pkuasa kuasatema temadebat siapnontondebatpilpreskeempat nontondebatpilpreskeempattema debatpilpreskeempattemadebat temadebatmalam debatmalamuntung malamuntungp untungpkuasa pkuasatema kuasatemadebat</t>
+  </si>
+  <si>
+    <t>hebat sekali dlm respon akhir debat pilpres tegas bagus indonesia kuat berdikari hebatsekali sekalidlm dlmrespon responakhir akhirdebat debatpilpres pilprestegas tegasbagus bagusindonesia indonesiakuat kuatberdikari hebatsekalidlm sekalidlmrespon dlmresponakhir responakhirdebat akhirdebatpilpres debatpilprestegas pilprestegasbagus tegasbagusindonesia bagusindonesiakuat indonesiakuatberdikari</t>
+  </si>
+  <si>
+    <t>nyerocos pakai bahas inggris debatpilpres 2019 malam sontak hilang kosentrasi fokus nyerocospakai pakaibahas bahasinggris inggrisdebatpilpres debatpilpres2019 2019malam malamsontak sontakhilang hilangkosentrasi kosentrasifokus nyerocospakaibahas pakaibahasinggris bahasinggrisdebatpilpres inggrisdebatpilpres2019 debatpilpres2019malam 2019malamsontak malamsontakhilang sontakhilangkosentrasi hilangkosentrasifokus</t>
+  </si>
+  <si>
+    <t>dong selalu fokus masalah bicara perlu banyak kerja kepoinpemilu jokowimengubahsemua dongselalu selalufokus fokusmasalah masalahbicara bicaraperlu perlubanyak banyakkerja kerjakepoinpemilu kepoinpemilujokowimengubahsemua dongselalufokus selalufokusmasalah fokusmasalahbicara masalahbicaraperlu bicaraperlubanyak perlubanyakkerja banyakkerjakepoinpemilu kerjakepoinpemilujokowimengubahsemua</t>
+  </si>
+  <si>
+    <t>prinsip perintah pak era revolusi 40 cepat tele simple pak yakin kata prinsipperintah perintahpak pakera erarevolusi revolusi40 40cepat cepattele telesimple simplepak pakyakin yakinkata prinsipperintahpak perintahpakera pakerarevolusi erarevolusi40 revolusi40cepat 40cepattele cepattelesimple telesimplepak simplepakyakin pakyakinkata</t>
+  </si>
+  <si>
+    <t>gigi sampai hilang sakit gara-gara lihat performa pak keren nendang jokowi gigisampai sampaihilang hilangsakit sakitgara-gara gara-garalihat lihatperforma performapak pakkeren kerennendang nendangjokowi gigisampaihilang sampaihilangsakit hilangsakitgara-gara sakitgara-garalihat gara-garalihatperforma lihatperformapak performapakkeren pakkerennendang kerennendangjokowi</t>
+  </si>
+  <si>
+    <t>terimakasih pak malam sekali bapak bukti mereka juang rakyat terimakasihpak pakmalam malamsekali sekalibapak bapakbukti buktimereka merekajuang juangrakyat terimakasihpakmalam pakmalamsekali malamsekalibapak sekalibapakbukti bapakbuktimereka buktimerekajuang merekajuangrakyat</t>
+  </si>
+  <si>
+    <t>dulur sebut apa buat optimis pak 01dilanjutkan kata tagar dulursebut sebutapa apabuat buatoptimis optimispak pak01dilanjutkan 01dilanjutkankata katatagar dulursebutapa sebutapabuat apabuatoptimis buatoptimispak optimispak01dilanjutkan pak01dilanjutkankata 01dilanjutkankatatagar</t>
+  </si>
+  <si>
+    <t>pak bagaimana bilang orang asing indonesia punya potensial besar bukan nya bersukur di doa sama pakbagaimana bagaimanabilang bilangorang orangasing asingindonesia indonesiapunya punyapotensial potensialbesar besarbukan bukannya nyabersukur bersukurdi didoa doasama pakbagaimanabilang bagaimanabilangorang bilangorangasing orangasingindonesia asingindonesiapunya indonesiapunyapotensial punyapotensialbesar potensialbesarbukan besarbukannya bukannyabersukur nyabersukurdi bersukurdidoa didoasama</t>
+  </si>
+  <si>
+    <t>acu adalah mertua bukti keluarga mertua di baris yang mau mundur masa lalu acuadalah adalahmertua mertuabukti buktikeluarga keluargamertua mertuadi dibaris barisyang yangmau maumundur mundurmasa masalalu acuadalahmertua adalahmertuabukti mertuabuktikeluarga buktikeluargamertua keluargamertuadi mertuadibaris dibarisyang barisyangmau yangmaumundur maumundurmasa mundurmasalalu</t>
+  </si>
+  <si>
+    <t>baru kali mau fitnah labil kadang bilang sholat bukan islam pernah jumat barukali kalimau maufitnah fitnahlabil labilkadang kadangbilang bilangsholat sholatbukan bukanislam islampernah pernahjumat barukalimau kalimaufitnah maufitnahlabil fitnahlabilkadang labilkadangbilang kadangbilangsholat bilangsholatbukan sholatbukanislam bukanislampernah islampernahjumat</t>
+  </si>
+  <si>
+    <t>juga pak hendro pak luhut coba lihat dukung sandi biar mikirin khilafah terus jugapak pakhendro hendropak pakluhut luhutcoba cobalihat lihatdukung dukungsandi sandibiar biarmikirin mikirinkhilafah khilafahterus jugapakhendro pakhendropak hendropakluhut pakluhutcoba luhutcobalihat cobalihatdukung lihatdukungsandi dukungsandibiar sandibiarmikirin biarmikirinkhilafah mikirinkhilafahterus</t>
+  </si>
+  <si>
+    <t>https t co gfse 1zynfq siap indonesia hadap industri 4 0 makin siap pakde tau cara httpst tco cogfse gfse1zynfq 1zynfqsiap siapindonesia indonesiahadap hadapindustri industri4 40 0makin makinsiap siappakde pakdetau taucara httpstco tcogfse cogfse1zynfq gfse1zynfqsiap 1zynfqsiapindonesia siapindonesiahadap indonesiahadapindustri hadapindustri4 industri40 40makin 0makinsiap makinsiappakde siappakdetau pakdetaucara</t>
+  </si>
+  <si>
+    <t>debat hari konfirmasi menang terima kasih mas tampil mas bowo hari ruarbiasa debathari harikonfirmasi konfirmasimenang menangterima terimakasih kasihmas mastampil tampilmas masbowo bowohari hariruarbiasa debatharikonfirmasi harikonfirmasimenang konfirmasimenangterima menangterimakasih terimakasihmas kasihmastampil mastampilmas tampilmasbowo masbowohari bowohariruarbiasa</t>
+  </si>
+  <si>
+    <t>kadang bingung sih dukung sama antem substansi saling jatuh kadangbingung bingungsih sihdukung dukungsama samaantem antemsubstansi substansisaling salingjatuh kadangbingungsih bingungsihdukung sihdukungsama dukungsamaantem samaantemsubstansi antemsubstansisaling substansisalingjatuh</t>
+  </si>
+  <si>
+    <t>itu nyata raut wajah tampak lelah pucat pasrah akhir sadar ucap salam pisah itunyata nyataraut rautwajah wajahtampak tampaklelah lelahpucat pucatpasrah pasrahakhir akhirsadar sadarucap ucapsalam salampisah itunyataraut nyatarautwajah rautwajahtampak wajahtampaklelah tampaklelahpucat lelahpucatpasrah pucatpasrahakhir pasrahakhirsadar akhirsadarucap sadarucapsalam ucapsalampisah</t>
+  </si>
+  <si>
+    <t>orang dungu beri label kubu kubu dukung khilafah lain waktu membully orangdungu dunguberi berilabel labelkubu kubukubu kubudukung dukungkhilafah khilafahlain lainwaktu waktumembully orangdunguberi dunguberilabel berilabelkubu labelkubukubu kubukubudukung kubudukungkhilafah dukungkhilafahlain khilafahlainwaktu lainwaktumembully</t>
+  </si>
+  <si>
+    <t>pak masalah nasional bisa selesai cara emosional maaf sekadar ingat pakmasalah masalahnasional nasionalbisa bisaselesai selesaicara caraemosional emosionalmaaf maafsekadar sekadaringat pakmasalahnasional masalahnasionalbisa nasionalbisaselesai bisaselesaicara selesaicaraemosional caraemosionalmaaf emosionalmaafsekadar maafsekadaringat</t>
+  </si>
+  <si>
+    <t>bagai tni wakaf jiwa raga bela negara walo mati medan laga bagaitni tniwakaf wakafjiwa jiwaraga ragabela belanegara negarawalo walomati matimedan medanlaga bagaitniwakaf tniwakafjiwa wakafjiwaraga jiwaragabela ragabelanegara belanegarawalo negarawalomati walomatimedan matimedanlaga</t>
+  </si>
+  <si>
+    <t>pakde beri fasilitas lalu bangun gedung inkubasi para laku usaha rintis startup pakdeberi berifasilitas fasilitaslalu lalubangun bangungedung gedunginkubasi inkubasipara paralaku lakuusaha usaharintis rintisstartup pakdeberifasilitas berifasilitaslalu fasilitaslalubangun lalubangungedung bangungedunginkubasi gedunginkubasipara inkubasiparalaku paralakuusaha lakuusaharintis usaharintisstartup</t>
+  </si>
+  <si>
+    <t>malam hebat miss makin yakin indonesia menang prabowobentengnkri malamhebat hebatmiss missmakin makinyakin yakinindonesia indonesiamenang menangprabowobentengnkri malamhebatmiss hebatmissmakin missmakinyakin makinyakinindonesia yakinindonesiamenang indonesiamenangprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>cetar bahana porak poranda tahana buat suka gaya lho jenderal prabowobentengnkri cetarbahana bahanaporak porakporanda porandatahana tahanabuat buatsuka sukagaya gayalho lhojenderal jenderalprabowobentengnkri cetarbahanaporak bahanaporakporanda porakporandatahana porandatahanabuat tahanabuatsuka buatsukagaya sukagayalho gayalhojenderal lhojenderalprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>mbak jaga stamina istirahat pas mbakjaga jagastamina staminaistirahat istirahatpas mbakjagastamina jagastaminaistirahat staminaistirahatpas</t>
+  </si>
+  <si>
+    <t>terima kasih bapak atas tampil luar biasa malam saya keluarga histeria doa bapak menang terimakasih kasihbapak bapakatas atastampil tampilluar luarbiasa biasamalam malamsaya sayakeluarga keluargahisteria histeriadoa doabapak bapakmenang terimakasihbapak kasihbapakatas bapakatastampil atastampilluar tampilluarbiasa luarbiasamalam biasamalamsaya malamsayakeluarga sayakeluargahisteria keluargahisteriadoa histeriadoabapak doabapakmenang</t>
+  </si>
+  <si>
+    <t>jadi benar sepakat semua usul program pak tuju silah lanjut periode jadibenar benarsepakat sepakatsemua semuausul usulprogram programpak paktuju tujusilah silahlanjut lanjutperiode jadibenarsepakat benarsepakatsemua sepakatsemuausul semuausulprogram usulprogrampak programpaktuju paktujusilah tujusilahlanjut silahlanjutperiode</t>
+  </si>
+  <si>
+    <t>sekarang begini untuk uji nyali berani nyata libas juang hizbut tahrir sekarangbegini beginiuntuk untukuji ujinyali nyaliberani beraninyata nyatalibas libasjuang juanghizbut hizbuttahrir sekarangbeginiuntuk beginiuntukuji untukujinyali ujinyaliberani nyaliberaninyata beraninyatalibas nyatalibasjuang libasjuanghizbut juanghizbuttahrir</t>
+  </si>
+  <si>
+    <t>eh tunggu jual beli jabat angkat pak menteri sumber internal perintah sekarang ehtunggu tunggujual jualbeli belijabat jabatangkat angkatpak pakmenteri menterisumber sumberinternal internalperintah perintahsekarang ehtunggujual tunggujualbeli jualbelijabat belijabatangkat jabatangkatpak angkatpakmenteri pakmenterisumber menterisumberinternal sumberinternalperintah internalperintahsekarang</t>
+  </si>
+  <si>
+    <t>jokowi muka merah saya lawan - jokowidiambangkekalahan jokowidiambangkekalahan jokowimuka mukamerah merahsaya sayalawan lawan- -jokowidiambangkekalahan jokowidiambangkekalahanjokowidiambangkekalahan jokowimukamerah mukamerahsaya merahsayalawan sayalawan- lawan-jokowidiambangkekalahan -jokowidiambangkekalahanjokowidiambangkekalahan</t>
+  </si>
+  <si>
+    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co nugbqspxbc perintahyng yngsigap sigaplayan layanrakyat rakyatbagus baguspak pakpemerintahandilan pemerintahandilanhttps httpst tco conugbqspxbc perintahyngsigap yngsigaplayan sigaplayanrakyat layanrakyatbagus rakyatbaguspak baguspakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tconugbqspxbc</t>
+  </si>
+  <si>
+    <t>colokin nih jenderal pecat militer indonesia lebih kuat israel australia - the global firepower colokinnih nihjenderal jenderalpecat pecatmiliter militerindonesia indonesialebih lebihkuat kuatisrael israelaustralia australia- -the theglobal globalfirepower colokinnihjenderal nihjenderalpecat jenderalpecatmiliter pecatmiliterindonesia militerindonesialebih indonesialebihkuat lebihkuatisrael kuatisraelaustralia israelaustralia- australia-the -theglobal theglobalfirepower</t>
+  </si>
+  <si>
+    <t>istimewa sangat istimewa closing statement pak betul tunjuk beliau memang orang negarawan istimewasangat sangatistimewa istimewaclosing closingstatement statementpak pakbetul betultunjuk tunjukbeliau beliaumemang memangorang orangnegarawan istimewasangatistimewa sangatistimewaclosing istimewaclosingstatement closingstatementpak statementpakbetul pakbetultunjuk betultunjukbeliau tunjukbeliaumemang beliaumemangorang memangorangnegarawan</t>
+  </si>
+  <si>
+    <t>tau betul ibu dukung kang dukung bukan ganti pancasila taubetul betulibu ibudukung dukungkang kangdukung dukungbukan bukanganti gantipancasila taubetulibu betulibudukung ibudukungkang dukungkangdukung kangdukungbukan dukungbukanganti bukangantipancasila</t>
+  </si>
+  <si>
+    <t>milik gagas cerdas beliau rela mati indonesia benar prabowobentengnkri milikgagas gagascerdas cerdasbeliau beliaurela relamati matiindonesia indonesiabenar benarprabowobentengnkri milikgagascerdas gagascerdasbeliau cerdasbeliaurela beliaurelamati relamatiindonesia matiindonesiabenar indonesiabenarprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>era jaman sekarang teknologi sangat penting pak bangga unicorn indonesia erajaman jamansekarang sekarangteknologi teknologisangat sangatpenting pentingpak pakbangga banggaunicorn unicornindonesia erajamansekarang jamansekarangteknologi sekarangteknologisangat teknologisangatpenting sangatpentingpak pentingpakbangga pakbanggaunicorn banggaunicornindonesia</t>
+  </si>
+  <si>
+    <t>pas bilang pernah militer pak cuma senyum pecat koq bangga sih wowo tuh punya malu pasbilang bilangpernah pernahmiliter militerpak pakcuma cumasenyum senyumpecat pecatkoq koqbangga banggasih sihwowo wowotuh tuhpunya punyamalu pasbilangpernah bilangpernahmiliter pernahmiliterpak militerpakcuma pakcumasenyum cumasenyumpecat senyumpecatkoq pecatkoqbangga koqbanggasih banggasihwowo sihwowotuh wowotuhpunya tuhpunyamalu</t>
+  </si>
+  <si>
+    <t>subianto figur hebat panglima tinggi ri seluruh komponen bangsa dukung kamu subiantofigur figurhebat hebatpanglima panglimatinggi tinggiri riseluruh seluruhkomponen komponenbangsa bangsadukung dukungkamu subiantofigurhebat figurhebatpanglima hebatpanglimatinggi panglimatinggiri tinggiriseluruh riseluruhkomponen seluruhkomponenbangsa komponenbangsadukung bangsadukungkamu</t>
+  </si>
+  <si>
+    <t>apik kami pesan kami ke akar rumput semua ni sisih kan uang belanja ubah apikkami kamipesan pesankami kamike keakar akarrumput rumputsemua semuani nisisih sisihkan kanuang uangbelanja belanjaubah apikkamipesan kamipesankami pesankamike kamikeakar keakarrumput akarrumputsemua rumputsemuani semuanisisih nisisihkan sisihkanuang kanuangbelanja uangbelanjaubah</t>
+  </si>
+  <si>
+    <t>malam pak luar biasa menangjokowilagi malampak pakluar luarbiasa biasamenangjokowilagi malampakluar pakluarbiasa luarbiasamenangjokowilagi</t>
+  </si>
+  <si>
+    <t>tadbir nan pantas layan rakyat bagus bandela pemerintahandilan https t co gkgy 6lrpko tadbirnan nanpantas pantaslayan layanrakyat rakyatbagus bagusbandela bandelapemerintahandilan pemerintahandilanhttps httpst tco cogkgy gkgy6lrpko tadbirnanpantas nanpantaslayan pantaslayanrakyat layanrakyatbagus rakyatbagusbandela bagusbandelapemerintahandilan bandelapemerintahandilanhttps pemerintahandilanhttpst httpstco tcogkgy cogkgy6lrpko</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 pancasila ideologi final pancasila ideologi final debatpilpres2019 2019pancasila pancasilaideologi ideologifinal finalpancasila pancasilaideologi ideologifinal debatpilpres2019pancasila 2019pancasilaideologi pancasilaideologifinal ideologifinalpancasila finalpancasilaideologi pancasilaideologifinal</t>
+  </si>
+  <si>
+    <t>apa pake teknologi lama ajar ilmu perang ribu tahun hahaha gin kali kalau ikut pilpres mulu apapake paketeknologi teknologilama lamaajar ajarilmu ilmuperang perangribu ributahun tahunhahaha hahahagin ginkali kalikalau kalauikut ikutpilpres pilpresmulu apapaketeknologi paketeknologilama teknologilamaajar lamaajarilmu ajarilmuperang ilmuperangribu perangributahun ributahunhahaha tahunhahahagin hahahaginkali ginkalikalau kalikalauikut kalauikutpilpres ikutpilpresmulu</t>
+  </si>
+  <si>
+    <t>jangan biar pak juang sendiri ayo satu suara satu pilih april coblos baju putih janganbiar biarpak pakjuang juangsendiri sendiriayo ayosatu satusuara suarasatu satupilih pilihapril aprilcoblos coblosbaju bajuputih janganbiarpak biarpakjuang pakjuangsendiri juangsendiriayo sendiriayosatu ayosatusuara satusuarasatu suarasatupilih satupilihapril pilihaprilcoblos aprilcoblosbaju coblosbajuputih</t>
+  </si>
+  <si>
+    <t>sedih khawatir diri prabowobentengnkri prabowobentengnkri https t co xoemzw 201d sedihkhawatir khawatirdiri diriprabowobentengnkri prabowobentengnkriprabowobentengnkri prabowobentengnkrihttps httpst tco coxoemzw xoemzw201d sedihkhawatirdiri khawatirdiriprabowobentengnkri diriprabowobentengnkriprabowobentengnkri prabowobentengnkriprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoxoemzw coxoemzw201d</t>
+  </si>
+  <si>
+    <t>tampil paling hebat lama prabowomenangdebat prabowobentengnkri tampilpaling palinghebat hebatlama lamaprabowomenangdebat prabowomenangdebatprabowobentengnkri tampilpalinghebat palinghebatlama hebatlamaprabowomenangdebat lamaprabowomenangdebatprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>apresiasi saudara di papua pakde jadi percuma kalian tebar bohong papua derita apresiasisaudara saudaradi dipapua papuapakde pakdejadi jadipercuma percumakalian kaliantebar tebarbohong bohongpapua papuaderita apresiasisaudaradi saudaradipapua dipapuapakde papuapakdejadi pakdejadipercuma jadipercumakalian percumakaliantebar kaliantebarbohong tebarbohongpapua bohongpapuaderita</t>
+  </si>
+  <si>
+    <t>pak yusril tegas pbb dukung insyallah allah siap kawal pancasila tidak ganti pakyusril yusriltegas tegaspbb pbbdukung dukunginsyallah insyallahallah allahsiap siapkawal kawalpancasila pancasilatidak tidakganti pakyusriltegas yusriltegaspbb tegaspbbdukung pbbdukunginsyallah dukunginsyallahallah insyallahallahsiap allahsiapkawal siapkawalpancasila kawalpancasilatidak pancasilatidakganti</t>
+  </si>
+  <si>
+    <t>ehem kecewa nyenyak tidur insyallah yakin presiden aamiin prabowobentengnkri ehemkecewa kecewanyenyak nyenyaktidur tidurinsyallah insyallahyakin yakinpresiden presidenaamiin aamiinprabowobentengnkri ehemkecewanyenyak kecewanyenyaktidur nyenyaktidurinsyallah tidurinsyallahyakin insyallahyakinpresiden yakinpresidenaamiin presidenaamiinprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>kawan semua kita dukung pemerintahandilan lanjut era untuk pimpin indonesia makin baik kawansemua semuakita kitadukung dukungpemerintahandilan pemerintahandilanlanjut lanjutera erauntuk untukpimpin pimpinindonesia indonesiamakin makinbaik kawansemuakita semuakitadukung kitadukungpemerintahandilan dukungpemerintahandilanlanjut pemerintahandilanlanjutera lanjuterauntuk erauntukpimpin untukpimpinindonesia pimpinindonesiamakin indonesiamakinbaik</t>
+  </si>
+  <si>
+    <t>rezim halal segala cara untuk kuasa tak duli meski bangsa hancur porak poranda rezimhalal halalsegala segalacara carauntuk untukkuasa kuasatak takduli dulimeski meskibangsa bangsahancur hancurporak porakporanda rezimhalalsegala halalsegalacara segalacarauntuk carauntukkuasa untukkuasatak kuasatakduli takdulimeski dulimeskibangsa meskibangsahancur bangsahancurporak hancurporakporanda</t>
+  </si>
+  <si>
+    <t>satu yakin tni satu pesimis jadi pemerintahandilan lanjut indonesia maju satuyakin yakintni tnisatu satupesimis pesimisjadi jadipemerintahandilan pemerintahandilanlanjut lanjutindonesia indonesiamaju satuyakintni yakintnisatu tnisatupesimis satupesimisjadi pesimisjadipemerintahandilan jadipemerintahandilanlanjut pemerintahandilanlanjutindonesia lanjutindonesiamaju</t>
+  </si>
+  <si>
+    <t>https t co m1u7nlbagq insyallah pak bang menang tanggal april amin httpst tco com1u7nlbagq m1u7nlbagqinsyallah insyallahpak pakbang bangmenang menangtanggal tanggalapril aprilamin httpstco tcom1u7nlbagq com1u7nlbagqinsyallah m1u7nlbagqinsyallahpak insyallahpakbang pakbangmenang bangmenangtanggal menangtanggalapril tanggalaprilamin</t>
+  </si>
+  <si>
+    <t>semangat salam kompak all tnt-pepes semua dukung juang sama pak tuju indonesia jaya semangatsalam salamkompak kompakall alltnt-pepes tnt-pepessemua semuadukung dukungjuang juangsama samapak paktuju tujuindonesia indonesiajaya semangatsalamkompak salamkompakall kompakalltnt-pepes alltnt-pepessemua tnt-pepessemuadukung semuadukungjuang dukungjuangsama juangsamapak samapaktuju paktujuindonesia tujuindonesiajaya</t>
+  </si>
+  <si>
+    <t>kapabilitas dlm istirahat down materi debat jelas tanggap trengginas gilas kapabilitasdlm dlmistirahat istirahatdown downmateri materidebat debatjelas jelastanggap tanggaptrengginas trengginasgilas kapabilitasdlmistirahat dlmistirahatdown istirahatdownmateri downmateridebat materidebatjelas debatjelastanggap jelastanggaptrengginas tanggaptrengginasgilas</t>
+  </si>
+  <si>
+    <t>pilpres kali kurang seru hanya sebar ilusi takut jargon jatuh visi misi program lebih baik pilpreskali kalikurang kurangseru seruhanya hanyasebar sebarilusi ilusitakut takutjargon jargonjatuh jatuhvisi visimisi misiprogram programlebih lebihbaik pilpreskalikurang kalikurangseru kurangseruhanya seruhanyasebar hanyasebarilusi sebarilusitakut ilusitakutjargon takutjargonjatuh jargonjatuhvisi jatuhvisimisi visimisiprogram misiprogramlebih programlebihbaik</t>
+  </si>
+  <si>
+    <t>tadbir nan pantas layan rakyat bagus bandela pemerintahandilan https t co dmjpr 2uqyg tadbirnan nanpantas pantaslayan layanrakyat rakyatbagus bagusbandela bandelapemerintahandilan pemerintahandilanhttps httpst tco codmjpr dmjpr2uqyg tadbirnanpantas nanpantaslayan pantaslayanrakyat layanrakyatbagus rakyatbagusbandela bagusbandelapemerintahandilan bandelapemerintahandilanhttps pemerintahandilanhttpst httpstco tcodmjpr codmjpr2uqyg</t>
+  </si>
+  <si>
+    <t>paranoid perang mulu sama asing padahal dikhawatirin benar justru perang sodara paranoidperang perangmulu mulusama samaasing asingpadahal padahaldikhawatirin dikhawatirinbenar benarjustru justruperang perangsodara paranoidperangmulu perangmulusama mulusamaasing samaasingpadahal asingpadahaldikhawatirin padahaldikhawatirinbenar dikhawatirinbenarjustru benarjustruperang justruperangsodara</t>
+  </si>
+  <si>
+    <t>duh sumpah merinding dengar pidato mas ini negarawan sejati selalu usaha abdi duhsumpah sumpahmerinding merindingdengar dengarpidato pidatomas masini ininegarawan negarawansejati sejatiselalu selaluusaha usahaabdi duhsumpahmerinding sumpahmerindingdengar merindingdengarpidato dengarpidatomas pidatomasini masininegarawan ininegarawansejati negarawansejatiselalu sejatiselaluusaha selaluusahaabdi</t>
+  </si>
+  <si>
+    <t>dear pak taun bapak jabat akan awas kritisi omel bapak coblos temiik dearpak paktaun taunbapak bapakjabat jabatakan akanawas awaskritisi kritisiomel omelbapak bapakcoblos coblostemiik dearpaktaun paktaunbapak taunbapakjabat bapakjabatakan jabatakanawas akanawaskritisi awaskritisiomel kritisiomelbapak omelbapakcoblos bapakcoblostemiik</t>
+  </si>
+  <si>
+    <t>01caprespendustaabadi bayang pun kecoh dusta 01caprespendustaabadibayang bayangpun punkecoh kecohdusta 01caprespendustaabadibayangpun bayangpunkecoh punkecohdusta</t>
+  </si>
+  <si>
+    <t>enak dukung ajak pak tatap masa depan optimis hadap dinamika era iot kalau ajak balik masa lalu enakdukung dukungajak ajakpak paktatap tatapmasa masadepan depanoptimis optimishadap hadapdinamika dinamikaera eraiot iotkalau kalauajak ajakbalik balikmasa masalalu enakdukungajak dukungajakpak ajakpaktatap paktatapmasa tatapmasadepan masadepanoptimis depanoptimishadap optimishadapdinamika hadapdinamikaera dinamikaeraiot eraiotkalau iotkalauajak kalauajakbalik ajakbalikmasa balikmasalalu</t>
+  </si>
+  <si>
+    <t>pak jangan sampe korban nyawa ibu pertiwi kita pakjangan jangansampe sampekorban korbannyawa nyawaibu ibupertiwi pertiwikita pakjangansampe jangansampekorban sampekorbannyawa korbannyawaibu nyawaibupertiwi ibupertiwikita</t>
+  </si>
+  <si>
+    <t>mas tegas lawan siapa ingin rubah ideologi pancasila dengerin tuh bong mastegas tegaslawan lawansiapa siapaingin inginrubah rubahideologi ideologipancasila pancasiladengerin dengerintuh tuhbong mastegaslawan tegaslawansiapa lawansiapaingin siapainginrubah inginrubahideologi rubahideologipancasila ideologipancasiladengerin pancasiladengerintuh dengerintuhbong</t>
+  </si>
+  <si>
+    <t>memang sekarang jaman digital bro perintah pemerintahandilan dong keren digital layan memangsekarang sekarangjaman jamandigital digitalbro broperintah perintahpemerintahandilan pemerintahandilandong dongkeren kerendigital digitallayan memangsekarangjaman sekarangjamandigital jamandigitalbro digitalbroperintah broperintahpemerintahandilan perintahpemerintahandilandong pemerintahandilandongkeren dongkerendigital kerendigitallayan</t>
+  </si>
+  <si>
+    <t>kerja perintah jelas unggul 01dilanjutkan https t co yjves 25euq kerjaperintah perintahjelas jelasunggul unggul01dilanjutkan 01dilanjutkanhttps httpst tco coyjves yjves25euq kerjaperintahjelas perintahjelasunggul jelasunggul01dilanjutkan unggul01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcoyjves coyjves25euq</t>
+  </si>
+  <si>
+    <t>mantap pak tegas cerdazzz mantappak paktegas tegascerdazzz mantappaktegas paktegascerdazzz</t>
+  </si>
+  <si>
+    <t>saya bisa hadir sama ibu bahagia banget acara bapak bal luarbiasa sayabisa bisahadir hadirsama samaibu ibubahagia bahagiabanget bangetacara acarabapak bapakbal balluarbiasa sayabisahadir bisahadirsama hadirsamaibu samaibubahagia ibubahagiabanget bahagiabangetacara bangetacarabapak acarabapakbal bapakballuarbiasa</t>
+  </si>
+  <si>
+    <t>closing statement pak gambar demokrasi yang sungguh closingstatement statementpak pakgambar gambardemokrasi demokrasiyang yangsungguh closingstatementpak statementpakgambar pakgambardemokrasi gambardemokrasiyang demokrasiyangsungguh</t>
+  </si>
+  <si>
+    <t>benar bangsa jadi bangsa kuat segani bukan besar sanjung benarbangsa bangsajadi jadibangsa bangsakuat kuatsegani seganibukan bukanbesar besarsanjung benarbangsajadi bangsajadibangsa jadibangsakuat bangsakuatsegani kuatseganibukan seganibukanbesar bukanbesarsanjung</t>
+  </si>
+  <si>
+    <t>lihat udah cukup percaya diri sama base konservatif religius makanya berani kenal narasi lihatudah udahcukup cukuppercaya percayadiri dirisama samabase basekonservatif konservatifreligius religiusmakanya makanyaberani beranikenal kenalnarasi lihatudahcukup udahcukuppercaya cukuppercayadiri percayadirisama dirisamabase samabasekonservatif basekonservatifreligius konservatifreligiusmakanya religiusmakanyaberani makanyaberanikenal beranikenalnarasi</t>
+  </si>
+  <si>
+    <t>malam bapak jadi serang tangguh bagus pak buat tahana ngelap keringat mulu malambapak bapakjadi jadiserang serangtangguh tangguhbagus baguspak pakbuat buattahana tahanangelap ngelapkeringat keringatmulu malambapakjadi bapakjadiserang jadiserangtangguh serangtangguhbagus tangguhbaguspak baguspakbuat pakbuattahana buattahanangelap tahanangelapkeringat ngelapkeringatmulu</t>
+  </si>
+  <si>
+    <t>sobat sekali milu ajang gembira dlm beda aja pak kena baju putih tps sobatsekali sekalimilu miluajang ajanggembira gembiradlm dlmbeda bedaaja ajapak pakkena kenabaju bajuputih putihtps sobatsekalimilu sekalimiluajang miluajanggembira ajanggembiradlm gembiradlmbeda dlmbedaaja bedaajapak ajapakkena pakkenabaju kenabajuputih bajuputihtps</t>
+  </si>
+  <si>
+    <t>sama presiden perintah indonesia konsisten bela negara palestina bagai warga dunia 01dilanjutkan samapresiden presidenperintah perintahindonesia indonesiakonsisten konsistenbela belanegara negarapalestina palestinabagai bagaiwarga wargadunia dunia01dilanjutkan samapresidenperintah presidenperintahindonesia perintahindonesiakonsisten indonesiakonsistenbela konsistenbelanegara belanegarapalestina negarapalestinabagai palestinabagaiwarga bagaiwargadunia wargadunia01dilanjutkan</t>
+  </si>
+  <si>
+    <t>dapat lembaga perintah kuat dapatlembaga lembagaperintah perintahkuat dapatlembagaperintah lembagaperintahkuat</t>
+  </si>
+  <si>
+    <t>sepakat sama om trik basi minggu kelar jadi mau periode sepakatsama samaom omtrik trikbasi basiminggu minggukelar kelarjadi jadimau mauperiode sepakatsamaom samaomtrik omtrikbasi trikbasiminggu basiminggukelar minggukelarjadi kelarjadimau jadimauperiode</t>
+  </si>
+  <si>
+    <t>hal perintah bukan teori soal bagaimana jalan perintah baik halperintah perintahbukan bukanteori teorisoal soalbagaimana bagaimanajalan jalanperintah perintahbaik halperintahbukan perintahbukanteori bukanteorisoal teorisoalbagaimana soalbagaimanajalan bagaimanajalanperintah jalanperintahbaik</t>
+  </si>
+  <si>
+    <t>lho cak bisa mbentengi nkri sangat paham betul sistem tahan negara lhocak cakbisa bisambentengi mbentenginkri nkrisangat sangatpaham pahambetul betulsistem sistemtahan tahannegara lhocakbisa cakbisambentengi bisambentenginkri mbentenginkrisangat nkrisangatpaham sangatpahambetul pahambetulsistem betulsistemtahan sistemtahannegara</t>
+  </si>
+  <si>
+    <t>rizal ramli pak mau revisi hehe kubu jokowi ada tanggpan rr sebut hehe seram rizalramli ramlipak pakmau maurevisi revisihehe hehekubu kubujokowi jokowiada adatanggpan tanggpanrr rrsebut sebuthehe heheseram rizalramlipak ramlipakmau pakmaurevisi maurevisihehe revisihehekubu hehekubujokowi kubujokowiada jokowiadatanggpan adatanggpanrr tanggpanrrsebut rrsebuthehe sebutheheseram</t>
+  </si>
+  <si>
+    <t>memang sosok pimpin teladan bangga 01dilanjutkan memangsosok sosokpimpin pimpinteladan teladanbangga bangga01dilanjutkan memangsosokpimpin sosokpimpinteladan pimpinteladanbangga teladanbangga01dilanjutkan</t>
+  </si>
+  <si>
+    <t>pak debat kemaren kasih amunisi kayak debat saya paling suka cara bapak debat pakdebat debatkemaren kemarenkasih kasihamunisi amunisikayak kayakdebat debatsaya sayapaling palingsuka sukacara carabapak bapakdebat pakdebatkemaren debatkemarenkasih kemarenkasihamunisi kasihamunisikayak amunisikayakdebat kayakdebatsaya debatsayapaling sayapalingsuka palingsukacara sukacarabapak carabapakdebat</t>
+  </si>
+  <si>
+    <t>pak pribadi sederhana senang semua kalang menangjokowilagi pakpribadi pribadisederhana sederhanasenang senangsemua semuakalang kalangmenangjokowilagi pakpribadisederhana pribadisederhanasenang sederhanasenangsemua senangsemuakalang semuakalangmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>untung pilpres pak menang makanya bangun tol proyek tol perdana aceh rumah khusus masyarakat untungpilpres pilprespak pakmenang menangmakanya makanyabangun banguntol tolproyek proyektol tolperdana perdanaaceh acehrumah rumahkhusus khususmasyarakat untungpilprespak pilprespakmenang pakmenangmakanya menangmakanyabangun makanyabanguntol banguntolproyek tolproyektol proyektolperdana tolperdanaaceh perdanaacehrumah acehrumahkhusus rumahkhususmasyarakat</t>
+  </si>
+  <si>
+    <t>perintah mau keluar paris tuju kata mikirin masa depan indonesia mau keluar pakta perintahmau maukeluar keluarparis paristuju tujukata katamikirin mikirinmasa masadepan depanindonesia indonesiamau maukeluar keluarpakta perintahmaukeluar maukeluarparis keluarparistuju paristujukata tujukatamikirin katamikirinmasa mikirinmasadepan masadepanindonesia depanindonesiamau indonesiamaukeluar maukeluarpakta</t>
+  </si>
+  <si>
+    <t>pak bijak sikap hasil survei nyata menang tebal menangjokowilagi pakbijak bijaksikap sikaphasil hasilsurvei surveinyata nyatamenang menangtebal tebalmenangjokowilagi pakbijaksikap bijaksikaphasil sikaphasilsurvei hasilsurveinyata surveinyatamenang nyatamenangtebal menangtebalmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>kamu lihat jujur pak indonesia beliau segan tegur siapa tertawa indonesia kamulihat lihatjujur jujurpak pakindonesia indonesiabeliau beliausegan segantegur tegursiapa siapatertawa tertawaindonesia kamulihatjujur lihatjujurpak jujurpakindonesia pakindonesiabeliau indonesiabeliausegan beliausegantegur segantegursiapa tegursiapatertawa siapatertawaindonesia</t>
+  </si>
+  <si>
+    <t>adalah agum gumelar dengan lantang wajah bicara jelek hadap sby adalahagum agumgumelar gumelardengan denganlantang lantangwajah wajahbicara bicarajelek jelekhadap hadapsby adalahagumgumelar agumgumelardengan gumelardenganlantang denganlantangwajah lantangwajahbicara wajahbicarajelek bicarajelekhadap jelekhadapsby</t>
+  </si>
+  <si>
+    <t>kaya rakyat indonesia sedot luar negeri kaya sendiri numpuk di luar negeri hehe - kayarakyat rakyatindonesia indonesiasedot sedotluar luarnegeri negerikaya kayasendiri sendirinumpuk numpukdi diluar luarnegeri negerihehe hehe- kayarakyatindonesia rakyatindonesiasedot indonesiasedotluar sedotluarnegeri luarnegerikaya negerikayasendiri kayasendirinumpuk sendirinumpukdi numpukdiluar diluarnegeri luarnegerihehe negerihehe-</t>
+  </si>
+  <si>
+    <t>kalau pak jadi presiden hidup mau ketawa jangan dimarahin kalaupak pakjadi jadipresiden presidenhidup hidupmau mauketawa ketawajangan jangandimarahin kalaupakjadi pakjadipresiden jadipresidenhidup presidenhidupmau hidupmauketawa mauketawajangan ketawajangandimarahin</t>
+  </si>
+  <si>
+    <t>kalau kalian mau jadi kaum asal bapak senang jokowi kuasa hak kalian saya suka tampil malam kalaukalian kalianmau maujadi jadikaum kaumasal asalbapak bapaksenang senangjokowi jokowikuasa kuasahak hakkalian kaliansaya sayasuka sukatampil tampilmalam kalaukalianmau kalianmaujadi maujadikaum jadikaumasal kaumasalbapak asalbapaksenang bapaksenangjokowi senangjokowikuasa jokowikuasahak kuasahakkalian hakkaliansaya kaliansayasuka sayasukatampil sukatampilmalam</t>
+  </si>
+  <si>
+    <t>lebih tni tni jangan kamu maling muka manusia sombong lebihtni tnitni tnijangan jangankamu kamumaling malingmuka mukamanusia manusiasombong lebihtnitni tnitnijangan tnijangankamu jangankamumaling kamumalingmuka malingmukamanusia mukamanusiasombong</t>
+  </si>
+  <si>
+    <t>bongkar data uang orang kaya indonesia swiss ada korupsi simpan uang sana bongkardata datauang uangorang orangkaya kayaindonesia indonesiaswiss swissada adakorupsi korupsisimpan simpanuang uangsana bongkardatauang datauangorang uangorangkaya orangkayaindonesia kayaindonesiaswiss indonesiaswissada swissadakorupsi adakorupsisimpan korupsisimpanuang simpanuangsana</t>
+  </si>
+  <si>
+    <t>sumpah debat pilpres x pak benar cadas keren prabowobentengnkri sumpahdebat debatpilpres pilpresx xpak pakbenar benarcadas cadaskeren kerenprabowobentengnkri sumpahdebatpilpres debatpilpresx pilpresxpak xpakbenar pakbenarcadas benarcadaskeren cadaskerenprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>pak kata tahan lemah kompak tertawa kira 2 alas apa pakkata katatahan tahanlemah lemahkompak kompaktertawa tertawakira kira2 2alas alasapa pakkatatahan katatahanlemah tahanlemahkompak lemahkompaktertawa kompaktertawakira tertawakira2 kira2alas 2alasapa</t>
+  </si>
+  <si>
+    <t>tertawa tertawa larang pemerintahandilan 01dilanjutkan debatkeempatpilpres 2019 tertawatertawa tertawalarang larangpemerintahandilan pemerintahandilan01dilanjutkan 01dilanjutkandebatkeempatpilpres debatkeempatpilpres2019 tertawatertawalarang tertawalarangpemerintahandilan larangpemerintahandilan01dilanjutkan pemerintahandilan01dilanjutkandebatkeempatpilpres 01dilanjutkandebatkeempatpilpres2019</t>
+  </si>
+  <si>
+    <t>kamu bukan tni kamu pecat sandang gelar purnawirawan kamubukan bukantni tnikamu kamupecat pecatsandang sandanggelar gelarpurnawirawan kamubukantni bukantnikamu tnikamupecat kamupecatsandang pecatsandanggelar sandanggelarpurnawirawan</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 malam telah balik dia jadi sosok luar biasa efek kejut debatpilpres2019 2019malam malamtelah telahbalik balikdia diajadi jadisosok sosokluar luarbiasa biasaefek efekkejut debatpilpres2019malam 2019malamtelah malamtelahbalik telahbalikdia balikdiajadi diajadisosok jadisosokluar sosokluarbiasa luarbiasaefek biasaefekkejut</t>
+  </si>
+  <si>
+    <t>anak bangsa perlu bapak tegas bisa bangun karakter disiplin lihat debat bapak anakbangsa bangsaperlu perlubapak bapaktegas tegasbisa bisabangun bangunkarakter karakterdisiplin disiplinlihat lihatdebat debatbapak anakbangsaperlu bangsaperlubapak perlubapaktegas bapaktegasbisa tegasbisabangun bisabangunkarakter bangunkarakterdisiplin karakterdisiplinlihat disiplinlihatdebat lihatdebatbapak</t>
+  </si>
+  <si>
+    <t>turut konflik sosial libat muslim rohingya rakhine konflik sudah sangat lama sulit turutkonflik konfliksosial sosiallibat libatmuslim muslimrohingya rohingyarakhine rakhinekonflik konfliksudah sudahsangat sangatlama lamasulit turutkonfliksosial konfliksosiallibat sosiallibatmuslim libatmuslimrohingya muslimrohingyarakhine rohingyarakhinekonflik rakhinekonfliksudah konfliksudahsangat sudahsangatlama sangatlamasulit</t>
+  </si>
+  <si>
+    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut marah debatpilpres 2019 duluken kenketawa ketawatakut takutdosa dosasekarang sekarangken kenketawa ketawatakut takutmarah marahdebatpilpres debatpilpres2019 dulukenketawa kenketawatakut ketawatakutdosa takutdosasekarang dosasekarangken sekarangkenketawa kenketawatakut ketawatakutmarah takutmarahdebatpilpres marahdebatpilpres2019</t>
+  </si>
+  <si>
+    <t>pak beri harap optimisme 01dilanjutkan https t co rxwogeijvs pakberi beriharap harapoptimisme optimisme01dilanjutkan 01dilanjutkanhttps httpst tco corxwogeijvs pakberiharap beriharapoptimisme harapoptimisme01dilanjutkan optimisme01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcorxwogeijvs</t>
+  </si>
+  <si>
+    <t>pak bilang pancasila final kalau mungkin beliau larang bendera larang hti kampanye pakbilang bilangpancasila pancasilafinal finalkalau kalaumungkin mungkinbeliau beliaularang larangbendera benderalarang laranghti htikampanye pakbilangpancasila bilangpancasilafinal pancasilafinalkalau finalkalaumungkin kalaumungkinbeliau mungkinbeliaularang beliaularangbendera larangbenderalarang benderalaranghti laranghtikampanye</t>
+  </si>
+  <si>
+    <t>hahaha habis peluru ni si buat cerita pak marah segala lah hahahahabis habispeluru peluruni nisi sibuat buatcerita ceritapak pakmarah marahsegala segalalah hahahahabispeluru habispeluruni pelurunisi nisibuat sibuatcerita buatceritapak ceritapakmarah pakmarahsegala marahsegalalah</t>
+  </si>
+  <si>
+    <t>malam minggu adalah malam baik kita saksi pak sangat elegan malamminggu mingguadalah adalahmalam malambaik baikkita kitasaksi saksipak paksangat sangatelegan malammingguadalah mingguadalahmalam adalahmalambaik malambaikkita baikkitasaksi kitasaksipak saksipaksangat paksangatelegan</t>
+  </si>
+  <si>
+    <t>bong optimis unggul debat yang usung tema ideologi aman tahan bongoptimis optimisunggul ungguldebat debatyang yangusung usungtema temaideologi ideologiaman amantahan bongoptimisunggul optimisungguldebat ungguldebatyang debatyangusung yangusungtema usungtemaideologi temaideologiaman ideologiamantahan</t>
+  </si>
+  <si>
+    <t>pak kalau ngeritik punya gagas tanding lebih baik jelas ketidakpastian pakkalau kalaungeritik ngeritikpunya punyagagas gagastanding tandinglebih lebihbaik baikjelas jelasketidakpastian pakkalaungeritik kalaungeritikpunya ngeritikpunyagagas punyagagastanding gagastandinglebih tandinglebihbaik lebihbaikjelas baikjelasketidakpastian</t>
+  </si>
+  <si>
+    <t>takar kadar pancasila harga mati calon presiden sini pak calon presiden pecat tni kok pernah bilang dukung takarkadar kadarpancasila pancasilaharga hargamati maticalon calonpresiden presidensini sinipak pakcalon calonpresiden presidenpecat pecattni tnikok kokpernah pernahbilang bilangdukung takarkadarpancasila kadarpancasilaharga pancasilahargamati hargamaticalon maticalonpresiden calonpresidensini presidensinipak sinipakcalon pakcalonpresiden calonpresidenpecat presidenpecattni pecattnikok tnikokpernah kokpernahbilang pernahbilangdukung</t>
+  </si>
+  <si>
+    <t>senyum optimis pak dhe sukses lancar debat malam ya pak tuhan kati senyumoptimis optimispak pakdhe dhesukses sukseslancar lancardebat debatmalam malamya yapak paktuhan tuhankati senyumoptimispak optimispakdhe pakdhesukses dhesukseslancar sukseslancardebat lancardebatmalam debatmalamya malamyapak yapaktuhan paktuhankati</t>
+  </si>
+  <si>
+    <t>kalau tidak nonton debat pak menang jadi tidur alhamdulillah nyata pakde hajar kalautidak tidaknonton nontondebat debatpak pakmenang menangjadi jaditidur tiduralhamdulillah alhamdulillahnyata nyatapakde pakdehajar kalautidaknonton tidaknontondebat nontondebatpak debatpakmenang pakmenangjadi menangjaditidur jaditiduralhamdulillah tiduralhamdulillahnyata alhamdulillahnyatapakde nyatapakdehajar</t>
+  </si>
+  <si>
+    <t>raja hutang satu 2nya calon presiden beban hutang nila rp 7 6 triliun apa rajahutang hutangsatu satu2nya 2nyacalon calonpresiden presidenbeban bebanhutang hutangnila nilarp rp7 76 6triliun triliunapa rajahutangsatu hutangsatu2nya satu2nyacalon 2nyacalonpresiden calonpresidenbeban presidenbebanhutang bebanhutangnila hutangnilarp nilarp7 rp76 76triliun 6triliunapa</t>
+  </si>
+  <si>
+    <t>tak sisa sedikit celah buat lawan argumentasi memang tidak paham prabowobentengnkri taksisa sisasedikit sedikitcelah celahbuat buatlawan lawanargumentasi argumentasimemang memangtidak tidakpaham pahamprabowobentengnkri taksisasedikit sisasedikitcelah sedikitcelahbuat celahbuatlawan buatlawanargumentasi lawanargumentasimemang argumentasimemangtidak memangtidakpaham tidakpahamprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>fix bagai orang purbalingga banyumasan dukung pak fixbagai bagaiorang orangpurbalingga purbalinggabanyumasan banyumasandukung dukungpak fixbagaiorang bagaiorangpurbalingga orangpurbalinggabanyumasan purbalinggabanyumasandukung banyumasandukungpak</t>
+  </si>
+  <si>
+    <t>kuat apa kurang insyallah alah teyap gagal prabowobentengnkri kuatapa apakurang kuranginsyallah insyallahalah alahteyap teyapgagal gagalprabowobentengnkri kuatapakurang apakuranginsyallah kuranginsyallahalah insyallahalahteyap alahteyapgagal teyapgagalprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>sampe bingung banyak kutip luar biasa tohok banget sampebingung bingungbanyak banyakkutip kutipluar luarbiasa biasatohok tohokbanget sampebingungbanyak bingungbanyakkutip banyakkutipluar kutipluarbiasa luarbiasatohok biasatohokbanget</t>
+  </si>
+  <si>
+    <t>siapa pilih rakyat akan tunduk patuh - karawang maret https t co h7ihhwk8sr siapapilih pilihrakyat rakyatakan akantunduk tundukpatuh patuh- -karawang karawangmaret marethttps httpst tco coh7ihhwk8sr siapapilihrakyat pilihrakyatakan rakyatakantunduk akantundukpatuh tundukpatuh- patuh-karawang -karawangmaret karawangmarethttps marethttpst httpstco tcoh7ihhwk8sr</t>
+  </si>
+  <si>
+    <t>pak lebih tni tni bapak jangan inferior begini dong kata negara tak hormat paklebih lebihtni tnitni tnibapak bapakjangan janganinferior inferiorbegini beginidong dongkata katanegara negaratak takhormat paklebihtni lebihtnitni tnitnibapak tnibapakjangan bapakjanganinferior janganinferiorbegini inferiorbeginidong beginidongkata dongkatanegara katanegaratak negaratakhormat</t>
+  </si>
+  <si>
+    <t>pecaaahh banget mashaallah sama wujud indonesia adil makmur pecaaahhbanget bangetmashaallah mashaallahsama samawujud wujudindonesia indonesiaadil adilmakmur pecaaahhbangetmashaallah bangetmashaallahsama mashaallahsamawujud samawujudindonesia wujudindonesiaadil indonesiaadilmakmur</t>
+  </si>
+  <si>
+    <t>pikir kalau benar serang armada perang ada sekarang bukan ketawa malah nang darah pikirkalau kalaubenar benarserang serangarmada armadaperang perangada adasekarang sekarangbukan bukanketawa ketawamalah malahnang nangdarah pikirkalaubenar kalaubenarserang benarserangarmada serangarmadaperang armadaperangada perangadasekarang adasekarangbukan sekarangbukanketawa bukanketawamalah ketawamalahnang malahnangdarah</t>
+  </si>
+  <si>
+    <t>terima kasih rakyat jambi insyallah allah akan jumpa di masa lebih baik merdeka https t co ms7crkhozf terimakasih kasihrakyat rakyatjambi jambiinsyallah insyallahallah allahakan akanjumpa jumpadi dimasa masalebih lebihbaik baikmerdeka merdekahttps httpst tco coms7crkhozf terimakasihrakyat kasihrakyatjambi rakyatjambiinsyallah jambiinsyallahallah insyallahallahakan allahakanjumpa akanjumpadi jumpadimasa dimasalebih masalebihbaik lebihbaikmerdeka baikmerdekahttps merdekahttpst httpstco tcoms7crkhozf</t>
+  </si>
+  <si>
+    <t>ibu fatimah kalla adik pak jusuf kalla dukung sandi jokowi silah ngaciro ibufatimah fatimahkalla kallaadik adikpak pakjusuf jusufkalla kalladukung dukungsandi sandijokowi jokowisilah silahngaciro ibufatimahkalla fatimahkallaadik kallaadikpak adikpakjusuf pakjusufkalla jusufkalladukung kalladukungsandi dukungsandijokowi sandijokowisilah jokowisilahngaciro</t>
+  </si>
+  <si>
+    <t>pantai panjang bengkulu bumi raflesia terima kasih jaga tps kalian masing-masing jangan demokrasi akal pantaipanjang panjangbengkulu bengkulubumi bumiraflesia raflesiaterima terimakasih kasihjaga jagatps tpskalian kalianmasing-masing masing-masingjangan jangandemokrasi demokrasiakal pantaipanjangbengkulu panjangbengkulubumi bengkulubumiraflesia bumiraflesiaterima raflesiaterimakasih terimakasihjaga kasihjagatps jagatpskalian tpskalianmasing-masing kalianmasing-masingjangan masing-masingjangandemokrasi jangandemokrasiakal</t>
+  </si>
+  <si>
+    <t>marah si jayen sok tahu sebut indonesia ratus suku bangsa marahsi sijayen jayensok soktahu tahusebut sebutindonesia indonesiaratus ratussuku sukubangsa marahsijayen sijayensok jayensoktahu soktahusebut tahusebutindonesia sebutindonesiaratus indonesiaratussuku ratussukubangsa</t>
+  </si>
+  <si>
+    <t>kok malah bangga songong betul sih om eee panjoel genderuwo kokmalah malahbangga banggasongong songongbetul betulsih sihom omeee eeepanjoel panjoelgenderuwo kokmalahbangga malahbanggasongong banggasongongbetul songongbetulsih betulsihom sihomeee omeeepanjoel eeepanjoelgenderuwo</t>
+  </si>
+  <si>
+    <t>duh jadi melow gitu akhir mas tak laku closing statement lebih prabowobentengnkri duhjadi jadimelow melowgitu gituakhir akhirmas mastak taklaku lakuclosing closingstatement statementlebih lebihprabowobentengnkri duhjadimelow jadimelowgitu melowgituakhir gituakhirmas akhirmastak mastaklaku taklakuclosing lakuclosingstatement closingstatementlebih statementlebihprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>agak fatal ketika sampai klaim orang banyumas sebut keras salah banget agakfatal fatalketika ketikasampai sampaiklaim klaimorang orangbanyumas banyumassebut sebutkeras kerassalah salahbanget agakfatalketika fatalketikasampai ketikasampaiklaim sampaiklaimorang klaimorangbanyumas orangbanyumassebut banyumassebutkeras sebutkerassalah kerassalahbanget</t>
+  </si>
+  <si>
+    <t>innalillaahi wa innailaihiraaji un keluarga besar turut duka cita innalillaahiwa wainnailaihiraaji innailaihiraajiun unkeluarga keluargabesar besarturut turutduka dukacita innalillaahiwainnailaihiraaji wainnailaihiraajiun innailaihiraajiunkeluarga unkeluargabesar keluargabesarturut besarturutduka turutdukacita bela sungkawa belasungkawa</t>
+  </si>
+  <si>
+    <t>kata tni milik budaya asal bapak senang asal bapak senang ini efek pernah pecat tni katatni tnimilik milikbudaya budayaasal asalbapak bapaksenang senangasal asalbapak bapaksenang senangini iniefek efekpernah pernahpecat pecattni katatnimilik tnimilikbudaya milikbudayaasal budayaasalbapak asalbapaksenang bapaksenangasal senangasalbapak asalbapaksenang bapaksenangini senanginiefek iniefekpernah efekpernahpecat pernahpecattni</t>
+  </si>
+  <si>
+    <t>pak tenang banget hari paktenang tenangbanget bangethari paktenangbanget tenangbangethari</t>
+  </si>
+  <si>
+    <t>terus kok si pecat omong doang ejek hina tni rapuh teruskok koksi sipecat pecatomong omongdoang doangejek ejekhina hinatni tnirapuh teruskoksi koksipecat sipecatomong pecatomongdoang omongdoangejek doangejekhina ejekhinatni hinatnirapuh</t>
+  </si>
+  <si>
+    <t>salawi masuk neraka neraka panas mana jangan mana infrastruktur langit kalian janji salawimasuk masukneraka nerakaneraka nerakapanas panasmana manajangan janganmana manainfrastruktur infrastrukturlangit langitkalian kalianjanji salawimasukneraka masuknerakaneraka nerakanerakapanas nerakapanasmana panasmanajangan manajanganmana janganmanainfrastruktur manainfrastrukturlangit infrastrukturlangitkalian langitkalianjanji</t>
+  </si>
+  <si>
+    <t>catat pak sudah laku delapan bohong besar tahun beberapa bohong lai catatpak paksudah sudahlaku lakudelapan delapanbohong bohongbesar besartahun tahunbeberapa beberapabohong bohonglai catatpaksudah paksudahlaku sudahlakudelapan lakudelapanbohong delapanbohongbesar bohongbesartahun besartahunbeberapa tahunbeberapabohong beberapabohonglai</t>
+  </si>
+  <si>
+    <t>arus ubah tak bendung era tiba prabowobentengnkri arusubah ubahtak takbendung bendungera eratiba tibaprabowobentengnkri arusubahtak ubahtakbendung takbendungera bendungeratiba eratibaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>beri kesan bagai orang orator cara essensi banyak terlalu subjektif berikesan kesanbagai bagaiorang orangorator oratorcara caraessensi essensibanyak banyakterlalu terlalusubjektif berikesanbagai kesanbagaiorang bagaiorangorator orangoratorcara oratorcaraessensi caraessensibanyak essensibanyakterlalu banyakterlalusubjektif</t>
+  </si>
+  <si>
+    <t>rindu cinta sayang mari menang beliau jemput pulang rinducinta cintasayang sayangmari marimenang menangbeliau beliaujemput jemputpulang rinducintasayang cintasayangmari sayangmarimenang marimenangbeliau menangbeliaujemput beliaujemputpulang</t>
+  </si>
+  <si>
+    <t>lihat kalian fitnah anti islam mesjid at-taqarrub luluh lantak gempa aceh lalu lihatkalian kalianfitnah fitnahanti antiislam islammesjid mesjidat-taqarrub at-taqarrubluluh luluhlantak lantakgempa gempaaceh acehlalu lihatkalianfitnah kalianfitnahanti fitnahantiislam antiislammesjid islammesjidat-taqarrub mesjidat-taqarrubluluh at-taqarrubluluhlantak luluhlantakgempa lantakgempaaceh gempaacehlalu</t>
+  </si>
+  <si>
+    <t>lho kok aneh sini menang tidak punya partai bukan buzzer pampang nyata lhokok kokaneh anehsini sinimenang menangtidak tidakpunya punyapartai partaibukan bukanbuzzer buzzerpampang pampangnyata lhokokaneh kokanehsini anehsinimenang sinimenangtidak menangtidakpunya tidakpunyapartai punyapartaibukan partaibukanbuzzer bukanbuzzerpampang buzzerpampangnyata</t>
+  </si>
+  <si>
+    <t>ibu ibu lawan biar larang kampanye mall penting menang prabowodansandipilihanrakyat ibuibu ibulawan lawanbiar biarlarang larangkampanye kampanyemall mallpenting pentingmenang menangprabowodansandipilihanrakyat ibuibulawan ibulawanbiar lawanbiarlarang biarlarangkampanye larangkampanyemall kampanyemallpenting mallpentingmenang pentingmenangprabowodansandipilihanrakyat</t>
+  </si>
+  <si>
+    <t>yes akhir bilang turut pribadi yang jahat orang belakang pak yesakhir akhirbilang bilangturut turutpribadi pribadiyang yangjahat jahatorang orangbelakang belakangpak yesakhirbilang akhirbilangturut bilangturutpribadi turutpribadiyang pribadiyangjahat yangjahatorang jahatorangbelakang orangbelakangpak</t>
+  </si>
+  <si>
+    <t>arti jokowidiambangkekalahan lihat lebih banyak tunduk tolah toleh bingung artijokowidiambangkekalahan jokowidiambangkekalahanlihat lihatlebih lebihbanyak banyaktunduk tunduktolah tolahtoleh tolehbingung artijokowidiambangkekalahanlihat jokowidiambangkekalahanlihatlebih lihatlebihbanyak lebihbanyaktunduk banyaktunduktolah tunduktolahtoleh tolahtolehbingung</t>
+  </si>
+  <si>
+    <t>sebut budaya asal bapak senang asal bapak senang kental kalang tni sebutbudaya budayaasal asalbapak bapaksenang senangasal asalbapak bapaksenang senangkental kentalkalang kalangtni sebutbudayaasal budayaasalbapak asalbapaksenang bapaksenangasal senangasalbapak asalbapaksenang bapaksenangkental senangkentalkalang kentalkalangtni</t>
+  </si>
+  <si>
+    <t>terima kasih jenderal ku malam kamu beri harap rakyat yakin pilih tepat terimakasih kasihjenderal jenderalku kumalam malamkamu kamuberi beriharap haraprakyat rakyatyakin yakinpilih pilihtepat terimakasihjenderal kasihjenderalku jenderalkumalam kumalamkamu malamkamuberi kamuberiharap beriharaprakyat haraprakyatyakin rakyatyakinpilih yakinpilihtepat</t>
+  </si>
+  <si>
+    <t>dasar tukang bohong kapan henti bohong pak kpk diri tahun ngawur kamu jokowi dasartukang tukangbohong bohongkapan kapanhenti hentibohong bohongpak pakkpk kpkdiri diritahun tahunngawur ngawurkamu kamujokowi dasartukangbohong tukangbohongkapan bohongkapanhenti kapanhentibohong hentibohongpak bohongpakkpk pakkpkdiri kpkdiritahun diritahunngawur tahunngawurkamu ngawurkamujokowi</t>
+  </si>
+  <si>
+    <t>sejahtera tni lama tahun perintah gaji tni pernah naik sejahtera tni jangan kurang sejahteratni tnilama lamatahun tahunperintah perintahgaji gajitni tnipernah pernahnaik naiksejahtera sejahteratni tnijangan jangankurang sejahteratnilama tnilamatahun lamatahunperintah tahunperintahgaji perintahgajitni gajitnipernah tnipernahnaik pernahnaiksejahtera naiksejahteratni sejahteratnijangan tnijangankurang</t>
+  </si>
+  <si>
+    <t>catat tanggal siap diri putih gbk sama sabtu april asjb barengjokowi asjb putihkangbk catattanggal tanggalsiap siapdiri diriputih putihgbk gbksama samasabtu sabtuapril aprilasjb asjbbarengjokowi barengjokowiasjb asjbputihkangbk catattanggalsiap tanggalsiapdiri siapdiriputih diriputihgbk putihgbksama gbksamasabtu samasabtuapril sabtuaprilasjb aprilasjbbarengjokowi asjbbarengjokowiasjb barengjokowiasjbputihkangbk</t>
+  </si>
+  <si>
+    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin - kayasuatu suatubangsa bangsakalau kalaujaga jagasuatu suatukuat kuattahan tahankuat kuattidak tidakmungkin mungkin- kayasuatubangsa suatubangsakalau bangsakalaujaga kalaujagasuatu jagasuatukuat suatukuattahan kuattahankuat tahankuattidak kuattidakmungkin tidakmungkin-</t>
+  </si>
+  <si>
+    <t>tanah papua memang selalu penuh hangat kunjung merauke lebih asa pulang kampung pada kampanye tanahpapua papuamemang memangselalu selalupenuh penuhhangat hangatkunjung kunjungmerauke meraukelebih lebihasa asapulang pulangkampung kampungpada padakampanye tanahpapuamemang papuamemangselalu memangselalupenuh selalupenuhhangat penuhhangatkunjung hangatkunjungmerauke kunjungmeraukelebih meraukelebihasa lebihasapulang asapulangkampung pulangkampungpada kampungpadakampanye</t>
+  </si>
+  <si>
+    <t>lama kawan lalu musuh lama tetangga lalu tak saling bicara semua karena beda pilih lamakawan kawanlalu lalumusuh musuhlama lamatetangga tetanggalalu lalutak taksaling salingbicara bicarasemua semuakarena karenabeda bedapilih lamakawanlalu kawanlalumusuh lalumusuhlama musuhlamatetangga lamatetanggalalu tetanggalalutak lalutaksaling taksalingbicara salingbicarasemua bicarasemuakarena semuakarenabeda karenabedapilih</t>
+  </si>
+  <si>
+    <t>sangat percaya mampu tni kata calon presiden pecat tni https t co kc5cpgca0n sangatpercaya percayamampu mamputni tnikata katacalon calonpresiden presidenpecat pecattni tnihttps httpst tco cokc5cpgca0n sangatpercayamampu percayamamputni mamputnikata tnikatacalon katacalonpresiden calonpresidenpecat presidenpecattni pecattnihttps tnihttpst httpstco tcokc5cpgca0n</t>
+  </si>
+  <si>
+    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing cara militan tidakpaham pahamekonomi ekonomiinvestasi investasiasing asinglingkup lingkupbisnis bisnisdi-framing di-framingolah olahnegara negaraasai asaiasing asingcara caramilitan tidakpahamekonomi pahamekonomiinvestasi ekonomiinvestasiasing investasiasinglingkup asinglingkupbisnis lingkupbisnisdi-framing bisnisdi-framingolah di-framingolahnegara olahnegaraasai negaraasaiasing asaiasingcara asingcaramilitan</t>
+  </si>
+  <si>
+    <t>wow pakai bahasa inggris debat buat plonga plongo https t co chujvskyv 4 prabowomenangdebat wowpakai pakaibahasa bahasainggris inggrisdebat debatbuat buatplonga plongaplongo plongohttps httpst tco cochujvskyv chujvskyv4 4prabowomenangdebat wowpakaibahasa pakaibahasainggris bahasainggrisdebat inggrisdebatbuat debatbuatplonga buatplongaplongo plongaplongohttps plongohttpst httpstco tcochujvskyv cochujvskyv4 chujvskyv4prabowomenangdebat</t>
+  </si>
+  <si>
+    <t>closing statement orang pamit nuansa khawatir takut tinggal kalau kalah closingstatement statementorang orangpamit pamitnuansa nuansakhawatir khawatirtakut takuttinggal tinggalkalau kalaukalah closingstatementorang statementorangpamit orangpamitnuansa pamitnuansakhawatir nuansakhawatirtakut khawatirtakuttinggal takuttinggalkalau tinggalkalaukalah</t>
+  </si>
+  <si>
+    <t>terima kasih papua terima kasih rakyat merauke moga temu ada lebih baik terimakasih kasihpapua papuaterima terimakasih kasihrakyat rakyatmerauke meraukemoga mogatemu temuada adalebih lebihbaik terimakasihpapua kasihpapuaterima papuaterimakasih terimakasihrakyat kasihrakyatmerauke rakyatmeraukemoga meraukemogatemu mogatemuada temuadalebih adalebihbaik</t>
+  </si>
+  <si>
+    <t>hari jum at nanya prabowojumatandimana nanya jauh mana islam harijum jumat atnanya nanyaprabowojumatandimana prabowojumatandimanananya nanyajauh jauhmana manaislam harijumat jumatnanya atnanyaprabowojumatandimana nanyaprabowojumatandimanananya prabowojumatandimanananyajauh nanyajauhmana jauhmanaislam</t>
+  </si>
+  <si>
+    <t>pesta demokrasi nama pesta harus senang lo man teman pak sama pak bisa saling santai pestademokrasi demokrasinama namapesta pestaharus harussenang senanglo loman manteman temanpak paksama samapak pakbisa bisasaling salingsantai pestademokrasinama demokrasinamapesta namapestaharus pestaharussenang harussenanglo senangloman lomanteman mantemanpak temanpaksama paksamapak samapakbisa pakbisasaling bisasalingsantai</t>
+  </si>
+  <si>
+    <t>jadi presiden berat biar pak prabowobentengnkri jokowidiambangkekalahan https t co ehlgdl 2mcx jadipresiden presidenberat beratbiar biarpak pakprabowobentengnkri prabowobentengnkrijokowidiambangkekalahan jokowidiambangkekalahanhttps httpst tco coehlgdl ehlgdl2mcx jadipresidenberat presidenberatbiar beratbiarpak biarpakprabowobentengnkri pakprabowobentengnkrijokowidiambangkekalahan prabowobentengnkrijokowidiambangkekalahanhttps jokowidiambangkekalahanhttpst httpstco tcoehlgdl coehlgdl2mcx</t>
+  </si>
+  <si>
+    <t>terimakasih pak datang manado bangga salam sama bapak insyallah allah bapak bang sandi menang terimakasihpak pakdatang datangmanado manadobangga banggasalam salamsama samabapak bapakinsyallah insyallahallah allahbapak bapakbang bangsandi sandimenang terimakasihpakdatang pakdatangmanado datangmanadobangga manadobanggasalam banggasalamsama salamsamabapak samabapakinsyallah bapakinsyallahallah insyallahallahbapak allahbapakbang bapakbangsandi bangsandimenang</t>
+  </si>
+  <si>
+    <t>makin baik sama pak menangjokowilagi makinbaik baiksama samapak pakmenangjokowilagi makinbaiksama baiksamapak samapakmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>berangkat bawah ke pucuk tinggi makanya tak pernah takut https t co 7ftilehkv1 berangkatbawah bawahke kepucuk pucuktinggi tinggimakanya makanyatak takpernah pernahtakut takuthttps httpst tco co7ftilehkv1 berangkatbawahke bawahkepucuk kepucuktinggi pucuktinggimakanya tinggimakanyatak makanyatakpernah takpernahtakut pernahtakuthttps takuthttpst httpstco tco7ftilehkv1</t>
+  </si>
+  <si>
+    <t>front bela islam hti jelas di balik kalau yang bantah jelas sedang bohong https t co mwfxk 96sye frontbela belaislam islamhti htijelas jelasdi dibalik balikkalau kalauyang yangbantah bantahjelas jelassedang sedangbohong bohonghttps httpst tco comwfxk mwfxk96sye frontbelaislam belaislamhti islamhtijelas htijelasdi jelasdibalik dibalikkalau balikkalauyang kalauyangbantah yangbantahjelas bantahjelassedang jelassedangbohong sedangbohonghttps bohonghttpst httpstco tcomwfxk comwfxk96sye</t>
+  </si>
+  <si>
+    <t>bangga prabowobentengnkri banggaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>contoh orang tidak di ajak maju debatpilpres 2019 jokowimengubahsemua https t co omp 0spnmur contohorang orangtidak tidakdi diajak ajakmaju majudebatpilpres debatpilpres2019 2019jokowimengubahsemua jokowimengubahsemuahttps httpst tco coomp omp0spnmur contohorangtidak orangtidakdi tidakdiajak diajakmaju ajakmajudebatpilpres majudebatpilpres2019 debatpilpres2019jokowimengubahsemua 2019jokowimengubahsemuahttps jokowimengubahsemuahttpst httpstco tcoomp coomp0spnmur</t>
+  </si>
+  <si>
+    <t>the strong will do what they can the weak will suffer nilai tahan indonesia terlalu lemah thestrong strongwill willdo dowhat whatthey theycan canthe theweak weakwill willsuffer suffernilai nilaitahan tahanindonesia indonesiaterlalu terlalulemah thestrongwill strongwilldo willdowhat dowhatthey whattheycan theycanthe cantheweak theweakwill weakwillsuffer willsuffernilai suffernilaitahan nilaitahanindonesia tahanindonesiaterlalu indonesiaterlalulemah</t>
+  </si>
+  <si>
+    <t>rantai sahabat pak pak akan putus debatpilpres 2019 dengerin tuh tkn-bpn cebong kampret rantaisahabat sahabatpak pakpak pakakan akanputus putusdebatpilpres debatpilpres2019 2019dengerin dengerintuh tuhtkn-bpn tkn-bpncebong cebongkampret rantaisahabatpak sahabatpakpak pakpakakan pakakanputus akanputusdebatpilpres putusdebatpilpres2019 debatpilpres2019dengerin 2019dengerintuh dengerintuhtkn-bpn tuhtkn-bpncebong tkn-bpncebongkampret</t>
+  </si>
+  <si>
+    <t>dengar pak meski sangat lambat https t co aydhf 1aca7 dengarpak pakmeski meskisangat sangatlambat lambathttps httpst tco coaydhf aydhf1aca7 dengarpakmeski pakmeskisangat meskisangatlambat sangatlambathttps lambathttpst httpstco tcoaydhf coaydhf1aca7</t>
+  </si>
+  <si>
+    <t>pak jangan jelek tni ini lho salah satu prestasi tni 01dilanjutkan https t co ibgmfaixw 1 pakjangan janganjelek jelektni tniini inilho lhosalah salahsatu satuprestasi prestasitni tni01dilanjutkan 01dilanjutkanhttps httpst tco coibgmfaixw ibgmfaixw1 pakjanganjelek janganjelektni jelektniini tniinilho inilhosalah lhosalahsatu salahsatuprestasi satuprestasitni prestasitni01dilanjutkan tni01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcoibgmfaixw coibgmfaixw1</t>
+  </si>
+  <si>
+    <t>sepakat bang pak menang sejak pikir mental menang yang ngga milik pak sepakatbang bangpak pakmenang menangsejak sejakpikir pikirmental mentalmenang menangyang yangngga nggamilik milikpak sepakatbangpak bangpakmenang pakmenangsejak menangsejakpikir sejakpikirmental pikirmentalmenang mentalmenangyang menangyangngga yangnggamilik nggamilikpak</t>
+  </si>
+  <si>
+    <t>debat malam mas tampil luar biasa tegas lugas cerdas wibawa jadi macan indonesia perkasa debatmalam malammas mastampil tampilluar luarbiasa biasategas tegaslugas lugascerdas cerdaswibawa wibawajadi jadimacan macanindonesia indonesiaperkasa debatmalammas malammastampil mastampilluar tampilluarbiasa luarbiasategas biasategaslugas tegaslugascerdas lugascerdaswibawa cerdaswibawajadi wibawajadimacan jadimacanindonesia macanindonesiaperkasa</t>
+  </si>
+  <si>
+    <t>percaya pak rantai sahabat tidak pernah putus iya pak pun saya hormat percayapak pakrantai rantaisahabat sahabattidak tidakpernah pernahputus putusiya iyapak pakpun punsaya sayahormat percayapakrantai pakrantaisahabat rantaisahabattidak sahabattidakpernah tidakpernahputus pernahputusiya putusiyapak iyapakpun pakpunsaya punsayahormat</t>
+  </si>
+  <si>
+    <t>insyallah allah p kuasa debat malam dengan elegan n presidential saksi studio insyallahallah allahp pkuasa kuasadebat debatmalam malamdengan denganelegan elegann npresidential presidentialsaksi saksistudio insyallahallahp allahpkuasa pkuasadebat kuasadebatmalam debatmalamdengan malamdenganelegan denganelegann elegannpresidential npresidentialsaksi presidentialsaksistudio</t>
+  </si>
+  <si>
+    <t>malam pak tampil serang lugas skakmaat malampak paktampil tampilserang seranglugas lugasskakmaat malampaktampil paktampilserang tampilseranglugas seranglugasskakmaat</t>
+  </si>
+  <si>
+    <t>prabowomenangdebat insyallah allah menang pilpres prabowomenangdebatinsyallah insyallahallah allahmenang menangpilpres prabowomenangdebatinsyallahallah insyallahallahmenang allahmenangpilpres</t>
+  </si>
+  <si>
+    <t>debat kali tidak pegang telinga tanda tidak pikir panjang debat sorot mata tebar kosong debatkali kalitidak tidakpegang pegangtelinga telingatanda tandatidak tidakpikir pikirpanjang panjangdebat debatsorot sorotmata matatebar tebarkosong debatkalitidak kalitidakpegang tidakpegangtelinga pegangtelingatanda telingatandatidak tandatidakpikir tidakpikirpanjang pikirpanjangdebat panjangdebatsorot debatsorotmata sorotmatatebar matatebarkosong</t>
+  </si>
+  <si>
+    <t>lah pak akan lupa sahabat lain jika masalah hukum lahpak pakakan akanlupa lupasahabat sahabatlain lainjika jikamasalah masalahhukum lahpakakan pakakanlupa akanlupasahabat lupasahabatlain sahabatlainjika lainjikamasalah jikamasalahhukum</t>
+  </si>
+  <si>
+    <t>bagus pak lebih tni tni lucu nuduh percaya tni lah wong pak ex militer baguspak paklebih lebihtni tnitni tnilucu lucunuduh nuduhpercaya percayatni tnilah lahwong wongpak pakex exmiliter baguspaklebih paklebihtni lebihtnitni tnitnilucu tnilucunuduh lucunuduhpercaya nuduhpercayatni percayatnilah tnilahwong lahwongpak wongpakex pakexmiliter</t>
+  </si>
+  <si>
+    <t>politik luar negeri makin turun sering absen p forum internasional n sidang pbb politikluar luarnegeri negerimakin makinturun turunsering seringabsen absenp pforum foruminternasional internasionaln nsidang sidangpbb politikluarnegeri luarnegerimakin negerimakinturun makinturunsering turunseringabsen seringabsenp absenpforum pforuminternasional foruminternasionaln internasionalnsidang nsidangpbb</t>
+  </si>
+  <si>
+    <t>jangan pilih pimpin bohong ingkar janji provokasi rakyat kacang lupa kulit pilih pimpin jujur janganpilih pilihpimpin pimpinbohong bohongingkar ingkarjanji janjiprovokasi provokasirakyat rakyatkacang kacanglupa lupakulit kulitpilih pilihpimpin pimpinjujur janganpilihpimpin pilihpimpinbohong pimpinbohongingkar bohongingkarjanji ingkarjanjiprovokasi janjiprovokasirakyat provokasirakyatkacang rakyatkacanglupa kacanglupakulit lupakulitpilih kulitpilihpimpin pilihpimpinjujur</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni saya sipil sangat percaya tni - lihatpak pakpercaya percayatni tnisaya sayasipil sipilsangat sangatpercaya percayatni tni- lihatpakpercaya pakpercayatni percayatnisaya tnisayasipil sayasipilsangat sipilsangatpercaya sangatpercayatni percayatni-</t>
+  </si>
+  <si>
+    <t>makanya kalau pilpres ada debat jangan beri tahu buat rusuh makanyakalau kalaupilpres pilpresada adadebat debatjangan janganberi beritahu tahubuat buatrusuh makanyakalaupilpres kalaupilpresada pilpresadadebat adadebatjangan debatjanganberi janganberitahu beritahubuat tahubuatrusuh</t>
+  </si>
+  <si>
+    <t>sepakat malam pak kabul semua harap dukung debat kali nampol banget sepakatmalam malampak pakkabul kabulsemua semuaharap harapdukung dukungdebat debatkali kalinampol nampolbanget sepakatmalampak malampakkabul pakkabulsemua kabulsemuaharap semuaharapdukung harapdukungdebat dukungdebatkali debatkalinampol kalinampolbanget</t>
+  </si>
+  <si>
+    <t>political will cermin praktik berantas korupsi kata pula demokrasi politicalwill willcermin cerminpraktik praktikberantas berantaskorupsi korupsikata katapula pulademokrasi politicalwillcermin willcerminpraktik cerminpraktikberantas praktikberantaskorupsi berantaskorupsikata korupsikatapula katapulademokrasi</t>
+  </si>
+  <si>
+    <t>industri kreatif indonesia era presiden tumbuh sangat pesat industrikreatif kreatifindonesia indonesiaera erapresiden presidentumbuh tumbuhsangat sangatpesat industrikreatifindonesia kreatifindonesiaera indonesiaerapresiden erapresidentumbuh presidentumbuhsangat tumbuhsangatpesat</t>
+  </si>
+  <si>
+    <t>sudah jelas bisa ikut rombong wong sejak awal visi beda visi commuter line mau bikin maju jangan sudahjelas jelasbisa bisaikut ikutrombong rombongwong wongsejak sejakawal awalvisi visibeda bedavisi visicommuter commuterline linemau maubikin bikinmaju majujangan sudahjelasbisa jelasbisaikut bisaikutrombong ikutrombongwong rombongwongsejak wongsejakawal sejakawalvisi awalvisibeda visibedavisi bedavisicommuter visicommuterline commuterlinemau linemaubikin maubikinmaju bikinmajujangan</t>
+  </si>
+  <si>
+    <t>helmy faishal debat kandidat tahap empat menang alam https t co 5iueilxkxo helmyfaishal faishaldebat debatkandidat kandidattahap tahapempat empatmenang menangalam alamhttps httpst tco co5iueilxkxo helmyfaishaldebat faishaldebatkandidat debatkandidattahap kandidattahapempat tahapempatmenang empatmenangalam menangalamhttps alamhttpst httpstco tco5iueilxkxo</t>
+  </si>
+  <si>
+    <t>juang hormat akan diri kaki sendiri kita tidak akan impor pangan juanghormat hormatakan akandiri dirikaki kakisendiri sendirikita kitatidak tidakakan akanimpor imporpangan juanghormatakan hormatakandiri akandirikaki dirikakisendiri kakisendirikita sendirikitatidak kitatidakakan tidakakanimpor akanimporpangan</t>
+  </si>
+  <si>
+    <t>korupsi parah stadium empat https t co 4sqd2cyjnw prabowobentengnkri korupsiparah parahstadium stadiumempat empathttps httpst tco co4sqd2cyjnw 4sqd2cyjnwprabowobentengnkri korupsiparahstadium parahstadiumempat stadiumempathttps empathttpst httpstco tco4sqd2cyjnw co4sqd2cyjnwprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>sangat untung jadi orang kualitas ilmu minim bisa jadi orang presiden sangatuntung untungjadi jadiorang orangkualitas kualitasilmu ilmuminim minimbisa bisajadi jadiorang orangpresiden sangatuntungjadi untungjadiorang jadiorangkualitas orangkualitasilmu kualitasilmuminim ilmuminimbisa minimbisajadi bisajadiorang jadiorangpresiden</t>
+  </si>
+  <si>
+    <t>dulu pernah asal bapak senang asal bapak senang sujud sukur live lho tv one apa live lho asal bapak senang nya wow dulupernah pernahasal asalbapak bapaksenang senangasal asalbapak bapaksenang senangsujud sujudsukur sukurlive livelho lhotv tvone oneapa apalive livelho lhoasal asalbapak bapaksenang senangnya nyawow dulupernahasal pernahasalbapak asalbapaksenang bapaksenangasal senangasalbapak asalbapaksenang bapaksenangsujud senangsujudsukur sujudsukurlive sukurlivelho livelhotv lhotvone tvoneapa oneapalive apalivelho livelhoasal lhoasalbapak asalbapaksenang bapaksenangnya senangnyawow</t>
+  </si>
+  <si>
+    <t>santai banget screamo mantap jadi pasang bagus kek jokowi-ahok santaibanget bangetscreamo screamomantap mantapjadi jadipasang pasangbagus baguskek kekjokowi-ahok santaibangetscreamo bangetscreamomantap screamomantapjadi mantapjadipasang jadipasangbagus pasangbaguskek baguskekjokowi-ahok</t>
+  </si>
+  <si>
+    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni paktrauma traumapecat pecattni tnibegini beginingomongnya ngomongnyajustru justrupak paksipil sipilpercaya percayasama samatni paktraumapecat traumapecattni pecattnibegini tnibeginingomongnya beginingomongnyajustru ngomongnyajustrupak justrupaksipil paksipilpercaya sipilpercayasama percayasamatni</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 ngebacot kaya luar negeri ngomongin diri sendiri https t co tirpkmgt 4g debatpilpres2019 2019ngebacot ngebacotkaya kayaluar luarnegeri negeringomongin ngomongindiri dirisendiri sendirihttps httpst tco cotirpkmgt tirpkmgt4g debatpilpres2019ngebacot 2019ngebacotkaya ngebacotkayaluar kayaluarnegeri luarnegeringomongin negeringomongindiri ngomongindirisendiri dirisendirihttps sendirihttpst httpstco tcotirpkmgt cotirpkmgt4g</t>
+  </si>
+  <si>
+    <t>nkri harga mati pancasila selalu hati presidennnya tetap pancasilavskhilafah tim 88untukjokowi tim 88 nkriharga hargamati matipancasila pancasilaselalu selaluhati hatipresidennnya presidennnyatetap tetappancasilavskhilafah pancasilavskhilafahtim tim88untukjokowi 88untukjokowitim tim88 nkrihargamati hargamatipancasila matipancasilaselalu pancasilaselaluhati selaluhatipresidennnya hatipresidennnyatetap presidennnyatetappancasilavskhilafah tetappancasilavskhilafahtim pancasilavskhilafahtim88untukjokowi tim88untukjokowitim 88untukjokowitim88</t>
+  </si>
+  <si>
+    <t>kritik solusi bagai kaca air keruh kerja beri solusi nyata tumbuh ekonomi kritiksolusi solusibagai bagaikaca kacaair airkeruh keruhkerja kerjaberi berisolusi solusinyata nyatatumbuh tumbuhekonomi kritiksolusibagai solusibagaikaca bagaikacaair kacaairkeruh airkeruhkerja keruhkerjaberi kerjaberisolusi berisolusinyata solusinyatatumbuh nyatatumbuhekonomi</t>
+  </si>
+  <si>
+    <t>si banyak omong soal tax rio rendah perusaaan sendiri nunggak pajak miliar sibanyak banyakomong omongsoal soaltax taxrio riorendah rendahperusaaan perusaaansendiri sendirinunggak nunggakpajak pajakmiliar sibanyakomong banyakomongsoal omongsoaltax soaltaxrio taxriorendah riorendahperusaaan rendahperusaaansendiri perusaaansendirinunggak sendirinunggakpajak nunggakpajakmiliar</t>
+  </si>
+  <si>
+    <t>presiden bisa tidak bicara detail alutsista indonesia itu yang sensitif tahan presidenbisa bisatidak tidakbicara bicaradetail detailalutsista alutsistaindonesia indonesiaitu ituyang yangsensitif sensitiftahan presidenbisatidak bisatidakbicara tidakbicaradetail bicaradetailalutsista detailalutsistaindonesia alutsistaindonesiaitu indonesiaituyang ituyangsensitif yangsensitiftahan</t>
+  </si>
+  <si>
+    <t>malam inj gak ikut nonton debtamu pak saya bagai dukung ikut gemetar pak takut yang lalu malaminj injgak gakikut ikutnonton nontondebtamu debtamupak paksaya sayabagai bagaidukung dukungikut ikutgemetar gemetarpak paktakut takutyang yanglalu malaminjgak injgakikut gakikutnonton ikutnontondebtamu nontondebtamupak debtamupaksaya paksayabagai sayabagaidukung bagaidukungikut dukungikutgemetar ikutgemetarpak gemetarpaktakut paktakutyang takutyanglalu</t>
+  </si>
+  <si>
+    <t>malam benar keren prabowotidakmenyalahkanboneka prabowomenangdebat jokowidiambangkekalahan malambenar benarkeren kerenprabowotidakmenyalahkanboneka prabowotidakmenyalahkanbonekaprabowomenangdebat prabowomenangdebatjokowidiambangkekalahan malambenarkeren benarkerenprabowotidakmenyalahkanboneka kerenprabowotidakmenyalahkanbonekaprabowomenangdebat prabowotidakmenyalahkanbonekaprabowomenangdebatjokowidiambangkekalahan</t>
+  </si>
+  <si>
+    <t>haha yen wahid bilang salah cara ngebaca data anggar tahan hahayen yenwahid wahidbilang bilangsalah salahcara carangebaca ngebacadata dataanggar anggartahan hahayenwahid yenwahidbilang wahidbilangsalah bilangsalahcara salahcarangebaca carangebacadata ngebacadataanggar dataanggartahan</t>
+  </si>
+  <si>
+    <t>closing statement dingin pak makin mantap 17aprilcoblosbajuputih https t co gu7yd7owzz closingstatement statementdingin dinginpak pakmakin makinmantap mantap17aprilcoblosbajuputih 17aprilcoblosbajuputihhttps httpst tco cogu7yd7owzz closingstatementdingin statementdinginpak dinginpakmakin pakmakinmantap makinmantap17aprilcoblosbajuputih mantap17aprilcoblosbajuputihhttps 17aprilcoblosbajuputihhttpst httpstco tcogu7yd7owzz</t>
+  </si>
+  <si>
+    <t>pokok malam pak jos sekali mantap banget buat lawan klepek-klepek kaya ikan kurang air pokokmalam malampak pakjos jossekali sekalimantap mantapbanget bangetbuat buatlawan lawanklepek-klepek klepek-klepekkaya kayaikan ikankurang kurangair pokokmalampak malampakjos pakjossekali jossekalimantap sekalimantapbanget mantapbangetbuat bangetbuatlawan buatlawanklepek-klepek lawanklepek-klepekkaya klepek-klepekkayaikan kayaikankurang ikankurangair</t>
+  </si>
+  <si>
+    <t>debat udah selesai unggul - satu pujat 01caprespendustaabadi prabowomenangdebat debatudah udahselesai selesaiunggul unggul- -satu satupujat pujat01caprespendustaabadi 01caprespendustaabadiprabowomenangdebat debatudahselesai udahselesaiunggul selesaiunggul- unggul-satu -satupujat satupujat01caprespendustaabadi pujat01caprespendustaabadiprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>kalau terima mandat akan bersih kuat lembaga perintah prabowobentengnkri kalauterima terimamandat mandatakan akanbersih bersihkuat kuatlembaga lembagaperintah perintahprabowobentengnkri kalauterimamandat terimamandatakan mandatakanbersih akanbersihkuat bersihkuatlembaga kuatlembagaperintah lembagaperintahprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>lebih semangat jaga momentum sd april prabowobentengnkri https t co evpzax 3bax lebihsemangat semangatjaga jagamomentum momentumsd sdapril aprilprabowobentengnkri prabowobentengnkrihttps httpst tco coevpzax evpzax3bax lebihsemangatjaga semangatjagamomentum jagamomentumsd momentumsdapril sdaprilprabowobentengnkri aprilprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoevpzax coevpzax3bax</t>
+  </si>
+  <si>
+    <t>bidang tahan aman masih terlalu lemah anggar terlalu kecil yang kita baik bidangtahan tahanaman amanmasih masihterlalu terlalulemah lemahanggar anggarterlalu terlalukecil kecilyang yangkita kitabaik bidangtahanaman tahanamanmasih amanmasihterlalu masihterlalulemah terlalulemahanggar lemahanggarterlalu anggarterlalukecil terlalukecilyang kecilyangkita yangkitabaik</t>
+  </si>
+  <si>
+    <t>membully pak tak istri lalu pamer mesra keluarga membullypak paktak takistri istrilalu lalupamer pamermesra mesrakeluarga membullypaktak paktakistri takistrilalu istrilalupamer lalupamermesra pamermesrakeluarga</t>
+  </si>
+  <si>
+    <t>yakin lubuk hati dukung pada malu lihat jagoanya kaya gitu mata publik yakinlubuk lubukhati hatidukung dukungpada padamalu malulihat lihatjagoanya jagoanyakaya kayagitu gitumata matapublik yakinlubukhati lubukhatidukung hatidukungpada dukungpadamalu padamalulihat malulihatjagoanya lihatjagoanyakaya jagoanyakayagitu kayagitumata gitumatapublik</t>
+  </si>
+  <si>
+    <t>pemerintahandilan tekan layan perintah baik butuh efektifitas efisiensi pemerintahandilantekan tekanlayan layanperintah perintahbaik baikbutuh butuhefektifitas efektifitasefisiensi pemerintahandilantekanlayan tekanlayanperintah layanperintahbaik perintahbaikbutuh baikbutuhefektifitas butuhefektifitasefisiensi</t>
+  </si>
+  <si>
+    <t>hakul yakin indonesia hebat rakyat sejahtera wujud sama - prabowomenangdebat hakulyakin yakinindonesia indonesiahebat hebatrakyat rakyatsejahtera sejahterawujud wujudsama sama- -prabowomenangdebat hakulyakinindonesia yakinindonesiahebat indonesiahebatrakyat hebatrakyatsejahtera rakyatsejahterawujud sejahterawujudsama wujudsama- sama-prabowomenangdebat</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 bagaimana mau maju tni kalau baru jadi mayor jangan udah pensiun sekarang jadi timses bapak debatpilpres2019 2019bagaimana bagaimanamau maumaju majutni tnikalau kalaubaru barujadi jadimayor mayorjangan janganudah udahpensiun pensiunsekarang sekarangjadi jaditimses timsesbapak debatpilpres2019bagaimana 2019bagaimanamau bagaimanamaumaju maumajutni majutnikalau tnikalaubaru kalaubarujadi barujadimayor jadimayorjangan mayorjanganudah janganudahpensiun udahpensiunsekarang pensiunsekarangjadi sekarangjaditimses jaditimsesbapak</t>
+  </si>
+  <si>
+    <t>turut pk diplomasi arti tahan inti national interest bukan cuma senyam-senyum turutpk pkdiplomasi diplomasiarti artitahan tahaninti intinational nationalinterest interestbukan bukancuma cumasenyam-senyum turutpkdiplomasi pkdiplomasiarti diplomasiartitahan artitahaninti tahanintinational intinationalinterest nationalinterestbukan interestbukancuma bukancumasenyam-senyum</t>
+  </si>
+  <si>
+    <t>bisik si jokowi lebih sibuk cari cara gebuk lawan politik waspada jaga nkri bisiksi sijokowi jokowilebih lebihsibuk sibukcari caricara caragebuk gebuklawan lawanpolitik politikwaspada waspadajaga jagankri bisiksijokowi sijokowilebih jokowilebihsibuk lebihsibukcari sibukcaricara caricaragebuk caragebuklawan gebuklawanpolitik lawanpolitikwaspada politikwaspadajaga waspadajagankri</t>
+  </si>
+  <si>
+    <t>bukan percaya sama tni tni lebih tni para tni orang patriot cinta nkri bukanpercaya percayasama samatni tnitni tnilebih lebihtni tnipara paratni tniorang orangpatriot patriotcinta cintankri bukanpercayasama percayasamatni samatnitni tnitnilebih tnilebihtni lebihtnipara tniparatni paratniorang tniorangpatriot orangpatriotcinta patriotcintankri</t>
+  </si>
+  <si>
+    <t>ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu ujar ketawakalian kalianketawa ketawatahan tahanindonesia indonesiarapuh rapuhkalian kalianketawa ketawalucu lucukok koklucu lucuujar ketawakalianketawa kalianketawatahan ketawatahanindonesia tahanindonesiarapuh indonesiarapuhkalian rapuhkalianketawa kalianketawalucu ketawalucukok lucukoklucu koklucuujar</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 tidak harga internasional tuh doang mah dihargain kok debatpilpres2019 2019tidak tidakharga hargainternasional internasionaltuh tuhdoang doangmah mahdihargain dihargainkok debatpilpres2019tidak 2019tidakharga tidakhargainternasional hargainternasionaltuh internasionaltuhdoang tuhdoangmah doangmahdihargain mahdihargainkok</t>
+  </si>
+  <si>
+    <t>komplit tukang bohong main curang piye pak de komplittukang tukangbohong bohongmain maincurang curangpiye piyepak pakde komplittukangbohong tukangbohongmain bohongmaincurang maincurangpiye curangpiyepak piyepakde</t>
+  </si>
+  <si>
+    <t>dong pak sangat percaya tni jokowidilan pemerintahandilan https t co uunuy 9su9e dongpak paksangat sangatpercaya percayatni tnijokowidilan jokowidilanpemerintahandilan pemerintahandilanhttps httpst tco couunuy uunuy9su9e dongpaksangat paksangatpercaya sangatpercayatni percayatnijokowidilan tnijokowidilanpemerintahandilan jokowidilanpemerintahandilanhttps pemerintahandilanhttpst httpstco tcouunuy couunuy9su9e</t>
+  </si>
+  <si>
+    <t>unggul april menangjokowilagi unggulapril aprilmenangjokowilagi unggulaprilmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>saat perintah kibal-kibul akhir jokowidiambangkekalahan masyarakat hilang percaya perintah saatperintah perintahkibal-kibul kibal-kibulakhir akhirjokowidiambangkekalahan jokowidiambangkekalahanmasyarakat masyarakathilang hilangpercaya percayaperintah saatperintahkibal-kibul perintahkibal-kibulakhir kibal-kibulakhirjokowidiambangkekalahan akhirjokowidiambangkekalahanmasyarakat jokowidiambangkekalahanmasyarakathilang masyarakathilangpercaya hilangpercayaperintah</t>
+  </si>
+  <si>
+    <t>politik luar negeri sampai tak sesuai realitas dia sering tak hadir forum internasional politikluar luarnegeri negerisampai sampaitak taksesuai sesuairealitas realitasdia diasering seringtak takhadir hadirforum foruminternasional politikluarnegeri luarnegerisampai negerisampaitak sampaitaksesuai taksesuairealitas sesuairealitasdia realitasdiasering diaseringtak seringtakhadir takhadirforum hadirforuminternasional</t>
+  </si>
+  <si>
+    <t>distrust paham apa makna hanya plonga-plongo debatpilpres 2019 https t co qpr 2qpbcj1 distrustpaham pahamapa apamakna maknahanya hanyaplonga-plongo plonga-plongodebatpilpres debatpilpres2019 2019https httpst tco coqpr qpr2qpbcj1 distrustpahamapa pahamapamakna apamaknahanya maknahanyaplonga-plongo hanyaplonga-plongodebatpilpres plonga-plongodebatpilpres2019 debatpilpres2019https 2019httpst httpstco tcoqpr coqpr2qpbcj1</t>
+  </si>
+  <si>
+    <t>harus utama tuju perintah sendiri tuju perintah jelas akan jadi gaduh harusutama utamatuju tujuperintah perintahsendiri sendirituju tujuperintah perintahjelas jelasakan akanjadi jadigaduh harusutamatuju utamatujuperintah tujuperintahsendiri perintahsendirituju sendiritujuperintah tujuperintahjelas perintahjelasakan jelasakanjadi akanjadigaduh</t>
+  </si>
+  <si>
+    <t>depan mau ubah pancasila hadap https t co znzz 94ncaj depanmau mauubah ubahpancasila pancasilahadap hadaphttps httpst tco coznzz znzz94ncaj depanmauubah mauubahpancasila ubahpancasilahadap pancasilahadaphttps hadaphttpst httpstco tcoznzz coznzz94ncaj</t>
+  </si>
+  <si>
+    <t>menang gagas menang debat menang pilpres prabowobentengnkri menanggagas gagasmenang menangdebat debatmenang menangpilpres pilpresprabowobentengnkri menanggagasmenang gagasmenangdebat menangdebatmenang debatmenangpilpres menangpilpresprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>anak beri tahu toleransi kita beda - optimisindonesiamaju anakberi beritahu tahutoleransi toleransikita kitabeda beda- -optimisindonesiamaju anakberitahu beritahutoleransi tahutoleransikita toleransikitabeda kitabeda- beda-optimisindonesiamaju</t>
+  </si>
+  <si>
+    <t>nama benteng harus kokoh masuk allah uji waktu kondisi namabenteng bentengharus haruskokoh kokohmasuk masukallah allahuji ujiwaktu waktukondisi namabentengharus bentengharuskokoh haruskokohmasuk kokohmasukallah masukallahuji allahujiwaktu ujiwaktukondisi</t>
+  </si>
+  <si>
+    <t>percaya kalau pak pimpin baik pemerintahandilan percayakalau kalaupak pakpimpin pimpinbaik baikpemerintahandilan percayakalaupak kalaupakpimpin pakpimpinbaik pimpinbaikpemerintahandilan</t>
+  </si>
+  <si>
+    <t>pak ini sering naik sepeda rantai sering putus paksa ganti rantai makan pak pakini inisering seringnaik naiksepeda sepedarantai rantaisering seringputus putuspaksa paksaganti gantirantai rantaimakan makanpak pakinisering iniseringnaik seringnaiksepeda naiksepedarantai sepedarantaisering rantaiseringputus seringputuspaksa putuspaksaganti paksagantirantai gantirantaimakan rantaimakanpak</t>
+  </si>
+  <si>
+    <t>meski indonesia milik saham persen freeport sebut untung freeport jauh lebih besar meskiindonesia indonesiamilik miliksaham sahampersen persenfreeport freeportsebut sebutuntung untungfreeport freeportjauh jauhlebih lebihbesar meskiindonesiamilik indonesiamiliksaham miliksahampersen sahampersenfreeport persenfreeportsebut freeportsebutuntung sebutuntungfreeport untungfreeportjauh freeportjauhlebih jauhlebihbesar</t>
+  </si>
+  <si>
+    <t>ghiroh kab kalong menang sungguh haru bangga dlm parau suara brandal ghirohkab kabkalong kalongmenang menangsungguh sungguhharu harubangga banggadlm dlmparau parausuara suarabrandal ghirohkabkalong kabkalongmenang kalongmenangsungguh menangsungguhharu sungguhharubangga harubanggadlm banggadlmparau dlmparausuara parausuarabrandal</t>
+  </si>
+  <si>
+    <t>mantap pak jokowidiambangkekalahan https t co 5aqu8vfkic mantappak pakjokowidiambangkekalahan jokowidiambangkekalahanhttps httpst tco co5aqu8vfkic mantappakjokowidiambangkekalahan pakjokowidiambangkekalahanhttps jokowidiambangkekalahanhttpst httpstco tco5aqu8vfkic</t>
+  </si>
+  <si>
+    <t>benteng nkri benteng bukan banteng prabowobentengnkri bentengnkri nkribenteng bentengbukan bukanbanteng bantengprabowobentengnkri bentengnkribenteng nkribentengbukan bentengbukanbanteng bukanbantengprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>pak siap papar visi misi beliau tema debat malam 01dilanjutkan paksiap siappapar paparvisi visimisi misibeliau beliautema temadebat debatmalam malam01dilanjutkan paksiappapar siappaparvisi paparvisimisi visimisibeliau misibeliautema beliautemadebat temadebatmalam debatmalam01dilanjutkan</t>
+  </si>
+  <si>
+    <t>sosok pimpin baik maka tak ada alas golput 01dilanjutkan sosokpimpin pimpinbaik baikmaka makatak takada adaalas alasgolput golput01dilanjutkan sosokpimpinbaik pimpinbaikmaka baikmakatak makatakada takadaalas adaalasgolput alasgolput01dilanjutkan</t>
+  </si>
+  <si>
+    <t>debat calon presiden kali seperti lihat orang dewasa wawas santun lawan debatcalon calonpresiden presidenkali kaliseperti sepertilihat lihatorang orangdewasa dewasawawas wawassantun santunlawan debatcalonpresiden calonpresidenkali presidenkaliseperti kalisepertilihat sepertilihatorang lihatorangdewasa orangdewasawawas dewasawawassantun wawassantunlawan</t>
+  </si>
+  <si>
+    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi indonesia kalaumandat mandatakan akanbersih bersihkuat kuatlembaga lembagaperintah perintahakan akanhilang hilangkorupsi korupsiindonesia kalaumandatakan mandatakanbersih akanbersihkuat bersihkuatlembaga kuatlembagaperintah lembagaperintahakan perintahakanhilang akanhilangkorupsi hilangkorupsiindonesia</t>
+  </si>
+  <si>
+    <t>nah inti juang hasil panen raya jaga lumbung tikus nahinti intijuang juanghasil hasilpanen panenraya rayajaga jagalumbung lumbungtikus nahintijuang intijuanghasil juanghasilpanen hasilpanenraya panenrayajaga rayajagalumbung jagalumbungtikus</t>
+  </si>
+  <si>
+    <t>warga karawang mana kalau knytaan y laut manusia hadir sambut presiden wargakarawang karawangmana manakalau kalauknytaan knytaany ylaut lautmanusia manusiahadir hadirsambut sambutpresiden wargakarawangmana karawangmanakalau manakalauknytaan kalauknytaany knytaanylaut ylautmanusia lautmanusiahadir manusiahadirsambut hadirsambutpresiden</t>
+  </si>
+  <si>
+    <t>cuma doa moga terima nyata walaupun pahit rakyat presiden ri cumadoa doamoga mogaterima terimanyata nyatawalaupun walaupunpahit pahitrakyat rakyatpresiden presidenri cumadoamoga doamogaterima mogaterimanyata terimanyatawalaupun nyatawalaupunpahit walaupunpahitrakyat pahitrakyatpresiden rakyatpresidenri</t>
+  </si>
+  <si>
+    <t>simpul debat malam sangat cinta nkri jokowi sangat cinta dagang prabowobentengnkri prabowobentengnkri simpuldebat debatmalam malamsangat sangatcinta cintankri nkrijokowi jokowisangat sangatcinta cintadagang dagangprabowobentengnkri prabowobentengnkriprabowobentengnkri simpuldebatmalam debatmalamsangat malamsangatcinta sangatcintankri cintankrijokowi nkrijokowisangat jokowisangatcinta sangatcintadagang cintadagangprabowobentengnkri dagangprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>lembaga perintah kuat baru negara kuat program bangun laksana lembagaperintah perintahkuat kuatbaru barunegara negarakuat kuatprogram programbangun bangunlaksana lembagaperintahkuat perintahkuatbaru kuatbarunegara barunegarakuat negarakuatprogram kuatprogrambangun programbangunlaksana</t>
+  </si>
+  <si>
+    <t>lebih baik pakai teknologi lama kaya indonesia keluar indonesia - lebihbaik baikpakai pakaiteknologi teknologilama lamakaya kayaindonesia indonesiakeluar keluarindonesia indonesia- lebihbaikpakai baikpakaiteknologi pakaiteknologilama teknologilamakaya lamakayaindonesia kayaindonesiakeluar indonesiakeluarindonesia keluarindonesia-</t>
+  </si>
+  <si>
+    <t>bapak info asal bapak senang https t co 11g3jkmdz3 bapakinfo infoasal asalbapak bapaksenang senanghttps httpst tco co11g3jkmdz3 bapakinfoasal infoasalbapak asalbapaksenang bapaksenanghttps senanghttpst httpstco tco11g3jkmdz3</t>
+  </si>
+  <si>
+    <t>indonesia maju sama pemerintahandilan https t co ue10thkyey indonesiamaju majusama samapemerintahandilan pemerintahandilanhttps httpst tco coue10thkyey indonesiamajusama majusamapemerintahandilan samapemerintahandilanhttps pemerintahandilanhttpst httpstco tcoue10thkyey</t>
+  </si>
+  <si>
+    <t>warkop dki tagline warkop dki memang visioner tertawa prabowomarah https t co 8wsgualxi6 warkopdki dkitagline taglinewarkop warkopdki dkimemang memangvisioner visionertertawa tertawaprabowomarah prabowomarahhttps httpst tco co8wsgualxi6 warkopdkitagline dkitaglinewarkop taglinewarkopdki warkopdkimemang dkimemangvisioner memangvisionertertawa visionertertawaprabowomarah tertawaprabowomarahhttps prabowomarahhttpst httpstco tco8wsgualxi6</t>
+  </si>
+  <si>
+    <t>nahkan sistem perintah udah oke banget deh poko pemerintahandilan keren pak https t co 1tomcggkxy nahkansistem sistemperintah perintahudah udahoke okebanget bangetdeh dehpoko pokopemerintahandilan pemerintahandilankeren kerenpak pakhttps httpst tco co1tomcggkxy nahkansistemperintah sistemperintahudah perintahudahoke udahokebanget okebangetdeh bangetdehpoko dehpokopemerintahandilan pokopemerintahandilankeren pemerintahandilankerenpak kerenpakhttps pakhttpst httpstco tco1tomcggkxy</t>
+  </si>
+  <si>
+    <t>debat kami terima bagai saudara wahai mualaf politik memang pantas pimpin nkri debatkami kamiterima terimabagai bagaisaudara saudarawahai wahaimualaf mualafpolitik politikmemang memangpantas pantaspimpin pimpinnkri debatkamiterima kamiterimabagai terimabagaisaudara bagaisaudarawahai saudarawahaimualaf wahaimualafpolitik mualafpolitikmemang politikmemangpantas memangpantaspimpin pantaspimpinnkri</t>
+  </si>
+  <si>
+    <t>kalau pecat pensiun dong bapak dapat pensiun kalaupecat pecatpensiun pensiundong dongbapak bapakdapat dapatpensiun kalaupecatpensiun pecatpensiundong pensiundongbapak dongbapakdapat bapakdapatpensiun</t>
+  </si>
+  <si>
+    <t>karawang maret siapa pilih rakyat akan tunduk patuh - negarawan sejati karawangmaret maretsiapa siapapilih pilihrakyat rakyatakan akantunduk tundukpatuh patuh- -negarawan negarawansejati karawangmaretsiapa maretsiapapilih siapapilihrakyat pilihrakyatakan rakyatakantunduk akantundukpatuh tundukpatuh- patuh-negarawan -negarawansejati</t>
+  </si>
+  <si>
+    <t>apa pak paham skor cpi indonesia maka indonesia masuk kategori hybrid regime apapak pakpaham pahamskor skorcpi cpiindonesia indonesiamaka makaindonesia indonesiamasuk masukkategori kategorihybrid hybridregime apapakpaham pakpahamskor pahamskorcpi skorcpiindonesia cpiindonesiamaka indonesiamakaindonesia makaindonesiamasuk indonesiamasukkategori masukkategorihybrid kategorihybridregime</t>
+  </si>
+  <si>
+    <t>perintah dil digital layan sangat perlu perintahdil dildigital digitallayan layansangat sangatperlu perintahdildigital dildigitallayan digitallayansangat layansangatperlu</t>
+  </si>
+  <si>
+    <t>teknologi lama kaya tetap di negara sendiri kata duh maksud internetan pake dial-up teknologilama lamakaya kayatetap tetapdi dinegara negarasendiri sendirikata kataduh duhmaksud maksudinternetan internetanpake pakedial-up teknologilamakaya lamakayatetap kayatetapdi tetapdinegara dinegarasendiri negarasendirikata sendirikataduh kataduhmaksud duhmaksudinternetan maksudinternetanpake internetanpakedial-up</t>
+  </si>
+  <si>
+    <t>dari bumi pertiwi yang lepas nyata gera separatis hantu daribumi bumipertiwi pertiwiyang yanglepas lepasnyata nyatagera geraseparatis separatishantu daribumipertiwi bumipertiwiyang pertiwiyanglepas yanglepasnyata lepasnyatagera nyatageraseparatis geraseparatishantu</t>
+  </si>
+  <si>
+    <t>bantu retwet teman teman seluruh dunia paham kalau sosok sangat depan toleransi banturetwet retwetteman temanteman temanseluruh seluruhdunia duniapaham pahamkalau kalausosok sosoksangat sangatdepan depantoleransi banturetwetteman retwettemanteman temantemanseluruh temanseluruhdunia seluruhduniapaham duniapahamkalau pahamkalausosok kalausosoksangat sosoksangatdepan sangatdepantoleransi</t>
+  </si>
+  <si>
+    <t>itu ma ruf amin senang tak provokasi https t co fmhnp 7nafz ituma maruf rufamin aminsenang senangtak takprovokasi provokasihttps httpst tco cofmhnp fmhnp7nafz itumaruf marufamin rufaminsenang aminsenangtak senangtakprovokasi takprovokasihttps provokasihttpst httpstco tcofmhnp cofmhnp7nafz</t>
+  </si>
+  <si>
+    <t>mc kepada pak sila tanggap nyata pak kira ada beda mckepada kepadapak paksila silatanggap tanggapnyata nyatapak pakkira kiraada adabeda mckepadapak kepadapaksila paksilatanggap silatanggapnyata tanggapnyatapak nyatapakkira pakkiraada kiraadabeda</t>
+  </si>
+  <si>
+    <t>jadi presiden jangan prabohong udah ngamuk tertawa kok larang hancur prabowomarah jadipresiden presidenjangan janganprabohong prabohongudah udahngamuk ngamuktertawa tertawakok koklarang laranghancur hancurprabowomarah jadipresidenjangan presidenjanganprabohong janganprabohongudah prabohongudahngamuk udahngamuktertawa ngamuktertawakok tertawakoklarang koklaranghancur laranghancurprabowomarah</t>
+  </si>
+  <si>
+    <t>prabowo bahasa terlalu tinggi buat planga plongo prabowobahasa bahasaterlalu terlalutinggi tinggibuat buatplanga plangaplongo prabowobahasaterlalu bahasaterlalutinggi terlalutinggibuat tinggibuatplanga buatplangaplongo</t>
+  </si>
+  <si>
+    <t>aman negara malah ketawa ngawur tidak nasionalis tuh pak tegor jangan prabowomenangdebat amannegara negaramalah malahketawa ketawangawur ngawurtidak tidaknasionalis nasionalistuh tuhpak paktegor tegorjangan janganprabowomenangdebat amannegaramalah negaramalahketawa malahketawangawur ketawangawurtidak ngawurtidaknasionalis tidaknasionalistuh nasionalistuhpak tuhpaktegor paktegorjangan tegorjanganprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>debat pak serang tapi beliau sabar balas debatpak pakserang serangtapi tapibeliau beliausabar sabarbalas debatpakserang pakserangtapi serangtapibeliau tapibeliausabar beliausabarbalas</t>
+  </si>
+  <si>
+    <t>harus buat sistem henti bocor cegah korupsi prabowobentengnkri harusbuat buatsistem sistemhenti hentibocor bocorcegah cegahkorupsi korupsiprabowobentengnkri harusbuatsistem buatsistemhenti sistemhentibocor hentibocorcegah bocorcegahkorupsi cegahkorupsiprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>prabowomenangdebat prabowobentengnkri malam jadi kuat tekad sama menang prabowomenangdebatprabowobentengnkri prabowobentengnkrimalam malamjadi jadikuat kuattekad tekadsama samamenang prabowomenangdebatprabowobentengnkrimalam prabowobentengnkrimalamjadi malamjadikuat jadikuattekad kuattekadsama tekadsamamenang</t>
+  </si>
+  <si>
+    <t>entah tahan negara mana maksud lemah palelu diketawain tonton tonton bentak ngeri entahtahan tahannegara negaramana manamaksud maksudlemah lemahpalelu paleludiketawain diketawaintonton tontontonton tontonbentak bentakngeri entahtahannegara tahannegaramana negaramanamaksud manamaksudlemah maksudlemahpalelu lemahpaleludiketawain paleludiketawaintonton diketawaintontontonton tontontontonbentak tontonbentakngeri</t>
+  </si>
+  <si>
+    <t>negara rakyat makmur selalu iring teknologi mumpuni tinggal teknologi negararakyat rakyatmakmur makmurselalu selaluiring iringteknologi teknologimumpuni mumpunitinggal tinggalteknologi negararakyatmakmur rakyatmakmurselalu makmurselaluiring selaluiringteknologi iringteknologimumpuni teknologimumpunitinggal mumpunitinggalteknologi</t>
+  </si>
+  <si>
+    <t>do a sama pak moga allah subhanahu wa ta ala meridhoi beri menang buat beliau doa asama samapak pakmoga mogaallah allahsubhanahu subhanahuwa wata taala alameridhoi meridhoiberi berimenang menangbuat buatbeliau doasama asamapak samapakmoga pakmogaallah mogaallahsubhanahu allahsubhanahuwa subhanahuwata wataala taalameridhoi alameridhoiberi meridhoiberimenang berimenangbuat menangbuatbeliau</t>
+  </si>
+  <si>
+    <t>ini muncul survei senang debatpilpres 2019 ideasrabbani inimuncul munculsurvei surveisenang senangdebatpilpres debatpilpres2019 2019ideasrabbani inimunculsurvei munculsurveisenang surveisenangdebatpilpres senangdebatpilpres2019 debatpilpres2019ideasrabbani</t>
+  </si>
+  <si>
+    <t>pemerintahandilan turun tingkat korupsi https t co cwcotkvzyo pemerintahandilanturun turuntingkat tingkatkorupsi korupsihttps httpst tco cocwcotkvzyo pemerintahandilanturuntingkat turuntingkatkorupsi tingkatkorupsihttps korupsihttpst httpstco tcocwcotkvzyo</t>
+  </si>
+  <si>
+    <t>turut pimpin politik boleh buat situasi pecah belah nasional https t co butzybqt 6a turutpimpin pimpinpolitik politikboleh bolehbuat buatsituasi situasipecah pecahbelah belahnasional nasionalhttps httpst tco cobutzybqt butzybqt6a turutpimpinpolitik pimpinpolitikboleh politikbolehbuat bolehbuatsituasi buatsituasipecah situasipecahbelah pecahbelahnasional belahnasionalhttps nasionalhttpst httpstco tcobutzybqt cobutzybqt6a</t>
+  </si>
+  <si>
+    <t>moga pak pimpin negara dengan adil cipta makmur prabowobentengnkri mogapak pakpimpin pimpinnegara negaradengan denganadil adilcipta ciptamakmur makmurprabowobentengnkri mogapakpimpin pakpimpinnegara pimpinnegaradengan negaradenganadil denganadilcipta adilciptamakmur ciptamakmurprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>calon presiden sempat geram debat calon presiden langsung bicara soal tahan aman lemah calonpresiden presidensempat sempatgeram geramdebat debatcalon calonpresiden presidenlangsung langsungbicara bicarasoal soaltahan tahanaman amanlemah calonpresidensempat presidensempatgeram sempatgeramdebat geramdebatcalon debatcalonpresiden calonpresidenlangsung presidenlangsungbicara langsungbicarasoal bicarasoaltahan soaltahanaman tahanamanlemah</t>
+  </si>
+  <si>
+    <t>memang benar pak cenderung optimistis sisi pak cenderung pesimistis memangbenar benarpak pakcenderung cenderungoptimistis optimistissisi sisipak pakcenderung cenderungpesimistis memangbenarpak benarpakcenderung pakcenderungoptimistis cenderungoptimistissisi optimistissisipak sisipakcenderung pakcenderungpesimistis</t>
+  </si>
+  <si>
+    <t>sebut budaya asal bapak senang asal bapak senang kental dunia militer nasional https t co andtnmbmi 6 sebutbudaya budayaasal asalbapak bapaksenang senangasal asalbapak bapaksenang senangkental kentaldunia duniamiliter militernasional nasionalhttps httpst tco coandtnmbmi andtnmbmi6 sebutbudayaasal budayaasalbapak asalbapaksenang bapaksenangasal senangasalbapak asalbapaksenang bapaksenangkental senangkentaldunia kentalduniamiliter duniamiliternasional militernasionalhttps nasionalhttpst httpstco tcoandtnmbmi coandtnmbmi6</t>
+  </si>
+  <si>
+    <t>buat rindu negeri maju jadi masa depan anak cucu pak jokowi pimpin dekat kesana tentu sempurna buatrindu rindunegeri negerimaju majujadi jadimasa masadepan depananak anakcucu cucupak pakjokowi jokowipimpin pimpindekat dekatkesana kesanatentu tentusempurna buatrindunegeri rindunegerimaju negerimajujadi majujadimasa jadimasadepan masadepananak depananakcucu anakcucupak cucupakjokowi pakjokowipimpin jokowipimpindekat pimpindekatkesana dekatkesanatentu kesanatentusempurna</t>
+  </si>
+  <si>
+    <t>ustad maheer bahaya bisa jadi oceh frontal seluruh dukung kena cap khilafah curiga nih ustadmaheer maheerbahaya bahayabisa bisajadi jadioceh ocehfrontal frontalseluruh seluruhdukung dukungkena kenacap capkhilafah khilafahcuriga curiganih ustadmaheerbahaya maheerbahayabisa bahayabisajadi bisajadioceh jadiocehfrontal ocehfrontalseluruh frontalseluruhdukung seluruhdukungkena dukungkenacap kenacapkhilafah capkhilafahcuriga khilafahcuriganih</t>
+  </si>
+  <si>
+    <t>wahai berani 2nya bilang indonesia daya fakta indonesia capai minimum essential tekan wahaiberani berani2nya 2nyabilang bilangindonesia indonesiadaya dayafakta faktaindonesia indonesiacapai capaiminimum minimumessential essentialtekan wahaiberani2nya berani2nyabilang 2nyabilangindonesia bilangindonesiadaya indonesiadayafakta dayafaktaindonesia faktaindonesiacapai indonesiacapaiminimum capaiminimumessential minimumessentialtekan</t>
+  </si>
+  <si>
+    <t>selalu tiap sempat ada tanya nikah culi kudeta apa bosan bung selalutiap tiapsempat sempatada adatanya tanyanikah nikahculi culikudeta kudetaapa apabosan bosanbung selalutiapsempat tiapsempatada sempatadatanya adatanyanikah tanyanikahculi nikahculikudeta culikudetaapa kudetaapabosan apabosanbung</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 laku tidak harga internasional puas kamu langgar ham debatpilpres2019 2019laku lakutidak tidakharga hargainternasional internasionalpuas puaskamu kamulanggar langgarham debatpilpres2019laku 2019lakutidak lakutidakharga tidakhargainternasional hargainternasionalpuas internasionalpuaskamu puaskamulanggar kamulanggarham</t>
+  </si>
+  <si>
+    <t>istilah tak kenal tak peduli kita jalin silaturahmi ada saudara tanya tanya istilahtak takkenal kenaltak takpeduli pedulikita kitajalin jalinsilaturahmi silaturahmiada adasaudara saudaratanya tanyatanya istilahtakkenal takkenaltak kenaltakpeduli takpedulikita pedulikitajalin kitajalinsilaturahmi jalinsilaturahmiada silaturahmiadasaudara adasaudaratanya saudaratanyatanya</t>
+  </si>
+  <si>
+    <t>bang yang jauh pelosok kalimantan rasa bangga lihat debat malam bangyang yangjauh jauhpelosok pelosokkalimantan kalimantanrasa rasabangga banggalihat lihatdebat debatmalam bangyangjauh yangjauhpelosok jauhpelosokkalimantan pelosokkalimantanrasa kalimantanrasabangga rasabanggalihat banggalihatdebat lihatdebatmalam</t>
+  </si>
+  <si>
+    <t>dil digital layan mantap pak pemerintahandilan dildigital digitallayan layanmantap mantappak pakpemerintahandilan dildigitallayan digitallayanmantap layanmantappak mantappakpemerintahandilan</t>
+  </si>
+  <si>
+    <t>ucap selamat pak cara naluri aku bagai menang pilpres ucapselamat selamatpak pakcara caranaluri naluriaku akubagai bagaimenang menangpilpres ucapselamatpak selamatpakcara pakcaranaluri caranaluriaku naluriakubagai akubagaimenang bagaimenangpilpres</t>
+  </si>
+  <si>
+    <t>diplomasi kalau senyum jadi nice guy hanya saja pak prabowobentengnkri diplomasikalau kalausenyum senyumjadi jadinice niceguy guyhanya hanyasaja sajapak pakprabowobentengnkri diplomasikalausenyum kalausenyumjadi senyumjadinice jadiniceguy niceguyhanya guyhanyasaja hanyasajapak sajapakprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>prabowo-sandi beri sempat anak bangsa bisa karya jadi main negara sendiri prabowo-sandiberi berisempat sempatanak anakbangsa bangsabisa bisakarya karyajadi jadimain mainnegara negarasendiri prabowo-sandiberisempat berisempatanak sempatanakbangsa anakbangsabisa bangsabisakarya bisakaryajadi karyajadimain jadimainnegara mainnegarasendiri</t>
+  </si>
+  <si>
+    <t>lembaga perintah kuat baru program bangun kuat subianto prabowobentengnkri debatpilpres 2019 lembagaperintah perintahkuat kuatbaru baruprogram programbangun bangunkuat kuatsubianto subiantoprabowobentengnkri prabowobentengnkridebatpilpres debatpilpres2019 lembagaperintahkuat perintahkuatbaru kuatbaruprogram baruprogrambangun programbangunkuat bangunkuatsubianto kuatsubiantoprabowobentengnkri subiantoprabowobentengnkridebatpilpres prabowobentengnkridebatpilpres2019</t>
+  </si>
+  <si>
+    <t>refleksi buat dia kutuk jahat jahat tatap jadi satu diri refleksibuat buatdia diakutuk kutukjahat jahatjahat jahattatap tatapjadi jadisatu satudiri refleksibuatdia buatdiakutuk diakutukjahat kutukjahatjahat jahatjahattatap jahattatapjadi tatapjadisatu jadisatudiri</t>
+  </si>
+  <si>
+    <t>menang telak prabowomenangdebat menangtelak telakprabowomenangdebat menangtelakprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>swear deh puas banget malam ni nengok mr planga plongo tak kutik hajar macan asia sweardeh dehpuas puasbanget bangetmalam malamni ninengok nengokmr mrplanga plangaplongo plongotak takkutik kutikhajar hajarmacan macanasia sweardehpuas dehpuasbanget puasbangetmalam bangetmalamni malamninengok ninengokmr nengokmrplanga mrplangaplongo plangaplongotak plongotakkutik takkutikhajar kutikhajarmacan hajarmacanasia</t>
+  </si>
+  <si>
+    <t>pagelaran kelas pilpres dukung asing sangat penting jangan kelas suharto bisa kondisi asing pagelarankelas kelaspilpres pilpresdukung dukungasing asingsangat sangatpenting pentingjangan jangankelas kelassuharto suhartobisa bisakondisi kondisiasing pagelarankelaspilpres kelaspilpresdukung pilpresdukungasing dukungasingsangat asingsangatpenting sangatpentingjangan pentingjangankelas jangankelassuharto kelassuhartobisa suhartobisakondisi bisakondisiasing</t>
+  </si>
+  <si>
+    <t>tegas sekali debat kali insyallah allah hendak bapak jadi presiden ri prabowobentengnkri tegassekali sekalidebat debatkali kaliinsyallah insyallahallah allahhendak hendakbapak bapakjadi jadipresiden presidenri riprabowobentengnkri tegassekalidebat sekalidebatkali debatkaliinsyallah kaliinsyallahallah insyallahallahhendak allahhendakbapak hendakbapakjadi bapakjadipresiden jadipresidenri presidenriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>udahlah matiin jangan tipi simpilkan jangan kalau pak kalah debat masa iya calon presiden ada optimis udahlahmatiin matiinjangan jangantipi tipisimpilkan simpilkanjangan jangankalau kalaupak pakkalah kalahdebat debatmasa masaiya iyacalon calonpresiden presidenada adaoptimis udahlahmatiinjangan matiinjangantipi jangantipisimpilkan tipisimpilkanjangan simpilkanjangankalau jangankalaupak kalaupakkalah pakkalahdebat kalahdebatmasa debatmasaiya masaiyacalon iyacalonpresiden calonpresidenada presidenadaoptimis</t>
+  </si>
+  <si>
+    <t>ditanyain diplomasi luar negeri jawab putar jarak peluru kendali oke ditanyaindiplomasi diplomasiluar luarnegeri negerijawab jawabputar putarjarak jarakpeluru pelurukendali kendalioke ditanyaindiplomasiluar diplomasiluarnegeri luarnegerijawab negerijawabputar jawabputarjarak putarjarakpeluru jarakpelurukendali pelurukendalioke</t>
+  </si>
+  <si>
+    <t>hahaha yang bakar jenggot sama imbau pakai baju putih tps hahahayang yangbakar bakarjenggot jenggotsama samaimbau imbaupakai pakaibaju bajuputih putihtps hahahayangbakar yangbakarjenggot bakarjenggotsama jenggotsamaimbau samaimbaupakai imbaupakaibaju pakaibajuputih bajuputihtps</t>
+  </si>
+  <si>
+    <t>wow menang tebal nih mantap pak lanjut 01dilanj wowmenang menangtebal tebalnih nihmantap mantappak paklanjut lanjut01dilanj wowmenangtebal menangtebalnih tebalnihmantap nihmantappak mantappaklanjut paklanjut01dilanj</t>
+  </si>
+  <si>
+    <t>penting jangan asal bapak senang kata sindir prabowobentengnkri asal bapak senang tau kondisi riil rakyat pentingjangan janganasal asalbapak bapaksenang senangkata katasindir sindirprabowobentengnkri prabowobentengnkriasal asalbapak bapaksenang senangtau taukondisi kondisiriil riilrakyat pentingjanganasal janganasalbapak asalbapaksenang bapaksenangkata senangkatasindir katasindirprabowobentengnkri sindirprabowobentengnkriasal prabowobentengnkriasalbapak asalbapaksenang bapaksenangtau senangtaukondisi taukondisiriil kondisiriilrakyat</t>
+  </si>
+  <si>
+    <t>ingin negara kuat ekonomi pilih ingin negara kuat tentara pilih gitu kok repot inginnegara negarakuat kuatekonomi ekonomipilih pilihingin inginnegara negarakuat kuattentara tentarapilih pilihgitu gitukok kokrepot inginnegarakuat negarakuatekonomi kuatekonomipilih ekonomipilihingin pilihinginnegara inginnegarakuat negarakuattentara kuattentarapilih tentarapilihgitu pilihgitukok gitukokrepot</t>
+  </si>
+  <si>
+    <t>kok nyata sabar luarbiasa maaf kok seperti persepsi distortif lama koknyata nyatasabar sabarluarbiasa luarbiasamaaf maafkok kokseperti sepertipersepsi persepsidistortif distortiflama koknyatasabar nyatasabarluarbiasa sabarluarbiasamaaf luarbiasamaafkok maafkokseperti koksepertipersepsi sepertipersepsidistortif persepsidistortiflama</t>
+  </si>
+  <si>
+    <t>betul prabowomenangdebat jelas lah prabowobentengnkri betulprabowomenangdebat prabowomenangdebatjelas jelaslah lahprabowobentengnkri betulprabowomenangdebatjelas prabowomenangdebatjelaslah jelaslahprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>lihat semua hasil kerja nyata ubah semua besar bangsa indonesia ubah semua lihatsemua semuahasil hasilkerja kerjanyata nyataubah ubahsemua semuabesar besarbangsa bangsaindonesia indonesiaubah ubahsemua lihatsemuahasil semuahasilkerja hasilkerjanyata kerjanyataubah nyataubahsemua ubahsemuabesar semuabesarbangsa besarbangsaindonesia bangsaindonesiaubah indonesiaubahsemua</t>
+  </si>
+  <si>
+    <t>zaman teknologi 4 0 ko mau pake teknologi jadul makin tinggal bangsa dong pak zamanteknologi teknologi4 40 0ko komau maupake paketeknologi teknologijadul jadulmakin makintinggal tinggalbangsa bangsadong dongpak zamanteknologi4 teknologi40 40ko 0komau komaupake maupaketeknologi paketeknologijadul teknologijadulmakin jadulmakintinggal makintinggalbangsa tinggalbangsadong bangsadongpak</t>
+  </si>
+  <si>
+    <t>sandi penting manusia biasa kalian maa allah pernah mimpi dekat dengan presiden sandipenting pentingmanusia manusiabiasa biasakalian kalianmaa maaallah allahpernah pernahmimpi mimpidekat dekatdengan denganpresiden sandipentingmanusia pentingmanusiabiasa manusiabiasakalian biasakalianmaa kalianmaaallah maaallahpernah allahpernahmimpi pernahmimpidekat mimpidekatdengan dekatdenganpresiden</t>
+  </si>
+  <si>
+    <t>tenang pak papar pemerintahandilan solusi tepat baik birokrasi perintah tenangpak pakpapar paparpemerintahandilan pemerintahandilansolusi solusitepat tepatbaik baikbirokrasi birokrasiperintah tenangpakpapar pakpaparpemerintahandilan paparpemerintahandilansolusi pemerintahandilansolusitepat solusitepatbaik tepatbaikbirokrasi baikbirokrasiperintah</t>
+  </si>
+  <si>
+    <t>wow jawab bapak prabowo sandi atas tanya buat onoh tel ludah deh macaaan asia bapak mulai wowjawab jawabbapak bapakprabowo prabowosandi sandiatas atastanya tanyabuat buatonoh onohtel telludah ludahdeh dehmacaaan macaaanasia asiabapak bapakmulai wowjawabbapak jawabbapakprabowo bapakprabowosandi prabowosandiatas sandiatastanya atastanyabuat tanyabuatonoh buatonohtel onohtelludah telludahdeh ludahdehmacaaan dehmacaaanasia macaaanasiabapak asiabapakmulai</t>
+  </si>
+  <si>
+    <t>mantaf malam nih pak semua debat yang paling oke prabowobentengnkri mantafmalam malamnih nihpak paksemua semuadebat debatyang yangpaling palingoke okeprabowobentengnkri mantafmalamnih malamnihpak nihpaksemua paksemuadebat semuadebatyang debatyangpaling yangpalingoke palingokeprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>indonesia sentris laksana pak sangat luar biasa menang 01dilanjutkan https t co dbeyzg 9edb indonesiasentris sentrislaksana laksanapak paksangat sangatluar luarbiasa biasamenang menang01dilanjutkan 01dilanjutkanhttps httpst tco codbeyzg dbeyzg9edb indonesiasentrislaksana sentrislaksanapak laksanapaksangat paksangatluar sangatluarbiasa luarbiasamenang biasamenang01dilanjutkan menang01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcodbeyzg codbeyzg9edb</t>
+  </si>
+  <si>
+    <t>saja subianto visi jauh depan tidak lupa sejahtera rakyat mantap sajasubianto subiantovisi visijauh jauhdepan depantidak tidaklupa lupasejahtera sejahterarakyat rakyatmantap sajasubiantovisi subiantovisijauh visijauhdepan jauhdepantidak depantidaklupa tidaklupasejahtera lupasejahterarakyat sejahterarakyatmantap</t>
+  </si>
+  <si>
+    <t>calon presiden subianto sebut di garda depan tumpas bahaya komunis masuk gera radikal calonpresiden presidensubianto subiantosebut sebutdi digarda gardadepan depantumpas tumpasbahaya bahayakomunis komunismasuk masukgera geraradikal calonpresidensubianto presidensubiantosebut subiantosebutdi sebutdigarda digardadepan gardadepantumpas depantumpasbahaya tumpasbahayakomunis bahayakomunismasuk komunismasukgera masukgeraradikal</t>
+  </si>
+  <si>
+    <t>malu - arogan - emosi - pesimis - tak taat atur debat - ngedongeng bilang lebih tni tni malu- -arogan arogan- -emosi emosi- -pesimis pesimis- -tak taktaat taatatur aturdebat debat- -ngedongeng ngedongengbilang bilanglebih lebihtni tnitni malu-arogan -arogan- arogan-emosi -emosi- emosi-pesimis -pesimis- pesimis-tak -taktaat taktaatatur taataturdebat aturdebat- debat-ngedongeng -ngedongengbilang ngedongengbilanglebih bilanglebihtni lebihtnitni</t>
+  </si>
+  <si>
+    <t>pemerintahandilan presiden selalu usaha tingkat mutu tenaga kerja pemerintahandilanpresiden presidenselalu selaluusaha usahatingkat tingkatmutu mututenaga tenagakerja pemerintahandilanpresidenselalu presidenselaluusaha selaluusahatingkat usahatingkatmutu tingkatmututenaga mututenagakerja</t>
+  </si>
+  <si>
+    <t>apa bosan terus tuding - nya kritik habis apabosan bosanterus terustuding tuding- -nya nyakritik kritikhabis apabosanterus bosanterustuding terustuding- tuding-nya -nyakritik nyakritikhabis</t>
+  </si>
+  <si>
+    <t>pak komitmen dukung e-government salah satu e-budgeting konkrit cegah korupsi pakkomitmen komitmendukung dukunge-government e-governmentsalah salahsatu satue-budgeting e-budgetingkonkrit konkritcegah cegahkorupsi pakkomitmendukung komitmendukunge-government dukunge-governmentsalah e-governmentsalahsatu salahsatue-budgeting satue-budgetingkonkrit e-budgetingkonkritcegah konkritcegahkorupsi</t>
+  </si>
+  <si>
+    <t>tuju sama tompi cukup baik eksekutif pilih legislatif perlu baik tujusama samatompi tompicukup cukupbaik baikeksekutif eksekutifpilih pilihlegislatif legislatifperlu perlubaik tujusamatompi samatompicukup tompicukupbaik cukupbaikeksekutif baikeksekutifpilih eksekutifpilihlegislatif pilihlegislatifperlu legislatifperlubaik</t>
+  </si>
+  <si>
+    <t>debatkeempatpilpres 2019 calon presiden tanggap teknologi cepat ala debatkeempatpilpres2019 2019calon calonpresiden presidentanggap tanggapteknologi teknologicepat cepatala debatkeempatpilpres2019calon 2019calonpresiden calonpresidentanggap presidentanggapteknologi tanggapteknologicepat teknologicepatala</t>
+  </si>
+  <si>
+    <t>dukung calon presiden no urut jokowi-ma ruf kali datang viking makin dekat hari coblos dukung terus dukungcalon calonpresiden presidenno nourut urutjokowi-ma jokowi-maruf rufkali kalidatang datangviking vikingmakin makindekat dekathari haricoblos coblosdukung dukungterus dukungcalonpresiden calonpresidenno presidennourut nourutjokowi-ma urutjokowi-maruf jokowi-marufkali rufkalidatang kalidatangviking datangvikingmakin vikingmakindekat makindekathari dekatharicoblos haricoblosdukung coblosdukungterus</t>
+  </si>
+  <si>
+    <t>nampak debatpilpres 2019 dari sisi ilmu komplit alam bijaksana perilaku jelas lebih unggul nampakdebatpilpres debatpilpres2019 2019dari darisisi sisiilmu ilmukomplit komplitalam alambijaksana bijaksanaperilaku perilakujelas jelaslebih lebihunggul nampakdebatpilpres2019 debatpilpres2019dari 2019darisisi darisisiilmu sisiilmukomplit ilmukomplitalam komplitalambijaksana alambijaksanaperilaku bijaksanaperilakujelas perilakujelaslebih jelaslebihunggul</t>
+  </si>
+  <si>
+    <t>aje maling teriak maling bung ajemaling malingteriak teriakmaling malingbung ajemalingteriak malingteriakmaling teriakmalingbung</t>
+  </si>
+  <si>
+    <t>pak bilang beri contoh toleransi tetapi dukung kerap laku tindak intoleran pakbilang bilangberi bericontoh contohtoleransi toleransitetapi tetapidukung dukungkerap keraplaku lakutindak tindakintoleran pakbilangberi bilangbericontoh bericontohtoleransi contohtoleransitetapi toleransitetapidukung tetapidukungkerap dukungkeraplaku keraplakutindak lakutindakintoleran</t>
+  </si>
+  <si>
+    <t>debat pilpres empat tutup statement tutup penuh damai dua calon presiden buat dingin debatpilpres pilpresempat empattutup tutupstatement statementtutup tutuppenuh penuhdamai damaidua duacalon calonpresiden presidenbuat buatdingin debatpilpresempat pilpresempattutup empattutupstatement tutupstatementtutup statementtutuppenuh tutuppenuhdamai penuhdamaidua damaiduacalon duacalonpresiden calonpresidenbuat presidenbuatdingin</t>
+  </si>
+  <si>
+    <t>pak beri contoh dewasa memang lahir dalam diri 01dilanjutkan https t co 68tqfjd530 pakberi bericontoh contohdewasa dewasamemang memanglahir lahirdalam dalamdiri diri01dilanjutkan 01dilanjutkanhttps httpst tco co68tqfjd530 pakbericontoh bericontohdewasa contohdewasamemang dewasamemanglahir memanglahirdalam lahirdalamdiri dalamdiri01dilanjutkan diri01dilanjutkanhttps 01dilanjutkanhttpst httpstco tco68tqfjd530</t>
+  </si>
+  <si>
+    <t>optimisme pak ragu bagai warga sipil pak sangat percaya tentara nasional optimismepak pakragu ragubagai bagaiwarga wargasipil sipilpak paksangat sangatpercaya percayatentara tentaranasional optimismepakragu pakragubagai ragubagaiwarga bagaiwargasipil wargasipilpak sipilpaksangat paksangatpercaya sangatpercayatentara percayatentaranasional</t>
+  </si>
+  <si>
+    <t>lembaga polmark indonesia rilis rilis survei tunjuk elektabilitas pasang milik elektabilitas lembagapolmark polmarkindonesia indonesiarilis rilisrilis rilissurvei surveitunjuk tunjukelektabilitas elektabilitaspasang pasangmilik milikelektabilitas lembagapolmarkindonesia polmarkindonesiarilis indonesiarilisrilis rilisrilissurvei rilissurveitunjuk surveitunjukelektabilitas tunjukelektabilitaspasang elektabilitaspasangmilik pasangmilikelektabilitas</t>
+  </si>
+  <si>
+    <t>hari perintah bawah pak sangat maju infrastruktur udara ada hariperintah perintahbawah bawahpak paksangat sangatmaju majuinfrastruktur infrastrukturudara udaraada hariperintahbawah perintahbawahpak bawahpaksangat paksangatmaju sangatmajuinfrastruktur majuinfrastrukturudara infrastrukturudaraada</t>
+  </si>
+  <si>
+    <t>kasihan pak tahan ketawa pecatanlebihtnidaritni kasihanpak paktahan tahanketawa ketawapecatanlebihtnidaritni kasihanpaktahan paktahanketawa tahanketawapecatanlebihtnidaritni</t>
+  </si>
+  <si>
+    <t>rendah dukung tahana rupa bukti rupa bukti bila cara tak langsung sedang hukum publik rendahdukung dukungtahana tahanarupa rupabukti buktirupa rupabukti buktibila bilacara caratak taklangsung langsungsedang sedanghukum hukumpublik rendahdukungtahana dukungtahanarupa tahanarupabukti rupabuktirupa buktirupabukti rupabuktibila buktibilacara bilacaratak carataklangsung taklangsungsedang langsungsedanghukum sedanghukumpublik</t>
+  </si>
+  <si>
+    <t>pak kaget tingkah laku jabat perintah sendiri laku jual beli jabat pakkaget kagettingkah tingkahlaku lakujabat jabatperintah perintahsendiri sendirilaku lakujual jualbeli belijabat pakkagettingkah kagettingkahlaku tingkahlakujabat lakujabatperintah jabatperintahsendiri perintahsendirilaku sendirilakujual lakujualbeli jualbelijabat</t>
+  </si>
+  <si>
+    <t>semua kata mas benar indonesia luas uni eropa jumlah tni cuma segitu lemah pak semuakata katamas masbenar benarindonesia indonesialuas luasuni unieropa eropajumlah jumlahtni tnicuma cumasegitu segitulemah lemahpak semuakatamas katamasbenar masbenarindonesia benarindonesialuas indonesialuasuni luasunieropa unieropajumlah eropajumlahtni jumlahtnicuma tnicumasegitu cumasegitulemah segitulemahpak</t>
+  </si>
+  <si>
+    <t>pulau kecil tambang jaya tani nelayan ikut ruang hidup terus ancam parah baik maupun pulaukecil keciltambang tambangjaya jayatani taninelayan nelayanikut ikutruang ruanghidup hidupterus terusancam ancamparah parahbaik baikmaupun pulaukeciltambang keciltambangjaya tambangjayatani jayataninelayan taninelayanikut nelayanikutruang ikutruanghidup ruanghidupterus hidupterusancam terusancamparah ancamparahbaik parahbaikmaupun</t>
+  </si>
+  <si>
+    <t>daniel sibolang durian medan nyanyi lagu kocak kamu pingin kaya kerja tidur jangan danielsibolang sibolangdurian durianmedan medannyanyi nyanyilagu lagukocak kocakkamu kamupingin pinginkaya kayakerja kerjatidur tidurjangan danielsibolangdurian sibolangdurianmedan durianmedannyanyi medannyanyilagu nyanyilagukocak lagukocakkamu kocakkamupingin kamupinginkaya pinginkayakerja kayakerjatidur kerjatidurjangan</t>
+  </si>
+  <si>
+    <t>perintah oss dulunya kalau urus izin bulan bahkan tahun sekarang izin keluar jam kata perintahoss ossdulunya dulunyakalau kalauurus urusizin izinbulan bulanbahkan bahkantahun tahunsekarang sekarangizin izinkeluar keluarjam jamkata perintahossdulunya ossdulunyakalau dulunyakalauurus kalauurusizin urusizinbulan izinbulanbahkan bulanbahkantahun bahkantahunsekarang tahunsekarangizin sekarangizinkeluar izinkeluarjam keluarjamkata</t>
+  </si>
+  <si>
+    <t>orang golkar dukung jadi jangan heran kalau bowo sedang main politik kaki jatuh oranggolkar golkardukung dukungjadi jadijangan janganheran herankalau kalaubowo bowosedang sedangmain mainpolitik politikkaki kakijatuh oranggolkardukung golkardukungjadi dukungjadijangan jadijanganheran janganherankalau herankalaubowo kalaubowosedang bowosedangmain sedangmainpolitik mainpolitikkaki politikkakijatuh</t>
+  </si>
+  <si>
+    <t>admin mau bahas kata militer lemah https t co raliyooy 3e adminmau maubahas bahaskata katamiliter militerlemah lemahhttps httpst tco coraliyooy raliyooy3e adminmaubahas maubahaskata bahaskatamiliter katamiliterlemah militerlemahhttps lemahhttpst httpstco tcoraliyooy coraliyooy3e</t>
+  </si>
+  <si>
+    <t>tidak apa apa to h pecat pada presiden bohong nggedabrus plonga plongo tidakapa apaapa apato toh hpecat pecatpada padapresiden presidenbohong bohongnggedabrus nggedabrusplonga plongaplongo tidakapaapa apaapato apatoh tohpecat hpecatpada pecatpadapresiden padapresidenbohong presidenbohongnggedabrus bohongnggedabrusplonga nggedabrusplongaplongo</t>
+  </si>
+  <si>
+    <t>bang kalau jadi presiden siapa ibu negara apa benar kita jadi negara piatu bangkalau kalaujadi jadipresiden presidensiapa siapaibu ibunegara negaraapa apabenar benarkita kitajadi jadinegara negarapiatu bangkalaujadi kalaujadipresiden jadipresidensiapa presidensiapaibu siapaibunegara ibunegaraapa negaraapabenar apabenarkita benarkitajadi kitajadinegara jadinegarapiatu</t>
+  </si>
+  <si>
+    <t>dukung terus pak pemerintahandilan https t co rzz 6pqhmus dukungterus teruspak pakpemerintahandilan pemerintahandilanhttps httpst tco corzz rzz6pqhmus dukungteruspak teruspakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tcorzz corzz6pqhmus</t>
+  </si>
+  <si>
+    <t>pemerintahandilan ma ruf amin ungkap hasil presiden pak hanya lihat proyek pemerintahandilanma maruf rufamin aminungkap ungkaphasil hasilpresiden presidenpak pakhanya hanyalihat lihatproyek pemerintahandilanmaruf marufamin rufaminungkap aminungkaphasil ungkaphasilpresiden hasilpresidenpak presidenpakhanya pakhanyalihat hanyalihatproyek</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni pemerintahandilan memang nampol lihatpak pakpercaya percayatni tnipemerintahandilan pemerintahandilanmemang memangnampol lihatpakpercaya pakpercayatni percayatnipemerintahandilan tnipemerintahandilanmemang pemerintahandilanmemangnampol</t>
+  </si>
+  <si>
+    <t>calon presiden nomor urut sangat siap tema debat ideologi perintah tahan aman calonpresiden presidennomor nomorurut urutsangat sangatsiap siaptema temadebat debatideologi ideologiperintah perintahtahan tahanaman calonpresidennomor presidennomorurut nomorurutsangat urutsangatsiap sangatsiaptema siaptemadebat temadebatideologi debatideologiperintah ideologiperintahtahan perintahtahanaman</t>
+  </si>
+  <si>
+    <t>pemerintahandilan siap data akan bagai amunisi debat malam semangat pagi pemerintahandilansiap siapdata dataakan akanbagai bagaiamunisi amunisidebat debatmalam malamsemangat semangatpagi pemerintahandilansiapdata siapdataakan dataakanbagai akanbagaiamunisi bagaiamunisidebat amunisidebatmalam debatmalamsemangat malamsemangatpagi</t>
+  </si>
+  <si>
+    <t>bidang perintah pak kuat lembaga lembaga kuat prabowobentengnkri negara kuat bidangperintah perintahpak pakkuat kuatlembaga lembagalembaga lembagakuat kuatprabowobentengnkri prabowobentengnkrinegara negarakuat bidangperintahpak perintahpakkuat pakkuatlembaga kuatlembagalembaga lembagalembagakuat lembagakuatprabowobentengnkri kuatprabowobentengnkrinegara prabowobentengnkrinegarakuat</t>
+  </si>
+  <si>
+    <t>bangun indonesia desa bangun adab lebih baik tuju lanjut 01dilanjutkan bangunindonesia indonesiadesa desabangun bangunadab adablebih lebihbaik baiktuju tujulanjut lanjut01dilanjutkan bangunindonesiadesa indonesiadesabangun desabangunadab bangunadablebih adablebihbaik lebihbaiktuju baiktujulanjut tujulanjut01dilanjutkan</t>
+  </si>
+  <si>
+    <t>diplomasi kalau senyam senyum diplomasi butuh kuat - penting jaga daulat nkri diplomasikalau kalausenyam senyamsenyum senyumdiplomasi diplomasibutuh butuhkuat kuat- -penting pentingjaga jagadaulat daulatnkri diplomasikalausenyam kalausenyamsenyum senyamsenyumdiplomasi senyumdiplomasibutuh diplomasibutuhkuat butuhkuat- kuat-penting -pentingjaga pentingjagadaulat jagadaulatnkri</t>
+  </si>
+  <si>
+    <t>yunarto debat kali adalah tampil buruk calon presiden bahkan sejak lalu yunartodebat debatkali kaliadalah adalahtampil tampilburuk burukcalon calonpresiden presidenbahkan bahkansejak sejaklalu yunartodebatkali debatkaliadalah kaliadalahtampil adalahtampilburuk tampilburukcalon burukcalonpresiden calonpresidenbahkan presidenbahkansejak bahkansejaklalu</t>
+  </si>
+  <si>
+    <t>kalau opung tak percaya diri citra nempel pak kalauopung opungtak takpercaya percayadiri diricitra citranempel nempelpak kalauopungtak opungtakpercaya takpercayadiri percayadiricitra diricitranempel citranempelpak</t>
+  </si>
+  <si>
+    <t>sabar bangsa rasa ubah ken buru buru ganti presiden era tidak ada ubah hebat sabarbangsa bangsarasa rasaubah ubahken kenburu buruburu buruganti gantipresiden presidenera eratidak tidakada adaubah ubahhebat sabarbangsarasa bangsarasaubah rasaubahken ubahkenburu kenburuburu buruburuganti burugantipresiden gantipresidenera presideneratidak eratidakada tidakadaubah adaubahhebat</t>
+  </si>
+  <si>
+    <t>ayo seluruh masyarakat indonesia dukung penuh calon presiden 01 debat - pilpres ayoseluruh seluruhmasyarakat masyarakatindonesia indonesiadukung dukungpenuh penuhcalon calonpresiden presiden01 01debat debat- -pilpres ayoseluruhmasyarakat seluruhmasyarakatindonesia masyarakatindonesiadukung indonesiadukungpenuh dukungpenuhcalon penuhcalonpresiden calonpresiden01 presiden01debat 01debat- debat-pilpres</t>
+  </si>
+  <si>
+    <t>debat malam liat banget siapa dewasa tanggap ya pak buat bangga 01dilanjutkan debatmalam malamliat liatbanget bangetsiapa siapadewasa dewasatanggap tanggapya yapak pakbuat buatbangga bangga01dilanjutkan debatmalamliat malamliatbanget liatbangetsiapa bangetsiapadewasa siapadewasatanggap dewasatanggapya tanggapyapak yapakbuat pakbuatbangga buatbangga01dilanjutkan</t>
+  </si>
+  <si>
+    <t>makanya jangan ragu prabowobentengnkri prabowobentengnkri makanyajangan janganragu raguprabowobentengnkri prabowobentengnkriprabowobentengnkri makanyajanganragu janganraguprabowobentengnkri raguprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>depan mau ubah pancasila hadap prabowobentengnkri doauntukprabowosandi depanmau mauubah ubahpancasila pancasilahadap hadapprabowobentengnkri prabowobentengnkridoauntukprabowosandi depanmauubah mauubahpancasila ubahpancasilahadap pancasilahadapprabowobentengnkri hadapprabowobentengnkridoauntukprabowosandi</t>
+  </si>
+  <si>
+    <t>halah halaaah dulu kamu kalah pilpres jangan ngamuk ngamuk kaya orang mabuk jamur https t co 0dbjt9cspe halahhalaaah halaaahdulu dulukamu kamukalah kalahpilpres pilpresjangan janganngamuk ngamukngamuk ngamukkaya kayaorang orangmabuk mabukjamur jamurhttps httpst tco co0dbjt9cspe halahhalaaahdulu halaaahdulukamu dulukamukalah kamukalahpilpres kalahpilpresjangan pilpresjanganngamuk janganngamukngamuk ngamukngamukkaya ngamukkayaorang kayaorangmabuk orangmabukjamur mabukjamurhttps jamurhttpst httpstco tco0dbjt9cspe</t>
+  </si>
+  <si>
+    <t>gitu dong pak gahar dikit inti pak mau menang tidak jangan sia 2kan juang pak gitudong dongpak pakgahar gahardikit dikitinti intipak pakmau maumenang menangtidak tidakjangan jangansia sia2kan 2kanjuang juangpak gitudongpak dongpakgahar pakgahardikit gahardikitinti dikitintipak intipakmau pakmaumenang maumenangtidak menangtidakjangan tidakjangansia jangansia2kan sia2kanjuang 2kanjuangpak</t>
+  </si>
+  <si>
+    <t>bukan ngetawain tahan negara cuma ngetawain bukanngetawain ngetawaintahan tahannegara negaracuma cumangetawain bukanngetawaintahan ngetawaintahannegara tahannegaracuma negaracumangetawain</t>
+  </si>
+  <si>
+    <t>kampanye lama tahana lampu c o arti pilih sedang hukum kampanyelama lamatahana tahanalampu lampuc co oarti artipilih pilihsedang sedanghukum kampanyelamatahana lamatahanalampu tahanalampuc lampuco coarti oartipilih artipilihsedang pilihsedanghukum</t>
+  </si>
+  <si>
+    <t>ini keras banyu mas minahasa banyumas batak nya jawa tengah inikeras kerasbanyu banyumas masminahasa minahasabanyumas banyumasbatak bataknya nyajawa jawatengah inikerasbanyu kerasbanyumas banyumasminahasa masminahasabanyumas minahasabanyumasbatak banyumasbataknya bataknyajawa nyajawatengah</t>
+  </si>
+  <si>
+    <t>pulang kaya tambang emas papua pangku ibu pertiwi taruh jabat bagai presiden indonesia pulangkaya kayatambang tambangemas emaspapua papuapangku pangkuibu ibupertiwi pertiwitaruh taruhjabat jabatbagai bagaipresiden presidenindonesia pulangkayatambang kayatambangemas tambangemaspapua emaspapuapangku papuapangkuibu pangkuibupertiwi ibupertiwitaruh pertiwitaruhjabat taruhjabatbagai jabatbagaipresiden bagaipresidenindonesia</t>
+  </si>
+  <si>
+    <t>dengan pemerintahandilan buat calon presiden tahan terus sosialisasi manfaat revolusi industri denganpemerintahandilan pemerintahandilanbuat buatcalon calonpresiden presidentahan tahanterus terussosialisasi sosialisasimanfaat manfaatrevolusi revolusiindustri denganpemerintahandilanbuat pemerintahandilanbuatcalon buatcalonpresiden calonpresidentahan presidentahanterus tahanterussosialisasi terussosialisasimanfaat sosialisasimanfaatrevolusi manfaatrevolusiindustri</t>
+  </si>
+  <si>
+    <t>bocor bocor tahun diksi bocor jangan ada gagas makanya pakai aquaproof pak bocorbocor bocortahun tahundiksi diksibocor bocorjangan janganada adagagas gagasmakanya makanyapakai pakaiaquaproof aquaproofpak bocorbocortahun bocortahundiksi tahundiksibocor diksibocorjangan bocorjanganada janganadagagas adagagasmakanya gagasmakanyapakai makanyapakaiaquaproof pakaiaquaproofpak</t>
+  </si>
+  <si>
+    <t>debat curhat tonton gebu tetap ulang tema lama solusi debatcurhat curhattonton tontongebu gebutetap tetapulang ulangtema temalama lamasolusi debatcurhattonton curhattontongebu tontongebutetap gebutetapulang tetapulangtema ulangtemalama temalamasolusi</t>
+  </si>
+  <si>
+    <t>era milenial era pakde presiden paling keren ketimbang sudah pemerintahandilan eramilenial milenialera erapakde pakdepresiden presidenpaling palingkeren kerenketimbang ketimbangsudah sudahpemerintahandilan eramilenialera milenialerapakde erapakdepresiden pakdepresidenpaling presidenpalingkeren palingkerenketimbang kerenketimbangsudah ketimbangsudahpemerintahandilan</t>
+  </si>
+  <si>
+    <t>pemerintahandilan nyata perintah pak hanya benah atas masalah jaring broadband daerah 3t pemerintahandilannyata nyataperintah perintahpak pakhanya hanyabenah benahatas atasmasalah masalahjaring jaringbroadband broadbanddaerah daerah3t pemerintahandilannyataperintah nyataperintahpak perintahpakhanya pakhanyabenah hanyabenahatas benahatasmasalah atasmasalahjaring masalahjaringbroadband jaringbroadbanddaerah broadbanddaerah3t</t>
+  </si>
+  <si>
+    <t>pak percaya yang pecatanlebihtnidaritni pecatanlebihtnidaritni https t co jrlvbdoafw pakpercaya percayayang yangpecatanlebihtnidaritni pecatanlebihtnidaritnipecatanlebihtnidaritni pecatanlebihtnidaritnihttps httpst tco cojrlvbdoafw pakpercayayang percayayangpecatanlebihtnidaritni yangpecatanlebihtnidaritnipecatanlebihtnidaritni pecatanlebihtnidaritnipecatanlebihtnidaritnihttps pecatanlebihtnidaritnihttpst httpstco tcojrlvbdoafw</t>
+  </si>
+  <si>
+    <t>kaget beneran menangkanprabowosandi april datang tps pilih kagetbeneran beneranmenangkanprabowosandi menangkanprabowosandiapril aprildatang datangtps tpspilih kagetbeneranmenangkanprabowosandi beneranmenangkanprabowosandiapril menangkanprabowosandiaprildatang aprildatangtps datangtpspilih</t>
+  </si>
+  <si>
+    <t>calon presiden kata lembaga bubar anggap buat layan publik belit calonpresiden presidenkata katalembaga lembagabubar bubaranggap anggapbuat buatlayan layanpublik publikbelit calonpresidenkata presidenkatalembaga katalembagabubar lembagabubaranggap bubaranggapbuat anggapbuatlayan buatlayanpublik layanpublikbelit</t>
+  </si>
+  <si>
+    <t>bidang tahan aman terlalu lemah anggar terlalu kecil perlu baik - bidangtahan tahanaman amanterlalu terlalulemah lemahanggar anggarterlalu terlalukecil kecilperlu perlubaik baik- bidangtahanaman tahanamanterlalu amanterlalulemah terlalulemahanggar lemahanggarterlalu anggarterlalukecil terlalukecilperlu kecilperlubaik perlubaik-</t>
+  </si>
+  <si>
+    <t>tetap sahabat pak sinyal siap siap bawa pulang kecebong solo tetapsahabat sahabatpak paksinyal sinyalsiap siapsiap siapbawa bawapulang pulangkecebong kecebongsolo tetapsahabatpak sahabatpaksinyal paksinyalsiap sinyalsiapsiap siapsiapbawa siapbawapulang bawapulangkecebong pulangkecebongsolo</t>
+  </si>
+  <si>
+    <t>pak ngebahas perihal pemerintahandilan tuju wowo sayang wowo jawab nya asal bunyi pakngebahas ngebahasperihal perihalpemerintahandilan pemerintahandilantuju tujuwowo wowosayang sayangwowo wowojawab jawabnya nyaasal asalbunyi pakngebahasperihal ngebahasperihalpemerintahandilan perihalpemerintahandilantuju pemerintahandilantujuwowo tujuwowosayang wowosayangwowo sayangwowojawab wowojawabnya jawabnyaasal nyaasalbunyi</t>
+  </si>
+  <si>
+    <t>gubernur pahe m tidak tanya kamu lulus mana tidak tanya prestasi apa saya tanya kamu punya uang gubernurpahe pahem mtidak tidaktanya tanyakamu kamululus lulusmana manatidak tidaktanya tanyaprestasi prestasiapa apasaya sayatanya tanyakamu kamupunya punyauang gubernurpahem pahemtidak mtidaktanya tidaktanyakamu tanyakamululus kamululusmana lulusmanatidak manatidaktanya tidaktanyaprestasi tanyaprestasiapa prestasiapasaya apasayatanya sayatanyakamu tanyakamupunya kamupunyauang</t>
+  </si>
+  <si>
+    <t>tahan indonesia terlalu lemah jauh yang harap karena tidak punya uang - tahanindonesia indonesiaterlalu terlalulemah lemahjauh jauhyang yangharap harapkarena karenatidak tidakpunya punyauang uang- tahanindonesiaterlalu indonesiaterlalulemah terlalulemahjauh lemahjauhyang jauhyangharap yangharapkarena harapkarenatidak karenatidakpunya tidakpunyauang punyauang-</t>
+  </si>
+  <si>
+    <t>tegas pak barusan keluar parah orang tertawa rapuh tahan negara tegaspak pakbarusan barusankeluar keluarparah parahorang orangtertawa tertawarapuh rapuhtahan tahannegara tegaspakbarusan pakbarusankeluar barusankeluarparah keluarparahorang parahorangtertawa orangtertawarapuh tertawarapuhtahan rapuhtahannegara</t>
+  </si>
+  <si>
+    <t>bagaimana tonton tertawa kalau kali kata militer indonesia sangat lemah padahal kuat militer bagaimanatonton tontontertawa tertawakalau kalaukali kalikata katamiliter militerindonesia indonesiasangat sangatlemah lemahpadahal padahalkuat kuatmiliter bagaimanatontontertawa tontontertawakalau tertawakalaukali kalaukalikata kalikatamiliter katamiliterindonesia militerindonesiasangat indonesiasangatlemah sangatlemahpadahal lemahpadahalkuat padahalkuatmiliter</t>
+  </si>
+  <si>
+    <t>marah tahan bangsa tertawa audiens marah diri hina netizen marahtahan tahanbangsa bangsatertawa tertawaaudiens audiensmarah marahdiri dirihina hinanetizen marahtahanbangsa tahanbangsatertawa bangsatertawaaudiens tertawaaudiensmarah audiensmarahdiri marahdirihina dirihinanetizen</t>
+  </si>
+  <si>
+    <t>yim habib rizieq bilang sama ya sengaja harus pasang ulama islam jelas yimhabib habibrizieq rizieqbilang bilangsama samaya yasengaja sengajaharus haruspasang pasangulama ulamaislam islamjelas yimhabibrizieq habibrizieqbilang rizieqbilangsama bilangsamaya samayasengaja yasengajaharus sengajaharuspasang haruspasangulama pasangulamaislam ulamaislamjelas</t>
+  </si>
+  <si>
+    <t>maju era android ke era pecatanlebihtnidaritni majuera eraandroid androidke keera erapecatanlebihtnidaritni majueraandroid eraandroidke androidkeera keerapecatanlebihtnidaritni</t>
+  </si>
+  <si>
+    <t>natural badan menang nasional mirip orang habis bangun tidur mau nyabu ada bong terus marah tonton naturalbadan badanmenang menangnasional nasionalmirip miriporang oranghabis habisbangun banguntidur tidurmau maunyabu nyabuada adabong bongterus terusmarah marahtonton naturalbadanmenang badanmenangnasional menangnasionalmirip nasionalmiriporang miriporanghabis oranghabisbangun habisbanguntidur banguntidurmau tidurmaunyabu maunyabuada nyabuadabong adabongterus bongterusmarah terusmarahtonton</t>
+  </si>
+  <si>
+    <t>kompas koplak kamu salah kutip bilang gdp apbn kompaskoplak koplakkamu kamusalah salahkutip kutipbilang bilanggdp gdpapbn kompaskoplakkamu koplakkamusalah kamusalahkutip salahkutipbilang kutipbilanggdp bilanggdpapbn</t>
+  </si>
+  <si>
+    <t>mummmeeettt sekarang kali hahaha mummmeeetttsekarang sekarangkali kalihahaha mummmeeetttsekarangkali sekarangkalihahaha</t>
+  </si>
+  <si>
+    <t>mutu banget twetnya kentara berat belah mutubanget bangettwetnya twetnyakentara kentaraberat beratbelah mutubangettwetnya bangettwetnyakentara twetnyakentaraberat kentaraberatbelah</t>
+  </si>
+  <si>
+    <t>kayak panik banget jadi sedi liat kayakpanik panikbanget bangetjadi jadisedi sediliat kayakpanikbanget panikbangetjadi bangetjadisedi jadisediliat</t>
+  </si>
+  <si>
+    <t>i love kurang masuk sama kartu ilove lovekurang kurangmasuk masuksama samakartu ilovekurang lovekurangmasuk kurangmasuksama masuksamakartu</t>
+  </si>
+  <si>
+    <t>keren banget jawab pak soal tuduh kerenbanget bangetjawab jawabpak paksoal soaltuduh kerenbangetjawab bangetjawabpak jawabpaksoal paksoaltuduh</t>
+  </si>
+  <si>
+    <t>catat paling atas seba kalah laku dukung catatpaling palingatas atasseba sebakalah kalahlaku lakudukung catatpalingatas palingatasseba atassebakalah sebakalahlaku kalahlakudukung</t>
+  </si>
+  <si>
+    <t>dengar sendiri maher at thuwailibi dukung prabowo-sandi ejek polisi menthogutkan nkri dengarsendiri sendirimaher maherat atthuwailibi thuwailibidukung dukungprabowo-sandi prabowo-sandiejek ejekpolisi polisimenthogutkan menthogutkannkri dengarsendirimaher sendirimaherat maheratthuwailibi atthuwailibidukung thuwailibidukungprabowo-sandi dukungprabowo-sandiejek prabowo-sandiejekpolisi ejekpolisimenthogutkan polisimenthogutkannkri</t>
+  </si>
+  <si>
+    <t>tim sehat tekan darah pak pantau masa acara debat begini marah timsehat sehattekan tekandarah darahpak pakpantau pantaumasa masaacara acaradebat debatbegini beginimarah timsehattekan sehattekandarah tekandarahpak darahpakpantau pakpantaumasa pantaumasaacara masaacaradebat acaradebatbegini debatbeginimarah</t>
+  </si>
+  <si>
+    <t>kuat tahan sangat rapuh lemah bukan salah bapak salah enggak tahu - kuattahan tahansangat sangatrapuh rapuhlemah lemahbukan bukansalah salahbapak bapaksalah salahenggak enggaktahu tahu- kuattahansangat tahansangatrapuh sangatrapuhlemah rapuhlemahbukan lemahbukansalah bukansalahbapak salahbapaksalah bapaksalahenggak salahenggaktahu enggaktahu-</t>
+  </si>
+  <si>
+    <t>pak i am proud of you closing statement lawan debat nyambung bukan manfaat tampil prima paki iam amproud proudof ofyou youclosing closingstatement statementlawan lawandebat debatnyambung nyambungbukan bukanmanfaat manfaattampil tampilprima pakiam iamproud amproudof proudofyou ofyouclosing youclosingstatement closingstatementlawan statementlawandebat lawandebatnyambung debatnyambungbukan nyambungbukanmanfaat bukanmanfaattampil manfaattampilprima</t>
+  </si>
+  <si>
+    <t>turut tahan lemah implikasi uang indonesia lemah turut indonesia turuttahan tahanlemah lemahimplikasi implikasiuang uangindonesia indonesialemah lemahturut turutindonesia turuttahanlemah tahanlemahimplikasi lemahimplikasiuang implikasiuangindonesia uangindonesialemah indonesialemahturut lemahturutindonesia</t>
+  </si>
+  <si>
+    <t>oknum kepala desa cikopo - bogor maksa warga milih o1 virallkan gaes lapor oknumkepala kepaladesa desacikopo cikopo- -bogor bogormaksa maksawarga wargamilih miliho1 o1virallkan virallkangaes gaeslapor oknumkepaladesa kepaladesacikopo desacikopo- cikopo-bogor -bogormaksa bogormaksawarga maksawargamilih wargamiliho1 miliho1virallkan o1virallkangaes virallkangaeslapor</t>
+  </si>
+  <si>
+    <t>jangan bawa asa laper di fitnah tahu jangan mengapa masa baru gitu jangan udah ngambek si janganbawa bawaasa asalaper laperdi difitnah fitnahtahu tahujangan janganmengapa mengapamasa masabaru barugitu gitujangan janganudah udahngambek ngambeksi janganbawaasa bawaasalaper asalaperdi laperdifitnah difitnahtahu fitnahtahujangan tahujanganmengapa janganmengapamasa mengapamasabaru masabarugitu barugitujangan gitujanganudah janganudahngambek udahngambeksi</t>
+  </si>
+  <si>
+    <t>duh tonton kok dimarahin salah apa sabar pak jangan marah ngopi sik pak duhtonton tontonkok kokdimarahin dimarahinsalah salahapa apasabar sabarpak pakjangan janganmarah marahngopi ngopisik sikpak duhtontonkok tontonkokdimarahin kokdimarahinsalah dimarahinsalahapa salahapasabar apasabarpak sabarpakjangan pakjanganmarah janganmarahngopi marahngopisik ngopisikpak</t>
+  </si>
+  <si>
+    <t>jenderal pecat sekadar ingat jelas lebih paham bos very smart responses comprehesif jenderalpecat pecatsekadar sekadaringat ingatjelas jelaslebih lebihpaham pahambos bosvery verysmart smartresponses responsescomprehesif jenderalpecatsekadar pecatsekadaringat sekadaringatjelas ingatjelaslebih jelaslebihpaham lebihpahambos pahambosvery bosverysmart verysmartresponses smartresponsescomprehesif</t>
+  </si>
+  <si>
+    <t>bandara akses keluar masuk asing indonesia kalau kelola serah asing bandaraakses akseskeluar keluarmasuk masukasing asingindonesia indonesiakalau kalaukelola kelolaserah serahasing bandaraakseskeluar akseskeluarmasuk keluarmasukasing masukasingindonesia asingindonesiakalau indonesiakalaukelola kalaukelolaserah kelolaserahasing</t>
+  </si>
+  <si>
+    <t>ngomong apa ujung bocor tanya urus tahan inti bocor lah ini calon presiden apa tukang tambal ban ngomongapa apaujung ujungbocor bocortanya tanyaurus urustahan tahaninti intibocor bocorlah lahini inicalon calonpresiden presidenapa apatukang tukangtambal tambalban ngomongapaujung apaujungbocor ujungbocortanya bocortanyaurus tanyaurustahan urustahaninti tahanintibocor intibocorlah bocorlahini lahinicalon inicalonpresiden calonpresidenapa presidenapatukang apatukangtambal tukangtambalban</t>
+  </si>
+  <si>
+    <t>jadi soal digital layan inimah lama rakyat antri dapat layan e-ktp yang gagal lah so jadisoal soaldigital digitallayan layaninimah inimahlama lamarakyat rakyatantri antridapat dapatlayan layane-ktp e-ktpyang yanggagal gagallah lahso jadisoaldigital soaldigitallayan digitallayaninimah layaninimahlama inimahlamarakyat lamarakyatantri rakyatantridapat antridapatlayan dapatlayane-ktp layane-ktpyang e-ktpyanggagal yanggagallah gagallahso</t>
+  </si>
+  <si>
+    <t>jangan coba ganti ideologi pancasila nkri harga mati harga mati harga tidak tawar jangancoba cobaganti gantiideologi ideologipancasila pancasilankri nkriharga hargamati matiharga hargamati matiharga hargatidak tidaktawar jangancobaganti cobagantiideologi gantiideologipancasila ideologipancasilankri pancasilankriharga nkrihargamati hargamatiharga matihargamati hargamatiharga matihargatidak hargatidaktawar</t>
+  </si>
+  <si>
+    <t>wow percaya tni ragu kuat tni lemah tni rasa lebih tni tni wowpercaya percayatni tniragu ragukuat kuattni tnilemah lemahtni tnirasa rasalebih lebihtni tnitni wowpercayatni percayatniragu tniragukuat ragukuattni kuattnilemah tnilemahtni lemahtnirasa tnirasalebih rasalebihtni lebihtnitni</t>
+  </si>
+  <si>
+    <t>ampun sih tiap tanya kamu jawab bocor bocor uang negara alir luar ampunsih sihtiap tiaptanya tanyakamu kamujawab jawabbocor bocorbocor bocoruang uangnegara negaraalir alirluar ampunsihtiap sihtiaptanya tiaptanyakamu tanyakamujawab kamujawabbocor jawabbocorbocor bocorbocoruang bocoruangnegara uangnegaraalir negaraalirluar</t>
+  </si>
+  <si>
+    <t>tidak terlalu hormat luar negeri jangan tebar pesimisme pak tidakterlalu terlaluhormat hormatluar luarnegeri negerijangan jangantebar tebarpesimisme pesimismepak tidakterlaluhormat terlaluhormatluar hormatluarnegeri luarnegerijangan negerijangantebar jangantebarpesimisme tebarpesimismepak</t>
+  </si>
+  <si>
+    <t>pak kata kuat lembaga perintah hilang korupsi pakkata katakuat kuatlembaga lembagaperintah perintahhilang hilangkorupsi pakkatakuat katakuatlembaga kuatlembagaperintah lembagaperintahhilang perintahhilangkorupsi</t>
+  </si>
+  <si>
+    <t>tertawa tertawa dimarahain tertawatertawa tertawadimarahain tertawatertawadimarahain</t>
+  </si>
+  <si>
+    <t>g nyambung kalau masalah kalau bandara udah kuasa asing pesawat suka nya keluar masuk apa milik gnyambung nyambungkalau kalaumasalah masalahkalau kalaubandara bandaraudah udahkuasa kuasaasing asingpesawat pesawatsuka sukanya nyakeluar keluarmasuk masukapa apamilik gnyambungkalau nyambungkalaumasalah kalaumasalahkalau masalahkalaubandara kalaubandaraudah bandaraudahkuasa udahkuasaasing kuasaasingpesawat asingpesawatsuka pesawatsukanya sukanyakeluar nyakeluarmasuk keluarmasukapa masukapamilik</t>
+  </si>
+  <si>
+    <t>tengah debat calon presiden dadak marah hadirin tertawa tengah acara https t co xj1ofes136 tengahdebat debatcalon calonpresiden presidendadak dadakmarah marahhadirin hadirintertawa tertawatengah tengahacara acarahttps httpst tco coxj1ofes136 tengahdebatcalon debatcalonpresiden calonpresidendadak presidendadakmarah dadakmarahhadirin marahhadirintertawa hadirintertawatengah tertawatengahacara tengahacarahttps acarahttpst httpstco tcoxj1ofes136</t>
+  </si>
+  <si>
+    <t>terus hina bangsa indonesia kata percaya dunia internasional terushina hinabangsa bangsaindonesia indonesiakata katapercaya percayadunia duniainternasional terushinabangsa hinabangsaindonesia bangsaindonesiakata indonesiakatapercaya katapercayadunia percayaduniainternasional</t>
+  </si>
+  <si>
+    <t>lebih baik kalau tipu halusinasi parah coba muncul ngaku golput lebihbaik baikkalau kalautipu tipuhalusinasi halusinasiparah parahcoba cobamuncul munculngaku ngakugolput lebihbaikkalau baikkalautipu kalautipuhalusinasi tipuhalusinasiparah halusinasiparahcoba parahcobamuncul cobamunculngaku munculngakugolput</t>
+  </si>
+  <si>
+    <t>lihat negara bagai alat maju kualitas masyarakat lihat negara bagai alat perang lihatnegara negarabagai bagaialat alatmaju majukualitas kualitasmasyarakat masyarakatlihat lihatnegara negarabagai bagaialat alatperang lihatnegarabagai negarabagaialat bagaialatmaju alatmajukualitas majukualitasmasyarakat kualitasmasyarakatlihat masyarakatlihatnegara lihatnegarabagai negarabagaialat bagaialatperang</t>
+  </si>
+  <si>
+    <t>freeport lapor nse mereka dapat manfaat jadi saham ethok prabowobentengnkri freeportlapor lapornse nsemereka merekadapat dapatmanfaat manfaatjadi jadisaham sahamethok ethokprabowobentengnkri freeportlapornse lapornsemereka nsemerekadapat merekadapatmanfaat dapatmanfaatjadi manfaatjadisaham jadisahamethok sahamethokprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>insaallah zalim rezim rakyat allah subhanawataala balas copot kuasa wenang wenang insaallahzalim zalimrezim rezimrakyat rakyatallah allahsubhanawataala subhanawataalabalas balascopot copotkuasa kuasawenang wenangwenang insaallahzalimrezim zalimrezimrakyat rezimrakyatallah rakyatallahsubhanawataala allahsubhanawataalabalas subhanawataalabalascopot balascopotkuasa copotkuasawenang kuasawenangwenang</t>
+  </si>
+  <si>
+    <t>soal tahan benar beri briefing pak kalau presiden pecat subianto soaltahan tahanbenar benarberi beribriefing briefingpak pakkalau kalaupresiden presidenpecat pecatsubianto soaltahanbenar tahanbenarberi benarberibriefing beribriefingpak briefingpakkalau pakkalaupresiden kalaupresidenpecat presidenpecatsubianto</t>
+  </si>
+  <si>
+    <t>tidak hormat luar negeri utang banyak impor banyak bagaimana mau hormat tidakhormat hormatluar luarnegeri negeriutang utangbanyak banyakimpor imporbanyak banyakbagaimana bagaimanamau mauhormat tidakhormatluar hormatluarnegeri luarnegeriutang negeriutangbanyak utangbanyakimpor banyakimporbanyak imporbanyakbagaimana banyakbagaimanamau bagaimanamauhormat</t>
+  </si>
+  <si>
+    <t>lawan tak daya lawan mantap oy lawantak takdaya dayalawan lawanmantap mantapoy lawantakdaya takdayalawan dayalawanmantap lawanmantapoy</t>
+  </si>
+  <si>
+    <t>presiden ajak keluarga makan siang rumah makan bilang jalan sabang jakarta pusat sayang dua putra hadir presidenajak ajakkeluarga keluargamakan makansiang siangrumah rumahmakan makanbilang bilangjalan jalansabang sabangjakarta jakartapusat pusatsayang sayangdua duaputra putrahadir presidenajakkeluarga ajakkeluargamakan keluargamakansiang makansiangrumah siangrumahmakan rumahmakanbilang makanbilangjalan bilangjalansabang jalansabangjakarta sabangjakartapusat jakartapusatsayang pusatsayangdua sayangduaputra duaputrahadir</t>
+  </si>
+  <si>
+    <t>cek fakta cek fakta sebut dana tahan ri kecil singapura gdp https t co hv6u1urlj5 cekfakta faktacek cekfakta faktasebut sebutdana danatahan tahanri rikecil kecilsingapura singapuragdp gdphttps httpst tco cohv6u1urlj5 cekfaktacek faktacekfakta cekfaktasebut faktasebutdana sebutdanatahan danatahanri tahanrikecil rikecilsingapura kecilsingapuragdp singapuragdphttps gdphttpst httpstco tcohv6u1urlj5</t>
+  </si>
+  <si>
+    <t>beda negara debat maaf keras tengah banyumas bedanegara negaradebat debatmaaf maafkeras kerastengah tengahbanyumas bedanegaradebat negaradebatmaaf debatmaafkeras maafkerastengah kerastengahbanyumas</t>
+  </si>
+  <si>
+    <t>kamu cm nyinyir udah ngerasain terjun lapang kamu lahir kamucm cmnyinyir nyinyirudah udahngerasain ngerasainterjun terjunlapang lapangkamu kamulahir kamucmnyinyir cmnyinyirudah nyinyirudahngerasain udahngerasainterjun ngerasainterjunlapang terjunlapangkamu lapangkamulahir</t>
+  </si>
+  <si>
+    <t>malam minggu duduk depan layar tv nonton debat empat calon presiden semangat pak 01dilanjutkan malamminggu minggududuk dudukdepan depanlayar layartv tvnonton nontondebat debatempat empatcalon calonpresiden presidensemangat semangatpak pak01dilanjutkan malamminggududuk minggududukdepan dudukdepanlayar depanlayartv layartvnonton tvnontondebat nontondebatempat debatempatcalon empatcalonpresiden calonpresidensemangat presidensemangatpak semangatpak01dilanjutkan</t>
+  </si>
+  <si>
+    <t>lah situ nyinyir apa balik aki aki apa nenek peot calon presidenya jadul lahsitu situnyinyir nyinyirapa apabalik balikaki akiaki akiapa apanenek nenekpeot peotcalon calonpresidenya presidenyajadul lahsitunyinyir situnyinyirapa nyinyirapabalik apabalikaki balikakiaki akiakiapa akiapanenek apanenekpeot nenekpeotcalon peotcalonpresidenya calonpresidenyajadul</t>
+  </si>
+  <si>
+    <t>bilang rapuh skor kuat militer indonesia turut global fire power di peringkat tinggi bilangrapuh rapuhskor skorkuat kuatmiliter militerindonesia indonesiaturut turutglobal globalfire firepower powerdi diperingkat peringkattinggi bilangrapuhskor rapuhskorkuat skorkuatmiliter kuatmiliterindonesia militerindonesiaturut indonesiaturutglobal turutglobalfire globalfirepower firepowerdi powerdiperingkat diperingkattinggi</t>
+  </si>
+  <si>
+    <t>cakep jenderal makin kita hidup rukun tidak ajar benci mistericapjempol cakepjenderal jenderalmakin makinkita kitahidup hiduprukun rukuntidak tidakajar ajarbenci bencimistericapjempol cakepjenderalmakin jenderalmakinkita makinkitahidup kitahiduprukun hiduprukuntidak rukuntidakajar tidakajarbenci ajarbencimistericapjempol</t>
+  </si>
+  <si>
+    <t>tidak jajah bangsa lai rugi banyak pak salah orang amerika sedikit bicara banyak kerja tidakjajah jajahbangsa bangsalai lairugi rugibanyak banyakpak paksalah salahorang orangamerika amerikasedikit sedikitbicara bicarabanyak banyakkerja tidakjajahbangsa jajahbangsalai bangsalairugi lairugibanyak rugibanyakpak banyakpaksalah paksalahorang salahorangamerika orangamerikasedikit amerikasedikitbicara sedikitbicarabanyak bicarabanyakkerja</t>
+  </si>
+  <si>
+    <t>nama ngomong ngasal jangan penting gaya dulu wkwkqk kasi babak bur hajar jenderal namangomong ngomongngasal ngasaljangan janganpenting pentinggaya gayadulu duluwkwkqk wkwkqkkasi kasibabak babakbur burhajar hajarjenderal namangomongngasal ngomongngasaljangan ngasaljanganpenting janganpentinggaya pentinggayadulu gayaduluwkwkqk duluwkwkqkkasi wkwkqkkasibabak kasibabakbur babakburhajar burhajarjenderal</t>
+  </si>
+  <si>
+    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019 turutpercuma percumapunya punyabanyak banyakkartu kartulihat lihatmodern moderndebatpilpres debatpilpres2019 2019pilpres pilpres2019 2019pemilu pemilu2019 turutpercumapunya percumapunyabanyak punyabanyakkartu banyakkartulihat kartulihatmodern lihatmoderndebatpilpres moderndebatpilpres2019 debatpilpres2019pilpres 2019pilpres2019 pilpres2019pemilu 2019pemilu2019</t>
+  </si>
+  <si>
+    <t>bukan mau nyerang pisik fakta gerombol badan menang nasional banyak gembul perut kayak gentong bukanmau maunyerang nyerangpisik pisikfakta faktagerombol gerombolbadan badanmenang menangnasional nasionalbanyak banyakgembul gembulperut perutkayak kayakgentong bukanmaunyerang maunyerangpisik nyerangpisikfakta pisikfaktagerombol faktagerombolbadan gerombolbadanmenang badanmenangnasional menangnasionalbanyak nasionalbanyakgembul banyakgembulperut gembulperutkayak perutkayakgentong</t>
+  </si>
+  <si>
+    <t>kalau jadi nice guy masalah ada yang bapak rasa tidak hormat luar indonesia kalaujadi jadinice niceguy guymasalah masalahada adayang yangbapak bapakrasa rasatidak tidakhormat hormatluar luarindonesia kalaujadinice jadiniceguy niceguymasalah guymasalahada masalahadayang adayangbapak yangbapakrasa bapakrasatidak rasatidakhormat tidakhormatluar hormatluarindonesia</t>
+  </si>
+  <si>
+    <t>kalau anak anak antem si kurus udah mewek pojok yang gemuk tega kalauanak anakanak anakantem antemsi sikurus kurusudah udahmewek mewekpojok pojokyang yanggemuk gemuktega kalauanakanak anakanakantem anakantemsi antemsikurus sikurusudah kurusudahmewek udahmewekpojok mewekpojokyang pojokyanggemuk yanggemuktega</t>
+  </si>
+  <si>
+    <t>si manusia gadungan hibur diri junjung kalah sol sol simanusia manusiagadungan gadunganhibur hiburdiri dirijunjung junjungkalah kalahsol solsol simanusiagadungan manusiagadunganhibur gadunganhiburdiri hiburdirijunjung dirijunjungkalah junjungkalahsol kalahsolsol</t>
+  </si>
+  <si>
+    <t>komitmen nkri pancasila tak perlu ragu propaganda ubah sistem demokrasi sistem khilafah komitmennkri nkripancasila pancasilatak takperlu perluragu ragupropaganda propagandaubah ubahsistem sistemdemokrasi demokrasisistem sistemkhilafah komitmennkripancasila nkripancasilatak pancasilatakperlu takperluragu perluragupropaganda ragupropagandaubah propagandaubahsistem ubahsistemdemokrasi sistemdemokrasisistem demokrasisistemkhilafah</t>
+  </si>
+  <si>
+    <t>luar biasa demen kali sama pak dungu natural akhir keluar luarbiasa biasademen demenkali kalisama samapak pakdungu dungunatural naturalakhir akhirkeluar luarbiasademen biasademenkali demenkalisama kalisamapak samapakdungu pakdungunatural dungunaturalakhir naturalakhirkeluar</t>
+  </si>
+  <si>
+    <t>rasa posisi selalu posisi aman buat indonesia tak hormat asing rasaposisi posisiselalu selaluposisi posisiaman amanbuat buatindonesia indonesiatak takhormat hormatasing rasaposisiselalu posisiselaluposisi selaluposisiaman posisiamanbuat amanbuatindonesia buatindonesiatak indonesiatakhormat takhormatasing</t>
+  </si>
+  <si>
+    <t>pak saya hormat lebih baik kamu daftar jadi tni biar paham percaya berani paksaya sayahormat hormatlebih lebihbaik baikkamu kamudaftar daftarjadi jaditni tnibiar biarpaham pahampercaya percayaberani paksayahormat sayahormatlebih hormatlebihbaik lebihbaikkamu baikkamudaftar kamudaftarjadi daftarjaditni jaditnibiar tnibiarpaham biarpahampercaya pahampercayaberani</t>
+  </si>
+  <si>
+    <t>set up nya padahal kuat bat sayang punchline nya beri terlalu banyak rusa setup upnya nyapadahal padahalkuat kuatbat batsayang sayangpunchline punchlinenya nyaberi beriterlalu terlalubanyak banyakrusa setupnya upnyapadahal nyapadahalkuat padahalkuatbat kuatbatsayang batsayangpunchline sayangpunchlinenya punchlinenyaberi nyaberiterlalu beriterlalubanyak terlalubanyakrusa</t>
+  </si>
+  <si>
+    <t>mau ngecapruk apa bodoh sudah jadi kadang ucap nya sua nyata maungecapruk ngecaprukapa apabodoh bodohsudah sudahjadi jadikadang kadangucap ucapnya nyasua suanyata maungecaprukapa ngecaprukapabodoh apabodohsudah bodohsudahjadi sudahjadikadang jadikadangucap kadangucapnya ucapnyasua nyasuanyata</t>
+  </si>
+  <si>
+    <t>turut dalam tahan aman boleh anggap akan perang masa depan turutdalam dalamtahan tahanaman amanboleh bolehanggap anggapakan akanperang perangmasa masadepan turutdalamtahan dalamtahanaman tahanamanboleh amanbolehanggap bolehanggapakan anggapakanperang akanperangmasa perangmasadepan</t>
+  </si>
+  <si>
+    <t>wah salah nih mas kasih tahu litbang bela apa apa admin cer wahsalah salahnih nihmas maskasih kasihtahu tahulitbang litbangbela belaapa apaapa apaadmin admincer wahsalahnih salahnihmas nihmaskasih maskasihtahu kasihtahulitbang tahulitbangbela litbangbelaapa belaapaapa apaapaadmin apaadmincer</t>
+  </si>
+  <si>
+    <t>sumpah tahan pancasila titik darah akhir bohong kecewa bapak luka dikit jangan udah pakai sarung t sumpahtahan tahanpancasila pancasilatitik titikdarah darahakhir akhirbohong bohongkecewa kecewabapak bapakluka lukadikit dikitjangan janganudah udahpakai pakaisarung sarungt sumpahtahanpancasila tahanpancasilatitik pancasilatitikdarah titikdarahakhir darahakhirbohong akhirbohongkecewa bohongkecewabapak kecewabapakluka bapaklukadikit lukadikitjangan dikitjanganudah janganudahpakai udahpakaisarung pakaisarungt</t>
+  </si>
+  <si>
+    <t>latar belakang latarbelakang karya intel amerika defense intelligence agency karyaintel intelamerika amerikadefense defenseintelligence intelligenceagency karyaintelamerika intelamerikadefense amerikadefenseintelligence defenseintelligenceagency soal serang asing p soalserang serangasing asingp soalserangasing serangasingp</t>
+  </si>
+  <si>
+    <t>bapak info sesat petinggi tni woi om wowo lupa bukankah kamu lebih parah dibohongin sam bapakinfo infosesat sesatpetinggi petinggitni tniwoi woiom omwowo wowolupa lupabukankah bukankahkamu kamulebih lebihparah parahdibohongin dibohonginsam bapakinfosesat infosesatpetinggi sesatpetinggitni petinggitniwoi tniwoiom woiomwowo omwowolupa wowolupabukankah lupabukankahkamu bukankahkamulebih kamulebihparah lebihparahdibohongin parahdibohonginsam</t>
+  </si>
+  <si>
+    <t>malu kompas kamu salah kutip bilang gdp apbn ralat https t co parepqmlyn malukompas kompaskamu kamusalah salahkutip kutipbilang bilanggdp gdpapbn apbnralat ralathttps httpst tco coparepqmlyn malukompaskamu kompaskamusalah kamusalahkutip salahkutipbilang kutipbilanggdp bilanggdpapbn gdpapbnralat apbnralathttps ralathttpst httpstco tcoparepqmlyn</t>
+  </si>
+  <si>
+    <t>kena tuduh pro-khilafah milik argumen menep mentah olah bela khilafah tak masuk akal kenatuduh tuduhpro-khilafah pro-khilafahmilik milikargumen argumenmenep menepmentah mentaholah olahbela belakhilafah khilafahtak takmasuk masukakal kenatuduhpro-khilafah tuduhpro-khilafahmilik pro-khilafahmilikargumen milikargumenmenep argumenmenepmentah menepmentaholah mentaholahbela olahbelakhilafah belakhilafahtak khilafahtakmasuk takmasukakal</t>
+  </si>
+  <si>
+    <t>strategi upaya modernisasi alutsista tni material khusus polri tahan lemah kita punya alutsista canggih strategiupaya upayamodernisasi modernisasialutsista alutsistatni tnimaterial materialkhusus khususpolri polritahan tahanlemah lemahkita kitapunya punyaalutsista alutsistacanggih strategiupayamodernisasi upayamodernisasialutsista modernisasialutsistatni alutsistatnimaterial tnimaterialkhusus materialkhususpolri khususpolritahan polritahanlemah tahanlemahkita lemahkitapunya kitapunyaalutsista punyaalutsistacanggih</t>
+  </si>
+  <si>
+    <t>calon presiden nilai tak keluar narasi besar sendiri tak tampil istimewa nilai buruk calonpresiden presidennilai nilaitak takkeluar keluarnarasi narasibesar besarsendiri sendiritak taktampil tampilistimewa istimewanilai nilaiburuk calonpresidennilai presidennilaitak nilaitakkeluar takkeluarnarasi keluarnarasibesar narasibesarsendiri besarsendiritak sendiritaktampil taktampilistimewa tampilistimewanilai istimewanilaiburuk</t>
+  </si>
+  <si>
+    <t>beda kelas bapak true warrior ksatria sejati perlu malu orang sudah malu bedakelas kelasbapak bapaktrue truewarrior warriorksatria ksatriasejati sejatiperlu perlumalu maluorang orangsudah sudahmalu bedakelasbapak kelasbapaktrue bapaktruewarrior truewarriorksatria warriorksatriasejati ksatriasejatiperlu sejatiperlumalu perlumaluorang maluorangsudah orangsudahmalu</t>
+  </si>
+  <si>
+    <t>mau kalah sama gurita dukun piala dunia kucing milih fokus nonton tanda optimisindonesiamaju maukalah kalahsama samagurita guritadukun dukunpiala pialadunia duniakucing kucingmilih milihfokus fokusnonton nontontanda tandaoptimisindonesiamaju maukalahsama kalahsamagurita samaguritadukun guritadukunpiala dukunpialadunia pialaduniakucing duniakucingmilih kucingmilihfokus milihfokusnonton fokusnontontanda nontontandaoptimisindonesiamaju</t>
+  </si>
+  <si>
+    <t>selalu ulang soal kaya ambil asing masa mertua kali sekarang rok mahakam freeport udah jadi milik indonesia selaluulang ulangsoal soalkaya kayaambil ambilasing asingmasa masamertua mertuakali kalisekarang sekarangrok rokmahakam mahakamfreeport freeportudah udahjadi jadimilik milikindonesia selaluulangsoal ulangsoalkaya soalkayaambil kayaambilasing ambilasingmasa asingmasamertua masamertuakali mertuakalisekarang kalisekarangrok sekarangrokmahakam rokmahakamfreeport mahakamfreeportudah freeportudahjadi udahjadimilik jadimilikindonesia</t>
+  </si>
+  <si>
+    <t>lawan lihat dunia luar jahat pretensi kuasa padahal hidup era kolaborasi kira mindset keliru lawanlihat lihatdunia dunialuar luarjahat jahatpretensi pretensikuasa kuasapadahal padahalhidup hidupera erakolaborasi kolaborasikira kiramindset mindsetkeliru lawanlihatdunia lihatdunialuar dunialuarjahat luarjahatpretensi jahatpretensikuasa pretensikuasapadahal kuasapadahalhidup padahalhidupera hiduperakolaborasi erakolaborasikira kolaborasikiramindset kiramindsetkeliru</t>
+  </si>
+  <si>
+    <t>awal gila antek antek dukung mulai pilpres mana hasil oleh suara sangat sedikit awalgila gilaantek antekantek antekdukung dukungmulai mulaipilpres pilpresmana manahasil hasiloleh olehsuara suarasangat sangatsedikit awalgilaantek gilaantekantek antekantekdukung antekdukungmulai dukungmulaipilpres mulaipilpresmana pilpresmanahasil manahasiloleh hasilolehsuara olehsuarasangat suarasangatsedikit</t>
+  </si>
+  <si>
+    <t>kata anggar tahan indonesia di angka 0 8 persen gdp pun banding singapura kataanggar anggartahan tahanindonesia indonesiadi diangka angka0 08 8persen persengdp gdppun punbanding bandingsingapura kataanggartahan anggartahanindonesia tahanindonesiadi indonesiadiangka diangka0 angka08 08persen 8persengdp persengdppun gdppunbanding punbandingsingapura</t>
+  </si>
+  <si>
+    <t>bicara entry gerbang safety strategic point jokowi jawab investasi asing nyambung prabowobentengnkri bicaraentry entrygerbang gerbangsafety safetystrategic strategicpoint pointjokowi jokowijawab jawabinvestasi investasiasing asingnyambung nyambungprabowobentengnkri bicaraentrygerbang entrygerbangsafety gerbangsafetystrategic safetystrategicpoint strategicpointjokowi pointjokowijawab jokowijawabinvestasi jawabinvestasiasing investasiasingnyambung asingnyambungprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>sandi mas anis sini traktir jadi gubernur tak lama sandi izin mas mau nraktir pak sandimas masanis anissini sinitraktir traktirjadi jadigubernur gubernurtak taklama lamasandi sandiizin izinmas masmau maunraktir nraktirpak sandimasanis masanissini anissinitraktir sinitraktirjadi traktirjadigubernur jadigubernurtak gubernurtaklama taklamasandi lamasandiizin sandiizinmas izinmasmau masmaunraktir maunraktirpak</t>
+  </si>
+  <si>
+    <t>acu adalah mertua bukti keluarga mertua di baris acuadalah adalahmertua mertuabukti buktikeluarga keluargamertua mertuadi dibaris acuadalahmertua adalahmertuabukti mertuabuktikeluarga buktikeluargamertua keluargamertuadi mertuadibaris</t>
+  </si>
+  <si>
+    <t>dear pak taun bapak jabat akan awas kritisi omel bapak dearpak paktaun taunbapak bapakjabat jabatakan akanawas awaskritisi kritisiomel omelbapak dearpaktaun paktaunbapak taunbapakjabat bapakjabatakan jabatakanawas akanawaskritisi awaskritisiomel kritisiomelbapak</t>
+  </si>
+  <si>
+    <t>pada nyemplung kolam malu lihat bos bom bardir padanyemplung nyemplungkolam kolammalu malulihat lihatbos bosbom bombardir padanyemplungkolam nyemplungkolammalu kolammalulihat malulihatbos lihatbosbom bosbombardir</t>
+  </si>
+  <si>
+    <t>sepakat sama om trik basi minggu kelar jadi mau periode jual dil laku sepakatsama samaom omtrik trikbasi basiminggu minggukelar kelarjadi jadimau mauperiode periodejual jualdil dillaku sepakatsamaom samaomtrik omtrikbasi trikbasiminggu basiminggukelar minggukelarjadi kelarjadimau jadimauperiode mauperiodejual periodejualdil jualdillaku</t>
+  </si>
+  <si>
+    <t>rizal ramli pak mau revisi hehe kubu jokowi ada tanggpan rr sebut hehe seram undang sebut dipake disalahgunakan rizalramli ramlipak pakmau maurevisi revisihehe hehekubu kubujokowi jokowiada adatanggpan tanggpanrr rrsebut sebuthehe heheseram seramundang undangsebut sebutdipake dipakedisalahgunakan rizalramlipak ramlipakmau pakmaurevisi maurevisihehe revisihehekubu hehekubujokowi kubujokowiada jokowiadatanggpan adatanggpanrr tanggpanrrsebut rrsebuthehe sebutheheseram heheseramundang seramundangsebut undangsebutdipake sebutdipakedisalahgunakan</t>
+  </si>
+  <si>
+    <t>perintah mau keluar paris tuju kata mikirin masa depan indonesia mau keluar pakta sama perintahmau maukeluar keluarparis paristuju tujukata katamikirin mikirinmasa masadepan depanindonesia indonesiamau maukeluar keluarpakta paktasama perintahmaukeluar maukeluarparis keluarparistuju paristujukata tujukatamikirin katamikirinmasa mikirinmasadepan masadepanindonesia depanindonesiamau indonesiamaukeluar maukeluarpakta keluarpaktasama</t>
+  </si>
+  <si>
+    <t>adalah agum gumelar dengan lantang wajah bicara jelek hadap sby nyata hadap taipan manis adalahagum agumgumelar gumelardengan denganlantang lantangwajah wajahbicara bicarajelek jelekhadap hadapsby sbynyata nyatahadap hadaptaipan taipanmanis adalahagumgumelar agumgumelardengan gumelardenganlantang denganlantangwajah lantangwajahbicara wajahbicarajelek bicarajelekhadap jelekhadapsby hadapsbynyata sbynyatahadap nyatahadaptaipan hadaptaipanmanis</t>
+  </si>
+  <si>
+    <t>kalau pak jadi presiden hidup mau ketawa jangan dimarahin https t co b7dymmekfs kalaupak pakjadi jadipresiden presidenhidup hidupmau mauketawa ketawajangan jangandimarahin dimarahinhttps httpst tco cob7dymmekfs kalaupakjadi pakjadipresiden jadipresidenhidup presidenhidupmau hidupmauketawa mauketawajangan ketawajangandimarahin jangandimarahinhttps dimarahinhttpst httpstco tcob7dymmekfs</t>
+  </si>
+  <si>
+    <t>deh makan dulu siap debat awas pulpen lupa dehmakan makandulu dulusiap siapdebat debatawas awaspulpen pulpenlupa dehmakandulu makandulusiap dulusiapdebat siapdebatawas debatawaspulpen awaspulpenlupa</t>
+  </si>
+  <si>
+    <t>kamu bukan tni kamu pecat sandang gelar purnawirawan kamu pantas kamubukan bukantni tnikamu kamupecat pecatsandang sandanggelar gelarpurnawirawan purnawirawankamu kamupantas kamubukantni bukantnikamu tnikamupecat kamupecatsandang pecatsandanggelar sandanggelarpurnawirawan gelarpurnawirawankamu purnawirawankamupantas</t>
+  </si>
+  <si>
+    <t>nyata pak debat empat ragu tni 01dilanjutkan jokowilagi nyatapak pakdebat debatempat empatragu ragutni tni01dilanjutkan 01dilanjutkanjokowilagi nyatapakdebat pakdebatempat debatempatragu empatragutni ragutni01dilanjutkan tni01dilanjutkanjokowilagi</t>
+  </si>
+  <si>
+    <t>makanya kamu mikir belum tuntas belum prioritas jangan sebut kebo makanyakamu kamumikir mikirbelum belumtuntas tuntasbelum belumprioritas prioritasjangan jangansebut sebutkebo makanyakamumikir kamumikirbelum mikirbelumtuntas belumtuntasbelum tuntasbelumprioritas belumprioritasjangan prioritasjangansebut jangansebutkebo</t>
+  </si>
+  <si>
+    <t>juga tuduh pki jawab hahaha hari saya saya lawan saya akan lawan jugatuduh tuduhpki pkijawab jawabhahaha hahahahari harisaya sayasaya sayalawan lawansaya sayaakan akanlawan jugatuduhpki tuduhpkijawab pkijawabhahaha jawabhahahahari hahahaharisaya harisayasaya sayasayalawan sayalawansaya lawansayaakan sayaakanlawan</t>
+  </si>
+  <si>
+    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing tidakpaham pahamekonomi ekonomiinvestasi investasiasing asinglingkup lingkupbisnis bisnisdi-framing di-framingolah olahnegara negaraasai asaiasing tidakpahamekonomi pahamekonomiinvestasi ekonomiinvestasiasing investasiasinglingkup asinglingkupbisnis lingkupbisnisdi-framing bisnisdi-framingolah di-framingolahnegara olahnegaraasai negaraasaiasing</t>
+  </si>
+  <si>
+    <t>nya punya ambisi wowo ambisi jangka pendek harta nyapunya punyaambisi ambisiwowo wowoambisi ambisijangka jangkapendek pendekharta nyapunyaambisi punyaambisiwowo ambisiwowoambisi wowoambisijangka ambisijangkapendek jangkapendekharta</t>
+  </si>
+  <si>
+    <t>political will cermin praktik berantas korupsi kata politicalwill willcermin cerminpraktik praktikberantas berantaskorupsi korupsikata politicalwillcermin willcerminpraktik cerminpraktikberantas praktikberantaskorupsi berantaskorupsikata</t>
+  </si>
+  <si>
+    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni salut paktrauma traumapecat pecattni tnibegini beginingomongnya ngomongnyajustru justrupak paksipil sipilpercaya percayasama samatni tnisalut paktraumapecat traumapecattni pecattnibegini tnibeginingomongnya beginingomongnyajustru ngomongnyajustrupak justrupaksipil paksipilpercaya sipilpercayasama percayasamatni samatnisalut</t>
+  </si>
+  <si>
+    <t>presiden bisa tidak bicara detail alutsista indonesia itu yang sensitif tahan indonesia presidenbisa bisatidak tidakbicara bicaradetail detailalutsista alutsistaindonesia indonesiaitu ituyang yangsensitif sensitiftahan tahanindonesia presidenbisatidak bisatidakbicara tidakbicaradetail bicaradetailalutsista detailalutsistaindonesia alutsistaindonesiaitu indonesiaituyang ituyangsensitif yangsensitiftahan sensitiftahanindonesia</t>
+  </si>
+  <si>
+    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi kalaumandat mandatakan akanbersih bersihkuat kuatlembaga lembagaperintah perintahakan akanhilang hilangkorupsi kalaumandatakan mandatakanbersih akanbersihkuat bersihkuatlembaga kuatlembagaperintah lembagaperintahakan perintahakanhilang akanhilangkorupsi</t>
+  </si>
+  <si>
+    <t>hahaha yang bakar jenggot sama imbau pakai baju putih tps jangan ngambek gitu dong hahahayang yangbakar bakarjenggot jenggotsama samaimbau imbaupakai pakaibaju bajuputih putihtps tpsjangan janganngambek ngambekgitu gitudong hahahayangbakar yangbakarjenggot bakarjenggotsama jenggotsamaimbau samaimbaupakai imbaupakaibaju pakaibajuputih bajuputihtps putihtpsjangan tpsjanganngambek janganngambekgitu ngambekgitudong</t>
+  </si>
+  <si>
+    <t>gubernur pahe m tanya kamu lulus mana tidak tanya prestasi apa saya tanya kamu punya uang tidak gubernurpahe pahem mtanya tanyakamu kamululus lulusmana manatidak tidaktanya tanyaprestasi prestasiapa apasaya sayatanya tanyakamu kamupunya punyauang uangtidak gubernurpahem pahemtanya mtanyakamu tanyakamululus kamululusmana lulusmanatidak manatidaktanya tidaktanyaprestasi tanyaprestasiapa prestasiapasaya apasayatanya sayatanyakamu tanyakamupunya kamupunyauang punyauangtidak</t>
+  </si>
+  <si>
+    <t>bagaimana tonton tertawa kalau kali kata militer indonesia sangat lemah padahal kuat militer indonesia masuk kuat dunia bagaimanatonton tontontertawa tertawakalau kalaukali kalikata katamiliter militerindonesia indonesiasangat sangatlemah lemahpadahal padahalkuat kuatmiliter militerindonesia indonesiamasuk masukkuat kuatdunia bagaimanatontontertawa tontontertawakalau tertawakalaukali kalaukalikata kalikatamiliter katamiliterindonesia militerindonesiasangat indonesiasangatlemah sangatlemahpadahal lemahpadahalkuat padahalkuatmiliter kuatmiliterindonesia militerindonesiamasuk indonesiamasukkuat masukkuatdunia</t>
+  </si>
+  <si>
+    <t>banyak catat jadi kalau kalah mana letak kalah juga balik banyakcatat catatjadi jadikalau kalaukalah kalahmana manaletak letakkalah kalahjuga jugabalik banyakcatatjadi catatjadikalau jadikalaukalah kalaukalahmana kalahmanaletak manaletakkalah letakkalahjuga kalahjugabalik</t>
+  </si>
+  <si>
+    <t>bukan percaya mampu tni harus tni siap the worst scenario lindung indonesia prabowo bukanpercaya percayamampu mamputni tniharus harustni tnisiap siapthe theworst worstscenario scenariolindung lindungindonesia indonesiaprabowo bukanpercayamampu percayamamputni mamputniharus tniharustni harustnisiap tnisiapthe siaptheworst theworstscenario worstscenariolindung scenariolindungindonesia lindungindonesiaprabowo</t>
+  </si>
+  <si>
+    <t>tidak mau mati jabat bpk dulu pernah kurus dia tidakmau maumati matijabat jabatbpk bpkdulu dulupernah pernahkurus kurusdia tidakmaumati maumatijabat matijabatbpk jabatbpkdulu bpkdulupernah dulupernahkurus pernahkurusdia</t>
+  </si>
+  <si>
+    <t>turut tahan lemah implikasi uang indonesia lemah turuttahan tahanlemah lemahimplikasi implikasiuang uangindonesia indonesialemah turuttahanlemah tahanlemahimplikasi lemahimplikasiuang implikasiuangindonesia uangindonesialemah</t>
+  </si>
+  <si>
+    <t>baru era daulat laut nasional tega kapal kapal asing kini takut curi ikan teritori nasional baruera eradaulat daulatlaut lautnasional nasionaltega tegakapal kapalkapal kapalasing asingkini kinitakut takutcuri curiikan ikanteritori teritorinasional barueradaulat eradaulatlaut daulatlautnasional lautnasionaltega nasionaltegakapal tegakapalkapal kapalkapalasing kapalasingkini asingkinitakut kinitakutcuri takutcuriikan curiikanteritori ikanteritorinasional</t>
+  </si>
+  <si>
+    <t>kalau bahasa simpel jin numpang sama genderuwo kalaubahasa bahasasimpel simpeljin jinnumpang numpangsama samagenderuwo kalaubahasasimpel bahasasimpeljin simpeljinnumpang jinnumpangsama numpangsamagenderuwo</t>
+  </si>
+  <si>
+    <t>ahmad tangkap polisi ujar benci ada hubung pilpres sama bahar bin smith tangkap polisi ahmadtangkap tangkappolisi polisiujar ujarbenci benciada adahubung hubungpilpres pilpressama samabahar baharbin binsmith smithtangkap tangkappolisi ahmadtangkappolisi tangkappolisiujar polisiujarbenci ujarbenciada benciadahubung adahubungpilpres hubungpilpressama pilpressamabahar samabaharbin baharbinsmith binsmithtangkap smithtangkappolisi</t>
+  </si>
+  <si>
+    <t>makan tuh radar prabowobentengnkri 01caprespendustaabadi makantuh tuhradar radarprabowobentengnkri prabowobentengnkri01caprespendustaabadi makantuhradar tuhradarprabowobentengnkri radarprabowobentengnkri01caprespendustaabadi</t>
+  </si>
+  <si>
+    <t>kesi tuh si engkong g mau pilih kong prabowobentengnkri prabowobentengnkri kesituh tuhsi siengkong engkongg gmau maupilih pilihkong kongprabowobentengnkri prabowobentengnkriprabowobentengnkri kesituhsi tuhsiengkong siengkongg engkonggmau gmaupilih maupilihkong pilihkongprabowobentengnkri kongprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>soal tahan benar beri briefing pak kalau presiden pecat soaltahan tahanbenar benarberi beribriefing briefingpak pakkalau kalaupresiden presidenpecat soaltahanbenar tahanbenarberi benarberibriefing beribriefingpak briefingpakkalau pakkalaupresiden kalaupresidenpecat</t>
+  </si>
+  <si>
+    <t>pak upaya masyarakat sulit tarik pungli urus segala pakupaya upayamasyarakat masyarakatsulit sulittarik tarikpungli pungliurus urussegala pakupayamasyarakat upayamasyarakatsulit masyarakatsulittarik sulittarikpungli tarikpungliurus pungliurussegala</t>
+  </si>
+  <si>
+    <t>salah kali zo justru pak laksana clean government jadi pada gerah panas dapat uang salahkali kalizo zojustru justrupak paklaksana laksanaclean cleangovernment governmentjadi jadipada padagerah gerahpanas panasdapat dapatuang salahkalizo kalizojustru zojustrupak justrupaklaksana paklaksanaclean laksanacleangovernment cleangovernmentjadi governmentjadipada jadipadagerah padagerahpanas gerahpanasdapat panasdapatuang</t>
+  </si>
+  <si>
+    <t>bogor tadi siang lihat massa riil wiwis perlu banyak banyak omong lihat prab bogortadi tadisiang sianglihat lihatmassa massariil riilwiwis wiwisperlu perlubanyak banyakbanyak banyakomong omonglihat lihatprab bogortadisiang tadisianglihat sianglihatmassa lihatmassariil massariilwiwis riilwiwisperlu wiwisperlubanyak perlubanyakbanyak banyakbanyakomong banyakomonglihat omonglihatprab</t>
+  </si>
+  <si>
+    <t>berangkat kerja naik taksi kepala pusing bawa motor jaman susah korupsi padahal banyak harus setor berangkatkerja kerjanaik naiktaksi taksikepala kepalapusing pusingbawa bawamotor motorjaman jamansusah susahkorupsi korupsipadahal padahalbanyak banyakharus harussetor berangkatkerjanaik kerjanaiktaksi naiktaksikepala taksikepalapusing kepalapusingbawa pusingbawamotor bawamotorjaman motorjamansusah jamansusahkorupsi susahkorupsipadahal korupsipadahalbanyak padahalbanyakharus banyakharussetor</t>
+  </si>
+  <si>
+    <t>panjang debat lihat goyah argumen kokoh tak yakin panjangdebat debatlihat lihatgoyah goyahargumen argumenkokoh kokohtak takyakin panjangdebatlihat debatlihatgoyah lihatgoyahargumen goyahargumenkokoh argumenkokohtak kokohtakyakin</t>
+  </si>
+  <si>
+    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019 republik turutpercuma percumapunya punyabanyak banyakkartu kartulihat lihatmodern moderndebatpilpres debatpilpres2019 2019pilpres pilpres2019 2019pemilu pemilu2019 2019republik turutpercumapunya percumapunyabanyak punyabanyakkartu banyakkartulihat kartulihatmodern lihatmoderndebatpilpres moderndebatpilpres2019 debatpilpres2019pilpres 2019pilpres2019 pilpres2019pemilu 2019pemilu2019 pemilu2019republik</t>
+  </si>
+  <si>
+    <t>sakit masa konflik timur rupa konflik negeri bilang perang sakitmasa masakonflik konfliktimur timurrupa rupakonflik konfliknegeri negeribilang bilangperang sakitmasakonflik masakonfliktimur konfliktimurrupa timurrupakonflik rupakonfliknegeri konfliknegeribilang negeribilangperang</t>
+  </si>
+  <si>
+    <t>calon presiden nomor urut khawatir kalau semua labuh bandara operate usaha asing calonpresiden presidennomor nomorurut urutkhawatir khawatirkalau kalausemua semualabuh labuhbandara bandaraoperate operateusaha usahaasing calonpresidennomor presidennomorurut nomorurutkhawatir urutkhawatirkalau khawatirkalausemua kalausemualabuh semualabuhbandara labuhbandaraoperate bandaraoperateusaha operateusahaasing</t>
+  </si>
+  <si>
+    <t>mantap keren moga ikut seluruh pelosok nusantara mantapkeren kerenmoga mogaikut ikutseluruh seluruhpelosok pelosoknusantara mantapkerenmoga kerenmogaikut mogaikutseluruh ikutseluruhpelosok seluruhpelosoknusantara</t>
+  </si>
+  <si>
+    <t>pns pilih sulit laku pungli anggar potong ketat anggar pnspilih pilihsulit sulitlaku lakupungli punglianggar anggarpotong potongketat ketatanggar pnspilihsulit pilihsulitlaku sulitlakupungli lakupunglianggar punglianggarpotong anggarpotongketat potongketatanggar</t>
+  </si>
+  <si>
+    <t>pilih sandi saya ingin bpjs puruk terus tidak optimal beri solusi awat sehat pilihsandi sandisaya sayaingin inginbpjs bpjspuruk purukterus terustidak tidakoptimal optimalberi berisolusi solusiawat awatsehat pilihsandisaya sandisayaingin sayainginbpjs inginbpjspuruk bpjspurukterus purukterustidak terustidakoptimal tidakoptimalberi optimalberisolusi berisolusiawat solusiawatsehat</t>
+  </si>
+  <si>
+    <t>salah besar sih pilih pak lembaga perintah bebas korupsi jual beli jabat salahbesar besarsih sihpilih pilihpak paklembaga lembagaperintah perintahbebas bebaskorupsi korupsijual jualbeli belijabat salahbesarsih besarsihpilih sihpilihpak pilihpaklembaga paklembagaperintah lembagaperintahbebas perintahbebaskorupsi bebaskorupsijual korupsijualbeli jualbelijabat</t>
+  </si>
+  <si>
+    <t>milik banyak prestasi ada prestasi milik salah satu cabut subsidi bbm milikbanyak banyakprestasi prestasiada adaprestasi prestasimilik miliksalah salahsatu satucabut cabutsubsidi subsidibbm milikbanyakprestasi banyakprestasiada prestasiadaprestasi adaprestasimilik prestasimiliksalah miliksalahsatu salahsatucabut satucabutsubsidi cabutsubsidibbm</t>
+  </si>
+  <si>
+    <t>bagaimana mau pulang habib rizieq kalau tidak menang jadi presiden kata subianto bagaimanamau maupulang pulanghabib habibrizieq rizieqkalau kalautidak tidakmenang menangjadi jadipresiden presidenkata katasubianto bagaimanamaupulang maupulanghabib pulanghabibrizieq habibrizieqkalau rizieqkalautidak kalautidakmenang tidakmenangjadi menangjadipresiden jadipresidenkata presidenkatasubianto</t>
+  </si>
+  <si>
+    <t>kalau pasu asing masuk tentara tindak adi napitupulu dukung calon presiden kalaupasu pasuasing asingmasuk masuktentara tentaratindak tindakadi adinapitupulu napitupuludukung dukungcalon calonpresiden kalaupasuasing pasuasingmasuk asingmasuktentara masuktentaratindak tentaratindakadi tindakadinapitupulu adinapitupuludukung napitupuludukungcalon dukungcalonpresiden</t>
+  </si>
+  <si>
+    <t>justru makna bersit nada kalah rasa kalah justrumakna maknabersit bersitnada nadakalah kalahrasa rasakalah justrumaknabersit maknabersitnada bersitnadakalah nadakalahrasa kalahrasakalah</t>
+  </si>
+  <si>
+    <t>rubah watak susah susah jadi presiden https t co esw 5qi9add rubahwatak wataksusah susahsusah susahjadi jadipresiden presidenhttps httpst tco coesw esw5qi9add rubahwataksusah wataksusahsusah susahsusahjadi susahjadipresiden jadipresidenhttps presidenhttpst httpstco tcoesw coesw5qi9add</t>
+  </si>
+  <si>
+    <t>banyak bandara asai asing buat khawatir serang luar https t co xj1ofes136 banyakbandara bandaraasai asaiasing asingbuat buatkhawatir khawatirserang serangluar luarhttps httpst tco coxj1ofes136 banyakbandaraasai bandaraasaiasing asaiasingbuat asingbuatkhawatir buatkhawatirserang khawatirserangluar serangluarhttps luarhttpst httpstco tcoxj1ofes136</t>
+  </si>
+  <si>
+    <t>bahas pancasila udah final organisasi transnasional ideologi radikal pernah singgung bahaspancasila pancasilaudah udahfinal finalorganisasi organisasitransnasional transnasionalideologi ideologiradikal radikalpernah pernahsinggung bahaspancasilaudah pancasilaudahfinal udahfinalorganisasi finalorganisasitransnasional organisasitransnasionalideologi transnasionalideologiradikal ideologiradikalpernah radikalpernahsinggung</t>
+  </si>
+  <si>
+    <t>aduh salah data oy bong pinter dikit prabowobentengnkri aduhsalah salahdata dataoy oybong bongpinter pinterdikit dikitprabowobentengnkri aduhsalahdata salahdataoy dataoybong oybongpinter bongpinterdikit pinterdikitprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>mau begini acung jari telunjuk tak enak tim jokowi-maruf benci tauhid kan mereka benci tauhid maubegini beginiacung acungjari jaritelunjuk telunjuktak takenak enaktim timjokowi-maruf jokowi-marufbenci bencitauhid tauhidkan kanmereka merekabenci bencitauhid maubeginiacung beginiacungjari acungjaritelunjuk jaritelunjuktak telunjuktakenak takenaktim enaktimjokowi-maruf timjokowi-marufbenci jokowi-marufbencitauhid bencitauhidkan tauhidkanmereka kanmerekabenci merekabencitauhid</t>
+  </si>
+  <si>
+    <t>tadi ngomongin perang perang perang memang rencana pak wo mau bawa indonesia perang tadingomongin ngomonginperang perangperang perangperang perangmemang memangrencana rencanapak pakwo womau maubawa bawaindonesia indonesiaperang tadingomonginperang ngomonginperangperang perangperangperang perangperangmemang perangmemangrencana memangrencanapak rencanapakwo pakwomau womaubawa maubawaindonesia bawaindonesiaperang</t>
+  </si>
+  <si>
+    <t>pak sama pak sama emosional emosi pikir selamat nkri paksama samapak paksama samaemosional emosionalemosi emosipikir pikirselamat selamatnkri paksamapak samapaksama paksamaemosional samaemosionalemosi emosionalemosipikir emosipikirselamat pikirselamatnkri</t>
+  </si>
+  <si>
+    <t>narasi utama pakai debat kali adalah narasi asing narasi anti asing memang erat topik debat narasiutama utamapakai pakaidebat debatkali kaliadalah adalahnarasi narasiasing asingnarasi narasianti antiasing asingmemang memangerat erattopik topikdebat narasiutamapakai utamapakaidebat pakaidebatkali debatkaliadalah kaliadalahnarasi adalahnarasiasing narasiasingnarasi asingnarasianti narasiantiasing antiasingmemang asingmemangerat memangerattopik erattopikdebat</t>
+  </si>
+  <si>
+    <t>lama kita suguh fitnah keji hadap presiden nyata justru konon turun khianat lamakita kitasuguh suguhfitnah fitnahkeji kejihadap hadappresiden presidennyata nyatajustru justrukonon kononturun turunkhianat lamakitasuguh kitasuguhfitnah suguhfitnahkeji fitnahkejihadap kejihadappresiden hadappresidennyata presidennyatajustru nyatajustrukonon justrukononturun kononturunkhianat</t>
+  </si>
+  <si>
+    <t>pak emosi kalau bicara daulat aman nkri balik rakyat lindung pakemosi emosikalau kalaubicara bicaradaulat daulataman amannkri nkribalik balikrakyat rakyatlindung pakemosikalau emosikalaubicara kalaubicaradaulat bicaradaulataman daulatamannkri amannkribalik nkribalikrakyat balikrakyatlindung</t>
+  </si>
+  <si>
+    <t>orang masa lalu sukses masa lalu gagal sesuai ubah hari memang tolak pak orangmasa masalalu lalusukses suksesmasa masalalu lalugagal gagalsesuai sesuaiubah ubahhari harimemang memangtolak tolakpak orangmasalalu masalalusukses lalusuksesmasa suksesmasalalu masalalugagal lalugagalsesuai gagalsesuaiubah sesuaiubahhari ubahharimemang harimemangtolak memangtolakpak</t>
+  </si>
+  <si>
+    <t>pak kayak kakak lagi ngospek jangan buat ketawa terus marah kalau orang ketawa pakkayak kayakkakak kakaklagi lagingospek ngospekjangan janganbuat buatketawa ketawaterus terusmarah marahkalau kalauorang orangketawa pakkayakkakak kayakkakaklagi kakaklagingospek lagingospekjangan ngospekjanganbuat janganbuatketawa buatketawaterus ketawaterusmarah terusmarahkalau marahkalauorang kalauorangketawa</t>
+  </si>
+  <si>
+    <t>terlalu asik bayang bebas ketawa larang culik hal jika jadi presiden terlaluasik asikbayang bayangbebas bebasketawa ketawalarang larangculik culikhal haljika jikajadi jadipresiden terlaluasikbayang asikbayangbebas bayangbebasketawa bebasketawalarang ketawalarangculik larangculikhal culikhaljika haljikajadi jikajadipresiden</t>
+  </si>
+  <si>
+    <t>oke oce bangkrut gagal tingkat daya beli masyarakat okeoce ocebangkrut bangkrutgagal gagaltingkat tingkatdaya dayabeli belimasyarakat okeocebangkrut ocebangkrutgagal bangkrutgagaltingkat gagaltingkatdaya tingkatdayabeli dayabelimasyarakat</t>
+  </si>
+  <si>
+    <t>gagal paham cuma percaya bisik ngaco masa daulat kira kira prabowobentengnkri jok gagalpaham pahamcuma cumapercaya percayabisik bisikngaco ngacomasa masadaulat daulatkira kirakira kiraprabowobentengnkri prabowobentengnkrijok gagalpahamcuma pahamcumapercaya cumapercayabisik percayabisikngaco bisikngacomasa ngacomasadaulat masadaulatkira daulatkirakira kirakiraprabowobentengnkri kiraprabowobentengnkrijok</t>
+  </si>
+  <si>
+    <t>kesi banget kamu sahal pilpres kamu jual ancam takut melulu khilafah lah culik lah kesibanget bangetkamu kamusahal sahalpilpres pilpreskamu kamujual jualancam ancamtakut takutmelulu melulukhilafah khilafahlah lahculik culiklah kesibangetkamu bangetkamusahal kamusahalpilpres sahalpilpreskamu pilpreskamujual kamujualancam jualancamtakut ancamtakutmelulu takutmelulukhilafah melulukhilafahlah khilafahlahculik lahculiklah</t>
+  </si>
+  <si>
+    <t>yang lemes nih kaya data salah ban semua pak prabowobentengnkri https t co 1yqfosvy7a yanglemes lemesnih nihkaya kayadata datasalah salahban bansemua semuapak pakprabowobentengnkri prabowobentengnkrihttps httpst tco co1yqfosvy7a yanglemesnih lemesnihkaya nihkayadata kayadatasalah datasalahban salahbansemua bansemuapak semuapakprabowobentengnkri pakprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tco1yqfosvy7a</t>
+  </si>
+  <si>
+    <t>mau kalah disalahin khilafah hti bukankah hti bunuh maukalah kalahdisalahin disalahinkhilafah khilafahhti htibukankah bukankahhti htibunuh maukalahdisalahin kalahdisalahinkhilafah disalahinkhilafahhti khilafahhtibukankah htibukankahhti bukankahhtibunuh</t>
+  </si>
+  <si>
+    <t>pikir pak tau masalah myanmar pikirpak paktau taumasalah masalahmyanmar pikirpaktau paktaumasalah taumasalahmyanmar</t>
+  </si>
+  <si>
+    <t>tertawa pancing pidato closingnya beranta tertawapancing pancingpidato pidatoclosingnya closingnyaberanta tertawapancingpidato pancingpidatoclosingnya pidatoclosingnyaberanta</t>
+  </si>
+  <si>
+    <t>bukan tidak percaya ini tni pak taruh nyawa tni lebih tni tni bukantidak tidakpercaya percayaini initni tnipak paktaruh taruhnyawa nyawatni tnilebih lebihtni tnitni bukantidakpercaya tidakpercayaini percayainitni initnipak tnipaktaruh paktaruhnyawa taruhnyawatni nyawatnilebih tnilebihtni lebihtnitni</t>
+  </si>
+  <si>
+    <t>gemetar apes malam kata di bentak jenderal prabowobentengnkri gemetarapes apesmalam malamkata katadi dibentak bentakjenderal jenderalprabowobentengnkri gemetarapesmalam apesmalamkata malamkatadi katadibentak dibentakjenderal bentakjenderalprabowobentengnkri</t>
   </si>
   <si>
     <t>positive</t>
